--- a/核桃仁表型信息.xlsx
+++ b/核桃仁表型信息.xlsx
@@ -1,177 +1,224 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>area_num</t>
+  </si>
+  <si>
+    <t>perimeter</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a/b</t>
+  </si>
+  <si>
+    <t>area_num/perimeter</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="20">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -472,153 +519,153 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -672,74 +719,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1026,339 +1010,4861 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col width="10.875" customWidth="1" min="1" max="1"/>
-    <col width="11.625" customWidth="1" min="2" max="2"/>
-    <col width="12.625" customWidth="1" min="3" max="5"/>
-    <col width="24.875" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="8" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>area_num</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>perimeter</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>a/b</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>area_num/perimeter</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>8913</v>
-      </c>
-      <c r="B2" t="n">
-        <v>370.633962540936</v>
-      </c>
-      <c r="C2" t="n">
-        <v>65.6406098175049</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.9361663818359</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.26387090904849</v>
-      </c>
-      <c r="F2" t="n">
-        <v>24.0479850764231</v>
-      </c>
-      <c r="G2" t="n">
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>8170</v>
+      </c>
+      <c r="B2">
+        <v>337.835628088127</v>
+      </c>
+      <c r="C2">
+        <v>62.7691674804688</v>
+      </c>
+      <c r="D2">
+        <v>43.9344816589356</v>
+      </c>
+      <c r="E2">
+        <v>1.42869939761091</v>
+      </c>
+      <c r="F2">
+        <v>24.1833581799395</v>
+      </c>
+      <c r="G2">
+        <v>2.44</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>10430</v>
+      </c>
+      <c r="B3">
+        <v>371.085543357308</v>
+      </c>
+      <c r="C3">
+        <v>66.4435873413086</v>
+      </c>
+      <c r="D3">
+        <v>51.1809802246094</v>
+      </c>
+      <c r="E3">
+        <v>1.29820857376546</v>
+      </c>
+      <c r="F3">
+        <v>28.1067268361819</v>
+      </c>
+      <c r="G3">
+        <v>3.21</v>
+      </c>
+      <c r="H3">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>11549</v>
+      </c>
+      <c r="B4">
+        <v>393.994568842733</v>
+      </c>
+      <c r="C4">
+        <v>72.6488635253906</v>
+      </c>
+      <c r="D4">
+        <v>51.8976350402832</v>
+      </c>
+      <c r="E4">
+        <v>1.39984921218472</v>
+      </c>
+      <c r="F4">
+        <v>29.3125868052509</v>
+      </c>
+      <c r="G4">
+        <v>3.9</v>
+      </c>
+      <c r="H4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>8614</v>
+      </c>
+      <c r="B5">
+        <v>334.937299982365</v>
+      </c>
+      <c r="C5">
+        <v>60.4000509643555</v>
+      </c>
+      <c r="D5">
+        <v>45.7043438720703</v>
+      </c>
+      <c r="E5">
+        <v>1.32153852013322</v>
+      </c>
+      <c r="F5">
+        <v>25.7182463716449</v>
+      </c>
+      <c r="G5">
         <v>2.61</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>7835</v>
-      </c>
-      <c r="B3" t="n">
-        <v>352.882625760703</v>
-      </c>
-      <c r="C3" t="n">
-        <v>63.3475720214844</v>
-      </c>
-      <c r="D3" t="n">
-        <v>48.4840315818787</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.30656568677678</v>
-      </c>
-      <c r="F3" t="n">
-        <v>22.202849979112</v>
-      </c>
-      <c r="G3" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>10287</v>
-      </c>
-      <c r="B4" t="n">
-        <v>399.562931915426</v>
-      </c>
-      <c r="C4" t="n">
-        <v>73.2647031021118</v>
-      </c>
-      <c r="D4" t="n">
-        <v>53.1157574501038</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.37934026773384</v>
-      </c>
-      <c r="F4" t="n">
-        <v>25.7456314845978</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>9368</v>
-      </c>
-      <c r="B5" t="n">
-        <v>378.6754532462264</v>
-      </c>
-      <c r="C5" t="n">
-        <v>69.79862613677979</v>
-      </c>
-      <c r="D5" t="n">
-        <v>49.91000037765503</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.398489793801504</v>
-      </c>
-      <c r="F5" t="n">
-        <v>24.73886257926689</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>9060</v>
+      </c>
+      <c r="B6">
+        <v>349.852042503606</v>
+      </c>
+      <c r="C6">
+        <v>64.2230429077148</v>
+      </c>
+      <c r="D6">
+        <v>46.4211039733887</v>
+      </c>
+      <c r="E6">
+        <v>1.38348805630584</v>
+      </c>
+      <c r="F6">
+        <v>25.8966617292412</v>
+      </c>
+      <c r="G6">
+        <v>2.83</v>
+      </c>
+      <c r="H6">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>7855</v>
+      </c>
+      <c r="B7">
+        <v>324.72043764231</v>
+      </c>
+      <c r="C7">
+        <v>59.4884808349609</v>
+      </c>
+      <c r="D7">
+        <v>43.2287730407715</v>
+      </c>
+      <c r="E7">
+        <v>1.3761316051893</v>
+      </c>
+      <c r="F7">
+        <v>24.1900388439749</v>
+      </c>
+      <c r="G7">
+        <v>2.14</v>
+      </c>
+      <c r="H7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>9003</v>
+      </c>
+      <c r="B8">
+        <v>345.558830358322</v>
+      </c>
+      <c r="C8">
+        <v>63.6193841552734</v>
+      </c>
+      <c r="D8">
+        <v>45.6339533996582</v>
+      </c>
+      <c r="E8">
+        <v>1.39412387960562</v>
+      </c>
+      <c r="F8">
+        <v>26.0534508426958</v>
+      </c>
+      <c r="G8">
+        <v>2.91</v>
+      </c>
+      <c r="H8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8989</v>
+      </c>
+      <c r="B9">
+        <v>351.10336314288</v>
+      </c>
+      <c r="C9">
+        <v>65.2834939575195</v>
+      </c>
+      <c r="D9">
+        <v>45.6010200500488</v>
+      </c>
+      <c r="E9">
+        <v>1.43162354451432</v>
+      </c>
+      <c r="F9">
+        <v>25.6021472410162</v>
+      </c>
+      <c r="G9">
+        <v>2.85</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9475</v>
+      </c>
+      <c r="B10">
+        <v>358.376561558938</v>
+      </c>
+      <c r="C10">
+        <v>66.5910223388672</v>
+      </c>
+      <c r="D10">
+        <v>46.5993174743652</v>
+      </c>
+      <c r="E10">
+        <v>1.4290128256814</v>
+      </c>
+      <c r="F10">
+        <v>26.4386709855794</v>
+      </c>
+      <c r="G10">
+        <v>3.02</v>
+      </c>
+      <c r="H10">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10570</v>
+      </c>
+      <c r="B11">
+        <v>373.390622500148</v>
+      </c>
+      <c r="C11">
+        <v>69.9553549194336</v>
+      </c>
+      <c r="D11">
+        <v>47.8603692626953</v>
+      </c>
+      <c r="E11">
+        <v>1.46165514385114</v>
+      </c>
+      <c r="F11">
+        <v>28.3081560249838</v>
+      </c>
+      <c r="G11">
+        <v>3.43</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>9302</v>
+      </c>
+      <c r="B12">
+        <v>353.507130192082</v>
+      </c>
+      <c r="C12">
+        <v>62.9663955688477</v>
+      </c>
+      <c r="D12">
+        <v>49.1311178588867</v>
+      </c>
+      <c r="E12">
+        <v>1.28159908247352</v>
+      </c>
+      <c r="F12">
+        <v>26.313472078896</v>
+      </c>
+      <c r="G12">
+        <v>2.92</v>
+      </c>
+      <c r="H12">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>8749</v>
+      </c>
+      <c r="B13">
+        <v>340.595392964548</v>
+      </c>
+      <c r="C13">
+        <v>62.7737719726563</v>
+      </c>
+      <c r="D13">
+        <v>44.8978768920898</v>
+      </c>
+      <c r="E13">
+        <v>1.39814566562981</v>
+      </c>
+      <c r="F13">
+        <v>25.6873703541571</v>
+      </c>
+      <c r="G13">
+        <v>2.59</v>
+      </c>
+      <c r="H13">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>7499</v>
+      </c>
+      <c r="B14">
+        <v>322.163512176879</v>
+      </c>
+      <c r="C14">
+        <v>59.5876458740234</v>
+      </c>
+      <c r="D14">
+        <v>42.2179431152344</v>
+      </c>
+      <c r="E14">
+        <v>1.4114293941649</v>
+      </c>
+      <c r="F14">
+        <v>23.2769997735895</v>
+      </c>
+      <c r="G14">
+        <v>2.03</v>
+      </c>
+      <c r="H14">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>9206</v>
+      </c>
+      <c r="B15">
+        <v>359.482520115489</v>
+      </c>
+      <c r="C15">
+        <v>69.071867980957</v>
+      </c>
+      <c r="D15">
+        <v>43.9553071594238</v>
+      </c>
+      <c r="E15">
+        <v>1.57141133675705</v>
+      </c>
+      <c r="F15">
+        <v>25.6090337773376</v>
+      </c>
+      <c r="G15">
+        <v>3.31</v>
+      </c>
+      <c r="H15">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>8470</v>
+      </c>
+      <c r="B16">
+        <v>337.551796502767</v>
+      </c>
+      <c r="C16">
+        <v>62.1897735595703</v>
+      </c>
+      <c r="D16">
+        <v>44.5239233398437</v>
+      </c>
+      <c r="E16">
+        <v>1.39677209227242</v>
+      </c>
+      <c r="F16">
+        <v>25.0924453306252</v>
+      </c>
+      <c r="G16">
+        <v>2.44</v>
+      </c>
+      <c r="H16">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>9799</v>
+      </c>
+      <c r="B17">
+        <v>363.391425541874</v>
+      </c>
+      <c r="C17">
+        <v>68.1944805908203</v>
+      </c>
+      <c r="D17">
+        <v>46.4424208068848</v>
+      </c>
+      <c r="E17">
+        <v>1.46836619207221</v>
+      </c>
+      <c r="F17">
+        <v>26.9654133566529</v>
+      </c>
+      <c r="G17">
+        <v>2.98</v>
+      </c>
+      <c r="H17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>8070</v>
+      </c>
+      <c r="B18">
+        <v>327.045345091068</v>
+      </c>
+      <c r="C18">
+        <v>59.1504016113281</v>
+      </c>
+      <c r="D18">
+        <v>44.4275132751465</v>
+      </c>
+      <c r="E18">
+        <v>1.33139123148758</v>
+      </c>
+      <c r="F18">
+        <v>24.6754773340463</v>
+      </c>
+      <c r="G18">
+        <v>2.56</v>
+      </c>
+      <c r="H18">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>10146</v>
+      </c>
+      <c r="B19">
+        <v>373.177493065626</v>
+      </c>
+      <c r="C19">
+        <v>68.0886123657227</v>
+      </c>
+      <c r="D19">
+        <v>50.0040972900391</v>
+      </c>
+      <c r="E19">
+        <v>1.36166066494087</v>
+      </c>
+      <c r="F19">
+        <v>27.1881348380669</v>
+      </c>
+      <c r="G19">
+        <v>2.89</v>
+      </c>
+      <c r="H19">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>8112</v>
+      </c>
+      <c r="B20">
+        <v>331.465909991727</v>
+      </c>
+      <c r="C20">
+        <v>60.9840142822266</v>
+      </c>
+      <c r="D20">
+        <v>43.8210223388672</v>
+      </c>
+      <c r="E20">
+        <v>1.39166114862949</v>
+      </c>
+      <c r="F20">
+        <v>24.4731049422321</v>
+      </c>
+      <c r="G20">
+        <v>2.21</v>
+      </c>
+      <c r="H20">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>8940</v>
+      </c>
+      <c r="B21">
+        <v>339.521471704843</v>
+      </c>
+      <c r="C21">
+        <v>63.7243258666992</v>
+      </c>
+      <c r="D21">
+        <v>43.380482635498</v>
+      </c>
+      <c r="E21">
+        <v>1.46896304502048</v>
+      </c>
+      <c r="F21">
+        <v>26.3311770979004</v>
+      </c>
+      <c r="G21">
+        <v>2.55</v>
+      </c>
+      <c r="H21">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>9150</v>
+      </c>
+      <c r="B22">
+        <v>352.375493023713</v>
+      </c>
+      <c r="C22">
+        <v>66.5782827758789</v>
+      </c>
+      <c r="D22">
+        <v>44.4848448181152</v>
+      </c>
+      <c r="E22">
+        <v>1.49665089421121</v>
+      </c>
+      <c r="F22">
+        <v>25.9666185110786</v>
+      </c>
+      <c r="G22">
+        <v>2.83</v>
+      </c>
+      <c r="H22">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>7877</v>
+      </c>
+      <c r="B23">
+        <v>327.218299734248</v>
+      </c>
+      <c r="C23">
+        <v>59.9441641235352</v>
+      </c>
+      <c r="D23">
+        <v>43.563560333252</v>
+      </c>
+      <c r="E23">
+        <v>1.3760161856601</v>
+      </c>
+      <c r="F23">
+        <v>24.0726145401933</v>
+      </c>
+      <c r="G23">
+        <v>2.19</v>
+      </c>
+      <c r="H23">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>10418</v>
+      </c>
+      <c r="B24">
+        <v>371.785984543787</v>
+      </c>
+      <c r="C24">
+        <v>68.8033193969727</v>
+      </c>
+      <c r="D24">
+        <v>48.6761785888672</v>
+      </c>
+      <c r="E24">
+        <v>1.41349056954748</v>
+      </c>
+      <c r="F24">
+        <v>28.0214974020168</v>
+      </c>
+      <c r="G24">
+        <v>3.13</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>9580</v>
+      </c>
+      <c r="B25">
+        <v>361.32433981421</v>
+      </c>
+      <c r="C25">
+        <v>66.9795193481445</v>
+      </c>
+      <c r="D25">
+        <v>47.172794342041</v>
+      </c>
+      <c r="E25">
+        <v>1.41987601714854</v>
+      </c>
+      <c r="F25">
+        <v>26.5135750470781</v>
+      </c>
+      <c r="G25">
+        <v>3.04</v>
+      </c>
+      <c r="H25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>8272</v>
+      </c>
+      <c r="B26">
+        <v>338.061177411631</v>
+      </c>
+      <c r="C26">
+        <v>60.9433810424805</v>
+      </c>
+      <c r="D26">
+        <v>46.1536187744141</v>
+      </c>
+      <c r="E26">
+        <v>1.32044642783819</v>
+      </c>
+      <c r="F26">
+        <v>24.4689439448051</v>
+      </c>
+      <c r="G26">
+        <v>2.46</v>
+      </c>
+      <c r="H26">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>9987</v>
+      </c>
+      <c r="B27">
+        <v>366.803956441903</v>
+      </c>
+      <c r="C27">
+        <v>69.5049359130859</v>
+      </c>
+      <c r="D27">
+        <v>46.0602619934082</v>
+      </c>
+      <c r="E27">
+        <v>1.50900001226726</v>
+      </c>
+      <c r="F27">
+        <v>27.2270781833342</v>
+      </c>
+      <c r="G27">
+        <v>3.3</v>
+      </c>
+      <c r="H27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>9143</v>
+      </c>
+      <c r="B28">
+        <v>349.294149256343</v>
+      </c>
+      <c r="C28">
+        <v>63.7826400756836</v>
+      </c>
+      <c r="D28">
+        <v>46.7434535217285</v>
+      </c>
+      <c r="E28">
+        <v>1.36452562380814</v>
+      </c>
+      <c r="F28">
+        <v>26.1756459976948</v>
+      </c>
+      <c r="G28">
         <v>2.87</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>9381</v>
-      </c>
-      <c r="B6" t="n">
-        <v>370.3113962535976</v>
-      </c>
-      <c r="C6" t="n">
-        <v>66.64607303619384</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50.68420400619507</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.31492788222634</v>
-      </c>
-      <c r="F6" t="n">
-        <v>25.33273373411301</v>
-      </c>
-      <c r="G6" t="n">
+      <c r="H28">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>8536</v>
+      </c>
+      <c r="B29">
+        <v>337.678445738244</v>
+      </c>
+      <c r="C29">
+        <v>61.9605667114258</v>
+      </c>
+      <c r="D29">
+        <v>44.8384571838379</v>
+      </c>
+      <c r="E29">
+        <v>1.38186214698216</v>
+      </c>
+      <c r="F29">
+        <v>25.2784864054272</v>
+      </c>
+      <c r="G29">
+        <v>2.61</v>
+      </c>
+      <c r="H29">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>10494</v>
+      </c>
+      <c r="B30">
+        <v>376.892010755935</v>
+      </c>
+      <c r="C30">
+        <v>72.1165322875977</v>
+      </c>
+      <c r="D30">
+        <v>46.4600035095215</v>
+      </c>
+      <c r="E30">
+        <v>1.55222830047394</v>
+      </c>
+      <c r="F30">
+        <v>27.8435193650088</v>
+      </c>
+      <c r="G30">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8468</v>
-      </c>
-      <c r="B7" t="n">
-        <v>327.1549336991347</v>
-      </c>
-      <c r="C7" t="n">
-        <v>55.23482498168946</v>
-      </c>
-      <c r="D7" t="n">
-        <v>48.80237396240235</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.131806108945493</v>
-      </c>
-      <c r="F7" t="n">
-        <v>25.88376065203261</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8363</v>
-      </c>
-      <c r="B8" t="n">
-        <v>330.757942177802</v>
-      </c>
-      <c r="C8" t="n">
-        <v>55.57903182983399</v>
-      </c>
-      <c r="D8" t="n">
-        <v>49.62008895874024</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.120091337926635</v>
-      </c>
-      <c r="F8" t="n">
-        <v>25.28435128401056</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8341</v>
-      </c>
-      <c r="B9" t="n">
-        <v>336.1580420870853</v>
-      </c>
-      <c r="C9" t="n">
-        <v>55.10954559326172</v>
-      </c>
-      <c r="D9" t="n">
-        <v>51.86833053588867</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.062489288239775</v>
-      </c>
-      <c r="F9" t="n">
-        <v>24.81273376122049</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8350</v>
-      </c>
-      <c r="B10" t="n">
-        <v>331.5585638734951</v>
-      </c>
-      <c r="C10" t="n">
-        <v>55.70822784423829</v>
-      </c>
-      <c r="D10" t="n">
-        <v>49.74584564208985</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.119856887046336</v>
-      </c>
-      <c r="F10" t="n">
-        <v>25.18408784997003</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8336</v>
-      </c>
-      <c r="B11" t="n">
-        <v>331.4151210745737</v>
-      </c>
-      <c r="C11" t="n">
-        <v>55.57189697265625</v>
-      </c>
-      <c r="D11" t="n">
-        <v>49.84296112060547</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.114939717128531</v>
-      </c>
-      <c r="F11" t="n">
-        <v>25.15274491088856</v>
-      </c>
-      <c r="G11" t="n">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>8350</v>
-      </c>
-      <c r="B12" t="n">
-        <v>335.8656795853516</v>
-      </c>
-      <c r="C12" t="n">
-        <v>55.42371795654297</v>
-      </c>
-      <c r="D12" t="n">
-        <v>51.44868301391602</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.077262132085126</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24.86112903917014</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.44</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>8369</v>
-      </c>
-      <c r="B13" t="n">
-        <v>333.2973296024627</v>
-      </c>
-      <c r="C13" t="n">
-        <v>55.3865170288086</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50.65247436523438</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.09346123210959</v>
-      </c>
-      <c r="F13" t="n">
-        <v>25.1097121299533</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2.44</v>
+      <c r="H30">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>7809</v>
+      </c>
+      <c r="B31">
+        <v>325.405870053546</v>
+      </c>
+      <c r="C31">
+        <v>59.6867126464844</v>
+      </c>
+      <c r="D31">
+        <v>43.2346725463867</v>
+      </c>
+      <c r="E31">
+        <v>1.38052884712949</v>
+      </c>
+      <c r="F31">
+        <v>23.9977232086042</v>
+      </c>
+      <c r="G31">
+        <v>2.27</v>
+      </c>
+      <c r="H31">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>9933</v>
+      </c>
+      <c r="B32">
+        <v>364.894711862611</v>
+      </c>
+      <c r="C32">
+        <v>67.0917398071289</v>
+      </c>
+      <c r="D32">
+        <v>48.2906927490234</v>
+      </c>
+      <c r="E32">
+        <v>1.38933065540845</v>
+      </c>
+      <c r="F32">
+        <v>27.221550976436</v>
+      </c>
+      <c r="G32">
+        <v>3.11</v>
+      </c>
+      <c r="H32">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>8729</v>
+      </c>
+      <c r="B33">
+        <v>345.036875587398</v>
+      </c>
+      <c r="C33">
+        <v>62.2688150024414</v>
+      </c>
+      <c r="D33">
+        <v>47.0278651428223</v>
+      </c>
+      <c r="E33">
+        <v>1.32408338786659</v>
+      </c>
+      <c r="F33">
+        <v>25.2987451997401</v>
+      </c>
+      <c r="G33">
+        <v>2.68</v>
+      </c>
+      <c r="H33">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>9300</v>
+      </c>
+      <c r="B34">
+        <v>354.149001615096</v>
+      </c>
+      <c r="C34">
+        <v>63.9401052856445</v>
+      </c>
+      <c r="D34">
+        <v>48.2389448547363</v>
+      </c>
+      <c r="E34">
+        <v>1.3254872277615</v>
+      </c>
+      <c r="F34">
+        <v>26.2601333268973</v>
+      </c>
+      <c r="G34">
+        <v>2.91</v>
+      </c>
+      <c r="H34">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>9251</v>
+      </c>
+      <c r="B35">
+        <v>349.357956581345</v>
+      </c>
+      <c r="C35">
+        <v>64.7823202514649</v>
+      </c>
+      <c r="D35">
+        <v>45.5854307556152</v>
+      </c>
+      <c r="E35">
+        <v>1.42111896668838</v>
+      </c>
+      <c r="F35">
+        <v>26.4800037489513</v>
+      </c>
+      <c r="G35">
+        <v>2.81</v>
+      </c>
+      <c r="H35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>8768</v>
+      </c>
+      <c r="B36">
+        <v>340.223068691931</v>
+      </c>
+      <c r="C36">
+        <v>62.5227850341797</v>
+      </c>
+      <c r="D36">
+        <v>45.0641369628906</v>
+      </c>
+      <c r="E36">
+        <v>1.38741778380591</v>
+      </c>
+      <c r="F36">
+        <v>25.7713271287296</v>
+      </c>
+      <c r="G36">
+        <v>2.8</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>8552</v>
+      </c>
+      <c r="B37">
+        <v>337.448606889867</v>
+      </c>
+      <c r="C37">
+        <v>60.9444409179688</v>
+      </c>
+      <c r="D37">
+        <v>45.9416822814942</v>
+      </c>
+      <c r="E37">
+        <v>1.32656093315325</v>
+      </c>
+      <c r="F37">
+        <v>25.3431184049638</v>
+      </c>
+      <c r="G37">
+        <v>2.48</v>
+      </c>
+      <c r="H37">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>9380</v>
+      </c>
+      <c r="B38">
+        <v>354.582678906695</v>
+      </c>
+      <c r="C38">
+        <v>64.8323028564453</v>
+      </c>
+      <c r="D38">
+        <v>47.3529801940918</v>
+      </c>
+      <c r="E38">
+        <v>1.36912824896572</v>
+      </c>
+      <c r="F38">
+        <v>26.4536328421961</v>
+      </c>
+      <c r="G38">
+        <v>2.9</v>
+      </c>
+      <c r="H38">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>10140</v>
+      </c>
+      <c r="B39">
+        <v>372.129986652709</v>
+      </c>
+      <c r="C39">
+        <v>68.1821060180664</v>
+      </c>
+      <c r="D39">
+        <v>49.5305505371094</v>
+      </c>
+      <c r="E39">
+        <v>1.37656669022855</v>
+      </c>
+      <c r="F39">
+        <v>27.2485431534524</v>
+      </c>
+      <c r="G39">
+        <v>3.42</v>
+      </c>
+      <c r="H39">
+        <v>4.6298215415942</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>9511</v>
+      </c>
+      <c r="B40">
+        <v>358.397175822775</v>
+      </c>
+      <c r="C40">
+        <v>65.5840563964844</v>
+      </c>
+      <c r="D40">
+        <v>47.798780670166</v>
+      </c>
+      <c r="E40">
+        <v>1.372086389589</v>
+      </c>
+      <c r="F40">
+        <v>26.5375975080315</v>
+      </c>
+      <c r="G40">
+        <v>2.93</v>
+      </c>
+      <c r="H40">
+        <v>3.54730104243423</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>7244</v>
+      </c>
+      <c r="B41">
+        <v>314.473556748457</v>
+      </c>
+      <c r="C41">
+        <v>56.1059934997559</v>
+      </c>
+      <c r="D41">
+        <v>43.6016175842285</v>
+      </c>
+      <c r="E41">
+        <v>1.28678697278539</v>
+      </c>
+      <c r="F41">
+        <v>23.035323144179</v>
+      </c>
+      <c r="G41">
+        <v>2.1</v>
+      </c>
+      <c r="H41">
+        <v>6.09215952746374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>12735</v>
+      </c>
+      <c r="B42">
+        <v>408.267993055286</v>
+      </c>
+      <c r="C42">
+        <v>75.5904672241211</v>
+      </c>
+      <c r="D42">
+        <v>53.4100773620605</v>
+      </c>
+      <c r="E42">
+        <v>1.41528473571949</v>
+      </c>
+      <c r="F42">
+        <v>31.1927464719858</v>
+      </c>
+      <c r="G42">
+        <v>3.87</v>
+      </c>
+      <c r="H42">
+        <v>0.404168874302317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>7643</v>
+      </c>
+      <c r="B43">
+        <v>325.020372233461</v>
+      </c>
+      <c r="C43">
+        <v>59.547532043457</v>
+      </c>
+      <c r="D43">
+        <v>43.2638858032227</v>
+      </c>
+      <c r="E43">
+        <v>1.37637965101649</v>
+      </c>
+      <c r="F43">
+        <v>23.5154490393299</v>
+      </c>
+      <c r="G43">
+        <v>2.06</v>
+      </c>
+      <c r="H43">
+        <v>5.89496313226545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>9186</v>
+      </c>
+      <c r="B44">
+        <v>347.143021496178</v>
+      </c>
+      <c r="C44">
+        <v>60.8402783203125</v>
+      </c>
+      <c r="D44">
+        <v>49.3595561218262</v>
+      </c>
+      <c r="E44">
+        <v>1.23259370830139</v>
+      </c>
+      <c r="F44">
+        <v>26.461715866874</v>
+      </c>
+      <c r="G44">
+        <v>2.96</v>
+      </c>
+      <c r="H44">
+        <v>2.70364785704745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>9247</v>
+      </c>
+      <c r="B45">
+        <v>355.160105042371</v>
+      </c>
+      <c r="C45">
+        <v>65.8172570800781</v>
+      </c>
+      <c r="D45">
+        <v>46.3913677978516</v>
+      </c>
+      <c r="E45">
+        <v>1.41873930871955</v>
+      </c>
+      <c r="F45">
+        <v>26.0361450194323</v>
+      </c>
+      <c r="G45">
+        <v>2.84</v>
+      </c>
+      <c r="H45">
+        <v>3.73515773961401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>8260</v>
+      </c>
+      <c r="B46">
+        <v>334.761804945695</v>
+      </c>
+      <c r="C46">
+        <v>60.0901391601563</v>
+      </c>
+      <c r="D46">
+        <v>45.9994595336914</v>
+      </c>
+      <c r="E46">
+        <v>1.30632272138207</v>
+      </c>
+      <c r="F46">
+        <v>24.6742605577119</v>
+      </c>
+      <c r="G46">
+        <v>2.31</v>
+      </c>
+      <c r="H46">
+        <v>5.12978207546263</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>11701</v>
+      </c>
+      <c r="B47">
+        <v>394.293049133228</v>
+      </c>
+      <c r="C47">
+        <v>72.8828433227539</v>
+      </c>
+      <c r="D47">
+        <v>51.7247595214844</v>
+      </c>
+      <c r="E47">
+        <v>1.40905137108431</v>
+      </c>
+      <c r="F47">
+        <v>29.6758972183817</v>
+      </c>
+      <c r="G47">
+        <v>3.93</v>
+      </c>
+      <c r="H47">
+        <v>1.21635201892245</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>8469</v>
+      </c>
+      <c r="B48">
+        <v>336.305727329011</v>
+      </c>
+      <c r="C48">
+        <v>62.8605905151367</v>
+      </c>
+      <c r="D48">
+        <v>43.2843077087402</v>
+      </c>
+      <c r="E48">
+        <v>1.45227205522438</v>
+      </c>
+      <c r="F48">
+        <v>25.1824435678275</v>
+      </c>
+      <c r="G48">
+        <v>2.52</v>
+      </c>
+      <c r="H48">
+        <v>0.931487100541888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>7797</v>
+      </c>
+      <c r="B49">
+        <v>325.10660093802</v>
+      </c>
+      <c r="C49">
+        <v>61.2391564941406</v>
+      </c>
+      <c r="D49">
+        <v>41.270733795166</v>
+      </c>
+      <c r="E49">
+        <v>1.48383977852396</v>
+      </c>
+      <c r="F49">
+        <v>23.9829027694411</v>
+      </c>
+      <c r="G49">
+        <v>2.4</v>
+      </c>
+      <c r="H49">
+        <v>1.8342171960549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>9074</v>
+      </c>
+      <c r="B50">
+        <v>351.683156645705</v>
+      </c>
+      <c r="C50">
+        <v>63.7863250732422</v>
+      </c>
+      <c r="D50">
+        <v>47.5664608764648</v>
+      </c>
+      <c r="E50">
+        <v>1.34099371485514</v>
+      </c>
+      <c r="F50">
+        <v>25.8016337391483</v>
+      </c>
+      <c r="G50">
+        <v>2.76</v>
+      </c>
+      <c r="H50">
+        <v>5.0459998358649</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>10028</v>
+      </c>
+      <c r="B51">
+        <v>371.028629226511</v>
+      </c>
+      <c r="C51">
+        <v>69.7491986083984</v>
+      </c>
+      <c r="D51">
+        <v>47.2709240722656</v>
+      </c>
+      <c r="E51">
+        <v>1.47552009987723</v>
+      </c>
+      <c r="F51">
+        <v>27.0275639400268</v>
+      </c>
+      <c r="G51">
+        <v>3.34</v>
+      </c>
+      <c r="H51">
+        <v>3.29251732317797</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>10954</v>
+      </c>
+      <c r="B52">
+        <v>384.808014502009</v>
+      </c>
+      <c r="C52">
+        <v>72.3391482543945</v>
+      </c>
+      <c r="D52">
+        <v>49.0269973754883</v>
+      </c>
+      <c r="E52">
+        <v>1.47549619856103</v>
+      </c>
+      <c r="F52">
+        <v>28.4661430822221</v>
+      </c>
+      <c r="G52">
+        <v>3.69</v>
+      </c>
+      <c r="H52">
+        <v>1.71519195425523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>9518</v>
+      </c>
+      <c r="B53">
+        <v>356.81414263348</v>
+      </c>
+      <c r="C53">
+        <v>65.1665286254883</v>
+      </c>
+      <c r="D53">
+        <v>47.7372868347168</v>
+      </c>
+      <c r="E53">
+        <v>1.3651075070755</v>
+      </c>
+      <c r="F53">
+        <v>26.6749516421968</v>
+      </c>
+      <c r="G53">
+        <v>3.16</v>
+      </c>
+      <c r="H53">
+        <v>2.68014927710574</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>7270</v>
+      </c>
+      <c r="B54">
+        <v>317.077022041875</v>
+      </c>
+      <c r="C54">
+        <v>58.3335534667969</v>
+      </c>
+      <c r="D54">
+        <v>41.9224800109863</v>
+      </c>
+      <c r="E54">
+        <v>1.39146237177547</v>
+      </c>
+      <c r="F54">
+        <v>22.9281830426674</v>
+      </c>
+      <c r="G54">
+        <v>1.93</v>
+      </c>
+      <c r="H54">
+        <v>5.67709372275866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>7967</v>
+      </c>
+      <c r="B55">
+        <v>326.794244084899</v>
+      </c>
+      <c r="C55">
+        <v>61.0493124389648</v>
+      </c>
+      <c r="D55">
+        <v>42.1004443359375</v>
+      </c>
+      <c r="E55">
+        <v>1.45008712857817</v>
+      </c>
+      <c r="F55">
+        <v>24.3792543602152</v>
+      </c>
+      <c r="G55">
+        <v>2.48</v>
+      </c>
+      <c r="H55">
+        <v>1.34971041527167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>8708</v>
+      </c>
+      <c r="B56">
+        <v>339.910000472442</v>
+      </c>
+      <c r="C56">
+        <v>60.3256069946289</v>
+      </c>
+      <c r="D56">
+        <v>47.4886582946777</v>
+      </c>
+      <c r="E56">
+        <v>1.27031609569373</v>
+      </c>
+      <c r="F56">
+        <v>25.6185460501213</v>
+      </c>
+      <c r="G56">
+        <v>2.55</v>
+      </c>
+      <c r="H56">
+        <v>3.35299168228619</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>7864</v>
+      </c>
+      <c r="B57">
+        <v>332.802464400715</v>
+      </c>
+      <c r="C57">
+        <v>63.2772970581055</v>
+      </c>
+      <c r="D57">
+        <v>41.5252934265137</v>
+      </c>
+      <c r="E57">
+        <v>1.52382540463166</v>
+      </c>
+      <c r="F57">
+        <v>23.6296327136906</v>
+      </c>
+      <c r="G57">
+        <v>2.23</v>
+      </c>
+      <c r="H57">
+        <v>4.9704351274086</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>8287</v>
+      </c>
+      <c r="B58">
+        <v>336.261345175157</v>
+      </c>
+      <c r="C58">
+        <v>60.7533615112305</v>
+      </c>
+      <c r="D58">
+        <v>45.7531402587891</v>
+      </c>
+      <c r="E58">
+        <v>1.32785118502462</v>
+      </c>
+      <c r="F58">
+        <v>24.6445216463503</v>
+      </c>
+      <c r="G58">
+        <v>2.6</v>
+      </c>
+      <c r="H58">
+        <v>5.37649610134673</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>8998</v>
+      </c>
+      <c r="B59">
+        <v>346.147955683795</v>
+      </c>
+      <c r="C59">
+        <v>63.2948867797852</v>
+      </c>
+      <c r="D59">
+        <v>46.2209419250488</v>
+      </c>
+      <c r="E59">
+        <v>1.36939846190117</v>
+      </c>
+      <c r="F59">
+        <v>25.9946645711802</v>
+      </c>
+      <c r="G59">
+        <v>2.7</v>
+      </c>
+      <c r="H59">
+        <v>2.14363352540094</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>9454</v>
+      </c>
+      <c r="B60">
+        <v>351.708445260398</v>
+      </c>
+      <c r="C60">
+        <v>66.1875677490234</v>
+      </c>
+      <c r="D60">
+        <v>44.7238432312012</v>
+      </c>
+      <c r="E60">
+        <v>1.47991681767743</v>
+      </c>
+      <c r="F60">
+        <v>26.880218906886</v>
+      </c>
+      <c r="G60">
+        <v>2.94</v>
+      </c>
+      <c r="H60">
+        <v>1.63291240316236</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>9567</v>
+      </c>
+      <c r="B61">
+        <v>362.390976827532</v>
+      </c>
+      <c r="C61">
+        <v>66.1325244140625</v>
+      </c>
+      <c r="D61">
+        <v>48.5447645568848</v>
+      </c>
+      <c r="E61">
+        <v>1.3622998281631</v>
+      </c>
+      <c r="F61">
+        <v>26.3996639313486</v>
+      </c>
+      <c r="G61">
+        <v>3.19</v>
+      </c>
+      <c r="H61">
+        <v>5.42208438601021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>9114</v>
+      </c>
+      <c r="B62">
+        <v>346.184423787239</v>
+      </c>
+      <c r="C62">
+        <v>63.2884854125977</v>
+      </c>
+      <c r="D62">
+        <v>46.2411111450195</v>
+      </c>
+      <c r="E62">
+        <v>1.36866272988369</v>
+      </c>
+      <c r="F62">
+        <v>26.3270077269605</v>
+      </c>
+      <c r="G62">
+        <v>3.09</v>
+      </c>
+      <c r="H62">
+        <v>0.877384212931653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>8774</v>
+      </c>
+      <c r="B63">
+        <v>347.037650077825</v>
+      </c>
+      <c r="C63">
+        <v>64.7039175415039</v>
+      </c>
+      <c r="D63">
+        <v>44.8613638305664</v>
+      </c>
+      <c r="E63">
+        <v>1.44230830310642</v>
+      </c>
+      <c r="F63">
+        <v>25.2825593938651</v>
+      </c>
+      <c r="G63">
+        <v>2.63</v>
+      </c>
+      <c r="H63">
+        <v>3.93343744516664</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>7459</v>
+      </c>
+      <c r="B64">
+        <v>314.369920443174</v>
+      </c>
+      <c r="C64">
+        <v>55.7683915710449</v>
+      </c>
+      <c r="D64">
+        <v>43.9480599975586</v>
+      </c>
+      <c r="E64">
+        <v>1.26896139611494</v>
+      </c>
+      <c r="F64">
+        <v>23.7268247212866</v>
+      </c>
+      <c r="G64">
+        <v>1.97</v>
+      </c>
+      <c r="H64">
+        <v>3.22790022252031</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>10709</v>
+      </c>
+      <c r="B65">
+        <v>376.21759031217</v>
+      </c>
+      <c r="C65">
+        <v>67.0036508178711</v>
+      </c>
+      <c r="D65">
+        <v>52.2964219665527</v>
+      </c>
+      <c r="E65">
+        <v>1.2812282044979</v>
+      </c>
+      <c r="F65">
+        <v>28.4649104022864</v>
+      </c>
+      <c r="G65">
+        <v>3.39</v>
+      </c>
+      <c r="H65">
+        <v>2.79485943258604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>9340</v>
+      </c>
+      <c r="B66">
+        <v>349.971250939519</v>
+      </c>
+      <c r="C66">
+        <v>65.1299313354492</v>
+      </c>
+      <c r="D66">
+        <v>45.3857635498047</v>
+      </c>
+      <c r="E66">
+        <v>1.43502997947755</v>
+      </c>
+      <c r="F66">
+        <v>26.6879064349606</v>
+      </c>
+      <c r="G66">
+        <v>2.99</v>
+      </c>
+      <c r="H66">
+        <v>0.573245582405683</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>10342</v>
+      </c>
+      <c r="B67">
+        <v>375.049594631598</v>
+      </c>
+      <c r="C67">
+        <v>70.3335971069336</v>
+      </c>
+      <c r="D67">
+        <v>47.9913656616211</v>
+      </c>
+      <c r="E67">
+        <v>1.46554689864097</v>
+      </c>
+      <c r="F67">
+        <v>27.5750198054705</v>
+      </c>
+      <c r="G67">
+        <v>3.2</v>
+      </c>
+      <c r="H67">
+        <v>2.53479728724202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>7974</v>
+      </c>
+      <c r="B68">
+        <v>335.351318686095</v>
+      </c>
+      <c r="C68">
+        <v>63.3816491699219</v>
+      </c>
+      <c r="D68">
+        <v>42.311247253418</v>
+      </c>
+      <c r="E68">
+        <v>1.49798583790984</v>
+      </c>
+      <c r="F68">
+        <v>23.7780487377897</v>
+      </c>
+      <c r="G68">
+        <v>2.45</v>
+      </c>
+      <c r="H68">
+        <v>5.6557176512</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>7893</v>
+      </c>
+      <c r="B69">
+        <v>326.755908102248</v>
+      </c>
+      <c r="C69">
+        <v>61.0210467529297</v>
+      </c>
+      <c r="D69">
+        <v>42.1209329223633</v>
+      </c>
+      <c r="E69">
+        <v>1.44871071268537</v>
+      </c>
+      <c r="F69">
+        <v>24.1556458637318</v>
+      </c>
+      <c r="G69">
+        <v>2.45</v>
+      </c>
+      <c r="H69">
+        <v>2.30230164771573</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>9946</v>
+      </c>
+      <c r="B70">
+        <v>367.190858885916</v>
+      </c>
+      <c r="C70">
+        <v>69.1964559936523</v>
+      </c>
+      <c r="D70">
+        <v>46.5764915466309</v>
+      </c>
+      <c r="E70">
+        <v>1.48565196080463</v>
+      </c>
+      <c r="F70">
+        <v>27.0867309447106</v>
+      </c>
+      <c r="G70">
+        <v>3.2</v>
+      </c>
+      <c r="H70">
+        <v>1.80099931318927</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>11452</v>
+      </c>
+      <c r="B71">
+        <v>396.045885036034</v>
+      </c>
+      <c r="C71">
+        <v>74.6865127563477</v>
+      </c>
+      <c r="D71">
+        <v>50.172684173584</v>
+      </c>
+      <c r="E71">
+        <v>1.48858913942002</v>
+      </c>
+      <c r="F71">
+        <v>28.9158414029678</v>
+      </c>
+      <c r="G71">
+        <v>3.92</v>
+      </c>
+      <c r="H71">
+        <v>2.79643443799653</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>9414</v>
+      </c>
+      <c r="B72">
+        <v>354.795024779287</v>
+      </c>
+      <c r="C72">
+        <v>63.8212869262695</v>
+      </c>
+      <c r="D72">
+        <v>48.5974810791016</v>
+      </c>
+      <c r="E72">
+        <v>1.31326327021741</v>
+      </c>
+      <c r="F72">
+        <v>26.5336302442694</v>
+      </c>
+      <c r="G72">
+        <v>2.68</v>
+      </c>
+      <c r="H72">
+        <v>3.5034903551702</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>8967</v>
+      </c>
+      <c r="B73">
+        <v>345.716161341198</v>
+      </c>
+      <c r="C73">
+        <v>62.2555981445313</v>
+      </c>
+      <c r="D73">
+        <v>47.2765603637695</v>
+      </c>
+      <c r="E73">
+        <v>1.3168385700124</v>
+      </c>
+      <c r="F73">
+        <v>25.9374625855289</v>
+      </c>
+      <c r="G73">
+        <v>2.8</v>
+      </c>
+      <c r="H73">
+        <v>3.11622007127507</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>9389</v>
+      </c>
+      <c r="B74">
+        <v>347.511545154197</v>
+      </c>
+      <c r="C74">
+        <v>62.450158996582</v>
+      </c>
+      <c r="D74">
+        <v>47.6696759033203</v>
+      </c>
+      <c r="E74">
+        <v>1.31006049051473</v>
+      </c>
+      <c r="F74">
+        <v>27.0178074107838</v>
+      </c>
+      <c r="G74">
+        <v>2.8</v>
+      </c>
+      <c r="H74">
+        <v>0.389233656448989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>10360</v>
+      </c>
+      <c r="B75">
+        <v>374.167142829298</v>
+      </c>
+      <c r="C75">
+        <v>67.2193319702149</v>
+      </c>
+      <c r="D75">
+        <v>51.3501988220215</v>
+      </c>
+      <c r="E75">
+        <v>1.30903742365624</v>
+      </c>
+      <c r="F75">
+        <v>27.6881607552762</v>
+      </c>
+      <c r="G75">
+        <v>3.04</v>
+      </c>
+      <c r="H75">
+        <v>4.67101579685476</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>8343</v>
+      </c>
+      <c r="B76">
+        <v>328.733239261501</v>
+      </c>
+      <c r="C76">
+        <v>59.2940252685547</v>
+      </c>
+      <c r="D76">
+        <v>44.8430757141113</v>
+      </c>
+      <c r="E76">
+        <v>1.32225598544071</v>
+      </c>
+      <c r="F76">
+        <v>25.3792406838522</v>
+      </c>
+      <c r="G76">
+        <v>2.18</v>
+      </c>
+      <c r="H76">
+        <v>0.123023460950472</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>8370</v>
+      </c>
+      <c r="B77">
+        <v>341.18452753896</v>
+      </c>
+      <c r="C77">
+        <v>63.3454800415039</v>
+      </c>
+      <c r="D77">
+        <v>44.4248776245117</v>
+      </c>
+      <c r="E77">
+        <v>1.42590105879217</v>
+      </c>
+      <c r="F77">
+        <v>24.5321792883595</v>
+      </c>
+      <c r="G77">
+        <v>2.35</v>
+      </c>
+      <c r="H77">
+        <v>5.62489408901178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>11067</v>
+      </c>
+      <c r="B78">
+        <v>388.066304738576</v>
+      </c>
+      <c r="C78">
+        <v>71.4968771362305</v>
+      </c>
+      <c r="D78">
+        <v>51.1864094543457</v>
+      </c>
+      <c r="E78">
+        <v>1.39679414708703</v>
+      </c>
+      <c r="F78">
+        <v>28.5183224229049</v>
+      </c>
+      <c r="G78">
+        <v>3.84</v>
+      </c>
+      <c r="H78">
+        <v>3.8871188882056</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>9890</v>
+      </c>
+      <c r="B79">
+        <v>371.551914683881</v>
+      </c>
+      <c r="C79">
+        <v>71.6541738891602</v>
+      </c>
+      <c r="D79">
+        <v>45.0996708679199</v>
+      </c>
+      <c r="E79">
+        <v>1.58879593820116</v>
+      </c>
+      <c r="F79">
+        <v>26.6180837970233</v>
+      </c>
+      <c r="G79">
+        <v>3.04</v>
+      </c>
+      <c r="H79">
+        <v>2.65224383524332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>8089</v>
+      </c>
+      <c r="B80">
+        <v>331.436021404908</v>
+      </c>
+      <c r="C80">
+        <v>60.7618475341797</v>
+      </c>
+      <c r="D80">
+        <v>44.0722093200684</v>
+      </c>
+      <c r="E80">
+        <v>1.37868848581892</v>
+      </c>
+      <c r="F80">
+        <v>24.405916911843</v>
+      </c>
+      <c r="G80">
+        <v>2.24</v>
+      </c>
+      <c r="H80">
+        <v>4.00418854757717</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>8682</v>
+      </c>
+      <c r="B81">
+        <v>345.913677668775</v>
+      </c>
+      <c r="C81">
+        <v>63.9125485229492</v>
+      </c>
+      <c r="D81">
+        <v>45.4110040283203</v>
+      </c>
+      <c r="E81">
+        <v>1.40742425521115</v>
+      </c>
+      <c r="F81">
+        <v>25.0987473479246</v>
+      </c>
+      <c r="G81">
+        <v>2.7</v>
+      </c>
+      <c r="H81">
+        <v>5.02128571938897</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>10365</v>
+      </c>
+      <c r="B82">
+        <v>374.53127839709</v>
+      </c>
+      <c r="C82">
+        <v>70.0013577270508</v>
+      </c>
+      <c r="D82">
+        <v>48.209156036377</v>
+      </c>
+      <c r="E82">
+        <v>1.4520344988871</v>
+      </c>
+      <c r="F82">
+        <v>27.6745911432548</v>
+      </c>
+      <c r="G82">
+        <v>3.11</v>
+      </c>
+      <c r="H82">
+        <v>2.28608551211217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>10968</v>
+      </c>
+      <c r="B83">
+        <v>384.500272562279</v>
+      </c>
+      <c r="C83">
+        <v>69.4550094604492</v>
+      </c>
+      <c r="D83">
+        <v>52.3326683044434</v>
+      </c>
+      <c r="E83">
+        <v>1.32718265111951</v>
+      </c>
+      <c r="F83">
+        <v>28.5253373863954</v>
+      </c>
+      <c r="G83">
+        <v>3.23</v>
+      </c>
+      <c r="H83">
+        <v>4.11154335982156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>8232</v>
+      </c>
+      <c r="B84">
+        <v>329.11161705918</v>
+      </c>
+      <c r="C84">
+        <v>60.4648156738281</v>
+      </c>
+      <c r="D84">
+        <v>43.6112477111816</v>
+      </c>
+      <c r="E84">
+        <v>1.38645002945709</v>
+      </c>
+      <c r="F84">
+        <v>25.0127907168945</v>
+      </c>
+      <c r="G84">
+        <v>2.3</v>
+      </c>
+      <c r="H84">
+        <v>0.634236536306346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>8945</v>
+      </c>
+      <c r="B85">
+        <v>348.22446395377</v>
+      </c>
+      <c r="C85">
+        <v>63.8861218261719</v>
+      </c>
+      <c r="D85">
+        <v>46.2500148010254</v>
+      </c>
+      <c r="E85">
+        <v>1.38132111094493</v>
+      </c>
+      <c r="F85">
+        <v>25.6874542886439</v>
+      </c>
+      <c r="G85">
+        <v>2.51</v>
+      </c>
+      <c r="H85">
+        <v>3.77384996273697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>7161</v>
+      </c>
+      <c r="B86">
+        <v>316.822548255475</v>
+      </c>
+      <c r="C86">
+        <v>61.5007913208008</v>
+      </c>
+      <c r="D86">
+        <v>37.9474380493164</v>
+      </c>
+      <c r="E86">
+        <v>1.62068362140481</v>
+      </c>
+      <c r="F86">
+        <v>22.602557928502</v>
+      </c>
+      <c r="G86">
+        <v>1.84</v>
+      </c>
+      <c r="H86">
+        <v>2.38571404014159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>10098</v>
+      </c>
+      <c r="B87">
+        <v>368.995054693359</v>
+      </c>
+      <c r="C87">
+        <v>65.2490585327148</v>
+      </c>
+      <c r="D87">
+        <v>51.820302734375</v>
+      </c>
+      <c r="E87">
+        <v>1.2591408210634</v>
+      </c>
+      <c r="F87">
+        <v>27.3662204182969</v>
+      </c>
+      <c r="G87">
+        <v>2.62</v>
+      </c>
+      <c r="H87">
+        <v>5.19345074123185</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>10030</v>
+      </c>
+      <c r="B88">
+        <v>363.111941736263</v>
+      </c>
+      <c r="C88">
+        <v>66.0812292480469</v>
+      </c>
+      <c r="D88">
+        <v>48.8544903564453</v>
+      </c>
+      <c r="E88">
+        <v>1.35261321458712</v>
+      </c>
+      <c r="F88">
+        <v>27.6223358340691</v>
+      </c>
+      <c r="G88">
+        <v>3.04</v>
+      </c>
+      <c r="H88">
+        <v>1.11871452302392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>8510</v>
+      </c>
+      <c r="B89">
+        <v>339.856977865839</v>
+      </c>
+      <c r="C89">
+        <v>62.5932632446289</v>
+      </c>
+      <c r="D89">
+        <v>44.8530603027344</v>
+      </c>
+      <c r="E89">
+        <v>1.39551822823588</v>
+      </c>
+      <c r="F89">
+        <v>25.0399449010559</v>
+      </c>
+      <c r="G89">
+        <v>2.46</v>
+      </c>
+      <c r="H89">
+        <v>3.64300263341626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>10967</v>
+      </c>
+      <c r="B90">
+        <v>381.292757729896</v>
+      </c>
+      <c r="C90">
+        <v>71.0547967529297</v>
+      </c>
+      <c r="D90">
+        <v>49.3325889587402</v>
+      </c>
+      <c r="E90">
+        <v>1.44032166672536</v>
+      </c>
+      <c r="F90">
+        <v>28.762675864326</v>
+      </c>
+      <c r="G90">
+        <v>3.71</v>
+      </c>
+      <c r="H90">
+        <v>0.412860331514861</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>9999</v>
+      </c>
+      <c r="B91">
+        <v>368.170116953978</v>
+      </c>
+      <c r="C91">
+        <v>70.4975830078125</v>
+      </c>
+      <c r="D91">
+        <v>45.3225044250488</v>
+      </c>
+      <c r="E91">
+        <v>1.55546530144636</v>
+      </c>
+      <c r="F91">
+        <v>27.158640909604</v>
+      </c>
+      <c r="G91">
+        <v>3.38</v>
+      </c>
+      <c r="H91">
+        <v>0.387914456355952</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>7701</v>
+      </c>
+      <c r="B92">
+        <v>325.222243812384</v>
+      </c>
+      <c r="C92">
+        <v>59.4170129394531</v>
+      </c>
+      <c r="D92">
+        <v>43.4870071411133</v>
+      </c>
+      <c r="E92">
+        <v>1.36631644359079</v>
+      </c>
+      <c r="F92">
+        <v>23.6791921417362</v>
+      </c>
+      <c r="G92">
+        <v>2.09</v>
+      </c>
+      <c r="H92">
+        <v>5.40788123615052</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>9917</v>
+      </c>
+      <c r="B93">
+        <v>369.627362394506</v>
+      </c>
+      <c r="C93">
+        <v>68.0378436279297</v>
+      </c>
+      <c r="D93">
+        <v>48.8274038696289</v>
+      </c>
+      <c r="E93">
+        <v>1.39343561680227</v>
+      </c>
+      <c r="F93">
+        <v>26.8297236864611</v>
+      </c>
+      <c r="G93">
+        <v>2.8</v>
+      </c>
+      <c r="H93">
+        <v>5.24070140013039</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>9311</v>
+      </c>
+      <c r="B94">
+        <v>345.675012746288</v>
+      </c>
+      <c r="C94">
+        <v>62.0910717773437</v>
+      </c>
+      <c r="D94">
+        <v>47.4510011291504</v>
+      </c>
+      <c r="E94">
+        <v>1.30853027965304</v>
+      </c>
+      <c r="F94">
+        <v>26.9357045105077</v>
+      </c>
+      <c r="G94">
+        <v>2.74</v>
+      </c>
+      <c r="H94">
+        <v>0.590455886016766</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>9396</v>
+      </c>
+      <c r="B95">
+        <v>354.12966638146</v>
+      </c>
+      <c r="C95">
+        <v>63.780983581543</v>
+      </c>
+      <c r="D95">
+        <v>48.4152737426758</v>
+      </c>
+      <c r="E95">
+        <v>1.31737318930664</v>
+      </c>
+      <c r="F95">
+        <v>26.5326542563052</v>
+      </c>
+      <c r="G95">
+        <v>2.94</v>
+      </c>
+      <c r="H95">
+        <v>3.2477196755298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>10093</v>
+      </c>
+      <c r="B96">
+        <v>365.24552802909</v>
+      </c>
+      <c r="C96">
+        <v>66.8969052124023</v>
+      </c>
+      <c r="D96">
+        <v>48.6421853637695</v>
+      </c>
+      <c r="E96">
+        <v>1.37528576711994</v>
+      </c>
+      <c r="F96">
+        <v>27.6334663273308</v>
+      </c>
+      <c r="G96">
+        <v>3.23</v>
+      </c>
+      <c r="H96">
+        <v>1.28583312270328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>9751</v>
+      </c>
+      <c r="B97">
+        <v>361.618381238356</v>
+      </c>
+      <c r="C97">
+        <v>65.5312240600586</v>
+      </c>
+      <c r="D97">
+        <v>48.9763444519043</v>
+      </c>
+      <c r="E97">
+        <v>1.33801786951273</v>
+      </c>
+      <c r="F97">
+        <v>26.9648903537698</v>
+      </c>
+      <c r="G97">
+        <v>2.62</v>
+      </c>
+      <c r="H97">
+        <v>3.40352956166332</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>8414</v>
+      </c>
+      <c r="B98">
+        <v>342.236652308008</v>
+      </c>
+      <c r="C98">
+        <v>63.7087576293945</v>
+      </c>
+      <c r="D98">
+        <v>44.3608358764648</v>
+      </c>
+      <c r="E98">
+        <v>1.4361487192624</v>
+      </c>
+      <c r="F98">
+        <v>24.5853269755208</v>
+      </c>
+      <c r="G98">
+        <v>2.2</v>
+      </c>
+      <c r="H98">
+        <v>5.5227794483007</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>7663</v>
+      </c>
+      <c r="B99">
+        <v>316.65661852761</v>
+      </c>
+      <c r="C99">
+        <v>56.7707635498047</v>
+      </c>
+      <c r="D99">
+        <v>43.5910012817383</v>
+      </c>
+      <c r="E99">
+        <v>1.30235052833227</v>
+      </c>
+      <c r="F99">
+        <v>24.1997152487493</v>
+      </c>
+      <c r="G99">
+        <v>2.17</v>
+      </c>
+      <c r="H99">
+        <v>1.45480661215884</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>7769</v>
+      </c>
+      <c r="B100">
+        <v>318.58559267657</v>
+      </c>
+      <c r="C100">
+        <v>58.1250527954102</v>
+      </c>
+      <c r="D100">
+        <v>42.6924374389648</v>
+      </c>
+      <c r="E100">
+        <v>1.36148358543614</v>
+      </c>
+      <c r="F100">
+        <v>24.3859112859731</v>
+      </c>
+      <c r="G100">
+        <v>2.09</v>
+      </c>
+      <c r="H100">
+        <v>0.345768254579561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>7587</v>
+      </c>
+      <c r="B101">
+        <v>322.58079866804</v>
+      </c>
+      <c r="C101">
+        <v>59.8064505004883</v>
+      </c>
+      <c r="D101">
+        <v>42.1039959716797</v>
+      </c>
+      <c r="E101">
+        <v>1.42044594866282</v>
+      </c>
+      <c r="F101">
+        <v>23.519688807664</v>
+      </c>
+      <c r="G101">
+        <v>2.1</v>
+      </c>
+      <c r="H101">
+        <v>4.26802129890444</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>7687</v>
+      </c>
+      <c r="B102">
+        <v>323.983626701304</v>
+      </c>
+      <c r="C102">
+        <v>59.7119180297852</v>
+      </c>
+      <c r="D102">
+        <v>42.7083285522461</v>
+      </c>
+      <c r="E102">
+        <v>1.3981328713611</v>
+      </c>
+      <c r="F102">
+        <v>23.7265076580151</v>
+      </c>
+      <c r="G102">
+        <v>2.11</v>
+      </c>
+      <c r="H102">
+        <v>4.22372434207235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>8896</v>
+      </c>
+      <c r="B103">
+        <v>343.977517593513</v>
+      </c>
+      <c r="C103">
+        <v>62.4481866455078</v>
+      </c>
+      <c r="D103">
+        <v>46.4553112792969</v>
+      </c>
+      <c r="E103">
+        <v>1.3442636573902</v>
+      </c>
+      <c r="F103">
+        <v>25.8621553589808</v>
+      </c>
+      <c r="G103">
+        <v>2.86</v>
+      </c>
+      <c r="H103">
+        <v>2.44960891268544</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>10428</v>
+      </c>
+      <c r="B104">
+        <v>378.210552167597</v>
+      </c>
+      <c r="C104">
+        <v>69.5096737670899</v>
+      </c>
+      <c r="D104">
+        <v>50.0887680053711</v>
+      </c>
+      <c r="E104">
+        <v>1.38772975529437</v>
+      </c>
+      <c r="F104">
+        <v>27.5719435648613</v>
+      </c>
+      <c r="G104">
+        <v>3.37</v>
+      </c>
+      <c r="H104">
+        <v>4.89008811132343</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>10715</v>
+      </c>
+      <c r="B105">
+        <v>372.0615884203</v>
+      </c>
+      <c r="C105">
+        <v>67.7716604614258</v>
+      </c>
+      <c r="D105">
+        <v>49.9867532348633</v>
+      </c>
+      <c r="E105">
+        <v>1.35579240650018</v>
+      </c>
+      <c r="F105">
+        <v>28.7989954714051</v>
+      </c>
+      <c r="G105">
+        <v>3.03</v>
+      </c>
+      <c r="H105">
+        <v>0.674501633207079</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>8940</v>
+      </c>
+      <c r="B106">
+        <v>345.338215439645</v>
+      </c>
+      <c r="C106">
+        <v>63.9407299804688</v>
+      </c>
+      <c r="D106">
+        <v>45.1755607604981</v>
+      </c>
+      <c r="E106">
+        <v>1.41538320507975</v>
+      </c>
+      <c r="F106">
+        <v>25.8876649044434</v>
+      </c>
+      <c r="G106">
+        <v>2.86</v>
+      </c>
+      <c r="H106">
+        <v>1.50641651263449</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>7865</v>
+      </c>
+      <c r="B107">
+        <v>325.345300160312</v>
+      </c>
+      <c r="C107">
+        <v>59.9535556030273</v>
+      </c>
+      <c r="D107">
+        <v>42.8988604736328</v>
+      </c>
+      <c r="E107">
+        <v>1.3975559010449</v>
+      </c>
+      <c r="F107">
+        <v>24.1743157074179</v>
+      </c>
+      <c r="G107">
+        <v>2.15</v>
+      </c>
+      <c r="H107">
+        <v>2.73344372159366</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>9291</v>
+      </c>
+      <c r="B108">
+        <v>358.928001826213</v>
+      </c>
+      <c r="C108">
+        <v>66.1828860473633</v>
+      </c>
+      <c r="D108">
+        <v>47.2786485290527</v>
+      </c>
+      <c r="E108">
+        <v>1.39984724831324</v>
+      </c>
+      <c r="F108">
+        <v>25.8854142132342</v>
+      </c>
+      <c r="G108">
+        <v>2.9</v>
+      </c>
+      <c r="H108">
+        <v>5.80304524814877</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>9106</v>
+      </c>
+      <c r="B109">
+        <v>353.974791580457</v>
+      </c>
+      <c r="C109">
+        <v>64.4890576171875</v>
+      </c>
+      <c r="D109">
+        <v>47.5428698730469</v>
+      </c>
+      <c r="E109">
+        <v>1.35644015158092</v>
+      </c>
+      <c r="F109">
+        <v>25.7249957245338</v>
+      </c>
+      <c r="G109">
+        <v>2.73</v>
+      </c>
+      <c r="H109">
+        <v>5.77758591879444</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>8268</v>
+      </c>
+      <c r="B110">
+        <v>331.081703905635</v>
+      </c>
+      <c r="C110">
+        <v>58.828346862793</v>
+      </c>
+      <c r="D110">
+        <v>46.1768061828613</v>
+      </c>
+      <c r="E110">
+        <v>1.27398041843412</v>
+      </c>
+      <c r="F110">
+        <v>24.9726877156478</v>
+      </c>
+      <c r="G110">
+        <v>2.35</v>
+      </c>
+      <c r="H110">
+        <v>3.21906977620081</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>9309</v>
+      </c>
+      <c r="B111">
+        <v>358.512127782494</v>
+      </c>
+      <c r="C111">
+        <v>66.6794342041016</v>
+      </c>
+      <c r="D111">
+        <v>46.5412664794922</v>
+      </c>
+      <c r="E111">
+        <v>1.43269488021954</v>
+      </c>
+      <c r="F111">
+        <v>25.9656487984911</v>
+      </c>
+      <c r="G111">
+        <v>2.93</v>
+      </c>
+      <c r="H111">
+        <v>4.73140881170629</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>9129</v>
+      </c>
+      <c r="B112">
+        <v>351.949943331747</v>
+      </c>
+      <c r="C112">
+        <v>66.7124096679688</v>
+      </c>
+      <c r="D112">
+        <v>44.1677946472168</v>
+      </c>
+      <c r="E112">
+        <v>1.51043107768507</v>
+      </c>
+      <c r="F112">
+        <v>25.9383476910949</v>
+      </c>
+      <c r="G112">
+        <v>2.86</v>
+      </c>
+      <c r="H112">
+        <v>1.40024592969615</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>9782</v>
+      </c>
+      <c r="B113">
+        <v>364.21802917276</v>
+      </c>
+      <c r="C113">
+        <v>66.967966003418</v>
+      </c>
+      <c r="D113">
+        <v>48.2003787231445</v>
+      </c>
+      <c r="E113">
+        <v>1.38936597133544</v>
+      </c>
+      <c r="F113">
+        <v>26.8575392113829</v>
+      </c>
+      <c r="G113">
+        <v>2.95</v>
+      </c>
+      <c r="H113">
+        <v>3.66681918977213</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>6499</v>
+      </c>
+      <c r="B114">
+        <v>296.545097651396</v>
+      </c>
+      <c r="C114">
+        <v>53.1838816833496</v>
+      </c>
+      <c r="D114">
+        <v>40.8010404968262</v>
+      </c>
+      <c r="E114">
+        <v>1.30349326967499</v>
+      </c>
+      <c r="F114">
+        <v>21.915722267781</v>
+      </c>
+      <c r="G114">
+        <v>1.67</v>
+      </c>
+      <c r="H114">
+        <v>4.89495616874994</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>7828</v>
+      </c>
+      <c r="B115">
+        <v>324.474823603616</v>
+      </c>
+      <c r="C115">
+        <v>59.6174346923828</v>
+      </c>
+      <c r="D115">
+        <v>42.9915188598633</v>
+      </c>
+      <c r="E115">
+        <v>1.38672548152379</v>
+      </c>
+      <c r="F115">
+        <v>24.1251383175504</v>
+      </c>
+      <c r="G115">
+        <v>2.24</v>
+      </c>
+      <c r="H115">
+        <v>2.86203902289153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>7225</v>
+      </c>
+      <c r="B116">
+        <v>317.986475479563</v>
+      </c>
+      <c r="C116">
+        <v>59.8701132202148</v>
+      </c>
+      <c r="D116">
+        <v>40.400814666748</v>
+      </c>
+      <c r="E116">
+        <v>1.48190361293608</v>
+      </c>
+      <c r="F116">
+        <v>22.7210921128133</v>
+      </c>
+      <c r="G116">
+        <v>2.07</v>
+      </c>
+      <c r="H116">
+        <v>5.17492797608179</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>7006</v>
+      </c>
+      <c r="B117">
+        <v>307.60413647146</v>
+      </c>
+      <c r="C117">
+        <v>55.7951692199707</v>
+      </c>
+      <c r="D117">
+        <v>41.6003796386719</v>
+      </c>
+      <c r="E117">
+        <v>1.34121778946708</v>
+      </c>
+      <c r="F117">
+        <v>22.7760266177371</v>
+      </c>
+      <c r="G117">
+        <v>1.95</v>
+      </c>
+      <c r="H117">
+        <v>4.08152161407298</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>8518</v>
+      </c>
+      <c r="B118">
+        <v>339.606347603894</v>
+      </c>
+      <c r="C118">
+        <v>61.5761898803711</v>
+      </c>
+      <c r="D118">
+        <v>45.9558572387695</v>
+      </c>
+      <c r="E118">
+        <v>1.33989862403054</v>
+      </c>
+      <c r="F118">
+        <v>25.0819811234363</v>
+      </c>
+      <c r="G118">
+        <v>2.43</v>
+      </c>
+      <c r="H118">
+        <v>4.36765399067008</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>8831</v>
+      </c>
+      <c r="B119">
+        <v>350.222369168162</v>
+      </c>
+      <c r="C119">
+        <v>65.0136117553711</v>
+      </c>
+      <c r="D119">
+        <v>45.6134613037109</v>
+      </c>
+      <c r="E119">
+        <v>1.42531634077245</v>
+      </c>
+      <c r="F119">
+        <v>25.2154082018665</v>
+      </c>
+      <c r="G119">
+        <v>2.73</v>
+      </c>
+      <c r="H119">
+        <v>5.4963200164217</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>9114</v>
+      </c>
+      <c r="B120">
+        <v>355.805394202091</v>
+      </c>
+      <c r="C120">
+        <v>66.0743997192383</v>
+      </c>
+      <c r="D120">
+        <v>46.3114665222168</v>
+      </c>
+      <c r="E120">
+        <v>1.42673952437979</v>
+      </c>
+      <c r="F120">
+        <v>25.6151259888528</v>
+      </c>
+      <c r="G120">
+        <v>2.69</v>
+      </c>
+      <c r="H120">
+        <v>5.47817538433039</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>8297</v>
+      </c>
+      <c r="B121">
+        <v>334.912604301121</v>
+      </c>
+      <c r="C121">
+        <v>61.0970910644531</v>
+      </c>
+      <c r="D121">
+        <v>44.8882713317871</v>
+      </c>
+      <c r="E121">
+        <v>1.36109253601815</v>
+      </c>
+      <c r="F121">
+        <v>24.7736271894388</v>
+      </c>
+      <c r="G121">
+        <v>2.37</v>
+      </c>
+      <c r="H121">
+        <v>3.84418846172868</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>7853</v>
+      </c>
+      <c r="B122">
+        <v>321.39882920913</v>
+      </c>
+      <c r="C122">
+        <v>59.0117333984375</v>
+      </c>
+      <c r="D122">
+        <v>42.6316981506348</v>
+      </c>
+      <c r="E122">
+        <v>1.38422197468948</v>
+      </c>
+      <c r="F122">
+        <v>24.4338164495619</v>
+      </c>
+      <c r="G122">
+        <v>2.28</v>
+      </c>
+      <c r="H122">
+        <v>0.643395190546595</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>7868</v>
+      </c>
+      <c r="B123">
+        <v>324.629358473123</v>
+      </c>
+      <c r="C123">
+        <v>57.8881039428711</v>
+      </c>
+      <c r="D123">
+        <v>45.0435290527344</v>
+      </c>
+      <c r="E123">
+        <v>1.28515915960091</v>
+      </c>
+      <c r="F123">
+        <v>24.2368713569429</v>
+      </c>
+      <c r="G123">
+        <v>2.36</v>
+      </c>
+      <c r="H123">
+        <v>4.11355012274497</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>7326</v>
+      </c>
+      <c r="B124">
+        <v>316.52907396028</v>
+      </c>
+      <c r="C124">
+        <v>59.1592315673828</v>
+      </c>
+      <c r="D124">
+        <v>40.7447442626953</v>
+      </c>
+      <c r="E124">
+        <v>1.45194754901302</v>
+      </c>
+      <c r="F124">
+        <v>23.1447933307994</v>
+      </c>
+      <c r="G124">
+        <v>2.08</v>
+      </c>
+      <c r="H124">
+        <v>3.36584965788854</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>8142</v>
+      </c>
+      <c r="B125">
+        <v>328.91753133927</v>
+      </c>
+      <c r="C125">
+        <v>58.6585105895996</v>
+      </c>
+      <c r="D125">
+        <v>45.6320231628418</v>
+      </c>
+      <c r="E125">
+        <v>1.28546811041605</v>
+      </c>
+      <c r="F125">
+        <v>24.7539252980764</v>
+      </c>
+      <c r="G125">
+        <v>2.5</v>
+      </c>
+      <c r="H125">
+        <v>3.28078506453684</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>8736</v>
+      </c>
+      <c r="B126">
+        <v>344.949722797075</v>
+      </c>
+      <c r="C126">
+        <v>65.2887301635742</v>
+      </c>
+      <c r="D126">
+        <v>43.4082499694824</v>
+      </c>
+      <c r="E126">
+        <v>1.50406271179959</v>
+      </c>
+      <c r="F126">
+        <v>25.3254298312313</v>
+      </c>
+      <c r="G126">
+        <v>2.52</v>
+      </c>
+      <c r="H126">
+        <v>1.91726168799438</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>7812</v>
+      </c>
+      <c r="B127">
+        <v>332.631062327137</v>
+      </c>
+      <c r="C127">
+        <v>61.7657531738281</v>
+      </c>
+      <c r="D127">
+        <v>43.3011849975586</v>
+      </c>
+      <c r="E127">
+        <v>1.42642177523111</v>
+      </c>
+      <c r="F127">
+        <v>23.4854795139879</v>
+      </c>
+      <c r="G127">
+        <v>2.19</v>
+      </c>
+      <c r="H127">
+        <v>7.55612848218495</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>10771</v>
+      </c>
+      <c r="B128">
+        <v>378.911302238118</v>
+      </c>
+      <c r="C128">
+        <v>71.0480093383789</v>
+      </c>
+      <c r="D128">
+        <v>48.4973579406738</v>
+      </c>
+      <c r="E128">
+        <v>1.46498721487655</v>
+      </c>
+      <c r="F128">
+        <v>28.4261776737164</v>
+      </c>
+      <c r="G128">
+        <v>3.51</v>
+      </c>
+      <c r="H128">
+        <v>0.499485983106141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>10182</v>
+      </c>
+      <c r="B129">
+        <v>365.347686201802</v>
+      </c>
+      <c r="C129">
+        <v>68.7045474243164</v>
+      </c>
+      <c r="D129">
+        <v>46.5188055419922</v>
+      </c>
+      <c r="E129">
+        <v>1.47691985260235</v>
+      </c>
+      <c r="F129">
+        <v>27.8693430519658</v>
+      </c>
+      <c r="G129">
+        <v>3.54</v>
+      </c>
+      <c r="H129">
+        <v>1.38776136412249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>9892</v>
+      </c>
+      <c r="B130">
+        <v>357.796717015674</v>
+      </c>
+      <c r="C130">
+        <v>65.9230340576172</v>
+      </c>
+      <c r="D130">
+        <v>47.1902787780762</v>
+      </c>
+      <c r="E130">
+        <v>1.39696216603501</v>
+      </c>
+      <c r="F130">
+        <v>27.6469836909282</v>
+      </c>
+      <c r="G130">
+        <v>2.91</v>
+      </c>
+      <c r="H130">
+        <v>1.20032973145704</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>9084</v>
+      </c>
+      <c r="B131">
+        <v>350.556471217195</v>
+      </c>
+      <c r="C131">
+        <v>63.9189709472656</v>
+      </c>
+      <c r="D131">
+        <v>47.0223341369629</v>
+      </c>
+      <c r="E131">
+        <v>1.35933215822693</v>
+      </c>
+      <c r="F131">
+        <v>25.9130860384882</v>
+      </c>
+      <c r="G131">
+        <v>2.77</v>
+      </c>
+      <c r="H131">
+        <v>3.94574227524616</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>8319</v>
+      </c>
+      <c r="B132">
+        <v>332.104000129325</v>
+      </c>
+      <c r="C132">
+        <v>60.0370050048828</v>
+      </c>
+      <c r="D132">
+        <v>45.1473863220215</v>
+      </c>
+      <c r="E132">
+        <v>1.32980023642251</v>
+      </c>
+      <c r="F132">
+        <v>25.0493821115087</v>
+      </c>
+      <c r="G132">
+        <v>2.63</v>
+      </c>
+      <c r="H132">
+        <v>2.36002434841865</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>7600</v>
+      </c>
+      <c r="B133">
+        <v>319.775278757061</v>
+      </c>
+      <c r="C133">
+        <v>59.5063723754883</v>
+      </c>
+      <c r="D133">
+        <v>41.474693145752</v>
+      </c>
+      <c r="E133">
+        <v>1.43476341503887</v>
+      </c>
+      <c r="F133">
+        <v>23.7666902505427</v>
+      </c>
+      <c r="G133">
+        <v>2.08</v>
+      </c>
+      <c r="H133">
+        <v>2.01944053883434</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>9561</v>
+      </c>
+      <c r="B134">
+        <v>352.995139890885</v>
+      </c>
+      <c r="C134">
+        <v>63.7293655395508</v>
+      </c>
+      <c r="D134">
+        <v>48.0845574951172</v>
+      </c>
+      <c r="E134">
+        <v>1.32536034143648</v>
+      </c>
+      <c r="F134">
+        <v>27.0853587473058</v>
+      </c>
+      <c r="G134">
+        <v>2.67</v>
+      </c>
+      <c r="H134">
+        <v>0.691259460919978</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>9364</v>
+      </c>
+      <c r="B135">
+        <v>354.837664121</v>
+      </c>
+      <c r="C135">
+        <v>63.6534405517578</v>
+      </c>
+      <c r="D135">
+        <v>48.8041743469238</v>
+      </c>
+      <c r="E135">
+        <v>1.30426221534409</v>
+      </c>
+      <c r="F135">
+        <v>26.3895323040083</v>
+      </c>
+      <c r="G135">
+        <v>2.94</v>
+      </c>
+      <c r="H135">
+        <v>4.22390004948691</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>10759</v>
+      </c>
+      <c r="B136">
+        <v>380.676895515823</v>
+      </c>
+      <c r="C136">
+        <v>70.8649105834961</v>
+      </c>
+      <c r="D136">
+        <v>49.3430613708496</v>
+      </c>
+      <c r="E136">
+        <v>1.43616769237105</v>
+      </c>
+      <c r="F136">
+        <v>28.2628132327847</v>
+      </c>
+      <c r="G136">
+        <v>3.38</v>
+      </c>
+      <c r="H136">
+        <v>2.10224688947177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>10814</v>
+      </c>
+      <c r="B137">
+        <v>373.903800865053</v>
+      </c>
+      <c r="C137">
+        <v>66.8538854980469</v>
+      </c>
+      <c r="D137">
+        <v>51.6770791625977</v>
+      </c>
+      <c r="E137">
+        <v>1.29368545168152</v>
+      </c>
+      <c r="F137">
+        <v>28.9218776995073</v>
+      </c>
+      <c r="G137">
+        <v>3.1</v>
+      </c>
+      <c r="H137">
+        <v>0.366347470450622</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>9306</v>
+      </c>
+      <c r="B138">
+        <v>355.147829675543</v>
+      </c>
+      <c r="C138">
+        <v>64.7082974243164</v>
+      </c>
+      <c r="D138">
+        <v>47.6939793395996</v>
+      </c>
+      <c r="E138">
+        <v>1.3567393268565</v>
+      </c>
+      <c r="F138">
+        <v>26.2031729392851</v>
+      </c>
+      <c r="G138">
+        <v>2.86</v>
+      </c>
+      <c r="H138">
+        <v>4.18623802803938</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>10647</v>
+      </c>
+      <c r="B139">
+        <v>374.025972401478</v>
+      </c>
+      <c r="C139">
+        <v>68.1411920166016</v>
+      </c>
+      <c r="D139">
+        <v>50.2370207214355</v>
+      </c>
+      <c r="E139">
+        <v>1.35639397078192</v>
+      </c>
+      <c r="F139">
+        <v>28.4659376236353</v>
+      </c>
+      <c r="G139">
+        <v>3.59</v>
+      </c>
+      <c r="H139">
+        <v>1.00810445159312</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>7845</v>
+      </c>
+      <c r="B140">
+        <v>332.455866674205</v>
+      </c>
+      <c r="C140">
+        <v>63.0156903076172</v>
+      </c>
+      <c r="D140">
+        <v>41.7233638000488</v>
+      </c>
+      <c r="E140">
+        <v>1.5103214258948</v>
+      </c>
+      <c r="F140">
+        <v>23.5971170503898</v>
+      </c>
+      <c r="G140">
+        <v>2.28</v>
+      </c>
+      <c r="H140">
+        <v>5.28946950465241</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>8630</v>
+      </c>
+      <c r="B141">
+        <v>348.54827982006</v>
+      </c>
+      <c r="C141">
+        <v>64.4210360717774</v>
+      </c>
+      <c r="D141">
+        <v>45.7310969543457</v>
+      </c>
+      <c r="E141">
+        <v>1.40869212335077</v>
+      </c>
+      <c r="F141">
+        <v>24.7598410310769</v>
+      </c>
+      <c r="G141">
+        <v>2.73</v>
+      </c>
+      <c r="H141">
+        <v>7.24533277618993</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>8686</v>
+      </c>
+      <c r="B142">
+        <v>338.197526286458</v>
+      </c>
+      <c r="C142">
+        <v>59.5291491699219</v>
+      </c>
+      <c r="D142">
+        <v>47.8018901062012</v>
+      </c>
+      <c r="E142">
+        <v>1.24533044692723</v>
+      </c>
+      <c r="F142">
+        <v>25.6832156502613</v>
+      </c>
+      <c r="G142">
+        <v>2.73</v>
+      </c>
+      <c r="H142">
+        <v>2.92118838497358</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>8399</v>
+      </c>
+      <c r="B143">
+        <v>334.162644511135</v>
+      </c>
+      <c r="C143">
+        <v>60.7501678466797</v>
+      </c>
+      <c r="D143">
+        <v>45.0324424743652</v>
+      </c>
+      <c r="E143">
+        <v>1.34903115417872</v>
+      </c>
+      <c r="F143">
+        <v>25.1344671164168</v>
+      </c>
+      <c r="G143">
+        <v>2.47</v>
+      </c>
+      <c r="H143">
+        <v>2.32818628111286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>7041</v>
+      </c>
+      <c r="B144">
+        <v>303.977710859575</v>
+      </c>
+      <c r="C144">
+        <v>55.1441705322266</v>
+      </c>
+      <c r="D144">
+        <v>41.1020802307129</v>
+      </c>
+      <c r="E144">
+        <v>1.3416394066357</v>
+      </c>
+      <c r="F144">
+        <v>23.1628825024367</v>
+      </c>
+      <c r="G144">
+        <v>1.99</v>
+      </c>
+      <c r="H144">
+        <v>1.12975138022978</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>8814</v>
+      </c>
+      <c r="B145">
+        <v>350.539915113818</v>
+      </c>
+      <c r="C145">
+        <v>64.1609033203125</v>
+      </c>
+      <c r="D145">
+        <v>46.7336795043945</v>
+      </c>
+      <c r="E145">
+        <v>1.37290502268881</v>
+      </c>
+      <c r="F145">
+        <v>25.1440695338165</v>
+      </c>
+      <c r="G145">
+        <v>2.62</v>
+      </c>
+      <c r="H145">
+        <v>6.87528162604359</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>8872</v>
+      </c>
+      <c r="B146">
+        <v>345.884295195618</v>
+      </c>
+      <c r="C146">
+        <v>60.3147485351563</v>
+      </c>
+      <c r="D146">
+        <v>49.5181549072266</v>
+      </c>
+      <c r="E146">
+        <v>1.21803303552318</v>
+      </c>
+      <c r="F146">
+        <v>25.6501961009313</v>
+      </c>
+      <c r="G146">
+        <v>2.62</v>
+      </c>
+      <c r="H146">
+        <v>5.75875147409992</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>8868</v>
+      </c>
+      <c r="B147">
+        <v>347.874951869176</v>
+      </c>
+      <c r="C147">
+        <v>62.9259027099609</v>
+      </c>
+      <c r="D147">
+        <v>47.2476524353027</v>
+      </c>
+      <c r="E147">
+        <v>1.33183130730414</v>
+      </c>
+      <c r="F147">
+        <v>25.4919187264019</v>
+      </c>
+      <c r="G147">
+        <v>2.62</v>
+      </c>
+      <c r="H147">
+        <v>5.32558442467347</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>8618</v>
+      </c>
+      <c r="B148">
+        <v>343.774916335473</v>
+      </c>
+      <c r="C148">
+        <v>64.0933520507812</v>
+      </c>
+      <c r="D148">
+        <v>44.4422848510742</v>
+      </c>
+      <c r="E148">
+        <v>1.44217049743409</v>
+      </c>
+      <c r="F148">
+        <v>25.0687283757205</v>
+      </c>
+      <c r="G148">
+        <v>2.55</v>
+      </c>
+      <c r="H148">
+        <v>3.83714701838522</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>9919</v>
+      </c>
+      <c r="B149">
+        <v>370.368942837187</v>
+      </c>
+      <c r="C149">
+        <v>69.5421508789063</v>
+      </c>
+      <c r="D149">
+        <v>47.2877452087402</v>
+      </c>
+      <c r="E149">
+        <v>1.47061676491297</v>
+      </c>
+      <c r="F149">
+        <v>26.7814032246228</v>
+      </c>
+      <c r="G149">
+        <v>3.13</v>
+      </c>
+      <c r="H149">
+        <v>4.15466050594046</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>10168</v>
+      </c>
+      <c r="B150">
+        <v>363.778411275231</v>
+      </c>
+      <c r="C150">
+        <v>66.1561364746094</v>
+      </c>
+      <c r="D150">
+        <v>48.9980999755859</v>
+      </c>
+      <c r="E150">
+        <v>1.35017758867329</v>
+      </c>
+      <c r="F150">
+        <v>27.9510814409132</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>0.152941500902419</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>10490</v>
+      </c>
+      <c r="B151">
+        <v>373.821941071394</v>
+      </c>
+      <c r="C151">
+        <v>68.9695724487305</v>
+      </c>
+      <c r="D151">
+        <v>49.1926748657227</v>
+      </c>
+      <c r="E151">
+        <v>1.40202931914134</v>
+      </c>
+      <c r="F151">
+        <v>28.0614882313625</v>
+      </c>
+      <c r="G151">
+        <v>3.3</v>
+      </c>
+      <c r="H151">
+        <v>1.60904190895692</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>9313</v>
+      </c>
+      <c r="B152">
+        <v>357.492472637684</v>
+      </c>
+      <c r="C152">
+        <v>67.8637643432617</v>
+      </c>
+      <c r="D152">
+        <v>44.7392465209961</v>
+      </c>
+      <c r="E152">
+        <v>1.51687320687024</v>
+      </c>
+      <c r="F152">
+        <v>26.050898166571</v>
+      </c>
+      <c r="G152">
+        <v>2.65</v>
+      </c>
+      <c r="H152">
+        <v>2.42049755067637</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>8730</v>
+      </c>
+      <c r="B153">
+        <v>343.60258017079</v>
+      </c>
+      <c r="C153">
+        <v>62.5861108398438</v>
+      </c>
+      <c r="D153">
+        <v>46.1652352905273</v>
+      </c>
+      <c r="E153">
+        <v>1.35569786325092</v>
+      </c>
+      <c r="F153">
+        <v>25.4072597349551</v>
+      </c>
+      <c r="G153">
+        <v>2.64</v>
+      </c>
+      <c r="H153">
+        <v>3.97493254490054</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>8104</v>
+      </c>
+      <c r="B154">
+        <v>330.05133549224</v>
+      </c>
+      <c r="C154">
+        <v>60.465299987793</v>
+      </c>
+      <c r="D154">
+        <v>43.9382157897949</v>
+      </c>
+      <c r="E154">
+        <v>1.37614372593246</v>
+      </c>
+      <c r="F154">
+        <v>24.5537561237668</v>
+      </c>
+      <c r="G154">
+        <v>2.4</v>
+      </c>
+      <c r="H154">
+        <v>2.99095130975166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>8153</v>
+      </c>
+      <c r="B155">
+        <v>333.427971188567</v>
+      </c>
+      <c r="C155">
+        <v>60.5603308105469</v>
+      </c>
+      <c r="D155">
+        <v>44.9987861633301</v>
+      </c>
+      <c r="E155">
+        <v>1.34582143151004</v>
+      </c>
+      <c r="F155">
+        <v>24.4520577291014</v>
+      </c>
+      <c r="G155">
+        <v>2.45</v>
+      </c>
+      <c r="H155">
+        <v>5.00777783914844</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>8258</v>
+      </c>
+      <c r="B156">
+        <v>330.181714422689</v>
+      </c>
+      <c r="C156">
+        <v>55.7958921813965</v>
+      </c>
+      <c r="D156">
+        <v>49.2006169128418</v>
+      </c>
+      <c r="E156">
+        <v>1.13404862951694</v>
+      </c>
+      <c r="F156">
+        <v>25.010470414568</v>
+      </c>
+      <c r="G156">
+        <v>2.45</v>
+      </c>
+      <c r="H156">
+        <v>4.43540826220302</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>8216</v>
+      </c>
+      <c r="B157">
+        <v>336.600465279361</v>
+      </c>
+      <c r="C157">
+        <v>62.5436947631836</v>
+      </c>
+      <c r="D157">
+        <v>43.7690463256836</v>
+      </c>
+      <c r="E157">
+        <v>1.42894808120329</v>
+      </c>
+      <c r="F157">
+        <v>24.4087600805339</v>
+      </c>
+      <c r="G157">
+        <v>2.45</v>
+      </c>
+      <c r="H157">
+        <v>4.67429864478382</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>7321</v>
+      </c>
+      <c r="B158">
+        <v>316.901019398972</v>
+      </c>
+      <c r="C158">
+        <v>56.0045964050293</v>
+      </c>
+      <c r="D158">
+        <v>44.5411199951172</v>
+      </c>
+      <c r="E158">
+        <v>1.25736839152605</v>
+      </c>
+      <c r="F158">
+        <v>23.1018505837718</v>
+      </c>
+      <c r="G158">
+        <v>1.93</v>
+      </c>
+      <c r="H158">
+        <v>7.04447855938005</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>7509</v>
+      </c>
+      <c r="B159">
+        <v>318.952782804223</v>
+      </c>
+      <c r="C159">
+        <v>58.843381652832</v>
+      </c>
+      <c r="D159">
+        <v>41.9756843566895</v>
+      </c>
+      <c r="E159">
+        <v>1.40184448579346</v>
+      </c>
+      <c r="F159">
+        <v>23.5426696515424</v>
+      </c>
+      <c r="G159">
+        <v>1.93</v>
+      </c>
+      <c r="H159">
+        <v>3.33874356980833</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>8777</v>
+      </c>
+      <c r="B160">
+        <v>331.588304390258</v>
+      </c>
+      <c r="C160">
+        <v>57.5077735900879</v>
+      </c>
+      <c r="D160">
+        <v>47.8170372009277</v>
+      </c>
+      <c r="E160">
+        <v>1.20266283643714</v>
+      </c>
+      <c r="F160">
+        <v>26.4695704998993</v>
+      </c>
+      <c r="G160">
+        <v>2.58</v>
+      </c>
+      <c r="H160">
+        <v>1.57328475793784</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>8220</v>
+      </c>
+      <c r="B161">
+        <v>332.722081878375</v>
+      </c>
+      <c r="C161">
+        <v>59.8166912841797</v>
+      </c>
+      <c r="D161">
+        <v>45.613113861084</v>
+      </c>
+      <c r="E161">
+        <v>1.31139240934862</v>
+      </c>
+      <c r="F161">
+        <v>24.7053034580518</v>
+      </c>
+      <c r="G161">
+        <v>2.35</v>
+      </c>
+      <c r="H161">
+        <v>4.27739251594195</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>7129</v>
+      </c>
+      <c r="B162">
+        <v>308.662707675713</v>
+      </c>
+      <c r="C162">
+        <v>54.1229489135742</v>
+      </c>
+      <c r="D162">
+        <v>43.8584303283692</v>
+      </c>
+      <c r="E162">
+        <v>1.23403752729759</v>
+      </c>
+      <c r="F162">
+        <v>23.0964085479671</v>
+      </c>
+      <c r="G162">
+        <v>1.77</v>
+      </c>
+      <c r="H162">
+        <v>4.60580686855887</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>8116</v>
+      </c>
+      <c r="B163">
+        <v>324.955524235493</v>
+      </c>
+      <c r="C163">
+        <v>57.6749250793457</v>
+      </c>
+      <c r="D163">
+        <v>45.3955796813965</v>
+      </c>
+      <c r="E163">
+        <v>1.27049649952992</v>
+      </c>
+      <c r="F163">
+        <v>24.9757255830444</v>
+      </c>
+      <c r="G163">
+        <v>2.22</v>
+      </c>
+      <c r="H163">
+        <v>1.34642641128959</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>10647</v>
+      </c>
+      <c r="B164">
+        <v>369.053103174965</v>
+      </c>
+      <c r="C164">
+        <v>66.2476507568359</v>
+      </c>
+      <c r="D164">
+        <v>50.7089144897461</v>
+      </c>
+      <c r="E164">
+        <v>1.30643007099337</v>
+      </c>
+      <c r="F164">
+        <v>28.8495067739678</v>
+      </c>
+      <c r="G164">
+        <v>3.05</v>
+      </c>
+      <c r="H164">
+        <v>0.876320547083118</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>8548</v>
+      </c>
+      <c r="B165">
+        <v>340.552400607932</v>
+      </c>
+      <c r="C165">
+        <v>60.1590521240234</v>
+      </c>
+      <c r="D165">
+        <v>47.8938009643555</v>
+      </c>
+      <c r="E165">
+        <v>1.2560926657042</v>
+      </c>
+      <c r="F165">
+        <v>25.1003956652212</v>
+      </c>
+      <c r="G165">
+        <v>2.54</v>
+      </c>
+      <c r="H165">
+        <v>5.89260909876619</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>8629</v>
+      </c>
+      <c r="B166">
+        <v>340.048239742951</v>
+      </c>
+      <c r="C166">
+        <v>62.2523342895508</v>
+      </c>
+      <c r="D166">
+        <v>45.3211392211914</v>
+      </c>
+      <c r="E166">
+        <v>1.37358273334053</v>
+      </c>
+      <c r="F166">
+        <v>25.3758114040609</v>
+      </c>
+      <c r="G166">
+        <v>2.54</v>
+      </c>
+      <c r="H166">
+        <v>2.71783630539328</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>8018</v>
+      </c>
+      <c r="B167">
+        <v>326.341307436949</v>
+      </c>
+      <c r="C167">
+        <v>57.5837898254395</v>
+      </c>
+      <c r="D167">
+        <v>45.9678633117676</v>
+      </c>
+      <c r="E167">
+        <v>1.25269668148135</v>
+      </c>
+      <c r="F167">
+        <v>24.5693689927657</v>
+      </c>
+      <c r="G167">
+        <v>2.3</v>
+      </c>
+      <c r="H167">
+        <v>3.71423831670812</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>10329</v>
+      </c>
+      <c r="B168">
+        <v>370.421825444885</v>
+      </c>
+      <c r="C168">
+        <v>69.4620565795898</v>
+      </c>
+      <c r="D168">
+        <v>47.4036647033692</v>
+      </c>
+      <c r="E168">
+        <v>1.46533094042944</v>
+      </c>
+      <c r="F168">
+        <v>27.884426052905</v>
+      </c>
+      <c r="G168">
+        <v>3.29</v>
+      </c>
+      <c r="H168">
+        <v>0.150045351938199</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>8588</v>
+      </c>
+      <c r="B169">
+        <v>337.459588901359</v>
+      </c>
+      <c r="C169">
+        <v>61.1140631103516</v>
+      </c>
+      <c r="D169">
+        <v>45.7496903991699</v>
+      </c>
+      <c r="E169">
+        <v>1.33583555598139</v>
+      </c>
+      <c r="F169">
+        <v>25.4489730991473</v>
+      </c>
+      <c r="G169">
+        <v>2.71</v>
+      </c>
+      <c r="H169">
+        <v>2.27916049421207</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>10062</v>
+      </c>
+      <c r="B170">
+        <v>364.18772287476</v>
+      </c>
+      <c r="C170">
+        <v>65.2623806762695</v>
+      </c>
+      <c r="D170">
+        <v>50.168199005127</v>
+      </c>
+      <c r="E170">
+        <v>1.30087150765767</v>
+      </c>
+      <c r="F170">
+        <v>27.6286084565794</v>
+      </c>
+      <c r="G170">
+        <v>3.3</v>
+      </c>
+      <c r="H170">
+        <v>2.22496779009714</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>10959</v>
+      </c>
+      <c r="B171">
+        <v>386.071768150844</v>
+      </c>
+      <c r="C171">
+        <v>72.4341510009766</v>
+      </c>
+      <c r="D171">
+        <v>49.3611003112793</v>
+      </c>
+      <c r="E171">
+        <v>1.46743388101551</v>
+      </c>
+      <c r="F171">
+        <v>28.3859139778337</v>
+      </c>
+      <c r="G171">
+        <v>3.62</v>
+      </c>
+      <c r="H171">
+        <v>2.49605544407639</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>8558</v>
+      </c>
+      <c r="B172">
+        <v>339.745351773073</v>
+      </c>
+      <c r="C172">
+        <v>63.7566836547852</v>
+      </c>
+      <c r="D172">
+        <v>43.4208070373535</v>
+      </c>
+      <c r="E172">
+        <v>1.4683440498915</v>
+      </c>
+      <c r="F172">
+        <v>25.1894542643108</v>
+      </c>
+      <c r="G172">
+        <v>2.58</v>
+      </c>
+      <c r="H172">
+        <v>1.62515022445111</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>8186</v>
+      </c>
+      <c r="B173">
+        <v>326.979064780863</v>
+      </c>
+      <c r="C173">
+        <v>59.3000967407227</v>
+      </c>
+      <c r="D173">
+        <v>44.2315556335449</v>
+      </c>
+      <c r="E173">
+        <v>1.34067400278705</v>
+      </c>
+      <c r="F173">
+        <v>25.0352419519156</v>
+      </c>
+      <c r="G173">
+        <v>2.41</v>
+      </c>
+      <c r="H173">
+        <v>0.66204478131975</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>9826</v>
+      </c>
+      <c r="B174">
+        <v>358.027166286699</v>
+      </c>
+      <c r="C174">
+        <v>63.5748834228516</v>
+      </c>
+      <c r="D174">
+        <v>49.9815380859375</v>
+      </c>
+      <c r="E174">
+        <v>1.27196732748684</v>
+      </c>
+      <c r="F174">
+        <v>27.444844763907</v>
+      </c>
+      <c r="G174">
+        <v>2.92</v>
+      </c>
+      <c r="H174">
+        <v>1.59405662848942</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>6352</v>
+      </c>
+      <c r="B175">
+        <v>294.003410962361</v>
+      </c>
+      <c r="C175">
+        <v>54.6267372131348</v>
+      </c>
+      <c r="D175">
+        <v>38.232435760498</v>
+      </c>
+      <c r="E175">
+        <v>1.42880609426343</v>
+      </c>
+      <c r="F175">
+        <v>21.6051915153229</v>
+      </c>
+      <c r="G175">
+        <v>1.67</v>
+      </c>
+      <c r="H175">
+        <v>3.29436072075795</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>7362</v>
+      </c>
+      <c r="B176">
+        <v>316.468160111836</v>
+      </c>
+      <c r="C176">
+        <v>58.8347341918945</v>
+      </c>
+      <c r="D176">
+        <v>41.1131106567383</v>
+      </c>
+      <c r="E176">
+        <v>1.43104555340309</v>
+      </c>
+      <c r="F176">
+        <v>23.2630037644177</v>
+      </c>
+      <c r="G176">
+        <v>1.99</v>
+      </c>
+      <c r="H176">
+        <v>3.22103096056699</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>7493</v>
+      </c>
+      <c r="B177">
+        <v>323.51328255902</v>
+      </c>
+      <c r="C177">
+        <v>60.2246591186523</v>
+      </c>
+      <c r="D177">
+        <v>41.9323066711426</v>
+      </c>
+      <c r="E177">
+        <v>1.43623530160096</v>
+      </c>
+      <c r="F177">
+        <v>23.1613365013322</v>
+      </c>
+      <c r="G177">
+        <v>1.96</v>
+      </c>
+      <c r="H177">
+        <v>5.88080729226395</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>7558</v>
+      </c>
+      <c r="B178">
+        <v>317.028099863362</v>
+      </c>
+      <c r="C178">
+        <v>53.8868774414063</v>
+      </c>
+      <c r="D178">
+        <v>46.9053688049316</v>
+      </c>
+      <c r="E178">
+        <v>1.14884242069408</v>
+      </c>
+      <c r="F178">
+        <v>23.8401580278135</v>
+      </c>
+      <c r="G178">
+        <v>1.96</v>
+      </c>
+      <c r="H178">
+        <v>5.06270026902919</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>7538</v>
+      </c>
+      <c r="B179">
+        <v>316.324901745127</v>
+      </c>
+      <c r="C179">
+        <v>58.431332244873</v>
+      </c>
+      <c r="D179">
+        <v>41.5435639953613</v>
+      </c>
+      <c r="E179">
+        <v>1.40650744965929</v>
+      </c>
+      <c r="F179">
+        <v>23.829929159588</v>
+      </c>
+      <c r="G179">
+        <v>1.96</v>
+      </c>
+      <c r="H179">
+        <v>1.16802682757194</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>7904</v>
+      </c>
+      <c r="B180">
+        <v>326.120815199354</v>
+      </c>
+      <c r="C180">
+        <v>58.5149536132813</v>
+      </c>
+      <c r="D180">
+        <v>44.8396714782715</v>
+      </c>
+      <c r="E180">
+        <v>1.30498176467766</v>
+      </c>
+      <c r="F180">
+        <v>24.2364167867309</v>
+      </c>
+      <c r="G180">
+        <v>2.11</v>
+      </c>
+      <c r="H180">
+        <v>4.28749319214157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>11700</v>
+      </c>
+      <c r="B181">
+        <v>397.27297166672</v>
+      </c>
+      <c r="C181">
+        <v>72.3173120117188</v>
+      </c>
+      <c r="D181">
+        <v>53.4282356262207</v>
+      </c>
+      <c r="E181">
+        <v>1.3535410848609</v>
+      </c>
+      <c r="F181">
+        <v>29.4507827978173</v>
+      </c>
+      <c r="G181">
+        <v>3.69</v>
+      </c>
+      <c r="H181">
+        <v>3.7473754303535</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>7607</v>
+      </c>
+      <c r="B182">
+        <v>324.34562108739</v>
+      </c>
+      <c r="C182">
+        <v>59.9406616210938</v>
+      </c>
+      <c r="D182">
+        <v>42.5640029907227</v>
+      </c>
+      <c r="E182">
+        <v>1.40824775419169</v>
+      </c>
+      <c r="F182">
+        <v>23.453376600236</v>
+      </c>
+      <c r="G182">
+        <v>2.19</v>
+      </c>
+      <c r="H182">
+        <v>5.36599042706939</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>7591</v>
+      </c>
+      <c r="B183">
+        <v>319.415067769826</v>
+      </c>
+      <c r="C183">
+        <v>56.36841796875</v>
+      </c>
+      <c r="D183">
+        <v>44.9846533203125</v>
+      </c>
+      <c r="E183">
+        <v>1.25305885025677</v>
+      </c>
+      <c r="F183">
+        <v>23.7653159351586</v>
+      </c>
+      <c r="G183">
+        <v>2.19</v>
+      </c>
+      <c r="H183">
+        <v>4.94242733346136</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>7515</v>
+      </c>
+      <c r="B184">
+        <v>318.035520515989</v>
+      </c>
+      <c r="C184">
+        <v>59.4248672485352</v>
+      </c>
+      <c r="D184">
+        <v>40.957852935791</v>
+      </c>
+      <c r="E184">
+        <v>1.45087847602008</v>
+      </c>
+      <c r="F184">
+        <v>23.6294360699316</v>
+      </c>
+      <c r="G184">
+        <v>2.19</v>
+      </c>
+      <c r="H184">
+        <v>1.74809581094112</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>8028</v>
+      </c>
+      <c r="B185">
+        <v>336.559740897161</v>
+      </c>
+      <c r="C185">
+        <v>63.670026550293</v>
+      </c>
+      <c r="D185">
+        <v>42.3901728820801</v>
+      </c>
+      <c r="E185">
+        <v>1.50199969052754</v>
+      </c>
+      <c r="F185">
+        <v>23.8531203363775</v>
+      </c>
+      <c r="G185">
+        <v>2.36</v>
+      </c>
+      <c r="H185">
+        <v>5.61916448525285</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>7990</v>
+      </c>
+      <c r="B186">
+        <v>325.890615405795</v>
+      </c>
+      <c r="C186">
+        <v>56.9143170166016</v>
+      </c>
+      <c r="D186">
+        <v>46.560733795166</v>
+      </c>
+      <c r="E186">
+        <v>1.22236726910241</v>
+      </c>
+      <c r="F186">
+        <v>24.517428923355</v>
+      </c>
+      <c r="G186">
+        <v>2.36</v>
+      </c>
+      <c r="H186">
+        <v>4.19441439490739</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/核桃仁表型信息.xlsx
+++ b/核桃仁表型信息.xlsx
@@ -2,368 +2,42 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12375" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="2">
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
       <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -372,304 +46,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+  </cellStyleXfs>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1022,6 +415,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1031,62 +425,60 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H463"/>
+  <dimension ref="A1:I463"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="F311" sqref="F311"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col width="10.875" customWidth="1" min="1" max="1"/>
-    <col width="11.625" customWidth="1" min="2" max="2"/>
-    <col width="12.625" customWidth="1" min="3" max="5"/>
-    <col width="24.875" customWidth="1" min="6" max="6"/>
-    <col width="12.625" customWidth="1" min="8" max="8"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>area_num</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>perimeter</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>b</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>a/b</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>area_num/perimeter</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>g</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1113,6 +505,9 @@
       <c r="H2" t="n">
         <v>6</v>
       </c>
+      <c r="I2" t="n">
+        <v>0.7142042949792483</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1139,6 +534,9 @@
       <c r="H3" t="n">
         <v>2.4</v>
       </c>
+      <c r="I3" t="n">
+        <v>0.6376910329091623</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1165,6 +563,9 @@
       <c r="H4" t="n">
         <v>2.6</v>
       </c>
+      <c r="I4" t="n">
+        <v>0.6997756761659336</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1191,6 +592,9 @@
       <c r="H5" t="n">
         <v>0.7</v>
       </c>
+      <c r="I5" t="n">
+        <v>0.6537694535247139</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1217,6 +621,9 @@
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
+      <c r="I6" t="n">
+        <v>0.6910460629054466</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1243,6 +650,9 @@
       <c r="H7" t="n">
         <v>2.9</v>
       </c>
+      <c r="I7" t="n">
+        <v>0.686981734065763</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1269,6 +679,9 @@
       <c r="H8" t="n">
         <v>1.3</v>
       </c>
+      <c r="I8" t="n">
+        <v>0.6967681936649869</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1295,6 +708,9 @@
       <c r="H9" t="n">
         <v>4</v>
       </c>
+      <c r="I9" t="n">
+        <v>0.7156025857338102</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1321,6 +737,9 @@
       <c r="H10" t="n">
         <v>2.9</v>
       </c>
+      <c r="I10" t="n">
+        <v>0.7143547145068536</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1347,6 +766,9 @@
       <c r="H11" t="n">
         <v>0.5</v>
       </c>
+      <c r="I11" t="n">
+        <v>0.7293357906598162</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1373,6 +795,9 @@
       <c r="H12" t="n">
         <v>4.5</v>
       </c>
+      <c r="I12" t="n">
+        <v>0.6254363184169951</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1399,6 +824,9 @@
       <c r="H13" t="n">
         <v>1.2</v>
       </c>
+      <c r="I13" t="n">
+        <v>0.6988860226824193</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1425,6 +853,9 @@
       <c r="H14" t="n">
         <v>5.4</v>
       </c>
+      <c r="I14" t="n">
+        <v>0.7057091942063136</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1451,6 +882,9 @@
       <c r="H15" t="n">
         <v>3.6</v>
       </c>
+      <c r="I15" t="n">
+        <v>0.7713834580703341</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1477,6 +911,9 @@
       <c r="H16" t="n">
         <v>2.7</v>
       </c>
+      <c r="I16" t="n">
+        <v>0.6981654919135666</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1503,6 +940,9 @@
       <c r="H17" t="n">
         <v>1.5</v>
       </c>
+      <c r="I17" t="n">
+        <v>0.7322564192396244</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1529,6 +969,9 @@
       <c r="H18" t="n">
         <v>2.3</v>
       </c>
+      <c r="I18" t="n">
+        <v>0.6601952471632077</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1555,6 +998,9 @@
       <c r="H19" t="n">
         <v>5.4</v>
       </c>
+      <c r="I19" t="n">
+        <v>0.6787197617430655</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1581,6 +1027,9 @@
       <c r="H20" t="n">
         <v>3.5</v>
       </c>
+      <c r="I20" t="n">
+        <v>0.6954590578510143</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1607,6 +1056,9 @@
       <c r="H21" t="n">
         <v>2.9</v>
       </c>
+      <c r="I21" t="n">
+        <v>0.7325136719825269</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1633,6 +1085,9 @@
       <c r="H22" t="n">
         <v>1.7</v>
       </c>
+      <c r="I22" t="n">
+        <v>0.7440189739583049</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1659,6 +1114,9 @@
       <c r="H23" t="n">
         <v>4.2</v>
       </c>
+      <c r="I23" t="n">
+        <v>0.6869172534429667</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1685,6 +1143,9 @@
       <c r="H24" t="n">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>0.7067449147775215</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1711,6 +1172,9 @@
       <c r="H25" t="n">
         <v>3.6</v>
       </c>
+      <c r="I25" t="n">
+        <v>0.7099155163576902</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1737,6 +1201,9 @@
       <c r="H26" t="n">
         <v>6.8</v>
       </c>
+      <c r="I26" t="n">
+        <v>0.6530443922170989</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1763,6 +1230,9 @@
       <c r="H27" t="n">
         <v>0.7</v>
       </c>
+      <c r="I27" t="n">
+        <v>0.7488933683573841</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1789,6 +1259,9 @@
       <c r="H28" t="n">
         <v>2.4</v>
       </c>
+      <c r="I28" t="n">
+        <v>0.6803844005040716</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1815,6 +1288,9 @@
       <c r="H29" t="n">
         <v>2.2</v>
       </c>
+      <c r="I29" t="n">
+        <v>0.6901554086283119</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1841,6 +1317,9 @@
       <c r="H30" t="n">
         <v>0.3</v>
       </c>
+      <c r="I30" t="n">
+        <v>0.7648274956215464</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1867,6 +1346,9 @@
       <c r="H31" t="n">
         <v>3.8</v>
       </c>
+      <c r="I31" t="n">
+        <v>0.6894218302079299</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1893,6 +1375,9 @@
       <c r="H32" t="n">
         <v>2.5</v>
       </c>
+      <c r="I32" t="n">
+        <v>0.6942115093163791</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1919,6 +1404,9 @@
       <c r="H33" t="n">
         <v>5.4</v>
       </c>
+      <c r="I33" t="n">
+        <v>0.6554489942951612</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1945,6 +1433,9 @@
       <c r="H34" t="n">
         <v>4.2</v>
       </c>
+      <c r="I34" t="n">
+        <v>0.6563695234616415</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1971,6 +1462,9 @@
       <c r="H35" t="n">
         <v>0.3</v>
       </c>
+      <c r="I35" t="n">
+        <v>0.7105260911366553</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1997,6 +1491,9 @@
       <c r="H36" t="n">
         <v>1</v>
       </c>
+      <c r="I36" t="n">
+        <v>0.6931811297928129</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2023,6 +1520,9 @@
       <c r="H37" t="n">
         <v>2.9</v>
       </c>
+      <c r="I37" t="n">
+        <v>0.6570707376817678</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -2049,6 +1549,9 @@
       <c r="H38" t="n">
         <v>2.8</v>
       </c>
+      <c r="I38" t="n">
+        <v>0.6830284531247817</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -2075,6 +1578,9 @@
       <c r="H39" t="n">
         <v>4.6298215415942</v>
       </c>
+      <c r="I39" t="n">
+        <v>0.6872245998681067</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -2101,6 +1607,9 @@
       <c r="H40" t="n">
         <v>3.54730104243423</v>
       </c>
+      <c r="I40" t="n">
+        <v>0.6847084486238492</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -2127,6 +1636,9 @@
       <c r="H41" t="n">
         <v>6.09215952746374</v>
       </c>
+      <c r="I41" t="n">
+        <v>0.6293408307652147</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2153,6 +1665,9 @@
       <c r="H42" t="n">
         <v>0.404168874302317</v>
       </c>
+      <c r="I42" t="n">
+        <v>0.7076415577438008</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2179,6 +1694,9 @@
       <c r="H43" t="n">
         <v>5.89496313226545</v>
       </c>
+      <c r="I43" t="n">
+        <v>0.6871202327485149</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2205,6 +1723,9 @@
       <c r="H44" t="n">
         <v>2.70364785704745</v>
       </c>
+      <c r="I44" t="n">
+        <v>0.5846337502715055</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2231,6 +1752,9 @@
       <c r="H45" t="n">
         <v>3.73515773961401</v>
       </c>
+      <c r="I45" t="n">
+        <v>0.7093552632022494</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2257,6 +1781,9 @@
       <c r="H46" t="n">
         <v>5.12978207546263</v>
       </c>
+      <c r="I46" t="n">
+        <v>0.6434268261980869</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2283,6 +1810,9 @@
       <c r="H47" t="n">
         <v>1.21635201892245</v>
       </c>
+      <c r="I47" t="n">
+        <v>0.7045067037666047</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2309,6 +1839,9 @@
       <c r="H48" t="n">
         <v>0.931487100541888</v>
       </c>
+      <c r="I48" t="n">
+        <v>0.7251639754806172</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2335,6 +1868,9 @@
       <c r="H49" t="n">
         <v>1.8342171960549</v>
       </c>
+      <c r="I49" t="n">
+        <v>0.7387977513930754</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2361,6 +1897,9 @@
       <c r="H50" t="n">
         <v>5.0459998358649</v>
       </c>
+      <c r="I50" t="n">
+        <v>0.6662643387070045</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2387,6 +1926,9 @@
       <c r="H51" t="n">
         <v>3.29251732317797</v>
       </c>
+      <c r="I51" t="n">
+        <v>0.7353134974973667</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2413,6 +1955,9 @@
       <c r="H52" t="n">
         <v>1.71519195425523</v>
       </c>
+      <c r="I52" t="n">
+        <v>0.7353033787342196</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2439,6 +1984,9 @@
       <c r="H53" t="n">
         <v>2.68014927710574</v>
       </c>
+      <c r="I53" t="n">
+        <v>0.6807207194869959</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2465,6 +2013,9 @@
       <c r="H54" t="n">
         <v>5.67709372275866</v>
       </c>
+      <c r="I54" t="n">
+        <v>0.6953529811721909</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2491,6 +2042,9 @@
       <c r="H55" t="n">
         <v>1.34971041527167</v>
       </c>
+      <c r="I55" t="n">
+        <v>0.7241773935119633</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2517,6 +2071,9 @@
       <c r="H56" t="n">
         <v>3.35299168228619</v>
       </c>
+      <c r="I56" t="n">
+        <v>0.6166905822981046</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2543,6 +2100,9 @@
       <c r="H57" t="n">
         <v>4.9704351274086</v>
       </c>
+      <c r="I57" t="n">
+        <v>0.7545494774632769</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2569,6 +2129,9 @@
       <c r="H58" t="n">
         <v>5.37649610134673</v>
       </c>
+      <c r="I58" t="n">
+        <v>0.657910140057393</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2595,6 +2158,9 @@
       <c r="H59" t="n">
         <v>2.14363352540094</v>
       </c>
+      <c r="I59" t="n">
+        <v>0.6831825370765138</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2621,6 +2187,9 @@
       <c r="H60" t="n">
         <v>1.63291240316236</v>
       </c>
+      <c r="I60" t="n">
+        <v>0.737164200327437</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2647,6 +2216,9 @@
       <c r="H61" t="n">
         <v>5.42208438601021</v>
       </c>
+      <c r="I61" t="n">
+        <v>0.6790924019390233</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2673,6 +2245,9 @@
       <c r="H62" t="n">
         <v>0.877384212931653</v>
       </c>
+      <c r="I62" t="n">
+        <v>0.6827627036990561</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2699,6 +2274,9 @@
       <c r="H63" t="n">
         <v>3.93343744516664</v>
       </c>
+      <c r="I63" t="n">
+        <v>0.7206173020671621</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2725,6 +2303,9 @@
       <c r="H64" t="n">
         <v>3.22790022252031</v>
       </c>
+      <c r="I64" t="n">
+        <v>0.6156163112824492</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2751,6 +2332,9 @@
       <c r="H65" t="n">
         <v>2.79485943258604</v>
       </c>
+      <c r="I65" t="n">
+        <v>0.625154429620732</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2777,6 +2361,9 @@
       <c r="H66" t="n">
         <v>0.573245582405683</v>
       </c>
+      <c r="I66" t="n">
+        <v>0.7172173312404709</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2803,6 +2390,9 @@
       <c r="H67" t="n">
         <v>2.53479728724202</v>
       </c>
+      <c r="I67" t="n">
+        <v>0.7310357773414947</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2829,6 +2419,9 @@
       <c r="H68" t="n">
         <v>5.6557176512</v>
       </c>
+      <c r="I68" t="n">
+        <v>0.7445532685111546</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2855,6 +2448,9 @@
       <c r="H69" t="n">
         <v>2.30230164771573</v>
       </c>
+      <c r="I69" t="n">
+        <v>0.7235528993143684</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2881,6 +2477,9 @@
       <c r="H70" t="n">
         <v>1.80099931318927</v>
       </c>
+      <c r="I70" t="n">
+        <v>0.7395467830297929</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2907,6 +2506,9 @@
       <c r="H71" t="n">
         <v>2.79643443799653</v>
       </c>
+      <c r="I71" t="n">
+        <v>0.740753409586506</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2933,6 +2535,9 @@
       <c r="H72" t="n">
         <v>3.5034903551702</v>
       </c>
+      <c r="I72" t="n">
+        <v>0.6482096196432867</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2959,6 +2564,9 @@
       <c r="H73" t="n">
         <v>3.11622007127507</v>
       </c>
+      <c r="I73" t="n">
+        <v>0.6506304295327525</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2985,6 +2593,9 @@
       <c r="H74" t="n">
         <v>0.389233656448989</v>
       </c>
+      <c r="I74" t="n">
+        <v>0.6460163979133583</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3011,6 +2622,9 @@
       <c r="H75" t="n">
         <v>4.67101579685476</v>
       </c>
+      <c r="I75" t="n">
+        <v>0.645310840083712</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3037,6 +2651,9 @@
       <c r="H76" t="n">
         <v>0.123023460950472</v>
       </c>
+      <c r="I76" t="n">
+        <v>0.6542443790685473</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3063,6 +2680,9 @@
       <c r="H77" t="n">
         <v>5.62489408901178</v>
       </c>
+      <c r="I77" t="n">
+        <v>0.7128555092939649</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3089,6 +2709,9 @@
       <c r="H78" t="n">
         <v>3.8871188882056</v>
       </c>
+      <c r="I78" t="n">
+        <v>0.6981770838100292</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3115,6 +2738,9 @@
       <c r="H79" t="n">
         <v>2.65224383524332</v>
       </c>
+      <c r="I79" t="n">
+        <v>0.7770754544515467</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3141,6 +2767,9 @@
       <c r="H80" t="n">
         <v>4.00418854757717</v>
       </c>
+      <c r="I80" t="n">
+        <v>0.6884044781635741</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3167,6 +2796,9 @@
       <c r="H81" t="n">
         <v>5.02128571938897</v>
       </c>
+      <c r="I81" t="n">
+        <v>0.7036792175572565</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3193,6 +2825,9 @@
       <c r="H82" t="n">
         <v>2.28608551211217</v>
       </c>
+      <c r="I82" t="n">
+        <v>0.7250569899450736</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3219,6 +2854,9 @@
       <c r="H83" t="n">
         <v>4.11154335982156</v>
       </c>
+      <c r="I83" t="n">
+        <v>0.657475649693555</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3245,6 +2883,9 @@
       <c r="H84" t="n">
         <v>0.634236536306346</v>
       </c>
+      <c r="I84" t="n">
+        <v>0.6926576315453855</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3271,6 +2912,9 @@
       <c r="H85" t="n">
         <v>3.77384996273697</v>
       </c>
+      <c r="I85" t="n">
+        <v>0.689858081996618</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3297,6 +2941,9 @@
       <c r="H86" t="n">
         <v>2.38571404014159</v>
       </c>
+      <c r="I86" t="n">
+        <v>0.7869446673271975</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3323,6 +2970,9 @@
       <c r="H87" t="n">
         <v>5.19345074123185</v>
       </c>
+      <c r="I87" t="n">
+        <v>0.607666455274634</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3349,6 +2999,9 @@
       <c r="H88" t="n">
         <v>1.11871452302392</v>
       </c>
+      <c r="I88" t="n">
+        <v>0.6733656093752911</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3375,6 +3028,9 @@
       <c r="H89" t="n">
         <v>3.64300263341626</v>
       </c>
+      <c r="I89" t="n">
+        <v>0.6975052457012889</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3401,6 +3057,9 @@
       <c r="H90" t="n">
         <v>0.412860331514861</v>
       </c>
+      <c r="I90" t="n">
+        <v>0.7196959722560869</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3427,6 +3086,9 @@
       <c r="H91" t="n">
         <v>0.387914456355952</v>
       </c>
+      <c r="I91" t="n">
+        <v>0.7659547858622178</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3453,6 +3115,9 @@
       <c r="H92" t="n">
         <v>5.40788123615052</v>
       </c>
+      <c r="I92" t="n">
+        <v>0.6814175627565884</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3479,6 +3144,9 @@
       <c r="H93" t="n">
         <v>5.24070140013039</v>
       </c>
+      <c r="I93" t="n">
+        <v>0.6964032739503316</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3505,6 +3173,9 @@
       <c r="H94" t="n">
         <v>0.590455886016766</v>
       </c>
+      <c r="I94" t="n">
+        <v>0.6449601878630735</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3531,6 +3202,9 @@
       <c r="H95" t="n">
         <v>3.2477196755298</v>
       </c>
+      <c r="I95" t="n">
+        <v>0.6509899538359363</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3557,6 +3231,9 @@
       <c r="H96" t="n">
         <v>1.28583312270328</v>
       </c>
+      <c r="I96" t="n">
+        <v>0.6865086784142981</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3583,6 +3260,9 @@
       <c r="H97" t="n">
         <v>3.40352956166332</v>
       </c>
+      <c r="I97" t="n">
+        <v>0.6644033745135424</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3609,6 +3289,9 @@
       <c r="H98" t="n">
         <v>5.5227794483007</v>
       </c>
+      <c r="I98" t="n">
+        <v>0.717744352606895</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3635,6 +3318,9 @@
       <c r="H99" t="n">
         <v>1.45480661215884</v>
       </c>
+      <c r="I99" t="n">
+        <v>0.6406387406896211</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3661,6 +3347,9 @@
       <c r="H100" t="n">
         <v>0.345768254579561</v>
       </c>
+      <c r="I100" t="n">
+        <v>0.6786163930737864</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3687,6 +3376,9 @@
       <c r="H101" t="n">
         <v>4.26802129890444</v>
       </c>
+      <c r="I101" t="n">
+        <v>0.7101957482760246</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3713,6 +3405,9 @@
       <c r="H102" t="n">
         <v>4.22372434207235</v>
       </c>
+      <c r="I102" t="n">
+        <v>0.6988793244549303</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3739,6 +3434,9 @@
       <c r="H103" t="n">
         <v>2.44960891268544</v>
       </c>
+      <c r="I103" t="n">
+        <v>0.6682890713242539</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3765,6 +3463,9 @@
       <c r="H104" t="n">
         <v>4.89008811132343</v>
       </c>
+      <c r="I104" t="n">
+        <v>0.6933495705469971</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3791,6 +3492,9 @@
       <c r="H105" t="n">
         <v>0.674501633207079</v>
       </c>
+      <c r="I105" t="n">
+        <v>0.67526408090468</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3817,6 +3521,9 @@
       <c r="H106" t="n">
         <v>1.50641651263449</v>
       </c>
+      <c r="I106" t="n">
+        <v>0.7076906367698397</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -3843,6 +3550,9 @@
       <c r="H107" t="n">
         <v>2.73344372159366</v>
       </c>
+      <c r="I107" t="n">
+        <v>0.6985770031325804</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -3869,6 +3579,9 @@
       <c r="H108" t="n">
         <v>5.80304524814877</v>
       </c>
+      <c r="I108" t="n">
+        <v>0.6997746530810209</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -3895,6 +3608,9 @@
       <c r="H109" t="n">
         <v>5.77758591879444</v>
       </c>
+      <c r="I109" t="n">
+        <v>0.6756485983982561</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -3921,6 +3637,9 @@
       <c r="H110" t="n">
         <v>3.21906977620081</v>
       </c>
+      <c r="I110" t="n">
+        <v>0.6195699843954822</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -3947,6 +3666,9 @@
       <c r="H111" t="n">
         <v>4.73140881170629</v>
       </c>
+      <c r="I111" t="n">
+        <v>0.7161120636042982</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -3973,6 +3695,9 @@
       <c r="H112" t="n">
         <v>1.40024592969615</v>
       </c>
+      <c r="I112" t="n">
+        <v>0.7494484966766543</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3999,6 +3724,9 @@
       <c r="H113" t="n">
         <v>3.66681918977213</v>
       </c>
+      <c r="I113" t="n">
+        <v>0.6942304780987124</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -4025,6 +3753,9 @@
       <c r="H114" t="n">
         <v>4.89495616874994</v>
       </c>
+      <c r="I114" t="n">
+        <v>0.6414446880270607</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -4051,6 +3782,9 @@
       <c r="H115" t="n">
         <v>2.86203902289153</v>
       </c>
+      <c r="I115" t="n">
+        <v>0.6928067868077884</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -4077,6 +3811,9 @@
       <c r="H116" t="n">
         <v>5.17492797608179</v>
       </c>
+      <c r="I116" t="n">
+        <v>0.7379935904090609</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4103,6 +3840,9 @@
       <c r="H117" t="n">
         <v>4.08152161407298</v>
       </c>
+      <c r="I117" t="n">
+        <v>0.6664037543734123</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -4129,6 +3869,9 @@
       <c r="H118" t="n">
         <v>4.36765399067008</v>
       </c>
+      <c r="I118" t="n">
+        <v>0.6655815628308087</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -4155,6 +3898,9 @@
       <c r="H119" t="n">
         <v>5.4963200164217</v>
       </c>
+      <c r="I119" t="n">
+        <v>0.712572350367876</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4181,6 +3927,9 @@
       <c r="H120" t="n">
         <v>5.47817538433039</v>
       </c>
+      <c r="I120" t="n">
+        <v>0.7132607463962044</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -4207,6 +3956,9 @@
       <c r="H121" t="n">
         <v>3.84418846172868</v>
       </c>
+      <c r="I121" t="n">
+        <v>0.6783879224738716</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -4233,6 +3985,9 @@
       <c r="H122" t="n">
         <v>0.643395190546595</v>
       </c>
+      <c r="I122" t="n">
+        <v>0.6914466926430045</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -4259,6 +4014,9 @@
       <c r="H123" t="n">
         <v>4.11355012274497</v>
       </c>
+      <c r="I123" t="n">
+        <v>0.6281234017546831</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -4285,6 +4043,9 @@
       <c r="H124" t="n">
         <v>3.36584965788854</v>
       </c>
+      <c r="I124" t="n">
+        <v>0.7250178142462268</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -4311,6 +4072,9 @@
       <c r="H125" t="n">
         <v>3.28078506453684</v>
       </c>
+      <c r="I125" t="n">
+        <v>0.6283550009155532</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -4337,6 +4101,9 @@
       <c r="H126" t="n">
         <v>1.91726168799438</v>
       </c>
+      <c r="I126" t="n">
+        <v>0.7469627450982822</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -4363,6 +4130,9 @@
       <c r="H127" t="n">
         <v>7.55612848218495</v>
       </c>
+      <c r="I127" t="n">
+        <v>0.7131072868823349</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -4389,6 +4159,9 @@
       <c r="H128" t="n">
         <v>0.499485983106141</v>
       </c>
+      <c r="I128" t="n">
+        <v>0.7307923742677594</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -4415,6 +4188,9 @@
       <c r="H129" t="n">
         <v>1.38776136412249</v>
       </c>
+      <c r="I129" t="n">
+        <v>0.7359049925336075</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -4441,6 +4217,9 @@
       <c r="H130" t="n">
         <v>1.20032973145704</v>
       </c>
+      <c r="I130" t="n">
+        <v>0.6982653693622838</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -4467,6 +4246,9 @@
       <c r="H131" t="n">
         <v>3.94574227524616</v>
       </c>
+      <c r="I131" t="n">
+        <v>0.6773560205334203</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -4493,6 +4275,9 @@
       <c r="H132" t="n">
         <v>2.36002434841865</v>
       </c>
+      <c r="I132" t="n">
+        <v>0.659171494071319</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -4519,6 +4304,9 @@
       <c r="H133" t="n">
         <v>2.01944053883434</v>
       </c>
+      <c r="I133" t="n">
+        <v>0.7170915176290052</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -4545,6 +4333,9 @@
       <c r="H134" t="n">
         <v>0.691259460919978</v>
       </c>
+      <c r="I134" t="n">
+        <v>0.6562864945005502</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -4571,6 +4362,9 @@
       <c r="H135" t="n">
         <v>4.22390004948691</v>
       </c>
+      <c r="I135" t="n">
+        <v>0.6419852468324465</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4597,6 +4391,9 @@
       <c r="H136" t="n">
         <v>2.10224688947177</v>
       </c>
+      <c r="I136" t="n">
+        <v>0.7177532765985967</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -4623,6 +4420,9 @@
       <c r="H137" t="n">
         <v>0.366347470450622</v>
       </c>
+      <c r="I137" t="n">
+        <v>0.6344237788460952</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -4649,6 +4449,9 @@
       <c r="H138" t="n">
         <v>4.18623802803938</v>
       </c>
+      <c r="I138" t="n">
+        <v>0.6758259365816532</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -4675,6 +4478,9 @@
       <c r="H139" t="n">
         <v>1.00810445159312</v>
       </c>
+      <c r="I139" t="n">
+        <v>0.6756212098108336</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -4701,6 +4507,9 @@
       <c r="H140" t="n">
         <v>5.28946950465241</v>
       </c>
+      <c r="I140" t="n">
+        <v>0.7494060317093624</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -4727,6 +4536,9 @@
       <c r="H141" t="n">
         <v>7.24533277618993</v>
       </c>
+      <c r="I141" t="n">
+        <v>0.704324334876435</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -4753,6 +4565,9 @@
       <c r="H142" t="n">
         <v>2.92118838497358</v>
       </c>
+      <c r="I142" t="n">
+        <v>0.5959794039436277</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -4779,6 +4594,9 @@
       <c r="H143" t="n">
         <v>2.32818628111286</v>
       </c>
+      <c r="I143" t="n">
+        <v>0.6712039532929345</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -4805,6 +4623,9 @@
       <c r="H144" t="n">
         <v>1.12975138022978</v>
       </c>
+      <c r="I144" t="n">
+        <v>0.666665809589768</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -4831,6 +4652,9 @@
       <c r="H145" t="n">
         <v>6.87528162604359</v>
       </c>
+      <c r="I145" t="n">
+        <v>0.6851707275823971</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -4857,6 +4681,9 @@
       <c r="H146" t="n">
         <v>5.75875147409992</v>
       </c>
+      <c r="I146" t="n">
+        <v>0.5709342388092978</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -4883,6 +4710,9 @@
       <c r="H147" t="n">
         <v>5.32558442467347</v>
       </c>
+      <c r="I147" t="n">
+        <v>0.6604774945455775</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -4909,6 +4739,9 @@
       <c r="H148" t="n">
         <v>3.83714701838522</v>
       </c>
+      <c r="I148" t="n">
+        <v>0.720553553628329</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -4935,6 +4768,9 @@
       <c r="H149" t="n">
         <v>4.15466050594046</v>
       </c>
+      <c r="I149" t="n">
+        <v>0.7332243454278842</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -4961,6 +4797,9 @@
       <c r="H150" t="n">
         <v>0.152941500902419</v>
       </c>
+      <c r="I150" t="n">
+        <v>0.6718984190754347</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -4987,6 +4826,9 @@
       <c r="H151" t="n">
         <v>1.60904190895692</v>
       </c>
+      <c r="I151" t="n">
+        <v>0.7009078428735761</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -5013,6 +4855,9 @@
       <c r="H152" t="n">
         <v>2.42049755067637</v>
       </c>
+      <c r="I152" t="n">
+        <v>0.7519230506890308</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -5039,6 +4884,9 @@
       <c r="H153" t="n">
         <v>3.97493254490054</v>
       </c>
+      <c r="I153" t="n">
+        <v>0.6752078932660008</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -5065,6 +4913,9 @@
       <c r="H154" t="n">
         <v>2.99095130975166</v>
       </c>
+      <c r="I154" t="n">
+        <v>0.6869885041843077</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -5091,6 +4942,9 @@
       <c r="H155" t="n">
         <v>5.00777783914844</v>
       </c>
+      <c r="I155" t="n">
+        <v>0.6692463126218098</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -5117,6 +4971,9 @@
       <c r="H156" t="n">
         <v>4.43540826220302</v>
       </c>
+      <c r="I156" t="n">
+        <v>0.4716302654491968</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -5143,6 +5000,9 @@
       <c r="H157" t="n">
         <v>4.67429864478382</v>
       </c>
+      <c r="I157" t="n">
+        <v>0.7143236532233985</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -5169,6 +5029,9 @@
       <c r="H158" t="n">
         <v>7.04447855938005</v>
       </c>
+      <c r="I158" t="n">
+        <v>0.6062004932098634</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -5195,6 +5058,9 @@
       <c r="H159" t="n">
         <v>3.33874356980833</v>
       </c>
+      <c r="I159" t="n">
+        <v>0.700812131474524</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -5221,6 +5087,9 @@
       <c r="H160" t="n">
         <v>1.57328475793784</v>
       </c>
+      <c r="I160" t="n">
+        <v>0.5555423601381034</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -5247,6 +5116,9 @@
       <c r="H161" t="n">
         <v>4.27739251594195</v>
       </c>
+      <c r="I161" t="n">
+        <v>0.6469313341343943</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -5273,6 +5145,9 @@
       <c r="H162" t="n">
         <v>4.60580686855887</v>
       </c>
+      <c r="I162" t="n">
+        <v>0.5859487278031631</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -5299,6 +5174,9 @@
       <c r="H163" t="n">
         <v>1.34642641128959</v>
       </c>
+      <c r="I163" t="n">
+        <v>0.6168332416716971</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -5325,6 +5203,9 @@
       <c r="H164" t="n">
         <v>0.876320547083118</v>
       </c>
+      <c r="I164" t="n">
+        <v>0.643501655395318</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -5351,6 +5232,9 @@
       <c r="H165" t="n">
         <v>5.89260909876619</v>
       </c>
+      <c r="I165" t="n">
+        <v>0.605139298475303</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -5377,6 +5261,9 @@
       <c r="H166" t="n">
         <v>2.71783630539328</v>
       </c>
+      <c r="I166" t="n">
+        <v>0.6855525676970313</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -5403,6 +5290,9 @@
       <c r="H167" t="n">
         <v>3.71423831670812</v>
       </c>
+      <c r="I167" t="n">
+        <v>0.6022893752393621</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -5429,6 +5319,9 @@
       <c r="H168" t="n">
         <v>0.150045351938199</v>
       </c>
+      <c r="I168" t="n">
+        <v>0.7309419010734529</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -5455,6 +5348,9 @@
       <c r="H169" t="n">
         <v>2.27916049421207</v>
       </c>
+      <c r="I169" t="n">
+        <v>0.6630273916097698</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -5481,6 +5377,9 @@
       <c r="H170" t="n">
         <v>2.22496779009714</v>
       </c>
+      <c r="I170" t="n">
+        <v>0.6395909537614827</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -5507,6 +5406,9 @@
       <c r="H171" t="n">
         <v>2.49605544407639</v>
       </c>
+      <c r="I171" t="n">
+        <v>0.7318537692323174</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -5533,6 +5435,9 @@
       <c r="H172" t="n">
         <v>1.62515022445111</v>
       </c>
+      <c r="I172" t="n">
+        <v>0.7322468678463132</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -5559,6 +5464,9 @@
       <c r="H173" t="n">
         <v>0.66204478131975</v>
       </c>
+      <c r="I173" t="n">
+        <v>0.6660652473251426</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -5585,6 +5493,9 @@
       <c r="H174" t="n">
         <v>1.59405662848942</v>
       </c>
+      <c r="I174" t="n">
+        <v>0.6179928518090151</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -5611,6 +5522,9 @@
       <c r="H175" t="n">
         <v>3.29436072075795</v>
       </c>
+      <c r="I175" t="n">
+        <v>0.7142555152100197</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -5637,6 +5551,9 @@
       <c r="H176" t="n">
         <v>3.22103096056699</v>
       </c>
+      <c r="I176" t="n">
+        <v>0.7153270934518415</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -5663,6 +5580,9 @@
       <c r="H177" t="n">
         <v>5.88080729226395</v>
       </c>
+      <c r="I177" t="n">
+        <v>0.7177850727869729</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -5689,6 +5609,9 @@
       <c r="H178" t="n">
         <v>5.06270026902919</v>
       </c>
+      <c r="I178" t="n">
+        <v>0.4922720556927666</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -5715,6 +5638,9 @@
       <c r="H179" t="n">
         <v>1.16802682757194</v>
       </c>
+      <c r="I179" t="n">
+        <v>0.7032112708909395</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -5741,6 +5667,9 @@
       <c r="H180" t="n">
         <v>4.28749319214157</v>
       </c>
+      <c r="I180" t="n">
+        <v>0.6424898045812097</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -5767,6 +5696,9 @@
       <c r="H181" t="n">
         <v>3.7473754303535</v>
       </c>
+      <c r="I181" t="n">
+        <v>0.6739216281849563</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -5793,6 +5725,9 @@
       <c r="H182" t="n">
         <v>5.36599042706939</v>
       </c>
+      <c r="I182" t="n">
+        <v>0.7040984963020002</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -5819,6 +5754,9 @@
       <c r="H183" t="n">
         <v>4.94242733346136</v>
       </c>
+      <c r="I183" t="n">
+        <v>0.6025950569950075</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -5845,6 +5783,9 @@
       <c r="H184" t="n">
         <v>1.74809581094112</v>
       </c>
+      <c r="I184" t="n">
+        <v>0.7245353887248489</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -5871,6 +5812,9 @@
       <c r="H185" t="n">
         <v>5.61916448525285</v>
       </c>
+      <c r="I185" t="n">
+        <v>0.7461489073354028</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -5897,6 +5841,9 @@
       <c r="H186" t="n">
         <v>4.19441439490739</v>
       </c>
+      <c r="I186" t="n">
+        <v>0.5750977055534255</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -5923,6 +5870,9 @@
       <c r="H187" t="n">
         <v>1.96120344581361</v>
       </c>
+      <c r="I187" t="n">
+        <v>0.6481742345095222</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -5949,6 +5899,9 @@
       <c r="H188" t="n">
         <v>4.39012293213126</v>
       </c>
+      <c r="I188" t="n">
+        <v>0.7228803517355876</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -5975,6 +5928,9 @@
       <c r="H189" t="n">
         <v>1.63114098285004</v>
       </c>
+      <c r="I189" t="n">
+        <v>0.6455370670857226</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -6001,6 +5957,9 @@
       <c r="H190" t="n">
         <v>3.97549392623059</v>
       </c>
+      <c r="I190" t="n">
+        <v>0.7171127429835057</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -6027,6 +5986,9 @@
       <c r="H191" t="n">
         <v>3.66104373368919</v>
       </c>
+      <c r="I191" t="n">
+        <v>0.6946310775162817</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -6053,6 +6015,9 @@
       <c r="H192" t="n">
         <v>6.37734791411553</v>
       </c>
+      <c r="I192" t="n">
+        <v>0.6464025140391043</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -6079,6 +6044,9 @@
       <c r="H193" t="n">
         <v>3.63456731593336</v>
       </c>
+      <c r="I193" t="n">
+        <v>0.635025683315444</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -6105,6 +6073,9 @@
       <c r="H194" t="n">
         <v>2.79778101367852</v>
       </c>
+      <c r="I194" t="n">
+        <v>0.7205629905208345</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -6131,6 +6102,9 @@
       <c r="H195" t="n">
         <v>4.4225966044</v>
       </c>
+      <c r="I195" t="n">
+        <v>0.7299824845579341</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -6157,6 +6131,9 @@
       <c r="H196" t="n">
         <v>0.832707121202849</v>
       </c>
+      <c r="I196" t="n">
+        <v>0.669962887866916</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -6183,6 +6160,9 @@
       <c r="H197" t="n">
         <v>0.833212698506137</v>
       </c>
+      <c r="I197" t="n">
+        <v>0.6871759212774355</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -6209,6 +6189,9 @@
       <c r="H198" t="n">
         <v>7.55018219905674</v>
       </c>
+      <c r="I198" t="n">
+        <v>0.6900169385831807</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -6235,6 +6218,9 @@
       <c r="H199" t="n">
         <v>3.75491309962894</v>
       </c>
+      <c r="I199" t="n">
+        <v>0.6719842780154702</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -6261,6 +6247,9 @@
       <c r="H200" t="n">
         <v>2.50478973126959</v>
       </c>
+      <c r="I200" t="n">
+        <v>0.7038323602804522</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -6287,6 +6276,9 @@
       <c r="H201" t="n">
         <v>3.07854296416537</v>
       </c>
+      <c r="I201" t="n">
+        <v>0.7095610394986603</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -6313,6 +6305,9 @@
       <c r="H202" t="n">
         <v>4.69966170502303</v>
       </c>
+      <c r="I202" t="n">
+        <v>0.6541915699589782</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -6339,6 +6334,9 @@
       <c r="H203" t="n">
         <v>1.17814497543652</v>
       </c>
+      <c r="I203" t="n">
+        <v>0.7789728522324842</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -6365,6 +6363,9 @@
       <c r="H204" t="n">
         <v>5.9797805211316</v>
       </c>
+      <c r="I204" t="n">
+        <v>0.7051626103915209</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -6391,6 +6392,9 @@
       <c r="H205" t="n">
         <v>4.55118167239043</v>
       </c>
+      <c r="I205" t="n">
+        <v>0.7208882433862845</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -6417,6 +6421,9 @@
       <c r="H206" t="n">
         <v>5.05942101211982</v>
       </c>
+      <c r="I206" t="n">
+        <v>0.6856235439533103</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -6443,6 +6450,9 @@
       <c r="H207" t="n">
         <v>2.09044789001719</v>
       </c>
+      <c r="I207" t="n">
+        <v>0.7390707860943113</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -6469,6 +6479,9 @@
       <c r="H208" t="n">
         <v>3.83982724733333</v>
       </c>
+      <c r="I208" t="n">
+        <v>0.7049814923620411</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -6495,6 +6508,9 @@
       <c r="H209" t="n">
         <v>5.18952906872974</v>
       </c>
+      <c r="I209" t="n">
+        <v>0.662143754259965</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -6521,6 +6537,9 @@
       <c r="H210" t="n">
         <v>0.8006676158195301</v>
       </c>
+      <c r="I210" t="n">
+        <v>0.67008544205618</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -6547,6 +6566,9 @@
       <c r="H211" t="n">
         <v>4.21255336023014</v>
       </c>
+      <c r="I211" t="n">
+        <v>0.6753221222921373</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -6573,6 +6595,9 @@
       <c r="H212" t="n">
         <v>4.58079344089881</v>
       </c>
+      <c r="I212" t="n">
+        <v>0.6887783144497589</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -6599,6 +6624,9 @@
       <c r="H213" t="n">
         <v>4.73253715922088</v>
       </c>
+      <c r="I213" t="n">
+        <v>0.6680488724973515</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -6625,6 +6653,9 @@
       <c r="H214" t="n">
         <v>3.17668707000455</v>
       </c>
+      <c r="I214" t="n">
+        <v>0.7000213524989143</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -6651,6 +6682,9 @@
       <c r="H215" t="n">
         <v>3.17627282169577</v>
       </c>
+      <c r="I215" t="n">
+        <v>0.6634965403799727</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -6677,6 +6711,9 @@
       <c r="H216" t="n">
         <v>7.43371902304829</v>
       </c>
+      <c r="I216" t="n">
+        <v>0.6375656022190334</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -6703,6 +6740,9 @@
       <c r="H217" t="n">
         <v>2.92912107269877</v>
       </c>
+      <c r="I217" t="n">
+        <v>0.6787020440582915</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -6729,6 +6769,9 @@
       <c r="H218" t="n">
         <v>5.22885673628708</v>
       </c>
+      <c r="I218" t="n">
+        <v>0.6245948223751662</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -6755,6 +6798,9 @@
       <c r="H219" t="n">
         <v>1.85991151695956</v>
       </c>
+      <c r="I219" t="n">
+        <v>0.7646731444017862</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -6781,6 +6827,9 @@
       <c r="H220" t="n">
         <v>3.33748077912502</v>
       </c>
+      <c r="I220" t="n">
+        <v>0.7285103530564582</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -6807,6 +6856,9 @@
       <c r="H221" t="n">
         <v>4.60682923418219</v>
       </c>
+      <c r="I221" t="n">
+        <v>0.7038949562485447</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -6833,6 +6885,9 @@
       <c r="H222" t="n">
         <v>3.21648268183256</v>
       </c>
+      <c r="I222" t="n">
+        <v>0.7253891524664005</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -6859,6 +6914,9 @@
       <c r="H223" t="n">
         <v>4.1600271103293</v>
       </c>
+      <c r="I223" t="n">
+        <v>0.6479398673972583</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -6885,6 +6943,9 @@
       <c r="H224" t="n">
         <v>3.64316814872746</v>
       </c>
+      <c r="I224" t="n">
+        <v>0.7268120803113802</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -6911,6 +6972,9 @@
       <c r="H225" t="n">
         <v>1.77096409859913</v>
       </c>
+      <c r="I225" t="n">
+        <v>0.7183573051908365</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -6937,6 +7001,9 @@
       <c r="H226" t="n">
         <v>6.24394953511305</v>
       </c>
+      <c r="I226" t="n">
+        <v>0.6807096273176168</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -6963,6 +7030,9 @@
       <c r="H227" t="n">
         <v>2.20267968724625</v>
       </c>
+      <c r="I227" t="n">
+        <v>0.709038879308333</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -6989,6 +7059,9 @@
       <c r="H228" t="n">
         <v>4.80001668684839</v>
       </c>
+      <c r="I228" t="n">
+        <v>0.7065085995183595</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -7015,6 +7088,9 @@
       <c r="H229" t="n">
         <v>1.19325029677233</v>
       </c>
+      <c r="I229" t="n">
+        <v>0.7526060901496158</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -7041,6 +7117,9 @@
       <c r="H230" t="n">
         <v>0.478550277739234</v>
       </c>
+      <c r="I230" t="n">
+        <v>0.7547219455854711</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -7067,6 +7146,9 @@
       <c r="H231" t="n">
         <v>2.18524788935697</v>
       </c>
+      <c r="I231" t="n">
+        <v>0.5643537570250285</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -7093,6 +7175,9 @@
       <c r="H232" t="n">
         <v>3.79150844065428</v>
       </c>
+      <c r="I232" t="n">
+        <v>0.6717814944671666</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -7119,6 +7204,9 @@
       <c r="H233" t="n">
         <v>4.28927649951253</v>
       </c>
+      <c r="I233" t="n">
+        <v>0.6995595902988</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -7145,6 +7233,9 @@
       <c r="H234" t="n">
         <v>0.478404366201999</v>
       </c>
+      <c r="I234" t="n">
+        <v>0.6870390708104618</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -7171,6 +7262,9 @@
       <c r="H235" t="n">
         <v>3.21335878656638</v>
       </c>
+      <c r="I235" t="n">
+        <v>0.7043219438842072</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -7197,6 +7291,9 @@
       <c r="H236" t="n">
         <v>0.226879777288359</v>
       </c>
+      <c r="I236" t="n">
+        <v>0.7183575754086239</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -7223,6 +7320,9 @@
       <c r="H237" t="n">
         <v>0.557019715028096</v>
       </c>
+      <c r="I237" t="n">
+        <v>0.6833449538447208</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -7249,6 +7349,9 @@
       <c r="H238" t="n">
         <v>3.21670704533206</v>
       </c>
+      <c r="I238" t="n">
+        <v>0.6846376712532286</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -7275,6 +7378,9 @@
       <c r="H239" t="n">
         <v>3.33727442174048</v>
       </c>
+      <c r="I239" t="n">
+        <v>0.7637680595228931</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -7301,6 +7407,9 @@
       <c r="H240" t="n">
         <v>3.34596999318002</v>
       </c>
+      <c r="I240" t="n">
+        <v>0.4398931713110618</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -7327,6 +7436,9 @@
       <c r="H241" t="n">
         <v>3.9365561754464</v>
       </c>
+      <c r="I241" t="n">
+        <v>0.7166221581158855</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -7353,6 +7465,9 @@
       <c r="H242" t="n">
         <v>2.51308239802276</v>
       </c>
+      <c r="I242" t="n">
+        <v>0.6470842200312636</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -7379,6 +7494,9 @@
       <c r="H243" t="n">
         <v>0.883158152959332</v>
       </c>
+      <c r="I243" t="n">
+        <v>0.6987355792328006</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -7405,6 +7523,9 @@
       <c r="H244" t="n">
         <v>1.89729650101108</v>
       </c>
+      <c r="I244" t="n">
+        <v>0.6924057126875274</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -7431,6 +7552,9 @@
       <c r="H245" t="n">
         <v>4.03377351050288</v>
       </c>
+      <c r="I245" t="n">
+        <v>0.7401780022950003</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -7457,6 +7581,9 @@
       <c r="H246" t="n">
         <v>4.49027124766204</v>
       </c>
+      <c r="I246" t="n">
+        <v>0.7369531586117859</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -7483,6 +7610,9 @@
       <c r="H247" t="n">
         <v>0.134918418777342</v>
       </c>
+      <c r="I247" t="n">
+        <v>0.7159473649990882</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -7509,6 +7639,9 @@
       <c r="H248" t="n">
         <v>5.39068810220893</v>
       </c>
+      <c r="I248" t="n">
+        <v>0.7188166989808791</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -7535,6 +7668,9 @@
       <c r="H249" t="n">
         <v>0.380028719540457</v>
       </c>
+      <c r="I249" t="n">
+        <v>0.7349669912261741</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -7561,6 +7697,9 @@
       <c r="H250" t="n">
         <v>2.1073316898398</v>
       </c>
+      <c r="I250" t="n">
+        <v>0.6929975719648073</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -7587,6 +7726,9 @@
       <c r="H251" t="n">
         <v>6.36589362474114</v>
       </c>
+      <c r="I251" t="n">
+        <v>0.5521606185725518</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -7613,6 +7755,9 @@
       <c r="H252" t="n">
         <v>4.91239019503875</v>
       </c>
+      <c r="I252" t="n">
+        <v>0.6873425173922035</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -7639,6 +7784,9 @@
       <c r="H253" t="n">
         <v>2.85884053495554</v>
       </c>
+      <c r="I253" t="n">
+        <v>0.6401506593134287</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -7665,6 +7813,9 @@
       <c r="H254" t="n">
         <v>3.25531634809316</v>
       </c>
+      <c r="I254" t="n">
+        <v>0.600725594715884</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -7691,6 +7842,9 @@
       <c r="H255" t="n">
         <v>3.85359219863022</v>
       </c>
+      <c r="I255" t="n">
+        <v>0.6477223164467143</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -7717,6 +7871,9 @@
       <c r="H256" t="n">
         <v>4.29062047568718</v>
       </c>
+      <c r="I256" t="n">
+        <v>0.6829063130209688</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -7743,6 +7900,9 @@
       <c r="H257" t="n">
         <v>0.702198884559215</v>
       </c>
+      <c r="I257" t="n">
+        <v>0.7175606687453715</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -7769,6 +7929,9 @@
       <c r="H258" t="n">
         <v>3.79220899718026</v>
       </c>
+      <c r="I258" t="n">
+        <v>0.6806225906827342</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -7795,6 +7958,9 @@
       <c r="H259" t="n">
         <v>3.76219926313657</v>
       </c>
+      <c r="I259" t="n">
+        <v>0.7059090542851442</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -7821,6 +7987,9 @@
       <c r="H260" t="n">
         <v>6.83495482756949</v>
       </c>
+      <c r="I260" t="n">
+        <v>0.7081790405665391</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -7845,7 +8014,10 @@
         <v>2.67</v>
       </c>
       <c r="H261" t="n">
-        <v>0.08521633781373759</v>
+        <v>0.085216337813738</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0.6915486521362767</v>
       </c>
     </row>
     <row r="262">
@@ -7873,6 +8045,9 @@
       <c r="H262" t="n">
         <v>1.111780664054</v>
       </c>
+      <c r="I262" t="n">
+        <v>0.7402473671937712</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -7899,6 +8074,9 @@
       <c r="H263" t="n">
         <v>4.8756590000145</v>
       </c>
+      <c r="I263" t="n">
+        <v>0.6765732383611799</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -7925,6 +8103,9 @@
       <c r="H264" t="n">
         <v>1.21553515443937</v>
       </c>
+      <c r="I264" t="n">
+        <v>0.7231464463325594</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -7951,6 +8132,9 @@
       <c r="H265" t="n">
         <v>2.0878445207534</v>
       </c>
+      <c r="I265" t="n">
+        <v>0.6685324156086645</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -7977,6 +8161,9 @@
       <c r="H266" t="n">
         <v>4.39294017520062</v>
       </c>
+      <c r="I266" t="n">
+        <v>0.7272096960657995</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -8003,6 +8190,9 @@
       <c r="H267" t="n">
         <v>0.255842831451257</v>
       </c>
+      <c r="I267" t="n">
+        <v>0.7115478164774671</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -8029,6 +8219,9 @@
       <c r="H268" t="n">
         <v>4.30532031986368</v>
       </c>
+      <c r="I268" t="n">
+        <v>0.6518488607107732</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -8055,6 +8248,9 @@
       <c r="H269" t="n">
         <v>5.36957442731618</v>
       </c>
+      <c r="I269" t="n">
+        <v>0.6820703912760131</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -8081,6 +8277,9 @@
       <c r="H270" t="n">
         <v>3.68443950441052</v>
       </c>
+      <c r="I270" t="n">
+        <v>0.7101423499167934</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -8107,6 +8306,9 @@
       <c r="H271" t="n">
         <v>1.54543597027185</v>
       </c>
+      <c r="I271" t="n">
+        <v>0.6465070387618953</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -8133,6 +8335,9 @@
       <c r="H272" t="n">
         <v>1.40280043266213</v>
       </c>
+      <c r="I272" t="n">
+        <v>0.6692214385868036</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -8159,6 +8364,9 @@
       <c r="H273" t="n">
         <v>5.18371094743851</v>
       </c>
+      <c r="I273" t="n">
+        <v>0.6687368517177263</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -8185,6 +8393,9 @@
       <c r="H274" t="n">
         <v>5.13208180896915</v>
       </c>
+      <c r="I274" t="n">
+        <v>0.6377331679755395</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -8211,6 +8422,9 @@
       <c r="H275" t="n">
         <v>4.0450262988521</v>
       </c>
+      <c r="I275" t="n">
+        <v>0.6955925974986928</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -8237,6 +8451,9 @@
       <c r="H276" t="n">
         <v>5.68735132804958</v>
       </c>
+      <c r="I276" t="n">
+        <v>0.7389081343675977</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -8263,6 +8480,9 @@
       <c r="H277" t="n">
         <v>5.37948563277584</v>
       </c>
+      <c r="I277" t="n">
+        <v>0.7418326600309262</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -8289,6 +8509,9 @@
       <c r="H278" t="n">
         <v>3.4421729374196</v>
       </c>
+      <c r="I278" t="n">
+        <v>0.7344247489855404</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -8315,6 +8538,9 @@
       <c r="H279" t="n">
         <v>0.824581814190919</v>
       </c>
+      <c r="I279" t="n">
+        <v>0.7386036447467949</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -8341,6 +8567,9 @@
       <c r="H280" t="n">
         <v>0.185791411263752</v>
       </c>
+      <c r="I280" t="n">
+        <v>0.7155155443988067</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -8367,6 +8596,9 @@
       <c r="H281" t="n">
         <v>1.56872671640269</v>
       </c>
+      <c r="I281" t="n">
+        <v>0.7391924064969315</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -8393,6 +8625,9 @@
       <c r="H282" t="n">
         <v>2.71503729134936</v>
       </c>
+      <c r="I282" t="n">
+        <v>0.6615941013078548</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -8419,6 +8654,9 @@
       <c r="H283" t="n">
         <v>3.90198320492132</v>
       </c>
+      <c r="I283" t="n">
+        <v>0.7339958898452777</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -8445,6 +8683,9 @@
       <c r="H284" t="n">
         <v>2.09986023220969</v>
       </c>
+      <c r="I284" t="n">
+        <v>0.6274127934572861</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -8471,6 +8712,9 @@
       <c r="H285" t="n">
         <v>4.59901260034252</v>
       </c>
+      <c r="I285" t="n">
+        <v>0.6185596596044585</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -8497,6 +8741,9 @@
       <c r="H286" t="n">
         <v>1.88145996523267</v>
       </c>
+      <c r="I286" t="n">
+        <v>0.7012192216824532</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -8523,6 +8770,9 @@
       <c r="H287" t="n">
         <v>2.54212222719358</v>
       </c>
+      <c r="I287" t="n">
+        <v>0.6712133070773382</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -8549,6 +8799,9 @@
       <c r="H288" t="n">
         <v>3.73353660303363</v>
       </c>
+      <c r="I288" t="n">
+        <v>0.7592856740318652</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -8575,6 +8828,9 @@
       <c r="H289" t="n">
         <v>2.95044796824844</v>
       </c>
+      <c r="I289" t="n">
+        <v>0.647919434360067</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -8601,6 +8857,9 @@
       <c r="H290" t="n">
         <v>0.167519060364722</v>
       </c>
+      <c r="I290" t="n">
+        <v>0.6027771804767517</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -8627,6 +8886,9 @@
       <c r="H291" t="n">
         <v>4.50069795835116</v>
       </c>
+      <c r="I291" t="n">
+        <v>0.6986088278182746</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -8653,6 +8915,9 @@
       <c r="H292" t="n">
         <v>2.16337967488049</v>
       </c>
+      <c r="I292" t="n">
+        <v>0.7442810283954476</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -8679,6 +8944,9 @@
       <c r="H293" t="n">
         <v>4.56543436377382</v>
       </c>
+      <c r="I293" t="n">
+        <v>0.6901060898307403</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -8705,6 +8973,9 @@
       <c r="H294" t="n">
         <v>6.02037586194048</v>
       </c>
+      <c r="I294" t="n">
+        <v>0.6925764420877583</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -8731,6 +9002,9 @@
       <c r="H295" t="n">
         <v>2.92766968875942</v>
       </c>
+      <c r="I295" t="n">
+        <v>0.6661014077755372</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -8757,6 +9031,9 @@
       <c r="H296" t="n">
         <v>3.95400097469703</v>
       </c>
+      <c r="I296" t="n">
+        <v>0.7521165700490131</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -8783,6 +9060,9 @@
       <c r="H297" t="n">
         <v>3.6726032642229</v>
       </c>
+      <c r="I297" t="n">
+        <v>0.6411015656579859</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -8809,6 +9089,9 @@
       <c r="H298" t="n">
         <v>5.48298870955931</v>
       </c>
+      <c r="I298" t="n">
+        <v>0.6655408370481828</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -8835,6 +9118,9 @@
       <c r="H299" t="n">
         <v>0.5325366414025759</v>
       </c>
+      <c r="I299" t="n">
+        <v>0.729036141176393</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -8861,6 +9147,9 @@
       <c r="H300" t="n">
         <v>7.53438698455301</v>
       </c>
+      <c r="I300" t="n">
+        <v>0.727411088321711</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -8887,6 +9176,9 @@
       <c r="H301" t="n">
         <v>1.17346880578025</v>
       </c>
+      <c r="I301" t="n">
+        <v>0.6312967350982073</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -8913,6 +9205,9 @@
       <c r="H302" t="n">
         <v>1.20097622649332</v>
       </c>
+      <c r="I302" t="n">
+        <v>0.7316206432771922</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -8939,6 +9234,9 @@
       <c r="H303" t="n">
         <v>2.72113901426205</v>
       </c>
+      <c r="I303" t="n">
+        <v>0.6669386752100863</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -8965,6 +9263,9 @@
       <c r="H304" t="n">
         <v>2.24883945559288</v>
       </c>
+      <c r="I304" t="n">
+        <v>0.6585131064897313</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -8991,6 +9292,9 @@
       <c r="H305" t="n">
         <v>5.02021818790189</v>
       </c>
+      <c r="I305" t="n">
+        <v>0.7427455255312722</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -9017,6 +9321,9 @@
       <c r="H306" t="n">
         <v>0.268292012703367</v>
       </c>
+      <c r="I306" t="n">
+        <v>0.7150976908769734</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -9043,22 +9350,25 @@
       <c r="H307" t="n">
         <v>1.26496371970154</v>
       </c>
+      <c r="I307" t="n">
+        <v>0.6256495266490159</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
         <v>9329</v>
       </c>
       <c r="B308" t="n">
-        <v>358.2567009072405</v>
+        <v>358.256700907241</v>
       </c>
       <c r="C308" t="n">
         <v>66.6815609741211</v>
       </c>
       <c r="D308" t="n">
-        <v>46.44862564086915</v>
+        <v>46.4486256408692</v>
       </c>
       <c r="E308" t="n">
-        <v>1.435598148580083</v>
+        <v>1.43559814858008</v>
       </c>
       <c r="F308" t="n">
         <v>26.0399874625526</v>
@@ -9067,7 +9377,10 @@
         <v>2.99</v>
       </c>
       <c r="H308" t="n">
-        <v>4.302184826796739</v>
+        <v>4.30218482679674</v>
+      </c>
+      <c r="I308" t="n">
+        <v>0.7174851894491289</v>
       </c>
     </row>
     <row r="309">
@@ -9075,25 +9388,28 @@
         <v>8226</v>
       </c>
       <c r="B309" t="n">
-        <v>339.9444869500161</v>
+        <v>339.944486950016</v>
       </c>
       <c r="C309" t="n">
         <v>65.599638671875</v>
       </c>
       <c r="D309" t="n">
-        <v>41.21133163452149</v>
+        <v>41.2113316345215</v>
       </c>
       <c r="E309" t="n">
-        <v>1.591786435188233</v>
+        <v>1.59178643518823</v>
       </c>
       <c r="F309" t="n">
-        <v>24.19806855467409</v>
+        <v>24.1980685546741</v>
       </c>
       <c r="G309" t="n">
         <v>2.24</v>
       </c>
       <c r="H309" t="n">
-        <v>3.247432958345817</v>
+        <v>3.24743295834582</v>
+      </c>
+      <c r="I309" t="n">
+        <v>0.7780317317547363</v>
       </c>
     </row>
     <row r="310">
@@ -9101,25 +9417,28 @@
         <v>9379</v>
       </c>
       <c r="B310" t="n">
-        <v>356.7471318358348</v>
+        <v>356.747131835835</v>
       </c>
       <c r="C310" t="n">
-        <v>66.06361145019531</v>
+        <v>66.0636114501953</v>
       </c>
       <c r="D310" t="n">
-        <v>46.65555053710938</v>
+        <v>46.6555505371094</v>
       </c>
       <c r="E310" t="n">
-        <v>1.415986108612071</v>
+        <v>1.41598610861207</v>
       </c>
       <c r="F310" t="n">
-        <v>26.29033049750196</v>
+        <v>26.290330497502</v>
       </c>
       <c r="G310" t="n">
         <v>2.96</v>
       </c>
       <c r="H310" t="n">
-        <v>3.242607976483681</v>
+        <v>3.24260797648368</v>
+      </c>
+      <c r="I310" t="n">
+        <v>0.7079908381873853</v>
       </c>
     </row>
     <row r="311">
@@ -9127,25 +9446,28 @@
         <v>10222</v>
       </c>
       <c r="B311" t="n">
-        <v>369.6264918518433</v>
+        <v>369.626491851843</v>
       </c>
       <c r="C311" t="n">
-        <v>66.53440673828125</v>
+        <v>66.53440673828131</v>
       </c>
       <c r="D311" t="n">
-        <v>50.57715652465821</v>
+        <v>50.5771565246582</v>
       </c>
       <c r="E311" t="n">
-        <v>1.315503110694713</v>
+        <v>1.31550311069471</v>
       </c>
       <c r="F311" t="n">
-        <v>27.65494418104984</v>
+        <v>27.6549441810498</v>
       </c>
       <c r="G311" t="n">
         <v>2.99</v>
       </c>
       <c r="H311" t="n">
-        <v>3.422419667197975</v>
+        <v>3.42241966719798</v>
+      </c>
+      <c r="I311" t="n">
+        <v>0.649729562927611</v>
       </c>
     </row>
     <row r="312">
@@ -9153,25 +9475,28 @@
         <v>9082</v>
       </c>
       <c r="B312" t="n">
-        <v>349.2772983043062</v>
+        <v>349.277298304306</v>
       </c>
       <c r="C312" t="n">
-        <v>65.38825317382813</v>
+        <v>65.3882531738282</v>
       </c>
       <c r="D312" t="n">
-        <v>44.82935699462891</v>
+        <v>44.8293569946289</v>
       </c>
       <c r="E312" t="n">
-        <v>1.458603414313135</v>
+        <v>1.45860341431314</v>
       </c>
       <c r="F312" t="n">
-        <v>26.00226251202662</v>
+        <v>26.0022625120266</v>
       </c>
       <c r="G312" t="n">
         <v>2.64</v>
       </c>
       <c r="H312" t="n">
-        <v>1.398287484534198</v>
+        <v>1.3982874845342</v>
+      </c>
+      <c r="I312" t="n">
+        <v>0.7279904065794056</v>
       </c>
     </row>
     <row r="313">
@@ -9179,25 +9504,28 @@
         <v>8376</v>
       </c>
       <c r="B313" t="n">
-        <v>340.7800945215781</v>
+        <v>340.780094521578</v>
       </c>
       <c r="C313" t="n">
-        <v>64.46222381591797</v>
+        <v>64.46222381591799</v>
       </c>
       <c r="D313" t="n">
-        <v>42.92934417724609</v>
+        <v>42.9293441772461</v>
       </c>
       <c r="E313" t="n">
-        <v>1.501588832798545</v>
+        <v>1.50158883279855</v>
       </c>
       <c r="F313" t="n">
-        <v>24.57890039545615</v>
+        <v>24.5789003954562</v>
       </c>
       <c r="G313" t="n">
         <v>2.28</v>
       </c>
       <c r="H313" t="n">
-        <v>3.794117723890161</v>
+        <v>3.79411772389016</v>
+      </c>
+      <c r="I313" t="n">
+        <v>0.7459863217768377</v>
       </c>
     </row>
     <row r="314">
@@ -9205,25 +9533,28 @@
         <v>7690</v>
       </c>
       <c r="B314" t="n">
-        <v>330.7015424803515</v>
+        <v>330.701542480352</v>
       </c>
       <c r="C314" t="n">
-        <v>61.12151733398438</v>
+        <v>61.1215173339844</v>
       </c>
       <c r="D314" t="n">
-        <v>43.39067077636719</v>
+        <v>43.3906707763672</v>
       </c>
       <c r="E314" t="n">
         <v>1.40863269086115</v>
       </c>
       <c r="F314" t="n">
-        <v>23.25359580219345</v>
+        <v>23.2535958021935</v>
       </c>
       <c r="G314" t="n">
         <v>2.37</v>
       </c>
       <c r="H314" t="n">
-        <v>8.346284777476018</v>
+        <v>8.34628477747602</v>
+      </c>
+      <c r="I314" t="n">
+        <v>0.7042941464995802</v>
       </c>
     </row>
     <row r="315">
@@ -9231,25 +9562,28 @@
         <v>7796</v>
       </c>
       <c r="B315" t="n">
-        <v>322.7186766433549</v>
+        <v>322.718676643355</v>
       </c>
       <c r="C315" t="n">
-        <v>53.74047073364258</v>
+        <v>53.7404707336426</v>
       </c>
       <c r="D315" t="n">
-        <v>48.92766387939454</v>
+        <v>48.9276638793945</v>
       </c>
       <c r="E315" t="n">
-        <v>1.098365760239677</v>
+        <v>1.09836576023968</v>
       </c>
       <c r="F315" t="n">
-        <v>24.15726316520432</v>
+        <v>24.1572631652043</v>
       </c>
       <c r="G315" t="n">
         <v>2.97</v>
       </c>
       <c r="H315" t="n">
-        <v>5.958057712155971</v>
+        <v>5.95805771215597</v>
+      </c>
+      <c r="I315" t="n">
+        <v>0.413633386774078</v>
       </c>
     </row>
     <row r="316">
@@ -9257,25 +9591,28 @@
         <v>8072</v>
       </c>
       <c r="B316" t="n">
-        <v>330.6517972065336</v>
+        <v>330.651797206534</v>
       </c>
       <c r="C316" t="n">
-        <v>61.26518310546875</v>
+        <v>61.2651831054688</v>
       </c>
       <c r="D316" t="n">
-        <v>43.20230072021484</v>
+        <v>43.2023007202149</v>
       </c>
       <c r="E316" t="n">
-        <v>1.418100010511757</v>
+        <v>1.41810001051176</v>
       </c>
       <c r="F316" t="n">
-        <v>24.41238810191018</v>
+        <v>24.4123881019102</v>
       </c>
       <c r="G316" t="n">
         <v>2.31</v>
       </c>
       <c r="H316" t="n">
-        <v>3.012358574329682</v>
+        <v>3.01235857432968</v>
+      </c>
+      <c r="I316" t="n">
+        <v>0.7090393831383657</v>
       </c>
     </row>
     <row r="317">
@@ -9283,25 +9620,28 @@
         <v>8289</v>
       </c>
       <c r="B317" t="n">
-        <v>336.9759873776175</v>
+        <v>336.975987377618</v>
       </c>
       <c r="C317" t="n">
-        <v>62.10236541748047</v>
+        <v>62.1023654174805</v>
       </c>
       <c r="D317" t="n">
-        <v>44.42588134765625</v>
+        <v>44.4258813476563</v>
       </c>
       <c r="E317" t="n">
-        <v>1.397887076938244</v>
+        <v>1.39788707693824</v>
       </c>
       <c r="F317" t="n">
-        <v>24.59819189048415</v>
+        <v>24.5981918904842</v>
       </c>
       <c r="G317" t="n">
         <v>2.25</v>
       </c>
       <c r="H317" t="n">
-        <v>4.566344940188108</v>
+        <v>4.56634494018811</v>
+      </c>
+      <c r="I317" t="n">
+        <v>0.6987505946746413</v>
       </c>
     </row>
     <row r="318">
@@ -9309,25 +9649,28 @@
         <v>8281</v>
       </c>
       <c r="B318" t="n">
-        <v>337.9235328135431</v>
+        <v>337.923532813543</v>
       </c>
       <c r="C318" t="n">
-        <v>63.51750274658203</v>
+        <v>63.517502746582</v>
       </c>
       <c r="D318" t="n">
-        <v>43.06327102661133</v>
+        <v>43.0632710266113</v>
       </c>
       <c r="E318" t="n">
-        <v>1.474980911397344</v>
+        <v>1.47498091139734</v>
       </c>
       <c r="F318" t="n">
-        <v>24.50554399408824</v>
+        <v>24.5055439940882</v>
       </c>
       <c r="G318" t="n">
         <v>2.32</v>
       </c>
       <c r="H318" t="n">
-        <v>3.768972925966199</v>
+        <v>3.7689729259662</v>
+      </c>
+      <c r="I318" t="n">
+        <v>0.735085075334041</v>
       </c>
     </row>
     <row r="319">
@@ -9335,25 +9678,28 @@
         <v>10332</v>
       </c>
       <c r="B319" t="n">
-        <v>369.1805799630947</v>
+        <v>369.180579963095</v>
       </c>
       <c r="C319" t="n">
-        <v>68.81037353515626</v>
+        <v>68.8103735351563</v>
       </c>
       <c r="D319" t="n">
-        <v>47.75021942138672</v>
+        <v>47.7502194213867</v>
       </c>
       <c r="E319" t="n">
-        <v>1.441048321221681</v>
+        <v>1.44104832122168</v>
       </c>
       <c r="F319" t="n">
-        <v>27.98630415779953</v>
+        <v>27.9863041577995</v>
       </c>
       <c r="G319" t="n">
         <v>3.32</v>
       </c>
       <c r="H319" t="n">
-        <v>0.09326593398354996</v>
+        <v>0.09326593398355</v>
+      </c>
+      <c r="I319" t="n">
+        <v>0.7200335470482604</v>
       </c>
     </row>
     <row r="320">
@@ -9361,25 +9707,28 @@
         <v>9705</v>
       </c>
       <c r="B320" t="n">
-        <v>359.1216364367961</v>
+        <v>359.121636436796</v>
       </c>
       <c r="C320" t="n">
-        <v>61.76168914794922</v>
+        <v>61.7616891479492</v>
       </c>
       <c r="D320" t="n">
-        <v>52.35640670776368</v>
+        <v>52.3564067077637</v>
       </c>
       <c r="E320" t="n">
-        <v>1.179639571001936</v>
+        <v>1.17963957100194</v>
       </c>
       <c r="F320" t="n">
-        <v>27.02426981646938</v>
+        <v>27.0242698164694</v>
       </c>
       <c r="G320" t="n">
         <v>2.99</v>
       </c>
       <c r="H320" t="n">
-        <v>4.675087077688385</v>
+        <v>4.67508707768839</v>
+      </c>
+      <c r="I320" t="n">
+        <v>0.5304494629164295</v>
       </c>
     </row>
     <row r="321">
@@ -9387,16 +9736,16 @@
         <v>8031</v>
       </c>
       <c r="B321" t="n">
-        <v>326.3212686462232</v>
+        <v>326.321268646223</v>
       </c>
       <c r="C321" t="n">
-        <v>59.78396148681641</v>
+        <v>59.7839614868164</v>
       </c>
       <c r="D321" t="n">
-        <v>43.43929168701172</v>
+        <v>43.4392916870117</v>
       </c>
       <c r="E321" t="n">
-        <v>1.376264648087983</v>
+        <v>1.37626464808798</v>
       </c>
       <c r="F321" t="n">
         <v>24.6107157934186</v>
@@ -9405,7 +9754,10 @@
         <v>2.43</v>
       </c>
       <c r="H321" t="n">
-        <v>1.589230653000249</v>
+        <v>1.58923065300025</v>
+      </c>
+      <c r="I321" t="n">
+        <v>0.6870560325817502</v>
       </c>
     </row>
     <row r="322">
@@ -9413,25 +9765,28 @@
         <v>8758</v>
       </c>
       <c r="B322" t="n">
-        <v>344.4712953190997</v>
+        <v>344.4712953191</v>
       </c>
       <c r="C322" t="n">
-        <v>64.09054443359375</v>
+        <v>64.09054443359381</v>
       </c>
       <c r="D322" t="n">
         <v>44.6914924621582</v>
       </c>
       <c r="E322" t="n">
-        <v>1.434065879269111</v>
+        <v>1.43406587926911</v>
       </c>
       <c r="F322" t="n">
-        <v>25.42446966992433</v>
+        <v>25.4244696699243</v>
       </c>
       <c r="G322" t="n">
         <v>2.75</v>
       </c>
       <c r="H322" t="n">
-        <v>2.745722573956477</v>
+        <v>2.74572257395648</v>
+      </c>
+      <c r="I322" t="n">
+        <v>0.7167618565666946</v>
       </c>
     </row>
     <row r="323">
@@ -9439,25 +9794,28 @@
         <v>9029</v>
       </c>
       <c r="B323" t="n">
-        <v>344.4923047196329</v>
+        <v>344.492304719633</v>
       </c>
       <c r="C323" t="n">
         <v>61.8337045288086</v>
       </c>
       <c r="D323" t="n">
-        <v>47.34003356933594</v>
+        <v>47.3400335693359</v>
       </c>
       <c r="E323" t="n">
-        <v>1.306160977647908</v>
+        <v>1.30616097764791</v>
       </c>
       <c r="F323" t="n">
-        <v>26.20958400608776</v>
+        <v>26.2095840060878</v>
       </c>
       <c r="G323" t="n">
         <v>2.69</v>
       </c>
       <c r="H323" t="n">
-        <v>1.850706900212241</v>
+        <v>1.85070690021224</v>
+      </c>
+      <c r="I323" t="n">
+        <v>0.6433140297061664</v>
       </c>
     </row>
     <row r="324">
@@ -9465,25 +9823,28 @@
         <v>8986</v>
       </c>
       <c r="B324" t="n">
-        <v>349.0089840095838</v>
+        <v>349.008984009584</v>
       </c>
       <c r="C324" t="n">
-        <v>65.07398254394532</v>
+        <v>65.07398254394531</v>
       </c>
       <c r="D324" t="n">
-        <v>45.11317199707032</v>
+        <v>45.1131719970703</v>
       </c>
       <c r="E324" t="n">
-        <v>1.442460808301648</v>
+        <v>1.44246080830165</v>
       </c>
       <c r="F324" t="n">
-        <v>25.74718821494075</v>
+        <v>25.7471882149408</v>
       </c>
       <c r="G324" t="n">
         <v>3.16</v>
       </c>
       <c r="H324" t="n">
-        <v>2.634698105054386</v>
+        <v>2.63469810505439</v>
+      </c>
+      <c r="I324" t="n">
+        <v>0.7206878225886605</v>
       </c>
     </row>
     <row r="325">
@@ -9491,25 +9852,28 @@
         <v>11713</v>
       </c>
       <c r="B325" t="n">
-        <v>389.6631279142169</v>
+        <v>389.663127914217</v>
       </c>
       <c r="C325" t="n">
-        <v>71.04155181884767</v>
+        <v>71.04155181884769</v>
       </c>
       <c r="D325" t="n">
-        <v>52.27723892211915</v>
+        <v>52.2772389221192</v>
       </c>
       <c r="E325" t="n">
-        <v>1.358938484197357</v>
+        <v>1.35893848419736</v>
       </c>
       <c r="F325" t="n">
-        <v>30.05929779062539</v>
+        <v>30.0592977906254</v>
       </c>
       <c r="G325" t="n">
         <v>4</v>
       </c>
       <c r="H325" t="n">
-        <v>0.3891122277289988</v>
+        <v>0.389112227728999</v>
+      </c>
+      <c r="I325" t="n">
+        <v>0.6771244912532782</v>
       </c>
     </row>
     <row r="326">
@@ -9517,25 +9881,28 @@
         <v>10145</v>
       </c>
       <c r="B326" t="n">
-        <v>372.1161916253951</v>
+        <v>372.116191625395</v>
       </c>
       <c r="C326" t="n">
-        <v>69.27633270263672</v>
+        <v>69.27633270263669</v>
       </c>
       <c r="D326" t="n">
         <v>48.2273844909668</v>
       </c>
       <c r="E326" t="n">
-        <v>1.436452203117349</v>
+        <v>1.43645220311735</v>
       </c>
       <c r="F326" t="n">
-        <v>27.26298997011356</v>
+        <v>27.2629899701136</v>
       </c>
       <c r="G326" t="n">
         <v>3.28</v>
       </c>
       <c r="H326" t="n">
-        <v>3.460940053739672</v>
+        <v>3.46094005373967</v>
+      </c>
+      <c r="I326" t="n">
+        <v>0.7178870403770383</v>
       </c>
     </row>
     <row r="327">
@@ -9543,25 +9910,28 @@
         <v>10261</v>
       </c>
       <c r="B327" t="n">
-        <v>369.6940992959148</v>
+        <v>369.694099295915</v>
       </c>
       <c r="C327" t="n">
-        <v>66.31523712158203</v>
+        <v>66.3152371215821</v>
       </c>
       <c r="D327" t="n">
-        <v>50.85124664306641</v>
+        <v>50.8512466430664</v>
       </c>
       <c r="E327" t="n">
-        <v>1.304102485177207</v>
+        <v>1.30410248517721</v>
       </c>
       <c r="F327" t="n">
-        <v>27.75537943273141</v>
+        <v>27.7553794327314</v>
       </c>
       <c r="G327" t="n">
         <v>3.18</v>
       </c>
       <c r="H327" t="n">
-        <v>3.246447232902723</v>
+        <v>3.24644723290272</v>
+      </c>
+      <c r="I327" t="n">
+        <v>0.6418730747226686</v>
       </c>
     </row>
     <row r="328">
@@ -9569,25 +9939,28 @@
         <v>7610</v>
       </c>
       <c r="B328" t="n">
-        <v>320.6978636720216</v>
+        <v>320.697863672022</v>
       </c>
       <c r="C328" t="n">
         <v>56.7623617553711</v>
       </c>
       <c r="D328" t="n">
-        <v>44.97737457275391</v>
+        <v>44.9773745727539</v>
       </c>
       <c r="E328" t="n">
-        <v>1.262020344552441</v>
+        <v>1.26202034455244</v>
       </c>
       <c r="F328" t="n">
-        <v>23.72950013718446</v>
+        <v>23.7295001371845</v>
       </c>
       <c r="G328" t="n">
         <v>1.87</v>
       </c>
       <c r="H328" t="n">
         <v>5.3949432255242</v>
+      </c>
+      <c r="I328" t="n">
+        <v>0.6100274867082955</v>
       </c>
     </row>
     <row r="329">
@@ -9595,25 +9968,28 @@
         <v>9748</v>
       </c>
       <c r="B329" t="n">
-        <v>365.2237556829108</v>
+        <v>365.223755682911</v>
       </c>
       <c r="C329" t="n">
         <v>67.933779296875</v>
       </c>
       <c r="D329" t="n">
-        <v>47.40530364990234</v>
+        <v>47.4053036499024</v>
       </c>
       <c r="E329" t="n">
-        <v>1.433041749897428</v>
+        <v>1.43304174989743</v>
       </c>
       <c r="F329" t="n">
-        <v>26.69048726519111</v>
+        <v>26.6904872651911</v>
       </c>
       <c r="G329" t="n">
         <v>3.16</v>
       </c>
       <c r="H329" t="n">
         <v>3.78798034174293</v>
+      </c>
+      <c r="I329" t="n">
+        <v>0.7162766964947725</v>
       </c>
     </row>
     <row r="330">
@@ -9621,25 +9997,28 @@
         <v>9338</v>
       </c>
       <c r="B330" t="n">
-        <v>355.2138538631058</v>
+        <v>355.213853863106</v>
       </c>
       <c r="C330" t="n">
-        <v>65.31345825195312</v>
+        <v>65.31345825195309</v>
       </c>
       <c r="D330" t="n">
-        <v>47.00750991821289</v>
+        <v>47.0075099182129</v>
       </c>
       <c r="E330" t="n">
-        <v>1.389426037788223</v>
+        <v>1.38942603778822</v>
       </c>
       <c r="F330" t="n">
-        <v>26.28838908855939</v>
+        <v>26.2883890885594</v>
       </c>
       <c r="G330" t="n">
         <v>2.76</v>
       </c>
       <c r="H330" t="n">
-        <v>3.291819839099134</v>
+        <v>3.29181983909913</v>
+      </c>
+      <c r="I330" t="n">
+        <v>0.6942627362951974</v>
       </c>
     </row>
     <row r="331">
@@ -9647,25 +10026,28 @@
         <v>9745</v>
       </c>
       <c r="B331" t="n">
-        <v>363.7549456564698</v>
+        <v>363.75494565647</v>
       </c>
       <c r="C331" t="n">
-        <v>68.15193817138672</v>
+        <v>68.1519381713867</v>
       </c>
       <c r="D331" t="n">
-        <v>46.62305938720704</v>
+        <v>46.6230593872071</v>
       </c>
       <c r="E331" t="n">
-        <v>1.461764608911251</v>
+        <v>1.46176460891125</v>
       </c>
       <c r="F331" t="n">
-        <v>26.79001376163605</v>
+        <v>26.7900137616361</v>
       </c>
       <c r="G331" t="n">
         <v>3.04</v>
       </c>
       <c r="H331" t="n">
-        <v>2.434678530183044</v>
+        <v>2.43467853018304</v>
+      </c>
+      <c r="I331" t="n">
+        <v>0.7293838469391168</v>
       </c>
     </row>
     <row r="332">
@@ -9673,25 +10055,28 @@
         <v>8746</v>
       </c>
       <c r="B332" t="n">
-        <v>340.3169832040945</v>
+        <v>340.316983204095</v>
       </c>
       <c r="C332" t="n">
-        <v>61.43010955810547</v>
+        <v>61.4301095581055</v>
       </c>
       <c r="D332" t="n">
-        <v>46.36947891235351</v>
+        <v>46.3694789123535</v>
       </c>
       <c r="E332" t="n">
-        <v>1.324796202135875</v>
+        <v>1.32479620213588</v>
       </c>
       <c r="F332" t="n">
-        <v>25.69956961200159</v>
+        <v>25.6995696120016</v>
       </c>
       <c r="G332" t="n">
         <v>2.65</v>
       </c>
       <c r="H332" t="n">
-        <v>2.318438810094308</v>
+        <v>2.31843881009431</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0.6559169296775231</v>
       </c>
     </row>
     <row r="333">
@@ -9699,25 +10084,28 @@
         <v>9008</v>
       </c>
       <c r="B333" t="n">
-        <v>352.0140294206556</v>
+        <v>352.014029420656</v>
       </c>
       <c r="C333" t="n">
-        <v>64.87391174316407</v>
+        <v>64.8739117431641</v>
       </c>
       <c r="D333" t="n">
-        <v>46.40828720092774</v>
+        <v>46.4082872009277</v>
       </c>
       <c r="E333" t="n">
-        <v>1.397894980745318</v>
+        <v>1.39789498074532</v>
       </c>
       <c r="F333" t="n">
-        <v>25.58988917238713</v>
+        <v>25.5898891723871</v>
       </c>
       <c r="G333" t="n">
         <v>2.88</v>
       </c>
       <c r="H333" t="n">
-        <v>4.999473397633196</v>
+        <v>4.9994733976332</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0.6987547355570758</v>
       </c>
     </row>
     <row r="334">
@@ -9725,25 +10113,28 @@
         <v>10256</v>
       </c>
       <c r="B334" t="n">
-        <v>372.5567408065361</v>
+        <v>372.556740806536</v>
       </c>
       <c r="C334" t="n">
         <v>67.6586328125</v>
       </c>
       <c r="D334" t="n">
-        <v>50.28954772949219</v>
+        <v>50.2895477294922</v>
       </c>
       <c r="E334" t="n">
-        <v>1.345381612426428</v>
+        <v>1.34538161242643</v>
       </c>
       <c r="F334" t="n">
-        <v>27.52869261685378</v>
+        <v>27.5286926168538</v>
       </c>
       <c r="G334" t="n">
         <v>3.32</v>
       </c>
       <c r="H334" t="n">
-        <v>4.225217019659297</v>
+        <v>4.2252170196593</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0.668976522376566</v>
       </c>
     </row>
     <row r="335">
@@ -9751,25 +10142,28 @@
         <v>7768</v>
       </c>
       <c r="B335" t="n">
-        <v>326.3262339989309</v>
+        <v>326.326233998931</v>
       </c>
       <c r="C335" t="n">
-        <v>58.43712997436523</v>
+        <v>58.4371299743652</v>
       </c>
       <c r="D335" t="n">
-        <v>44.99880020141602</v>
+        <v>44.998800201416</v>
       </c>
       <c r="E335" t="n">
-        <v>1.298637512840317</v>
+        <v>1.29863751284032</v>
       </c>
       <c r="F335" t="n">
-        <v>23.80439937300735</v>
+        <v>23.8043993730074</v>
       </c>
       <c r="G335" t="n">
         <v>2.05</v>
       </c>
       <c r="H335" t="n">
-        <v>6.348279535046599</v>
+        <v>6.3482795350466</v>
+      </c>
+      <c r="I335" t="n">
+        <v>0.6379982405994763</v>
       </c>
     </row>
     <row r="336">
@@ -9777,25 +10171,28 @@
         <v>9811</v>
       </c>
       <c r="B336" t="n">
-        <v>364.6071177891931</v>
+        <v>364.607117789193</v>
       </c>
       <c r="C336" t="n">
-        <v>65.70888305664063</v>
+        <v>65.7088830566407</v>
       </c>
       <c r="D336" t="n">
-        <v>49.80079772949219</v>
+        <v>49.8007977294922</v>
       </c>
       <c r="E336" t="n">
-        <v>1.319434347488928</v>
+        <v>1.31943434748893</v>
       </c>
       <c r="F336" t="n">
-        <v>26.90841599442521</v>
+        <v>26.9084159944252</v>
       </c>
       <c r="G336" t="n">
         <v>3.41</v>
       </c>
       <c r="H336" t="n">
-        <v>4.784484570305274</v>
+        <v>4.78448457030528</v>
+      </c>
+      <c r="I336" t="n">
+        <v>0.6523701223901558</v>
       </c>
     </row>
     <row r="337">
@@ -9803,25 +10200,28 @@
         <v>10584</v>
       </c>
       <c r="B337" t="n">
-        <v>384.6715721252713</v>
+        <v>384.671572125271</v>
       </c>
       <c r="C337" t="n">
-        <v>71.50417694091797</v>
+        <v>71.504176940918</v>
       </c>
       <c r="D337" t="n">
-        <v>49.98588287353516</v>
+        <v>49.9858828735352</v>
       </c>
       <c r="E337" t="n">
-        <v>1.430487426256416</v>
+        <v>1.43048742625642</v>
       </c>
       <c r="F337" t="n">
-        <v>27.51438049223257</v>
+        <v>27.5143804922326</v>
       </c>
       <c r="G337" t="n">
         <v>3.25</v>
       </c>
       <c r="H337" t="n">
-        <v>6.091067838563879</v>
+        <v>6.09106783856388</v>
+      </c>
+      <c r="I337" t="n">
+        <v>0.7150606511879724</v>
       </c>
     </row>
     <row r="338">
@@ -9829,25 +10229,28 @@
         <v>10154</v>
       </c>
       <c r="B338" t="n">
-        <v>369.3295901150586</v>
+        <v>369.329590115059</v>
       </c>
       <c r="C338" t="n">
-        <v>68.74151672363281</v>
+        <v>68.7415167236328</v>
       </c>
       <c r="D338" t="n">
-        <v>47.88546585083008</v>
+        <v>47.8854658508301</v>
       </c>
       <c r="E338" t="n">
         <v>1.43554031483733</v>
       </c>
       <c r="F338" t="n">
-        <v>27.49305842739729</v>
+        <v>27.4930584273973</v>
       </c>
       <c r="G338" t="n">
         <v>2.98</v>
       </c>
       <c r="H338" t="n">
-        <v>1.844021676150625</v>
+        <v>1.84402167615063</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0.7174579433595664</v>
       </c>
     </row>
     <row r="339">
@@ -9855,25 +10258,28 @@
         <v>9278</v>
       </c>
       <c r="B339" t="n">
-        <v>348.5604963533224</v>
+        <v>348.560496353322</v>
       </c>
       <c r="C339" t="n">
-        <v>64.28525970458985</v>
+        <v>64.2852597045899</v>
       </c>
       <c r="D339" t="n">
-        <v>45.89639541625976</v>
+        <v>45.8963954162598</v>
       </c>
       <c r="E339" t="n">
-        <v>1.400660315947501</v>
+        <v>1.4006603159475</v>
       </c>
       <c r="F339" t="n">
-        <v>26.61804793448322</v>
+        <v>26.6180479344832</v>
       </c>
       <c r="G339" t="n">
         <v>2.88</v>
       </c>
       <c r="H339" t="n">
-        <v>0.0953998946965658</v>
+        <v>0.095399894696566</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0.7001977277383453</v>
       </c>
     </row>
     <row r="340">
@@ -9881,25 +10287,28 @@
         <v>7740</v>
       </c>
       <c r="B340" t="n">
-        <v>317.7475232034261</v>
+        <v>317.747523203426</v>
       </c>
       <c r="C340" t="n">
-        <v>55.33087005615235</v>
+        <v>55.3308700561524</v>
       </c>
       <c r="D340" t="n">
-        <v>45.57538299560547</v>
+        <v>45.5753829956055</v>
       </c>
       <c r="E340" t="n">
-        <v>1.214051674815054</v>
+        <v>1.21405167481505</v>
       </c>
       <c r="F340" t="n">
-        <v>24.35896249313878</v>
+        <v>24.3589624931388</v>
       </c>
       <c r="G340" t="n">
         <v>2.14</v>
       </c>
       <c r="H340" t="n">
-        <v>2.354452214320082</v>
+        <v>2.35445221432008</v>
+      </c>
+      <c r="I340" t="n">
+        <v>0.5670430334126032</v>
       </c>
     </row>
     <row r="341">
@@ -9907,25 +10316,28 @@
         <v>9914</v>
       </c>
       <c r="B341" t="n">
-        <v>364.8081141441113</v>
+        <v>364.808114144111</v>
       </c>
       <c r="C341" t="n">
-        <v>67.76354644775391</v>
+        <v>67.7635464477539</v>
       </c>
       <c r="D341" t="n">
-        <v>47.46256500244141</v>
+        <v>47.4625650024414</v>
       </c>
       <c r="E341" t="n">
-        <v>1.427726176287949</v>
+        <v>1.42772617628795</v>
       </c>
       <c r="F341" t="n">
-        <v>27.17593062111453</v>
+        <v>27.1759306211145</v>
       </c>
       <c r="G341" t="n">
         <v>2.93</v>
       </c>
       <c r="H341" t="n">
-        <v>1.917389239004441</v>
+        <v>1.91738923900444</v>
+      </c>
+      <c r="I341" t="n">
+        <v>0.7137363952523988</v>
       </c>
     </row>
     <row r="342">
@@ -9933,25 +10345,28 @@
         <v>10271</v>
       </c>
       <c r="B342" t="n">
-        <v>370.8939948374933</v>
+        <v>370.893994837493</v>
       </c>
       <c r="C342" t="n">
-        <v>68.66938201904297</v>
+        <v>68.669382019043</v>
       </c>
       <c r="D342" t="n">
         <v>48.5223422241211</v>
       </c>
       <c r="E342" t="n">
-        <v>1.415211609156545</v>
+        <v>1.41521160915655</v>
       </c>
       <c r="F342" t="n">
-        <v>27.69254866070351</v>
+        <v>27.6925486607035</v>
       </c>
       <c r="G342" t="n">
         <v>3.63</v>
       </c>
       <c r="H342" t="n">
-        <v>1.915922307130755</v>
+        <v>1.91592230713076</v>
+      </c>
+      <c r="I342" t="n">
+        <v>0.7076051012237224</v>
       </c>
     </row>
     <row r="343">
@@ -9959,16 +10374,16 @@
         <v>8376</v>
       </c>
       <c r="B343" t="n">
-        <v>333.0602448669084</v>
+        <v>333.060244866909</v>
       </c>
       <c r="C343" t="n">
-        <v>57.38324523925782</v>
+        <v>57.3832452392578</v>
       </c>
       <c r="D343" t="n">
-        <v>48.44427642822266</v>
+        <v>48.4442764282227</v>
       </c>
       <c r="E343" t="n">
-        <v>1.184520638351975</v>
+        <v>1.18452063835198</v>
       </c>
       <c r="F343" t="n">
         <v>25.1486033805898</v>
@@ -9977,7 +10392,10 @@
         <v>2.41</v>
       </c>
       <c r="H343" t="n">
-        <v>4.265536734464603</v>
+        <v>4.2655367344646</v>
+      </c>
+      <c r="I343" t="n">
+        <v>0.5359915194089478</v>
       </c>
     </row>
     <row r="344">
@@ -9985,25 +10403,28 @@
         <v>10110</v>
       </c>
       <c r="B344" t="n">
-        <v>366.1832227672538</v>
+        <v>366.183222767254</v>
       </c>
       <c r="C344" t="n">
-        <v>65.42981994628907</v>
+        <v>65.4298199462891</v>
       </c>
       <c r="D344" t="n">
-        <v>50.65963729858399</v>
+        <v>50.659637298584</v>
       </c>
       <c r="E344" t="n">
         <v>1.2915572127106</v>
       </c>
       <c r="F344" t="n">
-        <v>27.60912945054809</v>
+        <v>27.6091294505481</v>
       </c>
       <c r="G344" t="n">
         <v>3.36</v>
       </c>
       <c r="H344" t="n">
-        <v>2.999832485462999</v>
+        <v>2.999832485463</v>
+      </c>
+      <c r="I344" t="n">
+        <v>0.6328686722217106</v>
       </c>
     </row>
     <row r="345">
@@ -10014,22 +10435,25 @@
         <v>388.937992297726</v>
       </c>
       <c r="C345" t="n">
-        <v>71.76323577880859</v>
+        <v>71.76323577880861</v>
       </c>
       <c r="D345" t="n">
-        <v>51.17619674682617</v>
+        <v>51.1761967468262</v>
       </c>
       <c r="E345" t="n">
-        <v>1.402277627894636</v>
+        <v>1.40227762789464</v>
       </c>
       <c r="F345" t="n">
-        <v>28.99433900344616</v>
+        <v>28.9943390034462</v>
       </c>
       <c r="G345" t="n">
         <v>3.53</v>
       </c>
       <c r="H345" t="n">
-        <v>2.311938258826465</v>
+        <v>2.31193825882647</v>
+      </c>
+      <c r="I345" t="n">
+        <v>0.701036343324415</v>
       </c>
     </row>
     <row r="346">
@@ -10037,25 +10461,28 @@
         <v>9544</v>
       </c>
       <c r="B346" t="n">
-        <v>359.4573812728203</v>
+        <v>359.45738127282</v>
       </c>
       <c r="C346" t="n">
-        <v>67.65553039550781</v>
+        <v>67.6555303955078</v>
       </c>
       <c r="D346" t="n">
-        <v>45.69739852905273</v>
+        <v>45.6973985290527</v>
       </c>
       <c r="E346" t="n">
         <v>1.48051163902678</v>
       </c>
       <c r="F346" t="n">
-        <v>26.55113094688773</v>
+        <v>26.5511309468877</v>
       </c>
       <c r="G346" t="n">
         <v>2.71</v>
       </c>
       <c r="H346" t="n">
         <v>1.7686989362199</v>
+      </c>
+      <c r="I346" t="n">
+        <v>0.7374129573517486</v>
       </c>
     </row>
     <row r="347">
@@ -10066,22 +10493,25 @@
         <v>351.586383802695</v>
       </c>
       <c r="C347" t="n">
-        <v>67.78367706298829</v>
+        <v>67.7836770629883</v>
       </c>
       <c r="D347" t="n">
-        <v>42.70161483764649</v>
+        <v>42.7016148376465</v>
       </c>
       <c r="E347" t="n">
-        <v>1.587379712001641</v>
+        <v>1.58737971200164</v>
       </c>
       <c r="F347" t="n">
-        <v>25.96232510847888</v>
+        <v>25.9623251084789</v>
       </c>
       <c r="G347" t="n">
         <v>2.73</v>
       </c>
       <c r="H347" t="n">
-        <v>0.3806589781889351</v>
+        <v>0.380658978188935</v>
+      </c>
+      <c r="I347" t="n">
+        <v>0.7766202848300491</v>
       </c>
     </row>
     <row r="348">
@@ -10092,22 +10522,25 @@
         <v>342.659521628387</v>
       </c>
       <c r="C348" t="n">
-        <v>64.12562561035156</v>
+        <v>64.12562561035161</v>
       </c>
       <c r="D348" t="n">
-        <v>44.00862731933594</v>
+        <v>44.008627319336</v>
       </c>
       <c r="E348" t="n">
-        <v>1.457114877613483</v>
+        <v>1.45711487761348</v>
       </c>
       <c r="F348" t="n">
-        <v>25.55306199690505</v>
+        <v>25.5530619969051</v>
       </c>
       <c r="G348" t="n">
         <v>2.76</v>
       </c>
       <c r="H348" t="n">
-        <v>1.254319102810458</v>
+        <v>1.25431910281046</v>
+      </c>
+      <c r="I348" t="n">
+        <v>0.727330193088335</v>
       </c>
     </row>
     <row r="349">
@@ -10115,25 +10548,28 @@
         <v>9862</v>
       </c>
       <c r="B349" t="n">
-        <v>369.2976288617705</v>
+        <v>369.297628861771</v>
       </c>
       <c r="C349" t="n">
         <v>68.3125619506836</v>
       </c>
       <c r="D349" t="n">
-        <v>48.38637634277344</v>
+        <v>48.3863763427734</v>
       </c>
       <c r="E349" t="n">
-        <v>1.411813967360384</v>
+        <v>1.41181396736038</v>
       </c>
       <c r="F349" t="n">
-        <v>26.70474768656417</v>
+        <v>26.7047476865642</v>
       </c>
       <c r="G349" t="n">
         <v>2.77</v>
       </c>
       <c r="H349" t="n">
         <v>5.29519340689475</v>
+      </c>
+      <c r="I349" t="n">
+        <v>0.7059028982525726</v>
       </c>
     </row>
     <row r="350">
@@ -10141,25 +10577,28 @@
         <v>9803</v>
       </c>
       <c r="B350" t="n">
-        <v>371.9410947170152</v>
+        <v>371.941094717015</v>
       </c>
       <c r="C350" t="n">
-        <v>70.85146911621094</v>
+        <v>70.85146911621101</v>
       </c>
       <c r="D350" t="n">
-        <v>46.24475051879883</v>
+        <v>46.2447505187988</v>
       </c>
       <c r="E350" t="n">
-        <v>1.532097553157072</v>
+        <v>1.53209755315707</v>
       </c>
       <c r="F350" t="n">
-        <v>26.35632399656843</v>
+        <v>26.3563239965684</v>
       </c>
       <c r="G350" t="n">
         <v>2.98</v>
       </c>
       <c r="H350" t="n">
-        <v>5.003112051391316</v>
+        <v>5.00311205139132</v>
+      </c>
+      <c r="I350" t="n">
+        <v>0.7576165073123646</v>
       </c>
     </row>
     <row r="351">
@@ -10167,25 +10606,28 @@
         <v>9480</v>
       </c>
       <c r="B351" t="n">
-        <v>355.6597706174115</v>
+        <v>355.659770617412</v>
       </c>
       <c r="C351" t="n">
-        <v>65.10000213623047</v>
+        <v>65.1000021362305</v>
       </c>
       <c r="D351" t="n">
-        <v>47.41392303466797</v>
+        <v>47.413923034668</v>
       </c>
       <c r="E351" t="n">
-        <v>1.373014464308951</v>
+        <v>1.37301446430895</v>
       </c>
       <c r="F351" t="n">
-        <v>26.65468738154751</v>
+        <v>26.6546873815475</v>
       </c>
       <c r="G351" t="n">
         <v>3.02</v>
       </c>
       <c r="H351" t="n">
-        <v>2.288881222194881</v>
+        <v>2.28888122219488</v>
+      </c>
+      <c r="I351" t="n">
+        <v>0.6852324425841304</v>
       </c>
     </row>
     <row r="352">
@@ -10193,25 +10635,28 @@
         <v>9152</v>
       </c>
       <c r="B352" t="n">
-        <v>352.5827102989981</v>
+        <v>352.582710298998</v>
       </c>
       <c r="C352" t="n">
-        <v>64.57819946289062</v>
+        <v>64.57819946289059</v>
       </c>
       <c r="D352" t="n">
-        <v>46.95513031005859</v>
+        <v>46.9551303100586</v>
       </c>
       <c r="E352" t="n">
-        <v>1.375317223836069</v>
+        <v>1.37531722383607</v>
       </c>
       <c r="F352" t="n">
-        <v>25.95703003201405</v>
+        <v>25.9570300320141</v>
       </c>
       <c r="G352" t="n">
         <v>2.89</v>
       </c>
       <c r="H352" t="n">
-        <v>4.088522387672612</v>
+        <v>4.08852238767261</v>
+      </c>
+      <c r="I352" t="n">
+        <v>0.6865262928215966</v>
       </c>
     </row>
     <row r="353">
@@ -10219,25 +10664,28 @@
         <v>11525</v>
       </c>
       <c r="B353" t="n">
-        <v>394.8361234234253</v>
+        <v>394.836123423425</v>
       </c>
       <c r="C353" t="n">
-        <v>72.87829498291016</v>
+        <v>72.87829498291021</v>
       </c>
       <c r="D353" t="n">
-        <v>51.92051712036133</v>
+        <v>51.9205171203613</v>
       </c>
       <c r="E353" t="n">
-        <v>1.403651177317145</v>
+        <v>1.40365117731715</v>
       </c>
       <c r="F353" t="n">
-        <v>29.18932518147662</v>
+        <v>29.1893251814766</v>
       </c>
       <c r="G353" t="n">
         <v>3.7</v>
       </c>
       <c r="H353" t="n">
-        <v>3.144518194480011</v>
+        <v>3.14451819448001</v>
+      </c>
+      <c r="I353" t="n">
+        <v>0.7017455036028284</v>
       </c>
     </row>
     <row r="354">
@@ -10245,25 +10693,28 @@
         <v>8965</v>
       </c>
       <c r="B354" t="n">
-        <v>348.7166329567819</v>
+        <v>348.716632956782</v>
       </c>
       <c r="C354" t="n">
-        <v>65.09897033691406</v>
+        <v>65.09897033691411</v>
       </c>
       <c r="D354" t="n">
-        <v>44.97975051879883</v>
+        <v>44.9797505187988</v>
       </c>
       <c r="E354" t="n">
-        <v>1.447295051352199</v>
+        <v>1.4472950513522</v>
       </c>
       <c r="F354" t="n">
-        <v>25.70855288428721</v>
+        <v>25.7085528842872</v>
       </c>
       <c r="G354" t="n">
         <v>2.85</v>
       </c>
       <c r="H354" t="n">
-        <v>2.610248768016611</v>
+        <v>2.61024876801661</v>
+      </c>
+      <c r="I354" t="n">
+        <v>0.7229081742652946</v>
       </c>
     </row>
     <row r="355">
@@ -10271,25 +10722,28 @@
         <v>9884</v>
       </c>
       <c r="B355" t="n">
-        <v>357.3897454238975</v>
+        <v>357.389745423898</v>
       </c>
       <c r="C355" t="n">
-        <v>62.16640014648438</v>
+        <v>62.1664001464844</v>
       </c>
       <c r="D355" t="n">
-        <v>51.33577117919922</v>
+        <v>51.3357711791992</v>
       </c>
       <c r="E355" t="n">
         <v>1.21097625921462</v>
       </c>
       <c r="F355" t="n">
-        <v>27.65608170507706</v>
+        <v>27.6560817050771</v>
       </c>
       <c r="G355" t="n">
         <v>2.84</v>
       </c>
       <c r="H355" t="n">
-        <v>1.436194081195539</v>
+        <v>1.43619408119554</v>
+      </c>
+      <c r="I355" t="n">
+        <v>0.5639923385651853</v>
       </c>
     </row>
     <row r="356">
@@ -10297,25 +10751,28 @@
         <v>10704</v>
       </c>
       <c r="B356" t="n">
-        <v>377.9081146895893</v>
+        <v>377.908114689589</v>
       </c>
       <c r="C356" t="n">
-        <v>73.06408905029298</v>
+        <v>73.06408905029301</v>
       </c>
       <c r="D356" t="n">
-        <v>45.63832275390625</v>
+        <v>45.6383227539063</v>
       </c>
       <c r="E356" t="n">
-        <v>1.600937208938935</v>
+        <v>1.60093720893894</v>
       </c>
       <c r="F356" t="n">
-        <v>28.32434547956765</v>
+        <v>28.3243454795677</v>
       </c>
       <c r="G356" t="n">
         <v>3.37</v>
       </c>
       <c r="H356" t="n">
-        <v>2.132741783647204</v>
+        <v>2.1327417836472</v>
+      </c>
+      <c r="I356" t="n">
+        <v>0.7809175499272901</v>
       </c>
     </row>
     <row r="357">
@@ -10323,25 +10780,28 @@
         <v>10143</v>
       </c>
       <c r="B357" t="n">
-        <v>373.1760579646225</v>
+        <v>373.176057964623</v>
       </c>
       <c r="C357" t="n">
-        <v>70.85299224853516</v>
+        <v>70.8529922485352</v>
       </c>
       <c r="D357" t="n">
-        <v>46.68724502563477</v>
+        <v>46.6872450256348</v>
       </c>
       <c r="E357" t="n">
-        <v>1.517609193038304</v>
+        <v>1.5176091930383</v>
       </c>
       <c r="F357" t="n">
-        <v>27.18020029291796</v>
+        <v>27.180200292918</v>
       </c>
       <c r="G357" t="n">
         <v>2.39</v>
       </c>
       <c r="H357" t="n">
-        <v>2.456588379226531</v>
+        <v>2.45658837922653</v>
+      </c>
+      <c r="I357" t="n">
+        <v>0.7522032399689105</v>
       </c>
     </row>
     <row r="358">
@@ -10349,25 +10809,28 @@
         <v>9409</v>
       </c>
       <c r="B358" t="n">
-        <v>358.2295837634209</v>
+        <v>358.229583763421</v>
       </c>
       <c r="C358" t="n">
-        <v>65.90584442138672</v>
+        <v>65.9058444213867</v>
       </c>
       <c r="D358" t="n">
-        <v>47.36190490722657</v>
+        <v>47.3619049072266</v>
       </c>
       <c r="E358" t="n">
-        <v>1.391537028556693</v>
+        <v>1.39153702855669</v>
       </c>
       <c r="F358" t="n">
-        <v>26.26527910161048</v>
+        <v>26.2652791016105</v>
       </c>
       <c r="G358" t="n">
         <v>2.97</v>
       </c>
       <c r="H358" t="n">
-        <v>4.222021967187095</v>
+        <v>4.2220219671871</v>
+      </c>
+      <c r="I358" t="n">
+        <v>0.6953928287701088</v>
       </c>
     </row>
     <row r="359">
@@ -10375,25 +10838,28 @@
         <v>8704</v>
       </c>
       <c r="B359" t="n">
-        <v>337.0926643899934</v>
+        <v>337.092664389993</v>
       </c>
       <c r="C359" t="n">
         <v>60.93158203125</v>
       </c>
       <c r="D359" t="n">
-        <v>45.83393997192383</v>
+        <v>45.8339399719238</v>
       </c>
       <c r="E359" t="n">
-        <v>1.329398739636488</v>
+        <v>1.32939873963649</v>
       </c>
       <c r="F359" t="n">
-        <v>25.82079326985906</v>
+        <v>25.8207932698591</v>
       </c>
       <c r="G359" t="n">
         <v>2.69</v>
       </c>
       <c r="H359" t="n">
-        <v>0.8000241782876237</v>
+        <v>0.800024178287624</v>
+      </c>
+      <c r="I359" t="n">
+        <v>0.6589123110507492</v>
       </c>
     </row>
     <row r="360">
@@ -10401,25 +10867,28 @@
         <v>10007</v>
       </c>
       <c r="B360" t="n">
-        <v>372.2135178461505</v>
+        <v>372.213517846151</v>
       </c>
       <c r="C360" t="n">
-        <v>69.34465606689453</v>
+        <v>69.3446560668946</v>
       </c>
       <c r="D360" t="n">
-        <v>48.17975326538086</v>
+        <v>48.1797532653809</v>
       </c>
       <c r="E360" t="n">
-        <v>1.439290394139929</v>
+        <v>1.43929039413993</v>
       </c>
       <c r="F360" t="n">
-        <v>26.88510631721941</v>
+        <v>26.8851063172194</v>
       </c>
       <c r="G360" t="n">
         <v>2.82</v>
       </c>
       <c r="H360" t="n">
-        <v>4.887453847512578</v>
+        <v>4.88745384751258</v>
+      </c>
+      <c r="I360" t="n">
+        <v>0.7192157332076725</v>
       </c>
     </row>
     <row r="361">
@@ -10433,19 +10902,22 @@
         <v>65.24552093505859</v>
       </c>
       <c r="D361" t="n">
-        <v>48.39334625244141</v>
+        <v>48.3933462524414</v>
       </c>
       <c r="E361" t="n">
-        <v>1.348233300394411</v>
+        <v>1.34823330039441</v>
       </c>
       <c r="F361" t="n">
-        <v>26.85999396901785</v>
+        <v>26.8599939690179</v>
       </c>
       <c r="G361" t="n">
         <v>2.89</v>
       </c>
       <c r="H361" t="n">
-        <v>2.877192001238763</v>
+        <v>2.87719200123876</v>
+      </c>
+      <c r="I361" t="n">
+        <v>0.6707191727920079</v>
       </c>
     </row>
     <row r="362">
@@ -10453,25 +10925,28 @@
         <v>10262</v>
       </c>
       <c r="B362" t="n">
-        <v>369.2329198179241</v>
+        <v>369.232919817924</v>
       </c>
       <c r="C362" t="n">
-        <v>67.65169799804688</v>
+        <v>67.6516979980469</v>
       </c>
       <c r="D362" t="n">
-        <v>49.14448562622071</v>
+        <v>49.1444856262207</v>
       </c>
       <c r="E362" t="n">
-        <v>1.376587772483507</v>
+        <v>1.37658777248351</v>
       </c>
       <c r="F362" t="n">
-        <v>27.79275478757526</v>
+        <v>27.7927547875753</v>
       </c>
       <c r="G362" t="n">
         <v>3.21</v>
       </c>
       <c r="H362" t="n">
         <v>1.78208841857977</v>
+      </c>
+      <c r="I362" t="n">
+        <v>0.6872363600192172</v>
       </c>
     </row>
     <row r="363">
@@ -10479,25 +10954,28 @@
         <v>8253</v>
       </c>
       <c r="B363" t="n">
-        <v>342.9978451089804</v>
+        <v>342.997845108981</v>
       </c>
       <c r="C363" t="n">
-        <v>62.66377655029297</v>
+        <v>62.663776550293</v>
       </c>
       <c r="D363" t="n">
-        <v>45.86477813720703</v>
+        <v>45.864778137207</v>
       </c>
       <c r="E363" t="n">
-        <v>1.366272313862084</v>
+        <v>1.36627231386208</v>
       </c>
       <c r="F363" t="n">
-        <v>24.06137565493388</v>
+        <v>24.0613756549339</v>
       </c>
       <c r="G363" t="n">
         <v>2.66</v>
       </c>
       <c r="H363" t="n">
-        <v>9.404173484616852</v>
+        <v>9.40417348461685</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0.6813921709745205</v>
       </c>
     </row>
     <row r="364">
@@ -10505,25 +10983,28 @@
         <v>8633</v>
       </c>
       <c r="B364" t="n">
-        <v>336.5221110997791</v>
+        <v>336.522111099779</v>
       </c>
       <c r="C364" t="n">
-        <v>57.75021133422852</v>
+        <v>57.7502113342285</v>
       </c>
       <c r="D364" t="n">
         <v>49.1970231628418</v>
       </c>
       <c r="E364" t="n">
-        <v>1.173855807150683</v>
+        <v>1.17385580715068</v>
       </c>
       <c r="F364" t="n">
-        <v>25.65358921524271</v>
+        <v>25.6535892152427</v>
       </c>
       <c r="G364" t="n">
         <v>2.67</v>
       </c>
       <c r="H364" t="n">
-        <v>3.390475979005251</v>
+        <v>3.39047597900525</v>
+      </c>
+      <c r="I364" t="n">
+        <v>0.5237152435431551</v>
       </c>
     </row>
     <row r="365">
@@ -10531,25 +11012,28 @@
         <v>7803</v>
       </c>
       <c r="B365" t="n">
-        <v>326.2054276878268</v>
+        <v>326.205427687827</v>
       </c>
       <c r="C365" t="n">
-        <v>61.92572418212891</v>
+        <v>61.9257241821289</v>
       </c>
       <c r="D365" t="n">
-        <v>40.82219589233399</v>
+        <v>40.822195892334</v>
       </c>
       <c r="E365" t="n">
-        <v>1.516962104279108</v>
+        <v>1.51696210427911</v>
       </c>
       <c r="F365" t="n">
-        <v>23.92050940203037</v>
+        <v>23.9205094020304</v>
       </c>
       <c r="G365" t="n">
         <v>2.39</v>
       </c>
       <c r="H365" t="n">
-        <v>1.778424134758418</v>
+        <v>1.77842413475842</v>
+      </c>
+      <c r="I365" t="n">
+        <v>0.7519569210562241</v>
       </c>
     </row>
     <row r="366">
@@ -10557,25 +11041,28 @@
         <v>8188</v>
       </c>
       <c r="B366" t="n">
-        <v>333.9778852260765</v>
+        <v>333.977885226077</v>
       </c>
       <c r="C366" t="n">
-        <v>59.40444183349609</v>
+        <v>59.4044418334961</v>
       </c>
       <c r="D366" t="n">
-        <v>46.51128463745118</v>
+        <v>46.5112846374512</v>
       </c>
       <c r="E366" t="n">
-        <v>1.277204925569036</v>
+        <v>1.27720492556904</v>
       </c>
       <c r="F366" t="n">
-        <v>24.51659335005782</v>
+        <v>24.5165933500578</v>
       </c>
       <c r="G366" t="n">
         <v>2.1</v>
       </c>
       <c r="H366" t="n">
-        <v>6.010600146816219</v>
+        <v>6.01060014681622</v>
+      </c>
+      <c r="I366" t="n">
+        <v>0.6220724155828088</v>
       </c>
     </row>
     <row r="367">
@@ -10586,22 +11073,25 @@
         <v>364.965699118703</v>
       </c>
       <c r="C367" t="n">
-        <v>66.62479095458984</v>
+        <v>66.6247909545899</v>
       </c>
       <c r="D367" t="n">
-        <v>48.86349578857422</v>
+        <v>48.8634957885742</v>
       </c>
       <c r="E367" t="n">
-        <v>1.363488016552609</v>
+        <v>1.36348801655261</v>
       </c>
       <c r="F367" t="n">
-        <v>27.68753344328231</v>
+        <v>27.6875334432823</v>
       </c>
       <c r="G367" t="n">
         <v>3.21</v>
       </c>
       <c r="H367" t="n">
-        <v>1.212452444382955</v>
+        <v>1.21245244438296</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.6797831975985072</v>
       </c>
     </row>
     <row r="368">
@@ -10609,16 +11099,16 @@
         <v>10083</v>
       </c>
       <c r="B368" t="n">
-        <v>368.4614951361683</v>
+        <v>368.461495136168</v>
       </c>
       <c r="C368" t="n">
-        <v>65.99489501953126</v>
+        <v>65.9948950195313</v>
       </c>
       <c r="D368" t="n">
-        <v>50.79495742797852</v>
+        <v>50.7949574279785</v>
       </c>
       <c r="E368" t="n">
-        <v>1.299241073547596</v>
+        <v>1.2992410735476</v>
       </c>
       <c r="F368" t="n">
         <v>27.3651389170902</v>
@@ -10627,7 +11117,10 @@
         <v>2.96</v>
       </c>
       <c r="H368" t="n">
-        <v>4.445816309420874</v>
+        <v>4.44581630942087</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.6384297478717467</v>
       </c>
     </row>
     <row r="369">
@@ -10635,25 +11128,28 @@
         <v>9924</v>
       </c>
       <c r="B369" t="n">
-        <v>362.0553423977715</v>
+        <v>362.055342397772</v>
       </c>
       <c r="C369" t="n">
-        <v>65.41380249023437</v>
+        <v>65.4138024902344</v>
       </c>
       <c r="D369" t="n">
-        <v>49.26259506225586</v>
+        <v>49.2625950622559</v>
       </c>
       <c r="E369" t="n">
-        <v>1.327859452137415</v>
+        <v>1.32785945213742</v>
       </c>
       <c r="F369" t="n">
-        <v>27.41017418573819</v>
+        <v>27.4101741857382</v>
       </c>
       <c r="G369" t="n">
         <v>2.7</v>
       </c>
       <c r="H369" t="n">
-        <v>2.011656146411135</v>
+        <v>2.01165614641114</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.6579155070777136</v>
       </c>
     </row>
     <row r="370">
@@ -10664,22 +11160,25 @@
         <v>339.941659691375</v>
       </c>
       <c r="C370" t="n">
-        <v>62.24626983642578</v>
+        <v>62.2462698364258</v>
       </c>
       <c r="D370" t="n">
-        <v>45.29116439819336</v>
+        <v>45.2911643981934</v>
       </c>
       <c r="E370" t="n">
-        <v>1.374357905422029</v>
+        <v>1.37435790542203</v>
       </c>
       <c r="F370" t="n">
-        <v>24.56009659886893</v>
+        <v>24.5600965988689</v>
       </c>
       <c r="G370" t="n">
         <v>2.4</v>
       </c>
       <c r="H370" t="n">
         <v>6.08212941999187</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.6859883678314647</v>
       </c>
     </row>
     <row r="371">
@@ -10687,25 +11186,28 @@
         <v>9044</v>
       </c>
       <c r="B371" t="n">
-        <v>353.7266235867867</v>
+        <v>353.726623586787</v>
       </c>
       <c r="C371" t="n">
         <v>66.4194839477539</v>
       </c>
       <c r="D371" t="n">
-        <v>45.16026275634766</v>
+        <v>45.1602627563477</v>
       </c>
       <c r="E371" t="n">
-        <v>1.470750608917086</v>
+        <v>1.47075060891709</v>
       </c>
       <c r="F371" t="n">
-        <v>25.56776730089998</v>
+        <v>25.5677673009</v>
       </c>
       <c r="G371" t="n">
         <v>2.79</v>
       </c>
       <c r="H371" t="n">
-        <v>4.193655779711174</v>
+        <v>4.19365577971118</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.7332817289533399</v>
       </c>
     </row>
     <row r="372">
@@ -10713,25 +11215,28 @@
         <v>8634</v>
       </c>
       <c r="B372" t="n">
-        <v>339.5932688899234</v>
+        <v>339.593268889924</v>
       </c>
       <c r="C372" t="n">
-        <v>62.14498504638672</v>
+        <v>62.1449850463867</v>
       </c>
       <c r="D372" t="n">
-        <v>45.28870422363281</v>
+        <v>45.2887042236328</v>
       </c>
       <c r="E372" t="n">
-        <v>1.372196138346521</v>
+        <v>1.37219613834652</v>
       </c>
       <c r="F372" t="n">
-        <v>25.42453220060332</v>
+        <v>25.4245322006033</v>
       </c>
       <c r="G372" t="n">
         <v>2.54</v>
       </c>
       <c r="H372" t="n">
-        <v>2.407982718584136</v>
+        <v>2.40798271858414</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.6847704894792501</v>
       </c>
     </row>
     <row r="373">
@@ -10739,25 +11244,28 @@
         <v>9943</v>
       </c>
       <c r="B373" t="n">
-        <v>367.2631476130441</v>
+        <v>367.263147613044</v>
       </c>
       <c r="C373" t="n">
         <v>68.5889437866211</v>
       </c>
       <c r="D373" t="n">
-        <v>47.33866485595703</v>
+        <v>47.338664855957</v>
       </c>
       <c r="E373" t="n">
         <v>1.44889899187746</v>
       </c>
       <c r="F373" t="n">
-        <v>27.07323090983293</v>
+        <v>27.0732309098329</v>
       </c>
       <c r="G373" t="n">
         <v>3</v>
       </c>
       <c r="H373" t="n">
-        <v>2.589414992568106</v>
+        <v>2.58941499256811</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.7236384604792974</v>
       </c>
     </row>
     <row r="374">
@@ -10765,25 +11273,28 @@
         <v>9227</v>
       </c>
       <c r="B374" t="n">
-        <v>350.6715347659757</v>
+        <v>350.671534765976</v>
       </c>
       <c r="C374" t="n">
-        <v>63.39320953369141</v>
+        <v>63.3932095336914</v>
       </c>
       <c r="D374" t="n">
-        <v>47.67197463989258</v>
+        <v>47.6719746398926</v>
       </c>
       <c r="E374" t="n">
-        <v>1.329779393712025</v>
+        <v>1.32977939371203</v>
       </c>
       <c r="F374" t="n">
-        <v>26.31237236337913</v>
+        <v>26.3123723633791</v>
       </c>
       <c r="G374" t="n">
         <v>2.74</v>
       </c>
       <c r="H374" t="n">
-        <v>2.895227963965193</v>
+        <v>2.89522796396519</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.6591580475111105</v>
       </c>
     </row>
     <row r="375">
@@ -10791,25 +11302,28 @@
         <v>8064</v>
       </c>
       <c r="B375" t="n">
-        <v>333.5130425604947</v>
+        <v>333.513042560495</v>
       </c>
       <c r="C375" t="n">
-        <v>60.93622161865235</v>
+        <v>60.9362216186524</v>
       </c>
       <c r="D375" t="n">
-        <v>44.59033752441407</v>
+        <v>44.5903375244141</v>
       </c>
       <c r="E375" t="n">
-        <v>1.366579061781907</v>
+        <v>1.36657906178191</v>
       </c>
       <c r="F375" t="n">
-        <v>24.17896445095487</v>
+        <v>24.1789644509549</v>
       </c>
       <c r="G375" t="n">
         <v>2.24</v>
       </c>
       <c r="H375" t="n">
-        <v>5.856038071899372</v>
+        <v>5.85603807189937</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.6815686000763763</v>
       </c>
     </row>
     <row r="376">
@@ -10817,25 +11331,28 @@
         <v>10050</v>
       </c>
       <c r="B376" t="n">
-        <v>365.0740950707529</v>
+        <v>365.074095070753</v>
       </c>
       <c r="C376" t="n">
         <v>67.24050140380859</v>
       </c>
       <c r="D376" t="n">
-        <v>48.17773178100586</v>
+        <v>48.1777317810059</v>
       </c>
       <c r="E376" t="n">
-        <v>1.395675946502701</v>
+        <v>1.3956759465027</v>
       </c>
       <c r="F376" t="n">
-        <v>27.52865825238098</v>
+        <v>27.528658252381</v>
       </c>
       <c r="G376" t="n">
         <v>2.97</v>
       </c>
       <c r="H376" t="n">
-        <v>1.265404927869614</v>
+        <v>1.26540492786961</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.6975884275296368</v>
       </c>
     </row>
     <row r="377">
@@ -10843,25 +11360,28 @@
         <v>8905</v>
       </c>
       <c r="B377" t="n">
-        <v>342.9727671279318</v>
+        <v>342.972767127932</v>
       </c>
       <c r="C377" t="n">
         <v>64.4048291015625</v>
       </c>
       <c r="D377" t="n">
-        <v>43.78172973632812</v>
+        <v>43.7817297363281</v>
       </c>
       <c r="E377" t="n">
-        <v>1.471043503521567</v>
+        <v>1.47104350352157</v>
       </c>
       <c r="F377" t="n">
-        <v>25.96416057919362</v>
+        <v>25.9641605791936</v>
       </c>
       <c r="G377" t="n">
         <v>2.19</v>
       </c>
       <c r="H377" t="n">
-        <v>0.5219423699360961</v>
+        <v>0.521942369936096</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.7334072326493996</v>
       </c>
     </row>
     <row r="378">
@@ -10869,25 +11389,28 @@
         <v>11833</v>
       </c>
       <c r="B378" t="n">
-        <v>396.7853398804183</v>
+        <v>396.785339880418</v>
       </c>
       <c r="C378" t="n">
         <v>74.44837066650391</v>
       </c>
       <c r="D378" t="n">
-        <v>50.72584091186523</v>
+        <v>50.7258409118652</v>
       </c>
       <c r="E378" t="n">
-        <v>1.467661636124592</v>
+        <v>1.46766163612459</v>
       </c>
       <c r="F378" t="n">
-        <v>29.82217035429329</v>
+        <v>29.8221703542933</v>
       </c>
       <c r="G378" t="n">
         <v>3.82</v>
       </c>
       <c r="H378" t="n">
-        <v>0.2627150780426362</v>
+        <v>0.262715078042636</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.731952224255219</v>
       </c>
     </row>
     <row r="379">
@@ -10895,25 +11418,28 @@
         <v>10875</v>
       </c>
       <c r="B379" t="n">
-        <v>386.0619405064834</v>
+        <v>386.061940506483</v>
       </c>
       <c r="C379" t="n">
-        <v>71.17122863769532</v>
+        <v>71.17122863769529</v>
       </c>
       <c r="D379" t="n">
-        <v>50.87041213989258</v>
+        <v>50.8704121398926</v>
       </c>
       <c r="E379" t="n">
-        <v>1.399069235805991</v>
+        <v>1.39906923580599</v>
       </c>
       <c r="F379" t="n">
-        <v>28.16905490795814</v>
+        <v>28.1690549079581</v>
       </c>
       <c r="G379" t="n">
         <v>3.28</v>
       </c>
       <c r="H379" t="n">
-        <v>4.590039359928051</v>
+        <v>4.59003935992805</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.6993688881246168</v>
       </c>
     </row>
     <row r="380">
@@ -10921,25 +11447,28 @@
         <v>9693</v>
       </c>
       <c r="B380" t="n">
-        <v>358.5116214281302</v>
+        <v>358.51162142813</v>
       </c>
       <c r="C380" t="n">
-        <v>65.41217407226563</v>
+        <v>65.4121740722656</v>
       </c>
       <c r="D380" t="n">
-        <v>48.03958648681641</v>
+        <v>48.0395864868164</v>
       </c>
       <c r="E380" t="n">
-        <v>1.361630664539896</v>
+        <v>1.3616306645399</v>
       </c>
       <c r="F380" t="n">
-        <v>27.03678045745897</v>
+        <v>27.036780457459</v>
       </c>
       <c r="G380" t="n">
         <v>3.36</v>
       </c>
       <c r="H380" t="n">
-        <v>1.847296243863922</v>
+        <v>1.84729624386392</v>
+      </c>
+      <c r="I380" t="n">
+        <v>0.6787022532066507</v>
       </c>
     </row>
     <row r="381">
@@ -10947,25 +11476,28 @@
         <v>10494</v>
       </c>
       <c r="B381" t="n">
-        <v>381.2878721377207</v>
+        <v>381.287872137721</v>
       </c>
       <c r="C381" t="n">
-        <v>70.06930206298829</v>
+        <v>70.0693020629883</v>
       </c>
       <c r="D381" t="n">
-        <v>50.50331619262695</v>
+        <v>50.503316192627</v>
       </c>
       <c r="E381" t="n">
-        <v>1.387419823992029</v>
+        <v>1.38741982399203</v>
       </c>
       <c r="F381" t="n">
-        <v>27.52251190462617</v>
+        <v>27.5225119046262</v>
       </c>
       <c r="G381" t="n">
         <v>3.67</v>
       </c>
       <c r="H381" t="n">
-        <v>5.939154024293053</v>
+        <v>5.93915402429305</v>
+      </c>
+      <c r="I381" t="n">
+        <v>0.6931822318394725</v>
       </c>
     </row>
     <row r="382">
@@ -10973,25 +11505,28 @@
         <v>9345</v>
       </c>
       <c r="B382" t="n">
-        <v>355.7095947322038</v>
+        <v>355.709594732204</v>
       </c>
       <c r="C382" t="n">
-        <v>61.73752258300782</v>
+        <v>61.7375225830078</v>
       </c>
       <c r="D382" t="n">
-        <v>51.24460083007813</v>
+        <v>51.2446008300781</v>
       </c>
       <c r="E382" t="n">
-        <v>1.204761508197188</v>
+        <v>1.20476150819719</v>
       </c>
       <c r="F382" t="n">
-        <v>26.27143079183847</v>
+        <v>26.2714307918385</v>
       </c>
       <c r="G382" t="n">
         <v>2.91</v>
       </c>
       <c r="H382" t="n">
-        <v>6.357441013683561</v>
+        <v>6.35744101368356</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.5577041619204431</v>
       </c>
     </row>
     <row r="383">
@@ -10999,25 +11534,28 @@
         <v>9236</v>
       </c>
       <c r="B383" t="n">
-        <v>356.0900970150826</v>
+        <v>356.090097015083</v>
       </c>
       <c r="C383" t="n">
         <v>65.3873617553711</v>
       </c>
       <c r="D383" t="n">
-        <v>47.22623382568359</v>
+        <v>47.2262338256836</v>
       </c>
       <c r="E383" t="n">
-        <v>1.384555922810231</v>
+        <v>1.38455592281023</v>
       </c>
       <c r="F383" t="n">
-        <v>25.93725598498966</v>
+        <v>25.9372559849897</v>
       </c>
       <c r="G383" t="n">
         <v>2.91</v>
       </c>
       <c r="H383" t="n">
-        <v>5.037185533914164</v>
+        <v>5.03718553391416</v>
+      </c>
+      <c r="I383" t="n">
+        <v>0.6916286999343015</v>
       </c>
     </row>
     <row r="384">
@@ -11025,25 +11563,28 @@
         <v>8360</v>
       </c>
       <c r="B384" t="n">
-        <v>332.0563204328377</v>
+        <v>332.056320432838</v>
       </c>
       <c r="C384" t="n">
-        <v>58.65425354003906</v>
+        <v>58.6542535400391</v>
       </c>
       <c r="D384" t="n">
-        <v>46.70338180541992</v>
+        <v>46.7033818054199</v>
       </c>
       <c r="E384" t="n">
-        <v>1.255888787334716</v>
+        <v>1.25588878733472</v>
       </c>
       <c r="F384" t="n">
-        <v>25.17645196183191</v>
+        <v>25.1764519618319</v>
       </c>
       <c r="G384" t="n">
         <v>2.45</v>
       </c>
       <c r="H384" t="n">
-        <v>2.941723818572301</v>
+        <v>2.9417238185723</v>
+      </c>
+      <c r="I384" t="n">
+        <v>0.6049692324616791</v>
       </c>
     </row>
     <row r="385">
@@ -11051,25 +11592,28 @@
         <v>9942</v>
       </c>
       <c r="B385" t="n">
-        <v>364.9598728210221</v>
+        <v>364.959872821022</v>
       </c>
       <c r="C385" t="n">
-        <v>62.71495239257813</v>
+        <v>62.7149523925781</v>
       </c>
       <c r="D385" t="n">
-        <v>53.26271255493165</v>
+        <v>53.2627125549317</v>
       </c>
       <c r="E385" t="n">
-        <v>1.177464484706784</v>
+        <v>1.17746448470678</v>
       </c>
       <c r="F385" t="n">
-        <v>27.24135100977416</v>
+        <v>27.2413510097742</v>
       </c>
       <c r="G385" t="n">
         <v>2.96</v>
       </c>
       <c r="H385" t="n">
         <v>5.55297811211233</v>
+      </c>
+      <c r="I385" t="n">
+        <v>0.5279386404888158</v>
       </c>
     </row>
     <row r="386">
@@ -11077,25 +11621,28 @@
         <v>9983</v>
       </c>
       <c r="B386" t="n">
-        <v>363.1325949543059</v>
+        <v>363.132594954306</v>
       </c>
       <c r="C386" t="n">
-        <v>67.40031799316407</v>
+        <v>67.40031799316409</v>
       </c>
       <c r="D386" t="n">
-        <v>47.30671768188477</v>
+        <v>47.3067176818848</v>
       </c>
       <c r="E386" t="n">
-        <v>1.424751521473107</v>
+        <v>1.42475152147311</v>
       </c>
       <c r="F386" t="n">
-        <v>27.49133550309961</v>
+        <v>27.4913355030996</v>
       </c>
       <c r="G386" t="n">
         <v>3.28</v>
       </c>
       <c r="H386" t="n">
-        <v>0.3398767462305978</v>
+        <v>0.339876746230598</v>
+      </c>
+      <c r="I386" t="n">
+        <v>0.7122983895378905</v>
       </c>
     </row>
     <row r="387">
@@ -11109,19 +11656,22 @@
         <v>66.90621246337891</v>
       </c>
       <c r="D387" t="n">
-        <v>45.91162322998047</v>
+        <v>45.9116232299805</v>
       </c>
       <c r="E387" t="n">
-        <v>1.457282660824958</v>
+        <v>1.45728266082496</v>
       </c>
       <c r="F387" t="n">
-        <v>26.07251872619956</v>
+        <v>26.0725187261996</v>
       </c>
       <c r="G387" t="n">
         <v>2.99</v>
       </c>
       <c r="H387" t="n">
         <v>3.53244200909922</v>
+      </c>
+      <c r="I387" t="n">
+        <v>0.72740474147443</v>
       </c>
     </row>
     <row r="388">
@@ -11129,25 +11679,28 @@
         <v>9234</v>
       </c>
       <c r="B388" t="n">
-        <v>356.3421062176637</v>
+        <v>356.342106217664</v>
       </c>
       <c r="C388" t="n">
-        <v>66.38488708496094</v>
+        <v>66.38488708496099</v>
       </c>
       <c r="D388" t="n">
-        <v>46.12878540039063</v>
+        <v>46.1287854003906</v>
       </c>
       <c r="E388" t="n">
-        <v>1.439120638203467</v>
+        <v>1.43912063820347</v>
       </c>
       <c r="F388" t="n">
-        <v>25.91330027768207</v>
+        <v>25.9133002776821</v>
       </c>
       <c r="G388" t="n">
         <v>2.48</v>
       </c>
       <c r="H388" t="n">
-        <v>4.184051657988448</v>
+        <v>4.18405165798845</v>
+      </c>
+      <c r="I388" t="n">
+        <v>0.7191365521575862</v>
       </c>
     </row>
     <row r="389">
@@ -11155,25 +11708,28 @@
         <v>8955</v>
       </c>
       <c r="B389" t="n">
-        <v>347.0842939358594</v>
+        <v>347.08429393586</v>
       </c>
       <c r="C389" t="n">
         <v>65.21858886718751</v>
       </c>
       <c r="D389" t="n">
-        <v>44.25596084594726</v>
+        <v>44.2559608459473</v>
       </c>
       <c r="E389" t="n">
-        <v>1.473667899657858</v>
+        <v>1.47366789965786</v>
       </c>
       <c r="F389" t="n">
-        <v>25.80064888114721</v>
+        <v>25.8006488811472</v>
       </c>
       <c r="G389" t="n">
         <v>2.97</v>
       </c>
       <c r="H389" t="n">
         <v>1.25755917618046</v>
+      </c>
+      <c r="I389" t="n">
+        <v>0.73452748304646</v>
       </c>
     </row>
     <row r="390">
@@ -11181,25 +11737,28 @@
         <v>8101</v>
       </c>
       <c r="B390" t="n">
-        <v>328.8361557982496</v>
+        <v>328.83615579825</v>
       </c>
       <c r="C390" t="n">
-        <v>59.02210052490235</v>
+        <v>59.0221005249024</v>
       </c>
       <c r="D390" t="n">
-        <v>45.19022354125977</v>
+        <v>45.1902235412598</v>
       </c>
       <c r="E390" t="n">
-        <v>1.306081180833588</v>
+        <v>1.30608118083359</v>
       </c>
       <c r="F390" t="n">
-        <v>24.63536888252092</v>
+        <v>24.6353688825209</v>
       </c>
       <c r="G390" t="n">
         <v>2.15</v>
       </c>
       <c r="H390" t="n">
-        <v>3.435684220079908</v>
+        <v>3.43568422007991</v>
+      </c>
+      <c r="I390" t="n">
+        <v>0.6432583584516399</v>
       </c>
     </row>
     <row r="391">
@@ -11207,25 +11766,28 @@
         <v>9349</v>
       </c>
       <c r="B391" t="n">
-        <v>356.6626035482379</v>
+        <v>356.662603548238</v>
       </c>
       <c r="C391" t="n">
-        <v>65.05982513427735</v>
+        <v>65.0598251342774</v>
       </c>
       <c r="D391" t="n">
-        <v>47.80931625366211</v>
+        <v>47.8093162536621</v>
       </c>
       <c r="E391" t="n">
-        <v>1.360818983251907</v>
+        <v>1.36081898325191</v>
       </c>
       <c r="F391" t="n">
-        <v>26.21244814284424</v>
+        <v>26.2124481428442</v>
       </c>
       <c r="G391" t="n">
         <v>2.61</v>
       </c>
       <c r="H391" t="n">
-        <v>4.522583869336417</v>
+        <v>4.52258386933642</v>
+      </c>
+      <c r="I391" t="n">
+        <v>0.6782279363921981</v>
       </c>
     </row>
     <row r="392">
@@ -11236,22 +11798,25 @@
         <v>343.509796790547</v>
       </c>
       <c r="C392" t="n">
-        <v>64.25787139892579</v>
+        <v>64.2578713989258</v>
       </c>
       <c r="D392" t="n">
-        <v>44.15028915405274</v>
+        <v>44.1502891540528</v>
       </c>
       <c r="E392" t="n">
-        <v>1.455434893635964</v>
+        <v>1.45543489363596</v>
       </c>
       <c r="F392" t="n">
-        <v>25.16085445234046</v>
+        <v>25.1608544523405</v>
       </c>
       <c r="G392" t="n">
         <v>2.51</v>
       </c>
       <c r="H392" t="n">
-        <v>3.120556246762841</v>
+        <v>3.12055624676284</v>
+      </c>
+      <c r="I392" t="n">
+        <v>0.7265819078229799</v>
       </c>
     </row>
     <row r="393">
@@ -11259,25 +11824,28 @@
         <v>9332</v>
       </c>
       <c r="B393" t="n">
-        <v>350.0753511167313</v>
+        <v>350.075351116731</v>
       </c>
       <c r="C393" t="n">
-        <v>64.19408935546875</v>
+        <v>64.1940893554688</v>
       </c>
       <c r="D393" t="n">
-        <v>46.53299102783203</v>
+        <v>46.532991027832</v>
       </c>
       <c r="E393" t="n">
-        <v>1.379539288954655</v>
+        <v>1.37953928895466</v>
       </c>
       <c r="F393" t="n">
-        <v>26.65711816107921</v>
+        <v>26.6571181610792</v>
       </c>
       <c r="G393" t="n">
         <v>2.83</v>
       </c>
       <c r="H393" t="n">
-        <v>0.5613636285131712</v>
+        <v>0.561363628513171</v>
+      </c>
+      <c r="I393" t="n">
+        <v>0.6888754951097561</v>
       </c>
     </row>
     <row r="394">
@@ -11285,25 +11853,28 @@
         <v>8005</v>
       </c>
       <c r="B394" t="n">
-        <v>335.0447914593723</v>
+        <v>335.044791459372</v>
       </c>
       <c r="C394" t="n">
-        <v>61.57790252685547</v>
+        <v>61.5779025268555</v>
       </c>
       <c r="D394" t="n">
-        <v>44.37031860351563</v>
+        <v>44.3703186035156</v>
       </c>
       <c r="E394" t="n">
-        <v>1.387817452407845</v>
+        <v>1.38781745240785</v>
       </c>
       <c r="F394" t="n">
-        <v>23.89232784408377</v>
+        <v>23.8923278440838</v>
       </c>
       <c r="G394" t="n">
         <v>2.39</v>
       </c>
       <c r="H394" t="n">
-        <v>7.227449362666599</v>
+        <v>7.2274493626666</v>
+      </c>
+      <c r="I394" t="n">
+        <v>0.6933968924673687</v>
       </c>
     </row>
     <row r="395">
@@ -11311,16 +11882,16 @@
         <v>8049</v>
       </c>
       <c r="B395" t="n">
-        <v>329.8207984585021</v>
+        <v>329.820798458502</v>
       </c>
       <c r="C395" t="n">
-        <v>60.30937896728516</v>
+        <v>60.3093789672852</v>
       </c>
       <c r="D395" t="n">
-        <v>44.04079208374024</v>
+        <v>44.0407920837403</v>
       </c>
       <c r="E395" t="n">
-        <v>1.369398144624907</v>
+        <v>1.36939814462491</v>
       </c>
       <c r="F395" t="n">
         <v>24.4041614040684</v>
@@ -11329,7 +11900,10 @@
         <v>2.73</v>
       </c>
       <c r="H395" t="n">
-        <v>3.668764543123203</v>
+        <v>3.6687645431232</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.6831823562294216</v>
       </c>
     </row>
     <row r="396">
@@ -11337,25 +11911,28 @@
         <v>11802</v>
       </c>
       <c r="B396" t="n">
-        <v>398.1759037266846</v>
+        <v>398.175903726685</v>
       </c>
       <c r="C396" t="n">
-        <v>75.07065093994142</v>
+        <v>75.0706509399414</v>
       </c>
       <c r="D396" t="n">
-        <v>50.46394287109375</v>
+        <v>50.4639428710938</v>
       </c>
       <c r="E396" t="n">
-        <v>1.487609700488596</v>
+        <v>1.4876097004886</v>
       </c>
       <c r="F396" t="n">
-        <v>29.64016629218506</v>
+        <v>29.6401662921851</v>
       </c>
       <c r="G396" t="n">
         <v>3.8</v>
       </c>
       <c r="H396" t="n">
-        <v>0.8429691022152865</v>
+        <v>0.842969102215287</v>
+      </c>
+      <c r="I396" t="n">
+        <v>0.7403520574074782</v>
       </c>
     </row>
     <row r="397">
@@ -11363,25 +11940,28 @@
         <v>8297</v>
       </c>
       <c r="B397" t="n">
-        <v>340.6899208720385</v>
+        <v>340.689920872039</v>
       </c>
       <c r="C397" t="n">
-        <v>64.65907989501953</v>
+        <v>64.6590798950196</v>
       </c>
       <c r="D397" t="n">
-        <v>42.65495574951172</v>
+        <v>42.6549557495117</v>
       </c>
       <c r="E397" t="n">
         <v>1.51586325103056</v>
       </c>
       <c r="F397" t="n">
-        <v>24.35352351711137</v>
+        <v>24.3535235171114</v>
       </c>
       <c r="G397" t="n">
         <v>2.21</v>
       </c>
       <c r="H397" t="n">
-        <v>4.430606107097517</v>
+        <v>4.43060610709752</v>
+      </c>
+      <c r="I397" t="n">
+        <v>0.7515377264364492</v>
       </c>
     </row>
     <row r="398">
@@ -11389,25 +11969,28 @@
         <v>9029</v>
       </c>
       <c r="B398" t="n">
-        <v>349.1503249203685</v>
+        <v>349.150324920369</v>
       </c>
       <c r="C398" t="n">
         <v>61.874267578125</v>
       </c>
       <c r="D398" t="n">
-        <v>48.88241561889649</v>
+        <v>48.8824156188965</v>
       </c>
       <c r="E398" t="n">
-        <v>1.265777617467134</v>
+        <v>1.26577761746713</v>
       </c>
       <c r="F398" t="n">
-        <v>25.85992151678296</v>
+        <v>25.859921516783</v>
       </c>
       <c r="G398" t="n">
         <v>2.8</v>
       </c>
       <c r="H398" t="n">
-        <v>5.238088234849855</v>
+        <v>5.23808823484986</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.613070517226847</v>
       </c>
     </row>
     <row r="399">
@@ -11418,22 +12001,25 @@
         <v>332.825535420911</v>
       </c>
       <c r="C399" t="n">
-        <v>60.77655944824219</v>
+        <v>60.7765594482422</v>
       </c>
       <c r="D399" t="n">
-        <v>44.53822463989258</v>
+        <v>44.5382246398926</v>
       </c>
       <c r="E399" t="n">
-        <v>1.364593221657179</v>
+        <v>1.36459322165718</v>
       </c>
       <c r="F399" t="n">
-        <v>24.45124887941125</v>
+        <v>24.4512488794113</v>
       </c>
       <c r="G399" t="n">
         <v>2.34</v>
       </c>
       <c r="H399" t="n">
-        <v>4.496368922756962</v>
+        <v>4.49636892275696</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.6804235015786081</v>
       </c>
     </row>
     <row r="400">
@@ -11441,16 +12027,16 @@
         <v>11007</v>
       </c>
       <c r="B400" t="n">
-        <v>381.0300694166635</v>
+        <v>381.030069416664</v>
       </c>
       <c r="C400" t="n">
-        <v>66.87504791259767</v>
+        <v>66.87504791259769</v>
       </c>
       <c r="D400" t="n">
-        <v>54.07150283813477</v>
+        <v>54.0715028381348</v>
       </c>
       <c r="E400" t="n">
-        <v>1.236789147747397</v>
+        <v>1.2367891477474</v>
       </c>
       <c r="F400" t="n">
         <v>28.8874839113121</v>
@@ -11459,7 +12045,10 @@
         <v>3.24</v>
       </c>
       <c r="H400" t="n">
-        <v>3.208021505563502</v>
+        <v>3.2080215055635</v>
+      </c>
+      <c r="I400" t="n">
+        <v>0.5884339950189919</v>
       </c>
     </row>
     <row r="401">
@@ -11467,16 +12056,16 @@
         <v>8669</v>
       </c>
       <c r="B401" t="n">
-        <v>337.7949010387984</v>
+        <v>337.794901038798</v>
       </c>
       <c r="C401" t="n">
-        <v>60.10709716796875</v>
+        <v>60.1070971679688</v>
       </c>
       <c r="D401" t="n">
-        <v>47.01603454589844</v>
+        <v>47.0160345458985</v>
       </c>
       <c r="E401" t="n">
-        <v>1.278438255129544</v>
+        <v>1.27843825512954</v>
       </c>
       <c r="F401" t="n">
         <v>25.6635016494944</v>
@@ -11485,7 +12074,10 @@
         <v>2.68</v>
       </c>
       <c r="H401" t="n">
-        <v>2.412418220213425</v>
+        <v>2.41241822021343</v>
+      </c>
+      <c r="I401" t="n">
+        <v>0.6230219187472887</v>
       </c>
     </row>
     <row r="402">
@@ -11493,25 +12085,28 @@
         <v>10242</v>
       </c>
       <c r="B402" t="n">
-        <v>374.2168802305778</v>
+        <v>374.216880230578</v>
       </c>
       <c r="C402" t="n">
-        <v>68.11682189941406</v>
+        <v>68.11682189941411</v>
       </c>
       <c r="D402" t="n">
-        <v>50.33154266357422</v>
+        <v>50.3315426635742</v>
       </c>
       <c r="E402" t="n">
-        <v>1.353362489894659</v>
+        <v>1.35336248989466</v>
       </c>
       <c r="F402" t="n">
-        <v>27.36915553806466</v>
+        <v>27.3691555380647</v>
       </c>
       <c r="G402" t="n">
         <v>2.94</v>
       </c>
       <c r="H402" t="n">
-        <v>5.162213800207259</v>
+        <v>5.16221380020726</v>
+      </c>
+      <c r="I402" t="n">
+        <v>0.673814731091061</v>
       </c>
     </row>
     <row r="403">
@@ -11519,25 +12114,28 @@
         <v>9974</v>
       </c>
       <c r="B403" t="n">
-        <v>363.2213797030801</v>
+        <v>363.22137970308</v>
       </c>
       <c r="C403" t="n">
-        <v>66.89837219238281</v>
+        <v>66.89837219238279</v>
       </c>
       <c r="D403" t="n">
-        <v>47.93428680419922</v>
+        <v>47.9342868041992</v>
       </c>
       <c r="E403" t="n">
-        <v>1.395626735110248</v>
+        <v>1.39562673511025</v>
       </c>
       <c r="F403" t="n">
-        <v>27.45983732607748</v>
+        <v>27.4598373260775</v>
       </c>
       <c r="G403" t="n">
         <v>2.97</v>
       </c>
       <c r="H403" t="n">
-        <v>1.004873549427999</v>
+        <v>1.004873549428</v>
+      </c>
+      <c r="I403" t="n">
+        <v>0.6975624771537355</v>
       </c>
     </row>
     <row r="404">
@@ -11548,22 +12146,25 @@
         <v>389.563436269903</v>
       </c>
       <c r="C404" t="n">
-        <v>72.94497589111329</v>
+        <v>72.9449758911133</v>
       </c>
       <c r="D404" t="n">
-        <v>49.98220840454102</v>
+        <v>49.982208404541</v>
       </c>
       <c r="E404" t="n">
-        <v>1.459418825609275</v>
+        <v>1.45941882560928</v>
       </c>
       <c r="F404" t="n">
-        <v>28.28550878775404</v>
+        <v>28.285508787754</v>
       </c>
       <c r="G404" t="n">
         <v>3.59</v>
       </c>
       <c r="H404" t="n">
-        <v>3.948569164868079</v>
+        <v>3.94856916486808</v>
+      </c>
+      <c r="I404" t="n">
+        <v>0.7283509584857828</v>
       </c>
     </row>
     <row r="405">
@@ -11571,25 +12172,28 @@
         <v>8797</v>
       </c>
       <c r="B405" t="n">
-        <v>343.6458130224683</v>
+        <v>343.645813022468</v>
       </c>
       <c r="C405" t="n">
-        <v>61.31998077392578</v>
+        <v>61.3199807739258</v>
       </c>
       <c r="D405" t="n">
-        <v>47.63579147338867</v>
+        <v>47.6357914733887</v>
       </c>
       <c r="E405" t="n">
-        <v>1.287266966230249</v>
+        <v>1.28726696623025</v>
       </c>
       <c r="F405" t="n">
-        <v>25.59903152210044</v>
+        <v>25.5990315221004</v>
       </c>
       <c r="G405" t="n">
         <v>2.5</v>
       </c>
       <c r="H405" t="n">
-        <v>4.315940076985838</v>
+        <v>4.31594007698584</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.629698484774302</v>
       </c>
     </row>
     <row r="406">
@@ -11597,25 +12201,28 @@
         <v>7569</v>
       </c>
       <c r="B406" t="n">
-        <v>315.7318067528321</v>
+        <v>315.731806752832</v>
       </c>
       <c r="C406" t="n">
-        <v>56.88840972900391</v>
+        <v>56.8884097290039</v>
       </c>
       <c r="D406" t="n">
-        <v>43.13910827636719</v>
+        <v>43.1391082763672</v>
       </c>
       <c r="E406" t="n">
         <v>1.31872011272354</v>
       </c>
       <c r="F406" t="n">
-        <v>23.97287773393488</v>
+        <v>23.9728777339349</v>
       </c>
       <c r="G406" t="n">
         <v>2.07</v>
       </c>
       <c r="H406" t="n">
-        <v>1.860622192826048</v>
+        <v>1.86062219282605</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.6518929281608316</v>
       </c>
     </row>
     <row r="407">
@@ -11623,25 +12230,28 @@
         <v>8036</v>
       </c>
       <c r="B407" t="n">
-        <v>332.8965899621041</v>
+        <v>332.896589962104</v>
       </c>
       <c r="C407" t="n">
-        <v>62.58808319091797</v>
+        <v>62.588083190918</v>
       </c>
       <c r="D407" t="n">
-        <v>42.40386001586914</v>
+        <v>42.4038600158692</v>
       </c>
       <c r="E407" t="n">
-        <v>1.475999665301581</v>
+        <v>1.47599966530158</v>
       </c>
       <c r="F407" t="n">
-        <v>24.13962846815221</v>
+        <v>24.1396284681522</v>
       </c>
       <c r="G407" t="n">
         <v>2.5</v>
       </c>
       <c r="H407" t="n">
-        <v>3.754511004714021</v>
+        <v>3.75451100471402</v>
+      </c>
+      <c r="I407" t="n">
+        <v>0.7355163910914135</v>
       </c>
     </row>
     <row r="408">
@@ -11649,25 +12259,28 @@
         <v>9117</v>
       </c>
       <c r="B408" t="n">
-        <v>345.8941328271384</v>
+        <v>345.894132827138</v>
       </c>
       <c r="C408" t="n">
-        <v>60.23829010009766</v>
+        <v>60.2382901000977</v>
       </c>
       <c r="D408" t="n">
-        <v>49.60578414916992</v>
+        <v>49.6057841491699</v>
       </c>
       <c r="E408" t="n">
-        <v>1.214340043873808</v>
+        <v>1.21434004387381</v>
       </c>
       <c r="F408" t="n">
-        <v>26.35777578961204</v>
+        <v>26.357775789612</v>
       </c>
       <c r="G408" t="n">
         <v>2.49</v>
       </c>
       <c r="H408" t="n">
-        <v>2.968141173777785</v>
+        <v>2.96814117377779</v>
+      </c>
+      <c r="I408" t="n">
+        <v>0.5673270591247176</v>
       </c>
     </row>
     <row r="409">
@@ -11675,25 +12288,28 @@
         <v>10171</v>
       </c>
       <c r="B409" t="n">
-        <v>366.2766118105834</v>
+        <v>366.276611810583</v>
       </c>
       <c r="C409" t="n">
         <v>68.90791015625</v>
       </c>
       <c r="D409" t="n">
-        <v>46.60219177246094</v>
+        <v>46.602191772461</v>
       </c>
       <c r="E409" t="n">
-        <v>1.478640972353802</v>
+        <v>1.4786409723538</v>
       </c>
       <c r="F409" t="n">
-        <v>27.76863078896187</v>
+        <v>27.7686307889619</v>
       </c>
       <c r="G409" t="n">
         <v>3.12</v>
       </c>
       <c r="H409" t="n">
-        <v>0.8114275337102967</v>
+        <v>0.811427533710297</v>
+      </c>
+      <c r="I409" t="n">
+        <v>0.7366293388108076</v>
       </c>
     </row>
     <row r="410">
@@ -11701,25 +12317,28 @@
         <v>11112</v>
       </c>
       <c r="B410" t="n">
-        <v>383.7096659218637</v>
+        <v>383.709665921864</v>
       </c>
       <c r="C410" t="n">
         <v>73.2611346435547</v>
       </c>
       <c r="D410" t="n">
-        <v>47.49960800170899</v>
+        <v>47.499608001709</v>
       </c>
       <c r="E410" t="n">
-        <v>1.542352405117087</v>
+        <v>1.54235240511709</v>
       </c>
       <c r="F410" t="n">
-        <v>28.95939557139741</v>
+        <v>28.9593955713974</v>
       </c>
       <c r="G410" t="n">
         <v>3.55</v>
       </c>
       <c r="H410" t="n">
         <v>1.61671802999358</v>
+      </c>
+      <c r="I410" t="n">
+        <v>0.7613336841542492</v>
       </c>
     </row>
     <row r="411">
@@ -11727,25 +12346,28 @@
         <v>8274</v>
       </c>
       <c r="B411" t="n">
-        <v>338.6248786679911</v>
+        <v>338.624878667991</v>
       </c>
       <c r="C411" t="n">
-        <v>63.18451232910157</v>
+        <v>63.1845123291016</v>
       </c>
       <c r="D411" t="n">
-        <v>43.71477508544922</v>
+        <v>43.7147750854492</v>
       </c>
       <c r="E411" t="n">
         <v>1.44538116015912</v>
       </c>
       <c r="F411" t="n">
-        <v>24.43411728206876</v>
+        <v>24.4341172820688</v>
       </c>
       <c r="G411" t="n">
         <v>2.36</v>
       </c>
       <c r="H411" t="n">
-        <v>4.875306305261168</v>
+        <v>4.87530630526117</v>
+      </c>
+      <c r="I411" t="n">
+        <v>0.7220326098852301</v>
       </c>
     </row>
     <row r="412">
@@ -11753,25 +12375,28 @@
         <v>8984</v>
       </c>
       <c r="B412" t="n">
-        <v>346.3970838145669</v>
+        <v>346.397083814567</v>
       </c>
       <c r="C412" t="n">
-        <v>63.80599243164063</v>
+        <v>63.8059924316406</v>
       </c>
       <c r="D412" t="n">
         <v>45.7065022277832</v>
       </c>
       <c r="E412" t="n">
-        <v>1.395993771600738</v>
+        <v>1.39599377160074</v>
       </c>
       <c r="F412" t="n">
-        <v>25.93555321270923</v>
+        <v>25.9355532127092</v>
       </c>
       <c r="G412" t="n">
         <v>2.79</v>
       </c>
       <c r="H412" t="n">
-        <v>1.981074820586832</v>
+        <v>1.98107482058683</v>
+      </c>
+      <c r="I412" t="n">
+        <v>0.6977559351906106</v>
       </c>
     </row>
     <row r="413">
@@ -11779,25 +12404,28 @@
         <v>10754</v>
       </c>
       <c r="B413" t="n">
-        <v>382.5488792742035</v>
+        <v>382.548879274204</v>
       </c>
       <c r="C413" t="n">
-        <v>70.71668243408203</v>
+        <v>70.7166824340821</v>
       </c>
       <c r="D413" t="n">
-        <v>50.17855560302735</v>
+        <v>50.1785556030274</v>
       </c>
       <c r="E413" t="n">
-        <v>1.409300877321698</v>
+        <v>1.4093008773217</v>
       </c>
       <c r="F413" t="n">
-        <v>28.11144034823258</v>
+        <v>28.1114403482326</v>
       </c>
       <c r="G413" t="n">
         <v>3.15</v>
       </c>
       <c r="H413" t="n">
-        <v>3.662069474450649</v>
+        <v>3.66206947445065</v>
+      </c>
+      <c r="I413" t="n">
+        <v>0.7046332535629986</v>
       </c>
     </row>
     <row r="414">
@@ -11808,22 +12436,25 @@
         <v>350.041283523616</v>
       </c>
       <c r="C414" t="n">
-        <v>65.78324279785157</v>
+        <v>65.7832427978516</v>
       </c>
       <c r="D414" t="n">
-        <v>44.62203552246094</v>
+        <v>44.622035522461</v>
       </c>
       <c r="E414" t="n">
-        <v>1.474232226917101</v>
+        <v>1.4742322269171</v>
       </c>
       <c r="F414" t="n">
-        <v>25.82266842645197</v>
+        <v>25.822668426452</v>
       </c>
       <c r="G414" t="n">
         <v>2.67</v>
       </c>
       <c r="H414" t="n">
-        <v>2.022072632876597</v>
+        <v>2.0220726328766</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.7347673684314303</v>
       </c>
     </row>
     <row r="415">
@@ -11831,25 +12462,28 @@
         <v>10898</v>
       </c>
       <c r="B415" t="n">
-        <v>380.1273960089164</v>
+        <v>380.127396008916</v>
       </c>
       <c r="C415" t="n">
-        <v>65.98806549072266</v>
+        <v>65.9880654907227</v>
       </c>
       <c r="D415" t="n">
-        <v>54.74852462768555</v>
+        <v>54.7485246276856</v>
       </c>
       <c r="E415" t="n">
-        <v>1.205293949736016</v>
+        <v>1.20529394973602</v>
       </c>
       <c r="F415" t="n">
-        <v>28.66933589744311</v>
+        <v>28.6693358974431</v>
       </c>
       <c r="G415" t="n">
         <v>3.51</v>
       </c>
       <c r="H415" t="n">
-        <v>4.145590346814148</v>
+        <v>4.14559034681415</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.5582494985693879</v>
       </c>
     </row>
     <row r="416">
@@ -11857,25 +12491,28 @@
         <v>10201</v>
       </c>
       <c r="B416" t="n">
-        <v>367.7158595739862</v>
+        <v>367.715859573986</v>
       </c>
       <c r="C416" t="n">
-        <v>67.36998168945313</v>
+        <v>67.3699816894531</v>
       </c>
       <c r="D416" t="n">
-        <v>48.94697677612305</v>
+        <v>48.9469767761231</v>
       </c>
       <c r="E416" t="n">
-        <v>1.376386982950846</v>
+        <v>1.37638698295085</v>
       </c>
       <c r="F416" t="n">
-        <v>27.74152850469456</v>
+        <v>27.7415285046946</v>
       </c>
       <c r="G416" t="n">
         <v>3.14</v>
       </c>
       <c r="H416" t="n">
         <v>1.55455958678442</v>
+      </c>
+      <c r="I416" t="n">
+        <v>0.687124325037907</v>
       </c>
     </row>
     <row r="417">
@@ -11883,25 +12520,28 @@
         <v>9188</v>
       </c>
       <c r="B417" t="n">
-        <v>354.8126658337317</v>
+        <v>354.812665833732</v>
       </c>
       <c r="C417" t="n">
-        <v>64.74485961914063</v>
+        <v>64.7448596191406</v>
       </c>
       <c r="D417" t="n">
-        <v>47.53508926391602</v>
+        <v>47.535089263916</v>
       </c>
       <c r="E417" t="n">
-        <v>1.362043505581225</v>
+        <v>1.36204350558123</v>
       </c>
       <c r="F417" t="n">
-        <v>25.89535516836813</v>
+        <v>25.8953551683681</v>
       </c>
       <c r="G417" t="n">
         <v>2.92</v>
       </c>
       <c r="H417" t="n">
-        <v>5.232162103944193</v>
+        <v>5.23216210394419</v>
+      </c>
+      <c r="I417" t="n">
+        <v>0.6789430502162404</v>
       </c>
     </row>
     <row r="418">
@@ -11912,22 +12552,25 @@
         <v>334.921223224633</v>
       </c>
       <c r="C418" t="n">
-        <v>59.72639129638672</v>
+        <v>59.7263912963867</v>
       </c>
       <c r="D418" t="n">
-        <v>46.46812103271485</v>
+        <v>46.4681210327149</v>
       </c>
       <c r="E418" t="n">
         <v>1.28531969808587</v>
       </c>
       <c r="F418" t="n">
-        <v>25.23578505603155</v>
+        <v>25.2357850560316</v>
       </c>
       <c r="G418" t="n">
         <v>2.57</v>
       </c>
       <c r="H418" t="n">
-        <v>3.160104023023688</v>
+        <v>3.16010402302369</v>
+      </c>
+      <c r="I418" t="n">
+        <v>0.6282437779063329</v>
       </c>
     </row>
     <row r="419">
@@ -11935,16 +12578,16 @@
         <v>8261</v>
       </c>
       <c r="B419" t="n">
-        <v>335.6137365301765</v>
+        <v>335.613736530177</v>
       </c>
       <c r="C419" t="n">
-        <v>62.23515167236329</v>
+        <v>62.2351516723633</v>
       </c>
       <c r="D419" t="n">
-        <v>43.79029998779297</v>
+        <v>43.790299987793</v>
       </c>
       <c r="E419" t="n">
-        <v>1.421208616741882</v>
+        <v>1.42120861674188</v>
       </c>
       <c r="F419" t="n">
         <v>24.6146063191821</v>
@@ -11953,7 +12596,10 @@
         <v>2.31</v>
       </c>
       <c r="H419" t="n">
-        <v>3.640839747787358</v>
+        <v>3.64083974778736</v>
+      </c>
+      <c r="I419" t="n">
+        <v>0.7105700477968936</v>
       </c>
     </row>
     <row r="420">
@@ -11961,25 +12607,28 @@
         <v>8033</v>
       </c>
       <c r="B420" t="n">
-        <v>333.0680411600981</v>
+        <v>333.068041160098</v>
       </c>
       <c r="C420" t="n">
-        <v>59.71801055908203</v>
+        <v>59.718010559082</v>
       </c>
       <c r="D420" t="n">
-        <v>45.84451766967774</v>
+        <v>45.8445176696778</v>
       </c>
       <c r="E420" t="n">
         <v>1.30262054427896</v>
       </c>
       <c r="F420" t="n">
-        <v>24.11819510518189</v>
+        <v>24.1181951051819</v>
       </c>
       <c r="G420" t="n">
         <v>2.26</v>
       </c>
       <c r="H420" t="n">
-        <v>7.069270786733517</v>
+        <v>7.06927078673352</v>
+      </c>
+      <c r="I420" t="n">
+        <v>0.6408294592049477</v>
       </c>
     </row>
     <row r="421">
@@ -11987,25 +12636,28 @@
         <v>8348</v>
       </c>
       <c r="B421" t="n">
-        <v>339.2610292926104</v>
+        <v>339.26102929261</v>
       </c>
       <c r="C421" t="n">
-        <v>62.47423431396485</v>
+        <v>62.4742343139649</v>
       </c>
       <c r="D421" t="n">
-        <v>44.78536514282226</v>
+        <v>44.7853651428223</v>
       </c>
       <c r="E421" t="n">
-        <v>1.394969854878532</v>
+        <v>1.39496985487853</v>
       </c>
       <c r="F421" t="n">
-        <v>24.60642183809419</v>
+        <v>24.6064218380942</v>
       </c>
       <c r="G421" t="n">
         <v>2.26</v>
       </c>
       <c r="H421" t="n">
-        <v>5.294210807338332</v>
+        <v>5.29421080733833</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.6972157324057759</v>
       </c>
     </row>
     <row r="422">
@@ -12013,25 +12665,28 @@
         <v>8579</v>
       </c>
       <c r="B422" t="n">
-        <v>340.1890520599454</v>
+        <v>340.189052059946</v>
       </c>
       <c r="C422" t="n">
-        <v>63.35457672119141</v>
+        <v>63.3545767211914</v>
       </c>
       <c r="D422" t="n">
-        <v>44.06304946899414</v>
+        <v>44.0630494689941</v>
       </c>
       <c r="E422" t="n">
         <v>1.4378164354188</v>
       </c>
       <c r="F422" t="n">
-        <v>25.21833065482741</v>
+        <v>25.2183306548274</v>
       </c>
       <c r="G422" t="n">
         <v>2.44</v>
       </c>
       <c r="H422" t="n">
-        <v>2.227031219831728</v>
+        <v>2.22703121983173</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.7185269914901762</v>
       </c>
     </row>
     <row r="423">
@@ -12042,22 +12697,25 @@
         <v>354.258323250186</v>
       </c>
       <c r="C423" t="n">
-        <v>65.79943572998047</v>
+        <v>65.7994357299805</v>
       </c>
       <c r="D423" t="n">
-        <v>46.09535720825195</v>
+        <v>46.095357208252</v>
       </c>
       <c r="E423" t="n">
-        <v>1.427463408792092</v>
+        <v>1.42746340879209</v>
       </c>
       <c r="F423" t="n">
-        <v>25.25840442619806</v>
+        <v>25.2584044261981</v>
       </c>
       <c r="G423" t="n">
         <v>2.69</v>
       </c>
       <c r="H423" t="n">
-        <v>6.488632844961835</v>
+        <v>6.48863284496184</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.7136098466235016</v>
       </c>
     </row>
     <row r="424">
@@ -12065,13 +12723,13 @@
         <v>9421</v>
       </c>
       <c r="B424" t="n">
-        <v>358.5695992129019</v>
+        <v>358.569599212902</v>
       </c>
       <c r="C424" t="n">
         <v>66.1768426513672</v>
       </c>
       <c r="D424" t="n">
-        <v>47.16031448364258</v>
+        <v>47.1603144836426</v>
       </c>
       <c r="E424" t="n">
         <v>1.40323158095819</v>
@@ -12083,7 +12741,10 @@
         <v>2.83</v>
       </c>
       <c r="H424" t="n">
-        <v>4.072408215996578</v>
+        <v>4.07240821599658</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.701529163909679</v>
       </c>
     </row>
     <row r="425">
@@ -12091,25 +12752,28 @@
         <v>10686</v>
       </c>
       <c r="B425" t="n">
-        <v>376.7718438341674</v>
+        <v>376.771843834167</v>
       </c>
       <c r="C425" t="n">
-        <v>68.89944519042969</v>
+        <v>68.8994451904297</v>
       </c>
       <c r="D425" t="n">
-        <v>50.30448074340821</v>
+        <v>50.3044807434082</v>
       </c>
       <c r="E425" t="n">
-        <v>1.369648273319234</v>
+        <v>1.36964827331923</v>
       </c>
       <c r="F425" t="n">
-        <v>28.36199194519255</v>
+        <v>28.3619919451926</v>
       </c>
       <c r="G425" t="n">
         <v>3.06</v>
       </c>
       <c r="H425" t="n">
-        <v>1.895991150851494</v>
+        <v>1.89599115085149</v>
+      </c>
+      <c r="I425" t="n">
+        <v>0.6833248754357144</v>
       </c>
     </row>
     <row r="426">
@@ -12117,25 +12781,28 @@
         <v>8728</v>
       </c>
       <c r="B426" t="n">
-        <v>342.0386214566961</v>
+        <v>342.038621456696</v>
       </c>
       <c r="C426" t="n">
-        <v>60.39388824462891</v>
+        <v>60.3938882446289</v>
       </c>
       <c r="D426" t="n">
-        <v>48.13386627197266</v>
+        <v>48.1338662719727</v>
       </c>
       <c r="E426" t="n">
-        <v>1.254706777622703</v>
+        <v>1.2547067776227</v>
       </c>
       <c r="F426" t="n">
-        <v>25.51758618026418</v>
+        <v>25.5175861802642</v>
       </c>
       <c r="G426" t="n">
         <v>2.55</v>
       </c>
       <c r="H426" t="n">
-        <v>4.635456451485939</v>
+        <v>4.63545645148594</v>
+      </c>
+      <c r="I426" t="n">
+        <v>0.6039806733520791</v>
       </c>
     </row>
     <row r="427">
@@ -12143,25 +12810,28 @@
         <v>8905</v>
       </c>
       <c r="B427" t="n">
-        <v>352.3946653820271</v>
+        <v>352.394665382027</v>
       </c>
       <c r="C427" t="n">
-        <v>67.09281372070313</v>
+        <v>67.09281372070321</v>
       </c>
       <c r="D427" t="n">
-        <v>43.85812149047852</v>
+        <v>43.8581214904785</v>
       </c>
       <c r="E427" t="n">
-        <v>1.529769434727587</v>
+        <v>1.52976943472759</v>
       </c>
       <c r="F427" t="n">
-        <v>25.26996255844619</v>
+        <v>25.2699625584462</v>
       </c>
       <c r="G427" t="n">
         <v>2.55</v>
       </c>
       <c r="H427" t="n">
-        <v>3.810666825340784</v>
+        <v>3.81066682534078</v>
+      </c>
+      <c r="I427" t="n">
+        <v>0.756759601984941</v>
       </c>
     </row>
     <row r="428">
@@ -12169,25 +12839,28 @@
         <v>10873</v>
       </c>
       <c r="B428" t="n">
-        <v>370.0736924747719</v>
+        <v>370.073692474772</v>
       </c>
       <c r="C428" t="n">
-        <v>66.94754760742188</v>
+        <v>66.9475476074219</v>
       </c>
       <c r="D428" t="n">
-        <v>50.25549133300782</v>
+        <v>50.2554913330078</v>
       </c>
       <c r="E428" t="n">
-        <v>1.332143927592062</v>
+        <v>1.33214392759206</v>
       </c>
       <c r="F428" t="n">
-        <v>29.38063477922365</v>
+        <v>29.3806347792237</v>
       </c>
       <c r="G428" t="n">
         <v>3.79</v>
       </c>
       <c r="H428" t="n">
-        <v>2.788268043562891</v>
+        <v>2.78826804356289</v>
+      </c>
+      <c r="I428" t="n">
+        <v>0.6606777538712333</v>
       </c>
     </row>
     <row r="429">
@@ -12195,25 +12868,28 @@
         <v>9343</v>
       </c>
       <c r="B429" t="n">
-        <v>359.9524868182639</v>
+        <v>359.952486818264</v>
       </c>
       <c r="C429" t="n">
-        <v>67.06443572998047</v>
+        <v>67.0644357299805</v>
       </c>
       <c r="D429" t="n">
-        <v>46.58780624389649</v>
+        <v>46.5878062438965</v>
       </c>
       <c r="E429" t="n">
-        <v>1.439527660497357</v>
+        <v>1.43952766049736</v>
       </c>
       <c r="F429" t="n">
-        <v>25.95620350503976</v>
+        <v>25.9562035050398</v>
       </c>
       <c r="G429" t="n">
         <v>2.82</v>
       </c>
       <c r="H429" t="n">
-        <v>5.057741272512175</v>
+        <v>5.05774127251218</v>
+      </c>
+      <c r="I429" t="n">
+        <v>0.7193263423256899</v>
       </c>
     </row>
     <row r="430">
@@ -12221,25 +12897,28 @@
         <v>8898</v>
       </c>
       <c r="B430" t="n">
-        <v>341.6362111529992</v>
+        <v>341.636211152999</v>
       </c>
       <c r="C430" t="n">
-        <v>62.55680633544922</v>
+        <v>62.5568063354492</v>
       </c>
       <c r="D430" t="n">
         <v>45.516640625</v>
       </c>
       <c r="E430" t="n">
-        <v>1.374372218082587</v>
+        <v>1.37437221808259</v>
       </c>
       <c r="F430" t="n">
-        <v>26.04524845293726</v>
+        <v>26.0452484529373</v>
       </c>
       <c r="G430" t="n">
         <v>2.56</v>
       </c>
       <c r="H430" t="n">
-        <v>0.5315182637463876</v>
+        <v>0.531518263746388</v>
+      </c>
+      <c r="I430" t="n">
+        <v>0.6859964048460636</v>
       </c>
     </row>
     <row r="431">
@@ -12247,25 +12926,28 @@
         <v>9419</v>
       </c>
       <c r="B431" t="n">
-        <v>358.2188535855971</v>
+        <v>358.218853585597</v>
       </c>
       <c r="C431" t="n">
-        <v>67.13002166748048</v>
+        <v>67.13002166748051</v>
       </c>
       <c r="D431" t="n">
-        <v>45.89496353149414</v>
+        <v>45.8949635314942</v>
       </c>
       <c r="E431" t="n">
         <v>1.46268820153685</v>
       </c>
       <c r="F431" t="n">
-        <v>26.29398175366923</v>
+        <v>26.2939817536692</v>
       </c>
       <c r="G431" t="n">
         <v>2.9</v>
       </c>
       <c r="H431" t="n">
-        <v>2.760661730896721</v>
+        <v>2.76066173089672</v>
+      </c>
+      <c r="I431" t="n">
+        <v>0.7297887583395845</v>
       </c>
     </row>
     <row r="432">
@@ -12273,7 +12955,7 @@
         <v>11157</v>
       </c>
       <c r="B432" t="n">
-        <v>394.3575777935067</v>
+        <v>394.357577793507</v>
       </c>
       <c r="C432" t="n">
         <v>73.7100164794922</v>
@@ -12282,16 +12964,19 @@
         <v>50.7574967956543</v>
       </c>
       <c r="E432" t="n">
-        <v>1.452199598735985</v>
+        <v>1.45219959873599</v>
       </c>
       <c r="F432" t="n">
-        <v>28.29158263529558</v>
+        <v>28.2915826352956</v>
       </c>
       <c r="G432" t="n">
         <v>3.64</v>
       </c>
       <c r="H432" t="n">
-        <v>5.348691022905006</v>
+        <v>5.34869102290501</v>
+      </c>
+      <c r="I432" t="n">
+        <v>0.7251313513166873</v>
       </c>
     </row>
     <row r="433">
@@ -12299,25 +12984,28 @@
         <v>10443</v>
       </c>
       <c r="B433" t="n">
-        <v>373.2717393201031</v>
+        <v>373.271739320103</v>
       </c>
       <c r="C433" t="n">
-        <v>69.71310668945313</v>
+        <v>69.7131066894531</v>
       </c>
       <c r="D433" t="n">
-        <v>48.11071746826172</v>
+        <v>48.1107174682617</v>
       </c>
       <c r="E433" t="n">
         <v>1.44901407332872</v>
       </c>
       <c r="F433" t="n">
-        <v>27.97693717456734</v>
+        <v>27.9769371745673</v>
       </c>
       <c r="G433" t="n">
         <v>3.33</v>
       </c>
       <c r="H433" t="n">
-        <v>0.8976067905204114</v>
+        <v>0.897606790520412</v>
+      </c>
+      <c r="I433" t="n">
+        <v>0.7236907364290905</v>
       </c>
     </row>
     <row r="434">
@@ -12325,25 +13013,28 @@
         <v>10271</v>
       </c>
       <c r="B434" t="n">
-        <v>374.3583759071767</v>
+        <v>374.358375907177</v>
       </c>
       <c r="C434" t="n">
-        <v>70.05115783691407</v>
+        <v>70.0511578369141</v>
       </c>
       <c r="D434" t="n">
         <v>48.0877897644043</v>
       </c>
       <c r="E434" t="n">
-        <v>1.456734821461218</v>
+        <v>1.45673482146122</v>
       </c>
       <c r="F434" t="n">
-        <v>27.43627673645728</v>
+        <v>27.4362767364573</v>
       </c>
       <c r="G434" t="n">
         <v>3.1</v>
       </c>
       <c r="H434" t="n">
-        <v>3.035593641928712</v>
+        <v>3.03559364192871</v>
+      </c>
+      <c r="I434" t="n">
+        <v>0.7271612053599161</v>
       </c>
     </row>
     <row r="435">
@@ -12351,25 +13042,28 @@
         <v>11920</v>
       </c>
       <c r="B435" t="n">
-        <v>399.4576327792092</v>
+        <v>399.457632779209</v>
       </c>
       <c r="C435" t="n">
-        <v>74.53180603027344</v>
+        <v>74.5318060302735</v>
       </c>
       <c r="D435" t="n">
-        <v>51.57228485107422</v>
+        <v>51.5722848510742</v>
       </c>
       <c r="E435" t="n">
-        <v>1.445191079772782</v>
+        <v>1.44519107977278</v>
       </c>
       <c r="F435" t="n">
-        <v>29.84046122004758</v>
+        <v>29.8404612200476</v>
       </c>
       <c r="G435" t="n">
         <v>4.17</v>
       </c>
       <c r="H435" t="n">
-        <v>1.305175926349646</v>
+        <v>1.30517592634965</v>
+      </c>
+      <c r="I435" t="n">
+        <v>0.7219454041136382</v>
       </c>
     </row>
     <row r="436">
@@ -12377,25 +13071,28 @@
         <v>9987</v>
       </c>
       <c r="B436" t="n">
-        <v>371.5942732895012</v>
+        <v>371.594273289501</v>
       </c>
       <c r="C436" t="n">
-        <v>69.50722412109376</v>
+        <v>69.5072241210938</v>
       </c>
       <c r="D436" t="n">
         <v>47.76498046875</v>
       </c>
       <c r="E436" t="n">
-        <v>1.455192139491578</v>
+        <v>1.45519213949158</v>
       </c>
       <c r="F436" t="n">
-        <v>26.87608695255467</v>
+        <v>26.8760869525547</v>
       </c>
       <c r="G436" t="n">
         <v>3.32</v>
       </c>
       <c r="H436" t="n">
-        <v>4.436996133618817</v>
+        <v>4.43699613361882</v>
+      </c>
+      <c r="I436" t="n">
+        <v>0.7264735039522705</v>
       </c>
     </row>
     <row r="437">
@@ -12403,16 +13100,16 @@
         <v>9106</v>
       </c>
       <c r="B437" t="n">
-        <v>344.5278326731549</v>
+        <v>344.527832673155</v>
       </c>
       <c r="C437" t="n">
-        <v>57.48231903076172</v>
+        <v>57.4823190307617</v>
       </c>
       <c r="D437" t="n">
-        <v>52.11866470336914</v>
+        <v>52.1186647033692</v>
       </c>
       <c r="E437" t="n">
-        <v>1.102912351226179</v>
+        <v>1.10291235122618</v>
       </c>
       <c r="F437" t="n">
         <v>26.4303755355482</v>
@@ -12422,6 +13119,9 @@
       </c>
       <c r="H437" t="n">
         <v>3.35935437180287</v>
+      </c>
+      <c r="I437" t="n">
+        <v>0.4217968537004961</v>
       </c>
     </row>
     <row r="438">
@@ -12429,25 +13129,28 @@
         <v>9313</v>
       </c>
       <c r="B438" t="n">
-        <v>348.8025339150515</v>
+        <v>348.802533915052</v>
       </c>
       <c r="C438" t="n">
-        <v>64.49336029052735</v>
+        <v>64.49336029052741</v>
       </c>
       <c r="D438" t="n">
-        <v>45.73436431884766</v>
+        <v>45.7343643188477</v>
       </c>
       <c r="E438" t="n">
-        <v>1.410172880963142</v>
+        <v>1.41017288096314</v>
       </c>
       <c r="F438" t="n">
-        <v>26.69992071292727</v>
+        <v>26.6999207129273</v>
       </c>
       <c r="G438" t="n">
         <v>2.75</v>
       </c>
       <c r="H438" t="n">
-        <v>0.5011818334165766</v>
+        <v>0.501181833416577</v>
+      </c>
+      <c r="I438" t="n">
+        <v>0.7050748290981859</v>
       </c>
     </row>
     <row r="439">
@@ -12455,16 +13158,16 @@
         <v>8745</v>
       </c>
       <c r="B439" t="n">
-        <v>344.2500300342966</v>
+        <v>344.250030034297</v>
       </c>
       <c r="C439" t="n">
-        <v>63.83266479492188</v>
+        <v>63.8326647949219</v>
       </c>
       <c r="D439" t="n">
-        <v>44.92188903808594</v>
+        <v>44.921889038086</v>
       </c>
       <c r="E439" t="n">
-        <v>1.420970180946818</v>
+        <v>1.42097018094682</v>
       </c>
       <c r="F439" t="n">
         <v>25.4030478926284</v>
@@ -12473,7 +13176,10 @@
         <v>2.73</v>
       </c>
       <c r="H439" t="n">
-        <v>3.012765090458954</v>
+        <v>3.01276509045895</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.7104531150639952</v>
       </c>
     </row>
     <row r="440">
@@ -12481,25 +13187,28 @@
         <v>8483</v>
       </c>
       <c r="B440" t="n">
-        <v>334.8016775740576</v>
+        <v>334.801677574058</v>
       </c>
       <c r="C440" t="n">
-        <v>60.84637786865235</v>
+        <v>60.8463778686524</v>
       </c>
       <c r="D440" t="n">
-        <v>45.14175354003906</v>
+        <v>45.1417535400391</v>
       </c>
       <c r="E440" t="n">
-        <v>1.347895752757674</v>
+        <v>1.34789575275767</v>
       </c>
       <c r="F440" t="n">
-        <v>25.33738797686751</v>
+        <v>25.3373879768675</v>
       </c>
       <c r="G440" t="n">
         <v>2.62</v>
       </c>
       <c r="H440" t="n">
-        <v>1.721688657133948</v>
+        <v>1.72168865713395</v>
+      </c>
+      <c r="I440" t="n">
+        <v>0.6705137120529858</v>
       </c>
     </row>
     <row r="441">
@@ -12507,16 +13216,16 @@
         <v>9498</v>
       </c>
       <c r="B441" t="n">
-        <v>359.1501821700107</v>
+        <v>359.150182170011</v>
       </c>
       <c r="C441" t="n">
-        <v>67.18708648681641</v>
+        <v>67.1870864868164</v>
       </c>
       <c r="D441" t="n">
-        <v>46.15629653930664</v>
+        <v>46.1562965393066</v>
       </c>
       <c r="E441" t="n">
-        <v>1.455642924678759</v>
+        <v>1.45564292467876</v>
       </c>
       <c r="F441" t="n">
         <v>26.4457613319654</v>
@@ -12525,7 +13234,10 @@
         <v>2.84</v>
       </c>
       <c r="H441" t="n">
-        <v>2.573333797404866</v>
+        <v>2.57333379740487</v>
+      </c>
+      <c r="I441" t="n">
+        <v>0.7266747497971809</v>
       </c>
     </row>
     <row r="442">
@@ -12533,13 +13245,13 @@
         <v>9258</v>
       </c>
       <c r="B442" t="n">
-        <v>355.1745377983416</v>
+        <v>355.174537798342</v>
       </c>
       <c r="C442" t="n">
-        <v>65.20991333007812</v>
+        <v>65.20991333007809</v>
       </c>
       <c r="D442" t="n">
-        <v>47.11578918457032</v>
+        <v>47.1157891845703</v>
       </c>
       <c r="E442" t="n">
         <v>1.38403525566825</v>
@@ -12551,7 +13263,10 @@
         <v>2.75</v>
       </c>
       <c r="H442" t="n">
-        <v>4.258816125678694</v>
+        <v>4.25881612567869</v>
+      </c>
+      <c r="I442" t="n">
+        <v>0.6913448493330691</v>
       </c>
     </row>
     <row r="443">
@@ -12559,25 +13274,28 @@
         <v>9740</v>
       </c>
       <c r="B443" t="n">
-        <v>361.6327171897674</v>
+        <v>361.632717189767</v>
       </c>
       <c r="C443" t="n">
-        <v>68.19004455566406</v>
+        <v>68.1900445556641</v>
       </c>
       <c r="D443" t="n">
-        <v>45.82141098022461</v>
+        <v>45.8214109802246</v>
       </c>
       <c r="E443" t="n">
-        <v>1.488169899113172</v>
+        <v>1.48816989911317</v>
       </c>
       <c r="F443" t="n">
-        <v>26.93340380176089</v>
+        <v>26.9334038017609</v>
       </c>
       <c r="G443" t="n">
         <v>2.84</v>
       </c>
       <c r="H443" t="n">
-        <v>0.7813910172884587</v>
+        <v>0.7813910172884591</v>
+      </c>
+      <c r="I443" t="n">
+        <v>0.7405817379055254</v>
       </c>
     </row>
     <row r="444">
@@ -12585,25 +13303,28 @@
         <v>6649</v>
       </c>
       <c r="B444" t="n">
-        <v>301.4312313561009</v>
+        <v>301.431231356101</v>
       </c>
       <c r="C444" t="n">
-        <v>55.15409896850586</v>
+        <v>55.1540989685059</v>
       </c>
       <c r="D444" t="n">
         <v>40.2079067993164</v>
       </c>
       <c r="E444" t="n">
-        <v>1.371722712246328</v>
+        <v>1.37172271224633</v>
       </c>
       <c r="F444" t="n">
-        <v>22.05809918928106</v>
+        <v>22.0580991892811</v>
       </c>
       <c r="G444" t="n">
         <v>1.81</v>
       </c>
       <c r="H444" t="n">
-        <v>4.781062603021806</v>
+        <v>4.78106260302181</v>
+      </c>
+      <c r="I444" t="n">
+        <v>0.6845027155408945</v>
       </c>
     </row>
     <row r="445">
@@ -12611,25 +13332,28 @@
         <v>11177</v>
       </c>
       <c r="B445" t="n">
-        <v>392.8576125029895</v>
+        <v>392.85761250299</v>
       </c>
       <c r="C445" t="n">
-        <v>73.84568756103516</v>
+        <v>73.84568756103521</v>
       </c>
       <c r="D445" t="n">
-        <v>50.06069534301758</v>
+        <v>50.0606953430176</v>
       </c>
       <c r="E445" t="n">
-        <v>1.475123089182881</v>
+        <v>1.47512308918288</v>
       </c>
       <c r="F445" t="n">
-        <v>28.45051144303573</v>
+        <v>28.4505114430357</v>
       </c>
       <c r="G445" t="n">
         <v>3.88</v>
       </c>
       <c r="H445" t="n">
-        <v>3.907438274897161</v>
+        <v>3.90743827489716</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0.7351453388336314</v>
       </c>
     </row>
     <row r="446">
@@ -12637,25 +13361,28 @@
         <v>8691</v>
       </c>
       <c r="B446" t="n">
-        <v>341.6109708866373</v>
+        <v>341.610970886637</v>
       </c>
       <c r="C446" t="n">
-        <v>60.67480438232422</v>
+        <v>60.6748043823242</v>
       </c>
       <c r="D446" t="n">
-        <v>47.67293273925782</v>
+        <v>47.6729327392578</v>
       </c>
       <c r="E446" t="n">
-        <v>1.272730685862747</v>
+        <v>1.27273068586275</v>
       </c>
       <c r="F446" t="n">
-        <v>25.44122039594591</v>
+        <v>25.4412203959459</v>
       </c>
       <c r="G446" t="n">
         <v>2.56</v>
       </c>
       <c r="H446" t="n">
-        <v>4.558748705319684</v>
+        <v>4.55874870531969</v>
+      </c>
+      <c r="I446" t="n">
+        <v>0.6185922504773348</v>
       </c>
     </row>
     <row r="447">
@@ -12663,16 +13390,16 @@
         <v>10068</v>
       </c>
       <c r="B447" t="n">
-        <v>376.1094787846174</v>
+        <v>376.109478784617</v>
       </c>
       <c r="C447" t="n">
-        <v>70.93861053466797</v>
+        <v>70.938610534668</v>
       </c>
       <c r="D447" t="n">
-        <v>47.63275222778321</v>
+        <v>47.6327522277832</v>
       </c>
       <c r="E447" t="n">
-        <v>1.489282210598172</v>
+        <v>1.48928221059817</v>
       </c>
       <c r="F447" t="n">
         <v>26.7688015535645</v>
@@ -12681,7 +13408,10 @@
         <v>2.81</v>
       </c>
       <c r="H447" t="n">
-        <v>5.437480449796711</v>
+        <v>5.43748044979671</v>
+      </c>
+      <c r="I447" t="n">
+        <v>0.7410368053486692</v>
       </c>
     </row>
     <row r="448">
@@ -12689,25 +13419,28 @@
         <v>8456</v>
       </c>
       <c r="B448" t="n">
-        <v>343.8388156874078</v>
+        <v>343.838815687408</v>
       </c>
       <c r="C448" t="n">
-        <v>64.93113800048829</v>
+        <v>64.9311380004883</v>
       </c>
       <c r="D448" t="n">
-        <v>43.44903411865234</v>
+        <v>43.4490341186524</v>
       </c>
       <c r="E448" t="n">
-        <v>1.494420746458293</v>
+        <v>1.49442074645829</v>
       </c>
       <c r="F448" t="n">
-        <v>24.59291858336191</v>
+        <v>24.5929185833619</v>
       </c>
       <c r="G448" t="n">
         <v>2.28</v>
       </c>
       <c r="H448" t="n">
-        <v>4.813696901584625</v>
+        <v>4.81369690158463</v>
+      </c>
+      <c r="I448" t="n">
+        <v>0.7431223271187082</v>
       </c>
     </row>
     <row r="449">
@@ -12715,25 +13448,28 @@
         <v>8507</v>
       </c>
       <c r="B449" t="n">
-        <v>339.1289513072288</v>
+        <v>339.128951307229</v>
       </c>
       <c r="C449" t="n">
-        <v>61.72111206054688</v>
+        <v>61.7211120605469</v>
       </c>
       <c r="D449" t="n">
-        <v>45.62255096435547</v>
+        <v>45.6225509643555</v>
       </c>
       <c r="E449" t="n">
-        <v>1.352864115572342</v>
+        <v>1.35286411557234</v>
       </c>
       <c r="F449" t="n">
-        <v>25.08485331968373</v>
+        <v>25.0848533196837</v>
       </c>
       <c r="G449" t="n">
         <v>2.22</v>
       </c>
       <c r="H449" t="n">
-        <v>3.988843255135514</v>
+        <v>3.98884325513551</v>
+      </c>
+      <c r="I449" t="n">
+        <v>0.6735161179344135</v>
       </c>
     </row>
     <row r="450">
@@ -12741,25 +13477,28 @@
         <v>7334</v>
       </c>
       <c r="B450" t="n">
-        <v>320.6634995367869</v>
+        <v>320.663499536787</v>
       </c>
       <c r="C450" t="n">
-        <v>59.38233184814453</v>
+        <v>59.3823318481445</v>
       </c>
       <c r="D450" t="n">
-        <v>41.93555648803711</v>
+        <v>41.9355564880371</v>
       </c>
       <c r="E450" t="n">
-        <v>1.416037768929677</v>
+        <v>1.41603776892968</v>
       </c>
       <c r="F450" t="n">
-        <v>22.87132776444559</v>
+        <v>22.8713277644456</v>
       </c>
       <c r="G450" t="n">
         <v>2.12</v>
       </c>
       <c r="H450" t="n">
         <v>6.6715547968933</v>
+      </c>
+      <c r="I450" t="n">
+        <v>0.7080165374585757</v>
       </c>
     </row>
     <row r="451">
@@ -12767,25 +13506,28 @@
         <v>10732</v>
       </c>
       <c r="B451" t="n">
-        <v>376.3123546183231</v>
+        <v>376.312354618323</v>
       </c>
       <c r="C451" t="n">
-        <v>67.78792358398438</v>
+        <v>67.78792358398439</v>
       </c>
       <c r="D451" t="n">
-        <v>51.43457473754883</v>
+        <v>51.4345747375488</v>
       </c>
       <c r="E451" t="n">
-        <v>1.317944669123454</v>
+        <v>1.31794466912345</v>
       </c>
       <c r="F451" t="n">
-        <v>28.51886170701196</v>
+        <v>28.518861707012</v>
       </c>
       <c r="G451" t="n">
         <v>3.23</v>
       </c>
       <c r="H451" t="n">
         <v>2.06496555385695</v>
+      </c>
+      <c r="I451" t="n">
+        <v>0.6513735636268073</v>
       </c>
     </row>
     <row r="452">
@@ -12793,25 +13535,28 @@
         <v>8440</v>
       </c>
       <c r="B452" t="n">
-        <v>336.7011024494943</v>
+        <v>336.701102449494</v>
       </c>
       <c r="C452" t="n">
-        <v>60.97061492919922</v>
+        <v>60.9706149291992</v>
       </c>
       <c r="D452" t="n">
-        <v>45.65389801025391</v>
+        <v>45.6538980102539</v>
       </c>
       <c r="E452" t="n">
-        <v>1.335496366936842</v>
+        <v>1.33549636693684</v>
       </c>
       <c r="F452" t="n">
-        <v>25.06674299133313</v>
+        <v>25.0667429913331</v>
       </c>
       <c r="G452" t="n">
         <v>2.31</v>
       </c>
       <c r="H452" t="n">
-        <v>3.611000055555438</v>
+        <v>3.61100005555544</v>
+      </c>
+      <c r="I452" t="n">
+        <v>0.6628126643829398</v>
       </c>
     </row>
     <row r="453">
@@ -12822,22 +13567,25 @@
         <v>328.29933390439</v>
       </c>
       <c r="C453" t="n">
-        <v>59.44536987304688</v>
+        <v>59.4453698730469</v>
       </c>
       <c r="D453" t="n">
-        <v>44.51911880493164</v>
+        <v>44.5191188049316</v>
       </c>
       <c r="E453" t="n">
-        <v>1.335277325086268</v>
+        <v>1.33527732508627</v>
       </c>
       <c r="F453" t="n">
-        <v>23.72225343066972</v>
+        <v>23.7222534306697</v>
       </c>
       <c r="G453" t="n">
         <v>2.18</v>
       </c>
       <c r="H453" t="n">
-        <v>6.755073265275874</v>
+        <v>6.75507326527588</v>
+      </c>
+      <c r="I453" t="n">
+        <v>0.6626738736407367</v>
       </c>
     </row>
     <row r="454">
@@ -12845,25 +13593,28 @@
         <v>8927</v>
       </c>
       <c r="B454" t="n">
-        <v>346.7675294290532</v>
+        <v>346.767529429053</v>
       </c>
       <c r="C454" t="n">
-        <v>62.80241668701172</v>
+        <v>62.8024166870117</v>
       </c>
       <c r="D454" t="n">
-        <v>47.00847503662109</v>
+        <v>47.0084750366211</v>
       </c>
       <c r="E454" t="n">
-        <v>1.335980727689776</v>
+        <v>1.33598072768978</v>
       </c>
       <c r="F454" t="n">
-        <v>25.74347146832967</v>
+        <v>25.7434714683297</v>
       </c>
       <c r="G454" t="n">
         <v>2.66</v>
       </c>
       <c r="H454" t="n">
-        <v>3.895528546352447</v>
+        <v>3.89552854635245</v>
+      </c>
+      <c r="I454" t="n">
+        <v>0.6631192228933633</v>
       </c>
     </row>
     <row r="455">
@@ -12874,22 +13625,25 @@
         <v>368.745249905554</v>
       </c>
       <c r="C455" t="n">
-        <v>68.52412292480469</v>
+        <v>68.5241229248047</v>
       </c>
       <c r="D455" t="n">
-        <v>47.93981430053711</v>
+        <v>47.9398143005371</v>
       </c>
       <c r="E455" t="n">
-        <v>1.429378146841027</v>
+        <v>1.42937814684103</v>
       </c>
       <c r="F455" t="n">
-        <v>27.56916869465789</v>
+        <v>27.5691686946579</v>
       </c>
       <c r="G455" t="n">
         <v>3.17</v>
       </c>
       <c r="H455" t="n">
         <v>1.51719286901193</v>
+      </c>
+      <c r="I455" t="n">
+        <v>0.7145298736361312</v>
       </c>
     </row>
     <row r="456">
@@ -12897,25 +13651,28 @@
         <v>9333</v>
       </c>
       <c r="B456" t="n">
-        <v>355.9036415811638</v>
+        <v>355.903641581164</v>
       </c>
       <c r="C456" t="n">
-        <v>66.33410430908204</v>
+        <v>66.33410430908209</v>
       </c>
       <c r="D456" t="n">
-        <v>46.03491622924805</v>
+        <v>46.0349162292481</v>
       </c>
       <c r="E456" t="n">
-        <v>1.440951993455285</v>
+        <v>1.44095199345529</v>
       </c>
       <c r="F456" t="n">
-        <v>26.22339001235425</v>
+        <v>26.2233900123543</v>
       </c>
       <c r="G456" t="n">
         <v>2.91</v>
       </c>
       <c r="H456" t="n">
-        <v>2.790465640284304</v>
+        <v>2.7904656402843</v>
+      </c>
+      <c r="I456" t="n">
+        <v>0.7199888354535791</v>
       </c>
     </row>
     <row r="457">
@@ -12923,25 +13680,28 @@
         <v>9054</v>
       </c>
       <c r="B457" t="n">
-        <v>350.9436412850118</v>
+        <v>350.943641285012</v>
       </c>
       <c r="C457" t="n">
-        <v>60.46470336914063</v>
+        <v>60.4647033691406</v>
       </c>
       <c r="D457" t="n">
-        <v>51.04511260986328</v>
+        <v>51.0451126098633</v>
       </c>
       <c r="E457" t="n">
-        <v>1.184534625895942</v>
+        <v>1.18453462589594</v>
       </c>
       <c r="F457" t="n">
-        <v>25.79901424299344</v>
+        <v>25.7990142429934</v>
       </c>
       <c r="G457" t="n">
         <v>2.58</v>
       </c>
       <c r="H457" t="n">
-        <v>7.094082727191623</v>
+        <v>7.09408272719162</v>
+      </c>
+      <c r="I457" t="n">
+        <v>0.5360072209253328</v>
       </c>
     </row>
     <row r="458">
@@ -12949,25 +13709,28 @@
         <v>10508</v>
       </c>
       <c r="B458" t="n">
-        <v>386.3936005829854</v>
+        <v>386.393600582986</v>
       </c>
       <c r="C458" t="n">
         <v>76.3010400390625</v>
       </c>
       <c r="D458" t="n">
-        <v>44.60564605712891</v>
+        <v>44.6056460571289</v>
       </c>
       <c r="E458" t="n">
-        <v>1.710569104667592</v>
+        <v>1.71056910466759</v>
       </c>
       <c r="F458" t="n">
-        <v>27.19506737209331</v>
+        <v>27.1950673720933</v>
       </c>
       <c r="G458" t="n">
         <v>3.37</v>
       </c>
       <c r="H458" t="n">
-        <v>1.753674263728697</v>
+        <v>1.7536742637287</v>
+      </c>
+      <c r="I458" t="n">
+        <v>0.8113211142728792</v>
       </c>
     </row>
     <row r="459">
@@ -12975,25 +13738,28 @@
         <v>7251</v>
       </c>
       <c r="B459" t="n">
-        <v>314.8628274510614</v>
+        <v>314.862827451061</v>
       </c>
       <c r="C459" t="n">
-        <v>57.88907608032227</v>
+        <v>57.8890760803223</v>
       </c>
       <c r="D459" t="n">
         <v>41.6735285949707</v>
       </c>
       <c r="E459" t="n">
-        <v>1.389109058725315</v>
+        <v>1.38910905872532</v>
       </c>
       <c r="F459" t="n">
-        <v>23.02907605416524</v>
+        <v>23.0290760541652</v>
       </c>
       <c r="G459" t="n">
         <v>1.79</v>
       </c>
       <c r="H459" t="n">
-        <v>4.522276597155737</v>
+        <v>4.52227659715574</v>
+      </c>
+      <c r="I459" t="n">
+        <v>0.6940924411268022</v>
       </c>
     </row>
     <row r="460">
@@ -13004,22 +13770,25 @@
         <v>311.096981021768</v>
       </c>
       <c r="C460" t="n">
-        <v>56.68876708984375</v>
+        <v>56.6887670898438</v>
       </c>
       <c r="D460" t="n">
-        <v>41.77057739257813</v>
+        <v>41.7705773925781</v>
       </c>
       <c r="E460" t="n">
         <v>1.35714588182629</v>
       </c>
       <c r="F460" t="n">
-        <v>23.33677419869274</v>
+        <v>23.3367741986927</v>
       </c>
       <c r="G460" t="n">
         <v>1.86</v>
       </c>
       <c r="H460" t="n">
-        <v>2.466226363543866</v>
+        <v>2.46622636354387</v>
+      </c>
+      <c r="I460" t="n">
+        <v>0.676066662395654</v>
       </c>
     </row>
     <row r="461">
@@ -13027,25 +13796,28 @@
         <v>9325</v>
       </c>
       <c r="B461" t="n">
-        <v>357.4647749647698</v>
+        <v>357.46477496477</v>
       </c>
       <c r="C461" t="n">
-        <v>67.33325805664063</v>
+        <v>67.3332580566407</v>
       </c>
       <c r="D461" t="n">
-        <v>45.37977981567383</v>
+        <v>45.3797798156738</v>
       </c>
       <c r="E461" t="n">
-        <v>1.483772251212736</v>
+        <v>1.48377225121274</v>
       </c>
       <c r="F461" t="n">
-        <v>26.08648642630321</v>
+        <v>26.0864864263032</v>
       </c>
       <c r="G461" t="n">
         <v>2.72</v>
       </c>
       <c r="H461" t="n">
-        <v>2.942105267036589</v>
+        <v>2.94210526703659</v>
+      </c>
+      <c r="I461" t="n">
+        <v>0.7387697724867058</v>
       </c>
     </row>
     <row r="462">
@@ -13053,25 +13825,28 @@
         <v>7617</v>
       </c>
       <c r="B462" t="n">
-        <v>319.4542273962705</v>
+        <v>319.454227396271</v>
       </c>
       <c r="C462" t="n">
-        <v>57.56016372680664</v>
+        <v>57.5601637268067</v>
       </c>
       <c r="D462" t="n">
-        <v>43.64650436401367</v>
+        <v>43.6465043640137</v>
       </c>
       <c r="E462" t="n">
-        <v>1.318780611770246</v>
+        <v>1.31878061177025</v>
       </c>
       <c r="F462" t="n">
-        <v>23.84379152557405</v>
+        <v>23.8437915255741</v>
       </c>
       <c r="G462" t="n">
         <v>1.99</v>
       </c>
       <c r="H462" t="n">
-        <v>3.618524702919136</v>
+        <v>3.61852470291914</v>
+      </c>
+      <c r="I462" t="n">
+        <v>0.6519333923654198</v>
       </c>
     </row>
     <row r="463">
@@ -13085,10 +13860,10 @@
         <v>64.439755859375</v>
       </c>
       <c r="D463" t="n">
-        <v>47.18145233154297</v>
+        <v>47.181452331543</v>
       </c>
       <c r="E463" t="n">
-        <v>1.365785762730624</v>
+        <v>1.36578576273062</v>
       </c>
       <c r="F463" t="n">
         <v>26.5784303752864</v>
@@ -13097,7 +13872,10 @@
         <v>2.77</v>
       </c>
       <c r="H463" t="n">
-        <v>1.872617619485187</v>
+        <v>1.87261761948519</v>
+      </c>
+      <c r="I463" t="n">
+        <v>0.6811119885565362</v>
       </c>
     </row>
   </sheetData>

--- a/核桃仁表型信息.xlsx
+++ b/核桃仁表型信息.xlsx
@@ -1012,13 +1012,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H753"/>
+  <dimension ref="A1:I972"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A724" workbookViewId="0">
-      <selection activeCell="I756" sqref="I756"/>
+    <sheetView tabSelected="1" topLeftCell="A951" workbookViewId="0">
+      <selection activeCell="A882" sqref="$A882:$XFD882"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
@@ -20579,7 +20579,7 @@
         <v>1.774773263451</v>
       </c>
     </row>
-    <row r="753" spans="1:8">
+    <row r="753" spans="1:9">
       <c r="A753">
         <v>9153</v>
       </c>
@@ -20603,6 +20603,5703 @@
       </c>
       <c r="H753">
         <v>2.31996924197284</v>
+      </c>
+      <c r="I753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8">
+      <c r="A754">
+        <v>5825</v>
+      </c>
+      <c r="B754">
+        <v>285.438046663949</v>
+      </c>
+      <c r="C754">
+        <v>52.2723817443848</v>
+      </c>
+      <c r="D754">
+        <v>38.0222610473633</v>
+      </c>
+      <c r="E754">
+        <v>1.3747836216071</v>
+      </c>
+      <c r="F754">
+        <v>20.4072304588669</v>
+      </c>
+      <c r="G754">
+        <v>1.72</v>
+      </c>
+      <c r="H754">
+        <v>7.19244351054457</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8">
+      <c r="A755">
+        <v>7545</v>
+      </c>
+      <c r="B755">
+        <v>317.770511952127</v>
+      </c>
+      <c r="C755">
+        <v>57.5867378234863</v>
+      </c>
+      <c r="D755">
+        <v>43.0360371398926</v>
+      </c>
+      <c r="E755">
+        <v>1.33810503128565</v>
+      </c>
+      <c r="F755">
+        <v>23.7435498770782</v>
+      </c>
+      <c r="G755">
+        <v>2.06</v>
+      </c>
+      <c r="H755">
+        <v>3.19184549806387</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8">
+      <c r="A756">
+        <v>4299</v>
+      </c>
+      <c r="B756">
+        <v>242.330692892755</v>
+      </c>
+      <c r="C756">
+        <v>41.4151330566406</v>
+      </c>
+      <c r="D756">
+        <v>35.6117742919922</v>
+      </c>
+      <c r="E756">
+        <v>1.16296179788923</v>
+      </c>
+      <c r="F756">
+        <v>17.7402208060477</v>
+      </c>
+      <c r="G756">
+        <v>1.32</v>
+      </c>
+      <c r="H756">
+        <v>7.77923598914858</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8">
+      <c r="A757">
+        <v>4762</v>
+      </c>
+      <c r="B757">
+        <v>250.317211377823</v>
+      </c>
+      <c r="C757">
+        <v>46.0908860778809</v>
+      </c>
+      <c r="D757">
+        <v>33.049363861084</v>
+      </c>
+      <c r="E757">
+        <v>1.39460735981528</v>
+      </c>
+      <c r="F757">
+        <v>19.0238616585271</v>
+      </c>
+      <c r="G757">
+        <v>1.4</v>
+      </c>
+      <c r="H757">
+        <v>0.493655346510475</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8">
+      <c r="A758">
+        <v>4600</v>
+      </c>
+      <c r="B758">
+        <v>253.63985771809</v>
+      </c>
+      <c r="C758">
+        <v>47.2337477111816</v>
+      </c>
+      <c r="D758">
+        <v>32.8557189941406</v>
+      </c>
+      <c r="E758">
+        <v>1.43761114220648</v>
+      </c>
+      <c r="F758">
+        <v>18.1359508769032</v>
+      </c>
+      <c r="G758">
+        <v>1.33</v>
+      </c>
+      <c r="H758">
+        <v>5.98768883642948</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8">
+      <c r="A759">
+        <v>4844</v>
+      </c>
+      <c r="B759">
+        <v>271.607531530625</v>
+      </c>
+      <c r="C759">
+        <v>53.6897721862793</v>
+      </c>
+      <c r="D759">
+        <v>31.281803894043</v>
+      </c>
+      <c r="E759">
+        <v>1.7163259627909</v>
+      </c>
+      <c r="F759">
+        <v>17.8345569900142</v>
+      </c>
+      <c r="G759">
+        <v>1.32</v>
+      </c>
+      <c r="H759">
+        <v>8.92538120727133</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8">
+      <c r="A760">
+        <v>5366</v>
+      </c>
+      <c r="B760">
+        <v>273.703376310349</v>
+      </c>
+      <c r="C760">
+        <v>51.9475088500977</v>
+      </c>
+      <c r="D760">
+        <v>34.2660131835937</v>
+      </c>
+      <c r="E760">
+        <v>1.5160067957649</v>
+      </c>
+      <c r="F760">
+        <v>19.6051655348071</v>
+      </c>
+      <c r="G760">
+        <v>1.81</v>
+      </c>
+      <c r="H760">
+        <v>4.21434607062025</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8">
+      <c r="A761">
+        <v>5210</v>
+      </c>
+      <c r="B761">
+        <v>262.009791115081</v>
+      </c>
+      <c r="C761">
+        <v>46.2841659545899</v>
+      </c>
+      <c r="D761">
+        <v>36.8481646728516</v>
+      </c>
+      <c r="E761">
+        <v>1.25607791773386</v>
+      </c>
+      <c r="F761">
+        <v>19.8847530766956</v>
+      </c>
+      <c r="G761">
+        <v>1.43</v>
+      </c>
+      <c r="H761">
+        <v>2.83961757130138</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8">
+      <c r="A762">
+        <v>3348</v>
+      </c>
+      <c r="B762">
+        <v>217.912921346049</v>
+      </c>
+      <c r="C762">
+        <v>39.5878199768066</v>
+      </c>
+      <c r="D762">
+        <v>29.3993264007568</v>
+      </c>
+      <c r="E762">
+        <v>1.34655534066207</v>
+      </c>
+      <c r="F762">
+        <v>15.3639351871353</v>
+      </c>
+      <c r="G762">
+        <v>1</v>
+      </c>
+      <c r="H762">
+        <v>9.21024716081672</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8">
+      <c r="A763">
+        <v>5133</v>
+      </c>
+      <c r="B763">
+        <v>269.091143987974</v>
+      </c>
+      <c r="C763">
+        <v>47.8313069152832</v>
+      </c>
+      <c r="D763">
+        <v>37.5107588195801</v>
+      </c>
+      <c r="E763">
+        <v>1.27513567894862</v>
+      </c>
+      <c r="F763">
+        <v>19.0753211864505</v>
+      </c>
+      <c r="G763">
+        <v>1.79</v>
+      </c>
+      <c r="H763">
+        <v>9.81121723354217</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8">
+      <c r="A764">
+        <v>4354</v>
+      </c>
+      <c r="B764">
+        <v>245.976205828871</v>
+      </c>
+      <c r="C764">
+        <v>40.4081355285645</v>
+      </c>
+      <c r="D764">
+        <v>37.8679122924805</v>
+      </c>
+      <c r="E764">
+        <v>1.0670811534701</v>
+      </c>
+      <c r="F764">
+        <v>17.7008990984646</v>
+      </c>
+      <c r="G764">
+        <v>1.04</v>
+      </c>
+      <c r="H764">
+        <v>10.408274512883</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8">
+      <c r="A765">
+        <v>5426</v>
+      </c>
+      <c r="B765">
+        <v>275.674912067912</v>
+      </c>
+      <c r="C765">
+        <v>46.6832090759277</v>
+      </c>
+      <c r="D765">
+        <v>40.9738493347168</v>
+      </c>
+      <c r="E765">
+        <v>1.13934155159724</v>
+      </c>
+      <c r="F765">
+        <v>19.6826035394303</v>
+      </c>
+      <c r="G765">
+        <v>1.55</v>
+      </c>
+      <c r="H765">
+        <v>10.7484232773374</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8">
+      <c r="A766">
+        <v>3620</v>
+      </c>
+      <c r="B766">
+        <v>249.316656419693</v>
+      </c>
+      <c r="C766">
+        <v>50.6779605102539</v>
+      </c>
+      <c r="D766">
+        <v>26.8380495452881</v>
+      </c>
+      <c r="E766">
+        <v>1.88828776192312</v>
+      </c>
+      <c r="F766">
+        <v>14.5196877416252</v>
+      </c>
+      <c r="G766">
+        <v>1.72</v>
+      </c>
+      <c r="H766">
+        <v>18.0351567828192</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8">
+      <c r="A767">
+        <v>5238</v>
+      </c>
+      <c r="B767">
+        <v>284.938442233102</v>
+      </c>
+      <c r="C767">
+        <v>55.3399632263184</v>
+      </c>
+      <c r="D767">
+        <v>34.0922427368164</v>
+      </c>
+      <c r="E767">
+        <v>1.62324208628717</v>
+      </c>
+      <c r="F767">
+        <v>18.3829179346566</v>
+      </c>
+      <c r="G767">
+        <v>1.61</v>
+      </c>
+      <c r="H767">
+        <v>13.1563204222191</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8">
+      <c r="A768">
+        <v>5440</v>
+      </c>
+      <c r="B768">
+        <v>295.306799372124</v>
+      </c>
+      <c r="C768">
+        <v>59.8333895874023</v>
+      </c>
+      <c r="D768">
+        <v>32.0539828491211</v>
+      </c>
+      <c r="E768">
+        <v>1.86664446253184</v>
+      </c>
+      <c r="F768">
+        <v>18.4215196249</v>
+      </c>
+      <c r="G768">
+        <v>1.92</v>
+      </c>
+      <c r="H768">
+        <v>10.758376118911</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8">
+      <c r="A769">
+        <v>4916</v>
+      </c>
+      <c r="B769">
+        <v>297.088235396718</v>
+      </c>
+      <c r="C769">
+        <v>63.7377111816406</v>
+      </c>
+      <c r="D769">
+        <v>27.0943902587891</v>
+      </c>
+      <c r="E769">
+        <v>2.35243201905844</v>
+      </c>
+      <c r="F769">
+        <v>16.5472725415579</v>
+      </c>
+      <c r="G769">
+        <v>1.39</v>
+      </c>
+      <c r="H769">
+        <v>10.3605469916796</v>
+      </c>
+    </row>
+    <row r="770" spans="1:8">
+      <c r="A770">
+        <v>5879</v>
+      </c>
+      <c r="B770">
+        <v>282.937556962698</v>
+      </c>
+      <c r="C770">
+        <v>47.9027081298828</v>
+      </c>
+      <c r="D770">
+        <v>42.0643699645996</v>
+      </c>
+      <c r="E770">
+        <v>1.13879533130287</v>
+      </c>
+      <c r="F770">
+        <v>20.7784362850601</v>
+      </c>
+      <c r="G770">
+        <v>1.93</v>
+      </c>
+      <c r="H770">
+        <v>7.67648438542885</v>
+      </c>
+    </row>
+    <row r="771" spans="1:8">
+      <c r="A771">
+        <v>6036</v>
+      </c>
+      <c r="B771">
+        <v>314.131499145504</v>
+      </c>
+      <c r="C771">
+        <v>65.5173965454102</v>
+      </c>
+      <c r="D771">
+        <v>31.4602630615234</v>
+      </c>
+      <c r="E771">
+        <v>2.08254445988849</v>
+      </c>
+      <c r="F771">
+        <v>19.2148829914193</v>
+      </c>
+      <c r="G771">
+        <v>1.23</v>
+      </c>
+      <c r="H771">
+        <v>7.28021196822168</v>
+      </c>
+    </row>
+    <row r="772" spans="1:8">
+      <c r="A772">
+        <v>3746</v>
+      </c>
+      <c r="B772">
+        <v>237.409673709644</v>
+      </c>
+      <c r="C772">
+        <v>43.3113801574707</v>
+      </c>
+      <c r="D772">
+        <v>31.8182763671875</v>
+      </c>
+      <c r="E772">
+        <v>1.36121076005661</v>
+      </c>
+      <c r="F772">
+        <v>15.7786325277605</v>
+      </c>
+      <c r="G772">
+        <v>1</v>
+      </c>
+      <c r="H772">
+        <v>15.5741671517207</v>
+      </c>
+    </row>
+    <row r="773" spans="1:8">
+      <c r="A773">
+        <v>5587</v>
+      </c>
+      <c r="B773">
+        <v>281.393056434069</v>
+      </c>
+      <c r="C773">
+        <v>53.0479122924805</v>
+      </c>
+      <c r="D773">
+        <v>35.6691479492187</v>
+      </c>
+      <c r="E773">
+        <v>1.48722117971541</v>
+      </c>
+      <c r="F773">
+        <v>19.8547898473431</v>
+      </c>
+      <c r="G773">
+        <v>1.87</v>
+      </c>
+      <c r="H773">
+        <v>6.39769840331217</v>
+      </c>
+    </row>
+    <row r="774" spans="1:8">
+      <c r="A774">
+        <v>4932</v>
+      </c>
+      <c r="B774">
+        <v>257.193656404993</v>
+      </c>
+      <c r="C774">
+        <v>47.3527836608887</v>
+      </c>
+      <c r="D774">
+        <v>33.9622956848145</v>
+      </c>
+      <c r="E774">
+        <v>1.39427511321213</v>
+      </c>
+      <c r="F774">
+        <v>19.1762116878721</v>
+      </c>
+      <c r="G774">
+        <v>1.32</v>
+      </c>
+      <c r="H774">
+        <v>2.43995000844696</v>
+      </c>
+    </row>
+    <row r="775" spans="1:8">
+      <c r="A775">
+        <v>4986</v>
+      </c>
+      <c r="B775">
+        <v>267.062161583168</v>
+      </c>
+      <c r="C775">
+        <v>50.1397367858887</v>
+      </c>
+      <c r="D775">
+        <v>34.1039505004883</v>
+      </c>
+      <c r="E775">
+        <v>1.47020318907544</v>
+      </c>
+      <c r="F775">
+        <v>18.6698106929209</v>
+      </c>
+      <c r="G775">
+        <v>1.21</v>
+      </c>
+      <c r="H775">
+        <v>7.74182746561982</v>
+      </c>
+    </row>
+    <row r="776" spans="1:8">
+      <c r="A776">
+        <v>6463</v>
+      </c>
+      <c r="B776">
+        <v>297.187635667881</v>
+      </c>
+      <c r="C776">
+        <v>51.5889761352539</v>
+      </c>
+      <c r="D776">
+        <v>42.8042893981934</v>
+      </c>
+      <c r="E776">
+        <v>1.205229122141</v>
+      </c>
+      <c r="F776">
+        <v>21.7472035317871</v>
+      </c>
+      <c r="G776">
+        <v>2.2</v>
+      </c>
+      <c r="H776">
+        <v>7.33958629627121</v>
+      </c>
+    </row>
+    <row r="777" spans="1:8">
+      <c r="A777">
+        <v>4585</v>
+      </c>
+      <c r="B777">
+        <v>254.728970748018</v>
+      </c>
+      <c r="C777">
+        <v>46.7609976196289</v>
+      </c>
+      <c r="D777">
+        <v>33.7995626831055</v>
+      </c>
+      <c r="E777">
+        <v>1.38347936800384</v>
+      </c>
+      <c r="F777">
+        <v>17.9995231266237</v>
+      </c>
+      <c r="G777">
+        <v>1.31</v>
+      </c>
+      <c r="H777">
+        <v>8.29424600551524</v>
+      </c>
+    </row>
+    <row r="778" spans="1:8">
+      <c r="A778">
+        <v>6599</v>
+      </c>
+      <c r="B778">
+        <v>319.694684603346</v>
+      </c>
+      <c r="C778">
+        <v>58.7463223266602</v>
+      </c>
+      <c r="D778">
+        <v>42.3497256469727</v>
+      </c>
+      <c r="E778">
+        <v>1.38717126095148</v>
+      </c>
+      <c r="F778">
+        <v>20.6415693404085</v>
+      </c>
+      <c r="G778">
+        <v>1.79</v>
+      </c>
+      <c r="H778">
+        <v>18.441262865867</v>
+      </c>
+    </row>
+    <row r="779" spans="1:8">
+      <c r="A779">
+        <v>4907</v>
+      </c>
+      <c r="B779">
+        <v>259.886407421666</v>
+      </c>
+      <c r="C779">
+        <v>47.5866195678711</v>
+      </c>
+      <c r="D779">
+        <v>34.6262129211426</v>
+      </c>
+      <c r="E779">
+        <v>1.37429466156881</v>
+      </c>
+      <c r="F779">
+        <v>18.8813260711954</v>
+      </c>
+      <c r="G779">
+        <v>1.63</v>
+      </c>
+      <c r="H779">
+        <v>5.49300528063802</v>
+      </c>
+    </row>
+    <row r="780" spans="1:8">
+      <c r="A780">
+        <v>5804</v>
+      </c>
+      <c r="B780">
+        <v>277.389335266441</v>
+      </c>
+      <c r="C780">
+        <v>47.4857734680176</v>
+      </c>
+      <c r="D780">
+        <v>40.678547668457</v>
+      </c>
+      <c r="E780">
+        <v>1.16734190844377</v>
+      </c>
+      <c r="F780">
+        <v>20.9236594998329</v>
+      </c>
+      <c r="G780">
+        <v>1.65</v>
+      </c>
+      <c r="H780">
+        <v>4.55659327513812</v>
+      </c>
+    </row>
+    <row r="781" spans="1:8">
+      <c r="A781">
+        <v>5690</v>
+      </c>
+      <c r="B781">
+        <v>272.100150018258</v>
+      </c>
+      <c r="C781">
+        <v>46.2616348266602</v>
+      </c>
+      <c r="D781">
+        <v>40.2459184265137</v>
+      </c>
+      <c r="E781">
+        <v>1.14947395003871</v>
+      </c>
+      <c r="F781">
+        <v>20.9114180922656</v>
+      </c>
+      <c r="G781">
+        <v>1.57</v>
+      </c>
+      <c r="H781">
+        <v>2.79699633145514</v>
+      </c>
+    </row>
+    <row r="782" spans="1:8">
+      <c r="A782">
+        <v>4708</v>
+      </c>
+      <c r="B782">
+        <v>253.32299124821</v>
+      </c>
+      <c r="C782">
+        <v>42.7745462036133</v>
+      </c>
+      <c r="D782">
+        <v>37.7833363342285</v>
+      </c>
+      <c r="E782">
+        <v>1.13210082416314</v>
+      </c>
+      <c r="F782">
+        <v>18.5849692394758</v>
+      </c>
+      <c r="G782">
+        <v>1.23</v>
+      </c>
+      <c r="H782">
+        <v>7.84478117172354</v>
+      </c>
+    </row>
+    <row r="783" spans="1:8">
+      <c r="A783">
+        <v>5194</v>
+      </c>
+      <c r="B783">
+        <v>270.951438777706</v>
+      </c>
+      <c r="C783">
+        <v>51.9226052856445</v>
+      </c>
+      <c r="D783">
+        <v>33.3040112304688</v>
+      </c>
+      <c r="E783">
+        <v>1.55904959694892</v>
+      </c>
+      <c r="F783">
+        <v>19.1694866926367</v>
+      </c>
+      <c r="G783">
+        <v>1.55</v>
+      </c>
+      <c r="H783">
+        <v>4.5925972042445</v>
+      </c>
+    </row>
+    <row r="784" spans="1:8">
+      <c r="A784">
+        <v>4115</v>
+      </c>
+      <c r="B784">
+        <v>241.274342003737</v>
+      </c>
+      <c r="C784">
+        <v>46.5933583068848</v>
+      </c>
+      <c r="D784">
+        <v>29.2062781524658</v>
+      </c>
+      <c r="E784">
+        <v>1.59531995359535</v>
+      </c>
+      <c r="F784">
+        <v>17.0552739500841</v>
+      </c>
+      <c r="G784">
+        <v>1.22</v>
+      </c>
+      <c r="H784">
+        <v>3.89155923435279</v>
+      </c>
+    </row>
+    <row r="785" spans="1:8">
+      <c r="A785">
+        <v>4057</v>
+      </c>
+      <c r="B785">
+        <v>263.818193900706</v>
+      </c>
+      <c r="C785">
+        <v>53.8432681274414</v>
+      </c>
+      <c r="D785">
+        <v>28.0977554321289</v>
+      </c>
+      <c r="E785">
+        <v>1.91628360697714</v>
+      </c>
+      <c r="F785">
+        <v>15.3780144576646</v>
+      </c>
+      <c r="G785">
+        <v>1.32</v>
+      </c>
+      <c r="H785">
+        <v>17.1515139618632</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8">
+      <c r="A786">
+        <v>6235</v>
+      </c>
+      <c r="B786">
+        <v>298.814878350675</v>
+      </c>
+      <c r="C786">
+        <v>56.6328569030762</v>
+      </c>
+      <c r="D786">
+        <v>37.5091760253906</v>
+      </c>
+      <c r="E786">
+        <v>1.50984006859389</v>
+      </c>
+      <c r="F786">
+        <v>20.865761552485</v>
+      </c>
+      <c r="G786">
+        <v>1.91</v>
+      </c>
+      <c r="H786">
+        <v>7.03342171969249</v>
+      </c>
+    </row>
+    <row r="787" spans="1:8">
+      <c r="A787">
+        <v>4302</v>
+      </c>
+      <c r="B787">
+        <v>251.031975213035</v>
+      </c>
+      <c r="C787">
+        <v>48.1560745239258</v>
+      </c>
+      <c r="D787">
+        <v>30.7922326660156</v>
+      </c>
+      <c r="E787">
+        <v>1.56390330789732</v>
+      </c>
+      <c r="F787">
+        <v>17.1372590935842</v>
+      </c>
+      <c r="G787">
+        <v>1.34</v>
+      </c>
+      <c r="H787">
+        <v>8.28585354702663</v>
+      </c>
+    </row>
+    <row r="788" spans="1:8">
+      <c r="A788">
+        <v>5354</v>
+      </c>
+      <c r="B788">
+        <v>269.124052372967</v>
+      </c>
+      <c r="C788">
+        <v>47.9974266052246</v>
+      </c>
+      <c r="D788">
+        <v>37.3339526367187</v>
+      </c>
+      <c r="E788">
+        <v>1.28562402894405</v>
+      </c>
+      <c r="F788">
+        <v>19.8941713042435</v>
+      </c>
+      <c r="G788">
+        <v>1.57</v>
+      </c>
+      <c r="H788">
+        <v>5.1461635314399</v>
+      </c>
+    </row>
+    <row r="789" spans="1:8">
+      <c r="A789">
+        <v>4451</v>
+      </c>
+      <c r="B789">
+        <v>258.80988301859</v>
+      </c>
+      <c r="C789">
+        <v>50.543500213623</v>
+      </c>
+      <c r="D789">
+        <v>30.6094673156738</v>
+      </c>
+      <c r="E789">
+        <v>1.65123749761375</v>
+      </c>
+      <c r="F789">
+        <v>17.197952211432</v>
+      </c>
+      <c r="G789">
+        <v>1.23</v>
+      </c>
+      <c r="H789">
+        <v>9.1976681556001</v>
+      </c>
+    </row>
+    <row r="790" spans="1:8">
+      <c r="A790">
+        <v>5791</v>
+      </c>
+      <c r="B790">
+        <v>298.50143793952</v>
+      </c>
+      <c r="C790">
+        <v>60.9001718139649</v>
+      </c>
+      <c r="D790">
+        <v>31.8217929077148</v>
+      </c>
+      <c r="E790">
+        <v>1.91378820139327</v>
+      </c>
+      <c r="F790">
+        <v>19.4002415531858</v>
+      </c>
+      <c r="G790">
+        <v>1.55</v>
+      </c>
+      <c r="H790">
+        <v>5.13310007856199</v>
+      </c>
+    </row>
+    <row r="791" spans="1:8">
+      <c r="A791">
+        <v>5647</v>
+      </c>
+      <c r="B791">
+        <v>269.471743858151</v>
+      </c>
+      <c r="C791">
+        <v>46.4046969604492</v>
+      </c>
+      <c r="D791">
+        <v>39.220043182373</v>
+      </c>
+      <c r="E791">
+        <v>1.18318831890795</v>
+      </c>
+      <c r="F791">
+        <v>20.9558149553987</v>
+      </c>
+      <c r="G791">
+        <v>1.68</v>
+      </c>
+      <c r="H791">
+        <v>1.25164630597713</v>
+      </c>
+    </row>
+    <row r="792" spans="1:8">
+      <c r="A792">
+        <v>6033</v>
+      </c>
+      <c r="B792">
+        <v>284.484860347764</v>
+      </c>
+      <c r="C792">
+        <v>51.9072125244141</v>
+      </c>
+      <c r="D792">
+        <v>38.1183587646484</v>
+      </c>
+      <c r="E792">
+        <v>1.36173786612643</v>
+      </c>
+      <c r="F792">
+        <v>21.2067524177738</v>
+      </c>
+      <c r="G792">
+        <v>2.05</v>
+      </c>
+      <c r="H792">
+        <v>3.03349885668698</v>
+      </c>
+    </row>
+    <row r="793" spans="1:8">
+      <c r="A793">
+        <v>6722</v>
+      </c>
+      <c r="B793">
+        <v>297.41864723895</v>
+      </c>
+      <c r="C793">
+        <v>52.3837564086914</v>
+      </c>
+      <c r="D793">
+        <v>42.0018338012695</v>
+      </c>
+      <c r="E793">
+        <v>1.24717784124721</v>
+      </c>
+      <c r="F793">
+        <v>22.601138369779</v>
+      </c>
+      <c r="G793">
+        <v>2</v>
+      </c>
+      <c r="H793">
+        <v>2.82915213369026</v>
+      </c>
+    </row>
+    <row r="794" spans="1:8">
+      <c r="A794">
+        <v>4197</v>
+      </c>
+      <c r="B794">
+        <v>261.300927019588</v>
+      </c>
+      <c r="C794">
+        <v>53.929391784668</v>
+      </c>
+      <c r="D794">
+        <v>26.9867427062988</v>
+      </c>
+      <c r="E794">
+        <v>1.9983661004068</v>
+      </c>
+      <c r="F794">
+        <v>16.0619407204988</v>
+      </c>
+      <c r="G794">
+        <v>1.44</v>
+      </c>
+      <c r="H794">
+        <v>8.93988043936985</v>
+      </c>
+    </row>
+    <row r="795" spans="1:8">
+      <c r="A795">
+        <v>3758</v>
+      </c>
+      <c r="B795">
+        <v>231.166928162885</v>
+      </c>
+      <c r="C795">
+        <v>42.0105584716797</v>
+      </c>
+      <c r="D795">
+        <v>31.1701554870606</v>
+      </c>
+      <c r="E795">
+        <v>1.34778148569452</v>
+      </c>
+      <c r="F795">
+        <v>16.2566506803777</v>
+      </c>
+      <c r="G795">
+        <v>1.02</v>
+      </c>
+      <c r="H795">
+        <v>9.4688411285853</v>
+      </c>
+    </row>
+    <row r="796" spans="1:8">
+      <c r="A796">
+        <v>5555</v>
+      </c>
+      <c r="B796">
+        <v>280.89538455128</v>
+      </c>
+      <c r="C796">
+        <v>53.8605841064453</v>
+      </c>
+      <c r="D796">
+        <v>34.4857267761231</v>
+      </c>
+      <c r="E796">
+        <v>1.56182250286043</v>
+      </c>
+      <c r="F796">
+        <v>19.7760458359752</v>
+      </c>
+      <c r="G796">
+        <v>1.71</v>
+      </c>
+      <c r="H796">
+        <v>5.0452094614218</v>
+      </c>
+    </row>
+    <row r="797" spans="1:8">
+      <c r="A797">
+        <v>5456</v>
+      </c>
+      <c r="B797">
+        <v>274.179432123392</v>
+      </c>
+      <c r="C797">
+        <v>51.4864138793945</v>
+      </c>
+      <c r="D797">
+        <v>35.0001559448242</v>
+      </c>
+      <c r="E797">
+        <v>1.47103384226516</v>
+      </c>
+      <c r="F797">
+        <v>19.8993774177218</v>
+      </c>
+      <c r="G797">
+        <v>1.42</v>
+      </c>
+      <c r="H797">
+        <v>3.76195216429549</v>
+      </c>
+    </row>
+    <row r="798" spans="1:8">
+      <c r="A798">
+        <v>5516</v>
+      </c>
+      <c r="B798">
+        <v>297.17812808427</v>
+      </c>
+      <c r="C798">
+        <v>61.0270550537109</v>
+      </c>
+      <c r="D798">
+        <v>31.1259951782227</v>
+      </c>
+      <c r="E798">
+        <v>1.96064590720006</v>
+      </c>
+      <c r="F798">
+        <v>18.5612583118359</v>
+      </c>
+      <c r="G798">
+        <v>1.59</v>
+      </c>
+      <c r="H798">
+        <v>8.18605237165321</v>
+      </c>
+    </row>
+    <row r="799" spans="1:8">
+      <c r="A799">
+        <v>5471</v>
+      </c>
+      <c r="B799">
+        <v>277.383288554144</v>
+      </c>
+      <c r="C799">
+        <v>51.9654740905762</v>
+      </c>
+      <c r="D799">
+        <v>35.5576890563965</v>
+      </c>
+      <c r="E799">
+        <v>1.46144126543646</v>
+      </c>
+      <c r="F799">
+        <v>19.7236107067499</v>
+      </c>
+      <c r="G799">
+        <v>1.72</v>
+      </c>
+      <c r="H799">
+        <v>6.10395673249536</v>
+      </c>
+    </row>
+    <row r="800" spans="1:8">
+      <c r="A800">
+        <v>5702</v>
+      </c>
+      <c r="B800">
+        <v>291.040694341192</v>
+      </c>
+      <c r="C800">
+        <v>57.0060664367676</v>
+      </c>
+      <c r="D800">
+        <v>34.2044105529785</v>
+      </c>
+      <c r="E800">
+        <v>1.66662911347272</v>
+      </c>
+      <c r="F800">
+        <v>19.5917619455493</v>
+      </c>
+      <c r="G800">
+        <v>1.95</v>
+      </c>
+      <c r="H800">
+        <v>7.43006659200168</v>
+      </c>
+    </row>
+    <row r="801" spans="1:8">
+      <c r="A801">
+        <v>4528</v>
+      </c>
+      <c r="B801">
+        <v>256.144782746192</v>
+      </c>
+      <c r="C801">
+        <v>46.3369877624512</v>
+      </c>
+      <c r="D801">
+        <v>34.7846186828613</v>
+      </c>
+      <c r="E801">
+        <v>1.3321114192717</v>
+      </c>
+      <c r="F801">
+        <v>17.6775023541537</v>
+      </c>
+      <c r="G801">
+        <v>1.14</v>
+      </c>
+      <c r="H801">
+        <v>11.8300449600301</v>
+      </c>
+    </row>
+    <row r="802" spans="1:8">
+      <c r="A802">
+        <v>5285</v>
+      </c>
+      <c r="B802">
+        <v>275.174902641867</v>
+      </c>
+      <c r="C802">
+        <v>51.8479402160645</v>
+      </c>
+      <c r="D802">
+        <v>34.9147798156738</v>
+      </c>
+      <c r="E802">
+        <v>1.48498545572351</v>
+      </c>
+      <c r="F802">
+        <v>19.2059666388918</v>
+      </c>
+      <c r="G802">
+        <v>1.41</v>
+      </c>
+      <c r="H802">
+        <v>7.60828162902853</v>
+      </c>
+    </row>
+    <row r="803" spans="1:8">
+      <c r="A803">
+        <v>5205</v>
+      </c>
+      <c r="B803">
+        <v>279.203856760188</v>
+      </c>
+      <c r="C803">
+        <v>55.4231985473633</v>
+      </c>
+      <c r="D803">
+        <v>31.8511781311035</v>
+      </c>
+      <c r="E803">
+        <v>1.74006745744959</v>
+      </c>
+      <c r="F803">
+        <v>18.6422926258882</v>
+      </c>
+      <c r="G803">
+        <v>1.42</v>
+      </c>
+      <c r="H803">
+        <v>6.54822659774749</v>
+      </c>
+    </row>
+    <row r="804" spans="1:8">
+      <c r="A804">
+        <v>4447</v>
+      </c>
+      <c r="B804">
+        <v>266.026252802491</v>
+      </c>
+      <c r="C804">
+        <v>55.8562173461914</v>
+      </c>
+      <c r="D804">
+        <v>26.0987337493896</v>
+      </c>
+      <c r="E804">
+        <v>2.14018878779886</v>
+      </c>
+      <c r="F804">
+        <v>16.7163952923911</v>
+      </c>
+      <c r="G804">
+        <v>1.37</v>
+      </c>
+      <c r="H804">
+        <v>2.98493554336151</v>
+      </c>
+    </row>
+    <row r="805" spans="1:8">
+      <c r="A805">
+        <v>6676</v>
+      </c>
+      <c r="B805">
+        <v>315.595577509082</v>
+      </c>
+      <c r="C805">
+        <v>63.6681945800781</v>
+      </c>
+      <c r="D805">
+        <v>34.6331793212891</v>
+      </c>
+      <c r="E805">
+        <v>1.83835835542079</v>
+      </c>
+      <c r="F805">
+        <v>21.1536551072484</v>
+      </c>
+      <c r="G805">
+        <v>2.37</v>
+      </c>
+      <c r="H805">
+        <v>3.76441479909657</v>
+      </c>
+    </row>
+    <row r="806" spans="1:8">
+      <c r="A806">
+        <v>4309</v>
+      </c>
+      <c r="B806">
+        <v>253.267326687828</v>
+      </c>
+      <c r="C806">
+        <v>50.1717190551758</v>
+      </c>
+      <c r="D806">
+        <v>29.0283103179932</v>
+      </c>
+      <c r="E806">
+        <v>1.72837201013649</v>
+      </c>
+      <c r="F806">
+        <v>17.0136434744746</v>
+      </c>
+      <c r="G806">
+        <v>1.18</v>
+      </c>
+      <c r="H806">
+        <v>6.18278633106785</v>
+      </c>
+    </row>
+    <row r="807" spans="1:8">
+      <c r="A807">
+        <v>4598</v>
+      </c>
+      <c r="B807">
+        <v>260.573448448484</v>
+      </c>
+      <c r="C807">
+        <v>50.5759106445313</v>
+      </c>
+      <c r="D807">
+        <v>31.217783203125</v>
+      </c>
+      <c r="E807">
+        <v>1.62009936181082</v>
+      </c>
+      <c r="F807">
+        <v>17.6456965488141</v>
+      </c>
+      <c r="G807">
+        <v>1.72</v>
+      </c>
+      <c r="H807">
+        <v>7.87645769526925</v>
+      </c>
+    </row>
+    <row r="808" spans="1:8">
+      <c r="A808">
+        <v>4809</v>
+      </c>
+      <c r="B808">
+        <v>251.027692574695</v>
+      </c>
+      <c r="C808">
+        <v>44.3832301330566</v>
+      </c>
+      <c r="D808">
+        <v>35.2598745727539</v>
+      </c>
+      <c r="E808">
+        <v>1.25874611497775</v>
+      </c>
+      <c r="F808">
+        <v>19.1572489500099</v>
+      </c>
+      <c r="G808">
+        <v>1.23</v>
+      </c>
+      <c r="H808">
+        <v>2.23386149727449</v>
+      </c>
+    </row>
+    <row r="809" spans="1:8">
+      <c r="A809">
+        <v>5240</v>
+      </c>
+      <c r="B809">
+        <v>279.754884529119</v>
+      </c>
+      <c r="C809">
+        <v>55.6856581115723</v>
+      </c>
+      <c r="D809">
+        <v>31.7111166381836</v>
+      </c>
+      <c r="E809">
+        <v>1.75602955729792</v>
+      </c>
+      <c r="F809">
+        <v>18.7306827861823</v>
+      </c>
+      <c r="G809">
+        <v>1.52</v>
+      </c>
+      <c r="H809">
+        <v>5.87013756911442</v>
+      </c>
+    </row>
+    <row r="810" spans="1:8">
+      <c r="A810">
+        <v>4183</v>
+      </c>
+      <c r="B810">
+        <v>254.741811798917</v>
+      </c>
+      <c r="C810">
+        <v>50.1862484741211</v>
+      </c>
+      <c r="D810">
+        <v>29.5614399719238</v>
+      </c>
+      <c r="E810">
+        <v>1.69769295818424</v>
+      </c>
+      <c r="F810">
+        <v>16.4205474180339</v>
+      </c>
+      <c r="G810">
+        <v>1.28</v>
+      </c>
+      <c r="H810">
+        <v>11.4223530612214</v>
+      </c>
+    </row>
+    <row r="811" spans="1:8">
+      <c r="A811">
+        <v>5562</v>
+      </c>
+      <c r="B811">
+        <v>296.448041165218</v>
+      </c>
+      <c r="C811">
+        <v>59.0993170166016</v>
+      </c>
+      <c r="D811">
+        <v>33.4824528503418</v>
+      </c>
+      <c r="E811">
+        <v>1.76508325960349</v>
+      </c>
+      <c r="F811">
+        <v>18.7621411770441</v>
+      </c>
+      <c r="G811">
+        <v>1.64</v>
+      </c>
+      <c r="H811">
+        <v>11.7682924668418</v>
+      </c>
+    </row>
+    <row r="812" spans="1:8">
+      <c r="A812">
+        <v>3959</v>
+      </c>
+      <c r="B812">
+        <v>244.955221661848</v>
+      </c>
+      <c r="C812">
+        <v>44.9606657409668</v>
+      </c>
+      <c r="D812">
+        <v>32.5099363708496</v>
+      </c>
+      <c r="E812">
+        <v>1.38298227434494</v>
+      </c>
+      <c r="F812">
+        <v>16.1621376067878</v>
+      </c>
+      <c r="G812">
+        <v>1.07</v>
+      </c>
+      <c r="H812">
+        <v>15.9880437541336</v>
+      </c>
+    </row>
+    <row r="813" spans="1:8">
+      <c r="A813">
+        <v>4656</v>
+      </c>
+      <c r="B813">
+        <v>262.630568051945</v>
+      </c>
+      <c r="C813">
+        <v>52.1996188354492</v>
+      </c>
+      <c r="D813">
+        <v>29.8727555847168</v>
+      </c>
+      <c r="E813">
+        <v>1.74739885269088</v>
+      </c>
+      <c r="F813">
+        <v>17.7283247511352</v>
+      </c>
+      <c r="G813">
+        <v>1.42</v>
+      </c>
+      <c r="H813">
+        <v>5.21545033723867</v>
+      </c>
+    </row>
+    <row r="814" spans="1:8">
+      <c r="A814">
+        <v>5165</v>
+      </c>
+      <c r="B814">
+        <v>267.788900715147</v>
+      </c>
+      <c r="C814">
+        <v>49.0113624572754</v>
+      </c>
+      <c r="D814">
+        <v>35.7051942443848</v>
+      </c>
+      <c r="E814">
+        <v>1.37266757665051</v>
+      </c>
+      <c r="F814">
+        <v>19.2875805763665</v>
+      </c>
+      <c r="G814">
+        <v>1.54</v>
+      </c>
+      <c r="H814">
+        <v>6.44070011459248</v>
+      </c>
+    </row>
+    <row r="815" spans="1:8">
+      <c r="A815">
+        <v>3212</v>
+      </c>
+      <c r="B815">
+        <v>233.545732883062</v>
+      </c>
+      <c r="C815">
+        <v>48.1542601013184</v>
+      </c>
+      <c r="D815">
+        <v>24.1866376495361</v>
+      </c>
+      <c r="E815">
+        <v>1.99094478526005</v>
+      </c>
+      <c r="F815">
+        <v>13.7531949753425</v>
+      </c>
+      <c r="G815">
+        <v>0.87</v>
+      </c>
+      <c r="H815">
+        <v>13.9159532329484</v>
+      </c>
+    </row>
+    <row r="816" spans="1:8">
+      <c r="A816">
+        <v>6236</v>
+      </c>
+      <c r="B816">
+        <v>311.829582038907</v>
+      </c>
+      <c r="C816">
+        <v>63.6873355102539</v>
+      </c>
+      <c r="D816">
+        <v>33.1481463623047</v>
+      </c>
+      <c r="E816">
+        <v>1.92129402393003</v>
+      </c>
+      <c r="F816">
+        <v>19.9981026791164</v>
+      </c>
+      <c r="G816">
+        <v>1.76</v>
+      </c>
+      <c r="H816">
+        <v>6.3545547091709</v>
+      </c>
+    </row>
+    <row r="817" spans="1:8">
+      <c r="A817">
+        <v>5120</v>
+      </c>
+      <c r="B817">
+        <v>282.928753079831</v>
+      </c>
+      <c r="C817">
+        <v>56.5938871765137</v>
+      </c>
+      <c r="D817">
+        <v>31.7019813537598</v>
+      </c>
+      <c r="E817">
+        <v>1.78518454556475</v>
+      </c>
+      <c r="F817">
+        <v>18.0964286742371</v>
+      </c>
+      <c r="G817">
+        <v>1.59</v>
+      </c>
+      <c r="H817">
+        <v>10.0869507569154</v>
+      </c>
+    </row>
+    <row r="818" spans="1:8">
+      <c r="A818">
+        <v>3089</v>
+      </c>
+      <c r="B818">
+        <v>235.817275388399</v>
+      </c>
+      <c r="C818">
+        <v>49.670798034668</v>
+      </c>
+      <c r="D818">
+        <v>22.9024756622314</v>
+      </c>
+      <c r="E818">
+        <v>2.16879601870204</v>
+      </c>
+      <c r="F818">
+        <v>13.099125137937</v>
+      </c>
+      <c r="G818">
+        <v>1.21</v>
+      </c>
+      <c r="H818">
+        <v>15.6952509226947</v>
+      </c>
+    </row>
+    <row r="819" spans="1:8">
+      <c r="A819">
+        <v>4721</v>
+      </c>
+      <c r="B819">
+        <v>259.309707237641</v>
+      </c>
+      <c r="C819">
+        <v>48.8587438964844</v>
+      </c>
+      <c r="D819">
+        <v>32.9016551208496</v>
+      </c>
+      <c r="E819">
+        <v>1.48499349704516</v>
+      </c>
+      <c r="F819">
+        <v>18.2060288073732</v>
+      </c>
+      <c r="G819">
+        <v>1.36</v>
+      </c>
+      <c r="H819">
+        <v>6.97342859161698</v>
+      </c>
+    </row>
+    <row r="820" spans="1:8">
+      <c r="A820">
+        <v>5715</v>
+      </c>
+      <c r="B820">
+        <v>275.464842280844</v>
+      </c>
+      <c r="C820">
+        <v>45.8011750793457</v>
+      </c>
+      <c r="D820">
+        <v>41.8371775817871</v>
+      </c>
+      <c r="E820">
+        <v>1.09474820546413</v>
+      </c>
+      <c r="F820">
+        <v>20.7467492137287</v>
+      </c>
+      <c r="G820">
+        <v>1.42</v>
+      </c>
+      <c r="H820">
+        <v>5.33498479410153</v>
+      </c>
+    </row>
+    <row r="821" spans="1:8">
+      <c r="A821">
+        <v>4738</v>
+      </c>
+      <c r="B821">
+        <v>249.139788729366</v>
+      </c>
+      <c r="C821">
+        <v>41.1322059631348</v>
+      </c>
+      <c r="D821">
+        <v>38.1432763671875</v>
+      </c>
+      <c r="E821">
+        <v>1.07836058882762</v>
+      </c>
+      <c r="F821">
+        <v>19.0174360513196</v>
+      </c>
+      <c r="G821">
+        <v>1.3</v>
+      </c>
+      <c r="H821">
+        <v>4.02909316869497</v>
+      </c>
+    </row>
+    <row r="822" spans="1:8">
+      <c r="A822">
+        <v>3717</v>
+      </c>
+      <c r="B822">
+        <v>249.595359378053</v>
+      </c>
+      <c r="C822">
+        <v>50.8380894470215</v>
+      </c>
+      <c r="D822">
+        <v>26.725037689209</v>
+      </c>
+      <c r="E822">
+        <v>1.90226446219565</v>
+      </c>
+      <c r="F822">
+        <v>14.8921038005759</v>
+      </c>
+      <c r="G822">
+        <v>1.19</v>
+      </c>
+      <c r="H822">
+        <v>14.8325103051117</v>
+      </c>
+    </row>
+    <row r="823" spans="1:8">
+      <c r="A823">
+        <v>4923</v>
+      </c>
+      <c r="B823">
+        <v>272.757454805485</v>
+      </c>
+      <c r="C823">
+        <v>54.0914509582519</v>
+      </c>
+      <c r="D823">
+        <v>31.1846392822266</v>
+      </c>
+      <c r="E823">
+        <v>1.73455432556762</v>
+      </c>
+      <c r="F823">
+        <v>18.0490025598413</v>
+      </c>
+      <c r="G823">
+        <v>1.42</v>
+      </c>
+      <c r="H823">
+        <v>7.64389228070228</v>
+      </c>
+    </row>
+    <row r="824" spans="1:8">
+      <c r="A824">
+        <v>4177</v>
+      </c>
+      <c r="B824">
+        <v>255.167805081806</v>
+      </c>
+      <c r="C824">
+        <v>50.1543083190918</v>
+      </c>
+      <c r="D824">
+        <v>29.7618933105469</v>
+      </c>
+      <c r="E824">
+        <v>1.6851854079229</v>
+      </c>
+      <c r="F824">
+        <v>16.3696199787464</v>
+      </c>
+      <c r="G824">
+        <v>1.09</v>
+      </c>
+      <c r="H824">
+        <v>12.267537888728</v>
+      </c>
+    </row>
+    <row r="825" spans="1:8">
+      <c r="A825">
+        <v>5080</v>
+      </c>
+      <c r="B825">
+        <v>272.301994845754</v>
+      </c>
+      <c r="C825">
+        <v>50.3565129089355</v>
+      </c>
+      <c r="D825">
+        <v>35.6941813659668</v>
+      </c>
+      <c r="E825">
+        <v>1.41077651824083</v>
+      </c>
+      <c r="F825">
+        <v>18.6557575638679</v>
+      </c>
+      <c r="G825">
+        <v>1.28</v>
+      </c>
+      <c r="H825">
+        <v>11.1576188064182</v>
+      </c>
+    </row>
+    <row r="826" spans="1:8">
+      <c r="A826">
+        <v>4943</v>
+      </c>
+      <c r="B826">
+        <v>275.382688205019</v>
+      </c>
+      <c r="C826">
+        <v>54.5244767761231</v>
+      </c>
+      <c r="D826">
+        <v>31.6002824401855</v>
+      </c>
+      <c r="E826">
+        <v>1.72544270385334</v>
+      </c>
+      <c r="F826">
+        <v>17.9495669543323</v>
+      </c>
+      <c r="G826">
+        <v>1.5</v>
+      </c>
+      <c r="H826">
+        <v>9.50696264886037</v>
+      </c>
+    </row>
+    <row r="827" spans="1:8">
+      <c r="A827">
+        <v>4905</v>
+      </c>
+      <c r="B827">
+        <v>262.566778342711</v>
+      </c>
+      <c r="C827">
+        <v>48.1643078613281</v>
+      </c>
+      <c r="D827">
+        <v>34.8812919616699</v>
+      </c>
+      <c r="E827">
+        <v>1.3808063048311</v>
+      </c>
+      <c r="F827">
+        <v>18.6809619669318</v>
+      </c>
+      <c r="G827">
+        <v>1.52</v>
+      </c>
+      <c r="H827">
+        <v>7.60408205545287</v>
+      </c>
+    </row>
+    <row r="828" spans="1:8">
+      <c r="A828">
+        <v>4675</v>
+      </c>
+      <c r="B828">
+        <v>267.853449889142</v>
+      </c>
+      <c r="C828">
+        <v>53.6307911682129</v>
+      </c>
+      <c r="D828">
+        <v>29.9425283813477</v>
+      </c>
+      <c r="E828">
+        <v>1.79112433276081</v>
+      </c>
+      <c r="F828">
+        <v>17.4535739671633</v>
+      </c>
+      <c r="G828">
+        <v>1.24</v>
+      </c>
+      <c r="H828">
+        <v>7.91229555822419</v>
+      </c>
+    </row>
+    <row r="829" spans="1:8">
+      <c r="A829">
+        <v>5051</v>
+      </c>
+      <c r="B829">
+        <v>262.388702081301</v>
+      </c>
+      <c r="C829">
+        <v>47.7478189086914</v>
+      </c>
+      <c r="D829">
+        <v>35.3065266418457</v>
+      </c>
+      <c r="E829">
+        <v>1.35237938846412</v>
+      </c>
+      <c r="F829">
+        <v>19.2500666375298</v>
+      </c>
+      <c r="G829">
+        <v>1.52</v>
+      </c>
+      <c r="H829">
+        <v>4.85304259749059</v>
+      </c>
+    </row>
+    <row r="830" spans="1:8">
+      <c r="A830">
+        <v>4518</v>
+      </c>
+      <c r="B830">
+        <v>252.734029851361</v>
+      </c>
+      <c r="C830">
+        <v>45.4820542907715</v>
+      </c>
+      <c r="D830">
+        <v>34.5952308654785</v>
+      </c>
+      <c r="E830">
+        <v>1.31469145176761</v>
+      </c>
+      <c r="F830">
+        <v>17.8765004564567</v>
+      </c>
+      <c r="G830">
+        <v>1.27</v>
+      </c>
+      <c r="H830">
+        <v>9.41073902228671</v>
+      </c>
+    </row>
+    <row r="831" spans="1:8">
+      <c r="A831">
+        <v>3452</v>
+      </c>
+      <c r="B831">
+        <v>225.630333182671</v>
+      </c>
+      <c r="C831">
+        <v>42.8331446838379</v>
+      </c>
+      <c r="D831">
+        <v>28.2356550598145</v>
+      </c>
+      <c r="E831">
+        <v>1.51698781533845</v>
+      </c>
+      <c r="F831">
+        <v>15.2993613549525</v>
+      </c>
+      <c r="G831">
+        <v>0.96</v>
+      </c>
+      <c r="H831">
+        <v>10.0669452829318</v>
+      </c>
+    </row>
+    <row r="832" spans="1:8">
+      <c r="A832">
+        <v>4922</v>
+      </c>
+      <c r="B832">
+        <v>264.094038568589</v>
+      </c>
+      <c r="C832">
+        <v>48.0230671691895</v>
+      </c>
+      <c r="D832">
+        <v>35.576784362793</v>
+      </c>
+      <c r="E832">
+        <v>1.34984282670058</v>
+      </c>
+      <c r="F832">
+        <v>18.6373006625883</v>
+      </c>
+      <c r="G832">
+        <v>1.29</v>
+      </c>
+      <c r="H832">
+        <v>9.04979392058314</v>
+      </c>
+    </row>
+    <row r="833" spans="1:8">
+      <c r="A833">
+        <v>4595</v>
+      </c>
+      <c r="B833">
+        <v>275.851691705224</v>
+      </c>
+      <c r="C833">
+        <v>57.1946119689942</v>
+      </c>
+      <c r="D833">
+        <v>28.115431137085</v>
+      </c>
+      <c r="E833">
+        <v>2.03427831819918</v>
+      </c>
+      <c r="F833">
+        <v>16.6575016147091</v>
+      </c>
+      <c r="G833">
+        <v>1.31</v>
+      </c>
+      <c r="H833">
+        <v>9.94214919579043</v>
+      </c>
+    </row>
+    <row r="834" spans="1:8">
+      <c r="A834">
+        <v>4163</v>
+      </c>
+      <c r="B834">
+        <v>261.238743252822</v>
+      </c>
+      <c r="C834">
+        <v>53.8903869628906</v>
+      </c>
+      <c r="D834">
+        <v>27.0174808502197</v>
+      </c>
+      <c r="E834">
+        <v>1.99464884463691</v>
+      </c>
+      <c r="F834">
+        <v>15.9356148638762</v>
+      </c>
+      <c r="G834">
+        <v>1.23</v>
+      </c>
+      <c r="H834">
+        <v>9.87518421291299</v>
+      </c>
+    </row>
+    <row r="835" spans="1:8">
+      <c r="A835">
+        <v>5213</v>
+      </c>
+      <c r="B835">
+        <v>289.332224861015</v>
+      </c>
+      <c r="C835">
+        <v>60.5085583496094</v>
+      </c>
+      <c r="D835">
+        <v>28.7386624908447</v>
+      </c>
+      <c r="E835">
+        <v>2.10547579828691</v>
+      </c>
+      <c r="F835">
+        <v>18.0173501327208</v>
+      </c>
+      <c r="G835">
+        <v>1.59</v>
+      </c>
+      <c r="H835">
+        <v>4.79619288028495</v>
+      </c>
+    </row>
+    <row r="836" spans="1:8">
+      <c r="A836">
+        <v>4621</v>
+      </c>
+      <c r="B836">
+        <v>274.904580239109</v>
+      </c>
+      <c r="C836">
+        <v>57.5355514526367</v>
+      </c>
+      <c r="D836">
+        <v>27.2409162902832</v>
+      </c>
+      <c r="E836">
+        <v>2.11210044623791</v>
+      </c>
+      <c r="F836">
+        <v>16.8094689291124</v>
+      </c>
+      <c r="G836">
+        <v>1.35</v>
+      </c>
+      <c r="H836">
+        <v>6.55452460220966</v>
+      </c>
+    </row>
+    <row r="837" spans="1:8">
+      <c r="A837">
+        <v>6080</v>
+      </c>
+      <c r="B837">
+        <v>302.202261382797</v>
+      </c>
+      <c r="C837">
+        <v>59.7486697387695</v>
+      </c>
+      <c r="D837">
+        <v>34.7908901977539</v>
+      </c>
+      <c r="E837">
+        <v>1.71736536200005</v>
+      </c>
+      <c r="F837">
+        <v>20.1189758547125</v>
+      </c>
+      <c r="G837">
+        <v>1.74</v>
+      </c>
+      <c r="H837">
+        <v>7.40885207565112</v>
+      </c>
+    </row>
+    <row r="838" spans="1:8">
+      <c r="A838">
+        <v>4168</v>
+      </c>
+      <c r="B838">
+        <v>262.893965820991</v>
+      </c>
+      <c r="C838">
+        <v>54.2743180847168</v>
+      </c>
+      <c r="D838">
+        <v>27.1283308410645</v>
+      </c>
+      <c r="E838">
+        <v>2.0006508473629</v>
+      </c>
+      <c r="F838">
+        <v>15.8543007519544</v>
+      </c>
+      <c r="G838">
+        <v>0.92</v>
+      </c>
+      <c r="H838">
+        <v>10.978694374663</v>
+      </c>
+    </row>
+    <row r="839" spans="1:8">
+      <c r="A839">
+        <v>4057</v>
+      </c>
+      <c r="B839">
+        <v>257.314478315182</v>
+      </c>
+      <c r="C839">
+        <v>52.3861885070801</v>
+      </c>
+      <c r="D839">
+        <v>27.5849722290039</v>
+      </c>
+      <c r="E839">
+        <v>1.89908433012665</v>
+      </c>
+      <c r="F839">
+        <v>15.7666992800561</v>
+      </c>
+      <c r="G839">
+        <v>0.85</v>
+      </c>
+      <c r="H839">
+        <v>11.9010643720603</v>
+      </c>
+    </row>
+    <row r="840" spans="1:8">
+      <c r="A840">
+        <v>4658</v>
+      </c>
+      <c r="B840">
+        <v>274.689900395001</v>
+      </c>
+      <c r="C840">
+        <v>54.8234880065918</v>
+      </c>
+      <c r="D840">
+        <v>30.9425138854981</v>
+      </c>
+      <c r="E840">
+        <v>1.7717851952645</v>
+      </c>
+      <c r="F840">
+        <v>16.9573034658422</v>
+      </c>
+      <c r="G840">
+        <v>1.38</v>
+      </c>
+      <c r="H840">
+        <v>14.4122815009849</v>
+      </c>
+    </row>
+    <row r="841" spans="1:8">
+      <c r="A841">
+        <v>4734</v>
+      </c>
+      <c r="B841">
+        <v>262.17593192521</v>
+      </c>
+      <c r="C841">
+        <v>50.0775761413574</v>
+      </c>
+      <c r="D841">
+        <v>32.4291366577148</v>
+      </c>
+      <c r="E841">
+        <v>1.54421552044137</v>
+      </c>
+      <c r="F841">
+        <v>18.0565773724434</v>
+      </c>
+      <c r="G841">
+        <v>1.58</v>
+      </c>
+      <c r="H841">
+        <v>7.77060128174519</v>
+      </c>
+    </row>
+    <row r="842" spans="1:8">
+      <c r="A842">
+        <v>4950</v>
+      </c>
+      <c r="B842">
+        <v>278.287650439678</v>
+      </c>
+      <c r="C842">
+        <v>56.0812092590332</v>
+      </c>
+      <c r="D842">
+        <v>30.6212557983398</v>
+      </c>
+      <c r="E842">
+        <v>1.83144707154935</v>
+      </c>
+      <c r="F842">
+        <v>17.7873505783649</v>
+      </c>
+      <c r="G842">
+        <v>1.42</v>
+      </c>
+      <c r="H842">
+        <v>8.98959550821085</v>
+      </c>
+    </row>
+    <row r="843" spans="1:8">
+      <c r="A843">
+        <v>5269</v>
+      </c>
+      <c r="B843">
+        <v>281.96460170331</v>
+      </c>
+      <c r="C843">
+        <v>53.935217590332</v>
+      </c>
+      <c r="D843">
+        <v>34.7798667907715</v>
+      </c>
+      <c r="E843">
+        <v>1.55075975174934</v>
+      </c>
+      <c r="F843">
+        <v>18.6867428328616</v>
+      </c>
+      <c r="G843">
+        <v>1.28</v>
+      </c>
+      <c r="H843">
+        <v>11.8464034857576</v>
+      </c>
+    </row>
+    <row r="844" spans="1:8">
+      <c r="A844">
+        <v>3855</v>
+      </c>
+      <c r="B844">
+        <v>244.775796638497</v>
+      </c>
+      <c r="C844">
+        <v>49.3684913635254</v>
+      </c>
+      <c r="D844">
+        <v>26.8785266113281</v>
+      </c>
+      <c r="E844">
+        <v>1.83672610025874</v>
+      </c>
+      <c r="F844">
+        <v>15.7491061327985</v>
+      </c>
+      <c r="G844">
+        <v>1.11</v>
+      </c>
+      <c r="H844">
+        <v>8.13861544040791</v>
+      </c>
+    </row>
+    <row r="845" spans="1:8">
+      <c r="A845">
+        <v>4843</v>
+      </c>
+      <c r="B845">
+        <v>265.978757743015</v>
+      </c>
+      <c r="C845">
+        <v>50.1703889465332</v>
+      </c>
+      <c r="D845">
+        <v>33.6806074523926</v>
+      </c>
+      <c r="E845">
+        <v>1.48959275801213</v>
+      </c>
+      <c r="F845">
+        <v>18.2082209913892</v>
+      </c>
+      <c r="G845">
+        <v>1.56</v>
+      </c>
+      <c r="H845">
+        <v>9.61318251265402</v>
+      </c>
+    </row>
+    <row r="846" spans="1:8">
+      <c r="A846">
+        <v>5077</v>
+      </c>
+      <c r="B846">
+        <v>273.431297303795</v>
+      </c>
+      <c r="C846">
+        <v>53.059690246582</v>
+      </c>
+      <c r="D846">
+        <v>32.773325958252</v>
+      </c>
+      <c r="E846">
+        <v>1.61899009927072</v>
+      </c>
+      <c r="F846">
+        <v>18.5677354789391</v>
+      </c>
+      <c r="G846">
+        <v>1.69</v>
+      </c>
+      <c r="H846">
+        <v>7.60388137592019</v>
+      </c>
+    </row>
+    <row r="847" spans="1:8">
+      <c r="A847">
+        <v>7838</v>
+      </c>
+      <c r="B847">
+        <v>328.588140710048</v>
+      </c>
+      <c r="C847">
+        <v>58.9973092651367</v>
+      </c>
+      <c r="D847">
+        <v>45.1335868835449</v>
+      </c>
+      <c r="E847">
+        <v>1.30717085299166</v>
+      </c>
+      <c r="F847">
+        <v>23.8535693438687</v>
+      </c>
+      <c r="G847">
+        <v>2.52</v>
+      </c>
+      <c r="H847">
+        <v>6.72758141249454</v>
+      </c>
+    </row>
+    <row r="848" spans="1:8">
+      <c r="A848">
+        <v>4198</v>
+      </c>
+      <c r="B848">
+        <v>252.97135458016</v>
+      </c>
+      <c r="C848">
+        <v>46.6767445373535</v>
+      </c>
+      <c r="D848">
+        <v>33.2848352050781</v>
+      </c>
+      <c r="E848">
+        <v>1.40234266595474</v>
+      </c>
+      <c r="F848">
+        <v>16.5947642845458</v>
+      </c>
+      <c r="G848">
+        <v>1.45</v>
+      </c>
+      <c r="H848">
+        <v>16.26644891129</v>
+      </c>
+    </row>
+    <row r="849" spans="1:8">
+      <c r="A849">
+        <v>4927</v>
+      </c>
+      <c r="B849">
+        <v>275.203967704794</v>
+      </c>
+      <c r="C849">
+        <v>55.8927760314941</v>
+      </c>
+      <c r="D849">
+        <v>29.6898287963867</v>
+      </c>
+      <c r="E849">
+        <v>1.88255636011941</v>
+      </c>
+      <c r="F849">
+        <v>17.9030849049571</v>
+      </c>
+      <c r="G849">
+        <v>1.65</v>
+      </c>
+      <c r="H849">
+        <v>5.810967146739</v>
+      </c>
+    </row>
+    <row r="850" spans="1:8">
+      <c r="A850">
+        <v>4297</v>
+      </c>
+      <c r="B850">
+        <v>246.860440712509</v>
+      </c>
+      <c r="C850">
+        <v>44.8446234130859</v>
+      </c>
+      <c r="D850">
+        <v>33.307092590332</v>
+      </c>
+      <c r="E850">
+        <v>1.34639861739547</v>
+      </c>
+      <c r="F850">
+        <v>17.4065961625834</v>
+      </c>
+      <c r="G850">
+        <v>1.38</v>
+      </c>
+      <c r="H850">
+        <v>9.2022595647996</v>
+      </c>
+    </row>
+    <row r="851" spans="1:8">
+      <c r="A851">
+        <v>4871</v>
+      </c>
+      <c r="B851">
+        <v>257.059074802579</v>
+      </c>
+      <c r="C851">
+        <v>46.6578422546387</v>
+      </c>
+      <c r="D851">
+        <v>34.7289050292969</v>
+      </c>
+      <c r="E851">
+        <v>1.34348728286362</v>
+      </c>
+      <c r="F851">
+        <v>18.948951729251</v>
+      </c>
+      <c r="G851">
+        <v>1.39</v>
+      </c>
+      <c r="H851">
+        <v>4.50750611877191</v>
+      </c>
+    </row>
+    <row r="852" spans="1:8">
+      <c r="A852">
+        <v>4362</v>
+      </c>
+      <c r="B852">
+        <v>251.123273769977</v>
+      </c>
+      <c r="C852">
+        <v>48.2859233093262</v>
+      </c>
+      <c r="D852">
+        <v>30.6625102233887</v>
+      </c>
+      <c r="E852">
+        <v>1.5747544136975</v>
+      </c>
+      <c r="F852">
+        <v>17.3699551400221</v>
+      </c>
+      <c r="G852">
+        <v>1.21</v>
+      </c>
+      <c r="H852">
+        <v>6.63320378452031</v>
+      </c>
+    </row>
+    <row r="853" spans="1:8">
+      <c r="A853">
+        <v>5813</v>
+      </c>
+      <c r="B853">
+        <v>300.241805271162</v>
+      </c>
+      <c r="C853">
+        <v>61.275915222168</v>
+      </c>
+      <c r="D853">
+        <v>31.9785983276367</v>
+      </c>
+      <c r="E853">
+        <v>1.91615387873995</v>
+      </c>
+      <c r="F853">
+        <v>19.3610613110656</v>
+      </c>
+      <c r="G853">
+        <v>1.76</v>
+      </c>
+      <c r="H853">
+        <v>5.90068770921619</v>
+      </c>
+    </row>
+    <row r="854" spans="1:8">
+      <c r="A854">
+        <v>5298</v>
+      </c>
+      <c r="B854">
+        <v>274.181727690722</v>
+      </c>
+      <c r="C854">
+        <v>46.5560696411133</v>
+      </c>
+      <c r="D854">
+        <v>40.6175170898438</v>
+      </c>
+      <c r="E854">
+        <v>1.14620668560645</v>
+      </c>
+      <c r="F854">
+        <v>19.3229506744379</v>
+      </c>
+      <c r="G854">
+        <v>1.5</v>
+      </c>
+      <c r="H854">
+        <v>12.1314917247193</v>
+      </c>
+    </row>
+    <row r="855" spans="1:8">
+      <c r="A855">
+        <v>5678</v>
+      </c>
+      <c r="B855">
+        <v>283.039891327374</v>
+      </c>
+      <c r="C855">
+        <v>51.6961112976074</v>
+      </c>
+      <c r="D855">
+        <v>37.8633569335937</v>
+      </c>
+      <c r="E855">
+        <v>1.36533354367586</v>
+      </c>
+      <c r="F855">
+        <v>20.0607764982238</v>
+      </c>
+      <c r="G855">
+        <v>1.46</v>
+      </c>
+      <c r="H855">
+        <v>8.300752869409</v>
+      </c>
+    </row>
+    <row r="856" spans="1:8">
+      <c r="A856">
+        <v>3992</v>
+      </c>
+      <c r="B856">
+        <v>264.708542730963</v>
+      </c>
+      <c r="C856">
+        <v>56.1491430664063</v>
+      </c>
+      <c r="D856">
+        <v>25.1212074279785</v>
+      </c>
+      <c r="E856">
+        <v>2.23512915242564</v>
+      </c>
+      <c r="F856">
+        <v>15.0807373226986</v>
+      </c>
+      <c r="G856">
+        <v>1.71</v>
+      </c>
+      <c r="H856">
+        <v>11.0051127222986</v>
+      </c>
+    </row>
+    <row r="857" spans="1:8">
+      <c r="A857">
+        <v>5180</v>
+      </c>
+      <c r="B857">
+        <v>265.11417255302</v>
+      </c>
+      <c r="C857">
+        <v>47.4426379394531</v>
+      </c>
+      <c r="D857">
+        <v>36.5954335021973</v>
+      </c>
+      <c r="E857">
+        <v>1.2964086881661</v>
+      </c>
+      <c r="F857">
+        <v>19.5387517389854</v>
+      </c>
+      <c r="G857">
+        <v>1.35</v>
+      </c>
+      <c r="H857">
+        <v>5.29696122458684</v>
+      </c>
+    </row>
+    <row r="858" spans="1:8">
+      <c r="A858">
+        <v>4485</v>
+      </c>
+      <c r="B858">
+        <v>288.733060325991</v>
+      </c>
+      <c r="C858">
+        <v>62.8232772827148</v>
+      </c>
+      <c r="D858">
+        <v>24.9488320159912</v>
+      </c>
+      <c r="E858">
+        <v>2.51808490443351</v>
+      </c>
+      <c r="F858">
+        <v>15.5333788064874</v>
+      </c>
+      <c r="G858">
+        <v>1.31</v>
+      </c>
+      <c r="H858">
+        <v>9.78884911908866</v>
+      </c>
+    </row>
+    <row r="859" spans="1:8">
+      <c r="A859">
+        <v>5140</v>
+      </c>
+      <c r="B859">
+        <v>287.887890532214</v>
+      </c>
+      <c r="C859">
+        <v>59.3500442504883</v>
+      </c>
+      <c r="D859">
+        <v>29.8270791625977</v>
+      </c>
+      <c r="E859">
+        <v>1.98980409469364</v>
+      </c>
+      <c r="F859">
+        <v>17.8541722977571</v>
+      </c>
+      <c r="G859">
+        <v>1.5</v>
+      </c>
+      <c r="H859">
+        <v>8.19782425453098</v>
+      </c>
+    </row>
+    <row r="860" spans="1:8">
+      <c r="A860">
+        <v>4715</v>
+      </c>
+      <c r="B860">
+        <v>286.646639257289</v>
+      </c>
+      <c r="C860">
+        <v>60.6108047485352</v>
+      </c>
+      <c r="D860">
+        <v>27.4910153198242</v>
+      </c>
+      <c r="E860">
+        <v>2.20474958976243</v>
+      </c>
+      <c r="F860">
+        <v>16.4488235836873</v>
+      </c>
+      <c r="G860">
+        <v>1.72</v>
+      </c>
+      <c r="H860">
+        <v>11.0219895536628</v>
+      </c>
+    </row>
+    <row r="861" spans="1:8">
+      <c r="A861">
+        <v>5034</v>
+      </c>
+      <c r="B861">
+        <v>274.580485399911</v>
+      </c>
+      <c r="C861">
+        <v>53.2069076538086</v>
+      </c>
+      <c r="D861">
+        <v>33.0075514221191</v>
+      </c>
+      <c r="E861">
+        <v>1.61196166820643</v>
+      </c>
+      <c r="F861">
+        <v>18.3334223212122</v>
+      </c>
+      <c r="G861">
+        <v>1.7</v>
+      </c>
+      <c r="H861">
+        <v>9.60187625031668</v>
+      </c>
+    </row>
+    <row r="862" spans="1:8">
+      <c r="A862">
+        <v>5275</v>
+      </c>
+      <c r="B862">
+        <v>280.79055101426</v>
+      </c>
+      <c r="C862">
+        <v>55.9887649536133</v>
+      </c>
+      <c r="D862">
+        <v>31.6994931030273</v>
+      </c>
+      <c r="E862">
+        <v>1.76623533921009</v>
+      </c>
+      <c r="F862">
+        <v>18.7862446971448</v>
+      </c>
+      <c r="G862">
+        <v>1.41</v>
+      </c>
+      <c r="H862">
+        <v>5.70136942746045</v>
+      </c>
+    </row>
+    <row r="863" spans="1:8">
+      <c r="A863">
+        <v>4416</v>
+      </c>
+      <c r="B863">
+        <v>260.286786641966</v>
+      </c>
+      <c r="C863">
+        <v>52.731665802002</v>
+      </c>
+      <c r="D863">
+        <v>28.26120262146</v>
+      </c>
+      <c r="E863">
+        <v>1.8658677236177</v>
+      </c>
+      <c r="F863">
+        <v>16.9659015617815</v>
+      </c>
+      <c r="G863">
+        <v>1.33</v>
+      </c>
+      <c r="H863">
+        <v>6.01881305814246</v>
+      </c>
+    </row>
+    <row r="864" spans="1:8">
+      <c r="A864">
+        <v>5168</v>
+      </c>
+      <c r="B864">
+        <v>291.068826161338</v>
+      </c>
+      <c r="C864">
+        <v>59.8084368896484</v>
+      </c>
+      <c r="D864">
+        <v>30.4355073547363</v>
+      </c>
+      <c r="E864">
+        <v>1.96508756015007</v>
+      </c>
+      <c r="F864">
+        <v>17.7552507706044</v>
+      </c>
+      <c r="G864">
+        <v>1.62</v>
+      </c>
+      <c r="H864">
+        <v>10.6548275334501</v>
+      </c>
+    </row>
+    <row r="865" spans="1:8">
+      <c r="A865">
+        <v>3931</v>
+      </c>
+      <c r="B865">
+        <v>263.751069782382</v>
+      </c>
+      <c r="C865">
+        <v>55.2709344482422</v>
+      </c>
+      <c r="D865">
+        <v>26.0335847473144</v>
+      </c>
+      <c r="E865">
+        <v>2.12306276621946</v>
+      </c>
+      <c r="F865">
+        <v>14.9042049506886</v>
+      </c>
+      <c r="G865">
+        <v>1.18</v>
+      </c>
+      <c r="H865">
+        <v>14.9946429927155</v>
+      </c>
+    </row>
+    <row r="866" spans="1:8">
+      <c r="A866">
+        <v>5506</v>
+      </c>
+      <c r="B866">
+        <v>296.401564183391</v>
+      </c>
+      <c r="C866">
+        <v>59.8657684326172</v>
+      </c>
+      <c r="D866">
+        <v>32.4318249511719</v>
+      </c>
+      <c r="E866">
+        <v>1.84589576820758</v>
+      </c>
+      <c r="F866">
+        <v>18.5761502816945</v>
+      </c>
+      <c r="G866">
+        <v>1.75</v>
+      </c>
+      <c r="H866">
+        <v>10.7805748380411</v>
+      </c>
+    </row>
+    <row r="867" spans="1:8">
+      <c r="A867">
+        <v>4410</v>
+      </c>
+      <c r="B867">
+        <v>244.941149032942</v>
+      </c>
+      <c r="C867">
+        <v>39.2137190246582</v>
+      </c>
+      <c r="D867">
+        <v>38.7527890014648</v>
+      </c>
+      <c r="E867">
+        <v>1.01189411227089</v>
+      </c>
+      <c r="F867">
+        <v>18.0043247833662</v>
+      </c>
+      <c r="G867">
+        <v>1.22</v>
+      </c>
+      <c r="H867">
+        <v>8.25607566309261</v>
+      </c>
+    </row>
+    <row r="868" spans="1:8">
+      <c r="A868">
+        <v>4568</v>
+      </c>
+      <c r="B868">
+        <v>248.639108267334</v>
+      </c>
+      <c r="C868">
+        <v>44.4494583129883</v>
+      </c>
+      <c r="D868">
+        <v>34.372421875</v>
+      </c>
+      <c r="E868">
+        <v>1.29317213883371</v>
+      </c>
+      <c r="F868">
+        <v>18.3720092620688</v>
+      </c>
+      <c r="G868">
+        <v>1.34</v>
+      </c>
+      <c r="H868">
+        <v>5.07523833514266</v>
+      </c>
+    </row>
+    <row r="869" spans="1:8">
+      <c r="A869">
+        <v>4686</v>
+      </c>
+      <c r="B869">
+        <v>265.61364824508</v>
+      </c>
+      <c r="C869">
+        <v>52.5673710632324</v>
+      </c>
+      <c r="D869">
+        <v>30.5094003295898</v>
+      </c>
+      <c r="E869">
+        <v>1.72298932444927</v>
+      </c>
+      <c r="F869">
+        <v>17.6421657206269</v>
+      </c>
+      <c r="G869">
+        <v>1.39</v>
+      </c>
+      <c r="H869">
+        <v>7.52204557909602</v>
+      </c>
+    </row>
+    <row r="870" spans="1:8">
+      <c r="A870">
+        <v>3563</v>
+      </c>
+      <c r="B870">
+        <v>222.586639125927</v>
+      </c>
+      <c r="C870">
+        <v>39.4334782409668</v>
+      </c>
+      <c r="D870">
+        <v>31.1764515686035</v>
+      </c>
+      <c r="E870">
+        <v>1.26484818691421</v>
+      </c>
+      <c r="F870">
+        <v>16.0072500936782</v>
+      </c>
+      <c r="G870">
+        <v>0.97</v>
+      </c>
+      <c r="H870">
+        <v>8.39913569897072</v>
+      </c>
+    </row>
+    <row r="871" spans="1:8">
+      <c r="A871">
+        <v>4138</v>
+      </c>
+      <c r="B871">
+        <v>261.188954710899</v>
+      </c>
+      <c r="C871">
+        <v>54.3094413757324</v>
+      </c>
+      <c r="D871">
+        <v>26.3981064605713</v>
+      </c>
+      <c r="E871">
+        <v>2.05732337116111</v>
+      </c>
+      <c r="F871">
+        <v>15.8429364081655</v>
+      </c>
+      <c r="G871">
+        <v>1.19</v>
+      </c>
+      <c r="H871">
+        <v>8.84475296882887</v>
+      </c>
+    </row>
+    <row r="872" spans="1:8">
+      <c r="A872">
+        <v>5133</v>
+      </c>
+      <c r="B872">
+        <v>259.753957150898</v>
+      </c>
+      <c r="C872">
+        <v>44.0913572692871</v>
+      </c>
+      <c r="D872">
+        <v>38.4960990905762</v>
+      </c>
+      <c r="E872">
+        <v>1.14534610807048</v>
+      </c>
+      <c r="F872">
+        <v>19.7610079026365</v>
+      </c>
+      <c r="G872">
+        <v>1.59</v>
+      </c>
+      <c r="H872">
+        <v>3.88403262488127</v>
+      </c>
+    </row>
+    <row r="873" spans="1:8">
+      <c r="A873">
+        <v>5262</v>
+      </c>
+      <c r="B873">
+        <v>276.287442367812</v>
+      </c>
+      <c r="C873">
+        <v>51.8029411315918</v>
+      </c>
+      <c r="D873">
+        <v>35.3654409790039</v>
+      </c>
+      <c r="E873">
+        <v>1.46478991064601</v>
+      </c>
+      <c r="F873">
+        <v>19.0453824281846</v>
+      </c>
+      <c r="G873">
+        <v>1.51</v>
+      </c>
+      <c r="H873">
+        <v>9.37864132804039</v>
+      </c>
+    </row>
+    <row r="874" spans="1:8">
+      <c r="A874">
+        <v>4019</v>
+      </c>
+      <c r="B874">
+        <v>247.233298876246</v>
+      </c>
+      <c r="C874">
+        <v>47.1990420532227</v>
+      </c>
+      <c r="D874">
+        <v>30.6111694335938</v>
+      </c>
+      <c r="E874">
+        <v>1.54188954314907</v>
+      </c>
+      <c r="F874">
+        <v>16.2559008768949</v>
+      </c>
+      <c r="G874">
+        <v>1.29</v>
+      </c>
+      <c r="H874">
+        <v>12.9392688935416</v>
+      </c>
+    </row>
+    <row r="875" spans="1:8">
+      <c r="A875">
+        <v>5638</v>
+      </c>
+      <c r="B875">
+        <v>287.811848297511</v>
+      </c>
+      <c r="C875">
+        <v>56.8841842651367</v>
+      </c>
+      <c r="D875">
+        <v>33.1596049499512</v>
+      </c>
+      <c r="E875">
+        <v>1.71546628347937</v>
+      </c>
+      <c r="F875">
+        <v>19.5891865930828</v>
+      </c>
+      <c r="G875">
+        <v>1.71</v>
+      </c>
+      <c r="H875">
+        <v>5.10555834412468</v>
+      </c>
+    </row>
+    <row r="876" spans="1:8">
+      <c r="A876">
+        <v>4668</v>
+      </c>
+      <c r="B876">
+        <v>272.479314549572</v>
+      </c>
+      <c r="C876">
+        <v>55.8080456542969</v>
+      </c>
+      <c r="D876">
+        <v>28.7452937316895</v>
+      </c>
+      <c r="E876">
+        <v>1.94146722504258</v>
+      </c>
+      <c r="F876">
+        <v>17.1315756857233</v>
+      </c>
+      <c r="G876">
+        <v>1.53</v>
+      </c>
+      <c r="H876">
+        <v>7.96490086713375</v>
+      </c>
+    </row>
+    <row r="877" spans="1:8">
+      <c r="A877">
+        <v>3526</v>
+      </c>
+      <c r="B877">
+        <v>242.321388956343</v>
+      </c>
+      <c r="C877">
+        <v>49.3293005371094</v>
+      </c>
+      <c r="D877">
+        <v>25.9838495635986</v>
+      </c>
+      <c r="E877">
+        <v>1.89846005752034</v>
+      </c>
+      <c r="F877">
+        <v>14.5509235284024</v>
+      </c>
+      <c r="G877">
+        <v>1.1</v>
+      </c>
+      <c r="H877">
+        <v>14.2026062938315</v>
+      </c>
+    </row>
+    <row r="878" spans="1:8">
+      <c r="A878">
+        <v>4923</v>
+      </c>
+      <c r="B878">
+        <v>263.750261685479</v>
+      </c>
+      <c r="C878">
+        <v>48.8263931274414</v>
+      </c>
+      <c r="D878">
+        <v>34.51212890625</v>
+      </c>
+      <c r="E878">
+        <v>1.41476039510849</v>
+      </c>
+      <c r="F878">
+        <v>18.6653843243222</v>
+      </c>
+      <c r="G878">
+        <v>1.48</v>
+      </c>
+      <c r="H878">
+        <v>7.53415588494638</v>
+      </c>
+    </row>
+    <row r="879" spans="1:8">
+      <c r="A879">
+        <v>3649</v>
+      </c>
+      <c r="B879">
+        <v>232.732641535154</v>
+      </c>
+      <c r="C879">
+        <v>44.4099060058594</v>
+      </c>
+      <c r="D879">
+        <v>28.8416616821289</v>
+      </c>
+      <c r="E879">
+        <v>1.53978319610402</v>
+      </c>
+      <c r="F879">
+        <v>15.6789351761335</v>
+      </c>
+      <c r="G879">
+        <v>1.07</v>
+      </c>
+      <c r="H879">
+        <v>10.2747651401328</v>
+      </c>
+    </row>
+    <row r="880" spans="1:8">
+      <c r="A880">
+        <v>3862</v>
+      </c>
+      <c r="B880">
+        <v>234.693748471217</v>
+      </c>
+      <c r="C880">
+        <v>44.1440667724609</v>
+      </c>
+      <c r="D880">
+        <v>29.8716290283203</v>
+      </c>
+      <c r="E880">
+        <v>1.47779241401965</v>
+      </c>
+      <c r="F880">
+        <v>16.4554873112593</v>
+      </c>
+      <c r="G880">
+        <v>0.97</v>
+      </c>
+      <c r="H880">
+        <v>7.26767080013975</v>
+      </c>
+    </row>
+    <row r="881" spans="1:8">
+      <c r="A881">
+        <v>5415</v>
+      </c>
+      <c r="B881">
+        <v>290.277858859967</v>
+      </c>
+      <c r="C881">
+        <v>59.7246646118164</v>
+      </c>
+      <c r="D881">
+        <v>30.2417501831055</v>
+      </c>
+      <c r="E881">
+        <v>1.97490767730703</v>
+      </c>
+      <c r="F881">
+        <v>18.6545402438436</v>
+      </c>
+      <c r="G881">
+        <v>1.39</v>
+      </c>
+      <c r="H881">
+        <v>4.78812098886755</v>
+      </c>
+    </row>
+    <row r="882" spans="1:8">
+      <c r="A882">
+        <v>4477</v>
+      </c>
+      <c r="B882">
+        <v>266.873090457799</v>
+      </c>
+      <c r="C882">
+        <v>55.2906228637695</v>
+      </c>
+      <c r="D882">
+        <v>27.2610328674316</v>
+      </c>
+      <c r="E882">
+        <v>2.02819251686624</v>
+      </c>
+      <c r="F882">
+        <v>16.775764061937</v>
+      </c>
+      <c r="G882">
+        <v>1.5</v>
+      </c>
+      <c r="H882">
+        <v>5.76855402584308</v>
+      </c>
+    </row>
+    <row r="883" spans="1:8">
+      <c r="A883">
+        <v>2434</v>
+      </c>
+      <c r="B883">
+        <v>212.045508151368</v>
+      </c>
+      <c r="C883">
+        <v>43.5630339050293</v>
+      </c>
+      <c r="D883">
+        <v>22.1834396362305</v>
+      </c>
+      <c r="E883">
+        <v>1.9637637183136</v>
+      </c>
+      <c r="F883">
+        <v>11.4786680520603</v>
+      </c>
+      <c r="G883">
+        <v>0.66</v>
+      </c>
+      <c r="H883">
+        <v>24.7315453950037</v>
+      </c>
+    </row>
+    <row r="884" spans="1:8">
+      <c r="A884">
+        <v>3091</v>
+      </c>
+      <c r="B884">
+        <v>224.742212267641</v>
+      </c>
+      <c r="C884">
+        <v>44.2291586303711</v>
+      </c>
+      <c r="D884">
+        <v>26.1413639068603</v>
+      </c>
+      <c r="E884">
+        <v>1.69192237971806</v>
+      </c>
+      <c r="F884">
+        <v>13.7535355232643</v>
+      </c>
+      <c r="G884">
+        <v>0.72</v>
+      </c>
+      <c r="H884">
+        <v>17.5135072905952</v>
+      </c>
+    </row>
+    <row r="885" spans="1:8">
+      <c r="A885">
+        <v>5034</v>
+      </c>
+      <c r="B885">
+        <v>271.504742268868</v>
+      </c>
+      <c r="C885">
+        <v>49.819489440918</v>
+      </c>
+      <c r="D885">
+        <v>36.0502925109863</v>
+      </c>
+      <c r="E885">
+        <v>1.38194411115348</v>
+      </c>
+      <c r="F885">
+        <v>18.5411126079518</v>
+      </c>
+      <c r="G885">
+        <v>1.35</v>
+      </c>
+      <c r="H885">
+        <v>12.0842852986544</v>
+      </c>
+    </row>
+    <row r="886" spans="1:8">
+      <c r="A886">
+        <v>4748</v>
+      </c>
+      <c r="B886">
+        <v>275.083501706216</v>
+      </c>
+      <c r="C886">
+        <v>55.928190612793</v>
+      </c>
+      <c r="D886">
+        <v>29.5942785644531</v>
+      </c>
+      <c r="E886">
+        <v>1.88983118784218</v>
+      </c>
+      <c r="F886">
+        <v>17.2602136098688</v>
+      </c>
+      <c r="G886">
+        <v>1.53</v>
+      </c>
+      <c r="H886">
+        <v>9.51602925120462</v>
+      </c>
+    </row>
+    <row r="887" spans="1:8">
+      <c r="A887">
+        <v>4889</v>
+      </c>
+      <c r="B887">
+        <v>277.47530659377</v>
+      </c>
+      <c r="C887">
+        <v>56.1088046264649</v>
+      </c>
+      <c r="D887">
+        <v>30.2713143920898</v>
+      </c>
+      <c r="E887">
+        <v>1.85353050415038</v>
+      </c>
+      <c r="F887">
+        <v>17.6195859012334</v>
+      </c>
+      <c r="G887">
+        <v>1.42</v>
+      </c>
+      <c r="H887">
+        <v>9.14205592100053</v>
+      </c>
+    </row>
+    <row r="888" spans="1:8">
+      <c r="A888">
+        <v>5728</v>
+      </c>
+      <c r="B888">
+        <v>287.400292208394</v>
+      </c>
+      <c r="C888">
+        <v>55.4449435424805</v>
+      </c>
+      <c r="D888">
+        <v>34.8605682373047</v>
+      </c>
+      <c r="E888">
+        <v>1.59047733143799</v>
+      </c>
+      <c r="F888">
+        <v>19.9303903137531</v>
+      </c>
+      <c r="G888">
+        <v>1.98</v>
+      </c>
+      <c r="H888">
+        <v>6.00913014569831</v>
+      </c>
+    </row>
+    <row r="889" spans="1:8">
+      <c r="A889">
+        <v>4467</v>
+      </c>
+      <c r="B889">
+        <v>246.35679298456</v>
+      </c>
+      <c r="C889">
+        <v>45.7066847229004</v>
+      </c>
+      <c r="D889">
+        <v>32.1166909790039</v>
+      </c>
+      <c r="E889">
+        <v>1.4231442695258</v>
+      </c>
+      <c r="F889">
+        <v>18.132237986553</v>
+      </c>
+      <c r="G889">
+        <v>1.27</v>
+      </c>
+      <c r="H889">
+        <v>3.23915344112999</v>
+      </c>
+    </row>
+    <row r="890" spans="1:8">
+      <c r="A890">
+        <v>3983</v>
+      </c>
+      <c r="B890">
+        <v>235.163231265181</v>
+      </c>
+      <c r="C890">
+        <v>42.7120346069336</v>
+      </c>
+      <c r="D890">
+        <v>31.7377819824219</v>
+      </c>
+      <c r="E890">
+        <v>1.34577881436673</v>
+      </c>
+      <c r="F890">
+        <v>16.9371715917128</v>
+      </c>
+      <c r="G890">
+        <v>0.98</v>
+      </c>
+      <c r="H890">
+        <v>6.92183376292669</v>
+      </c>
+    </row>
+    <row r="891" spans="1:8">
+      <c r="A891">
+        <v>5137</v>
+      </c>
+      <c r="B891">
+        <v>265.029245780798</v>
+      </c>
+      <c r="C891">
+        <v>47.8895649719238</v>
+      </c>
+      <c r="D891">
+        <v>36.0541705322266</v>
+      </c>
+      <c r="E891">
+        <v>1.32826700115368</v>
+      </c>
+      <c r="F891">
+        <v>19.3827665504083</v>
+      </c>
+      <c r="G891">
+        <v>1.52</v>
+      </c>
+      <c r="H891">
+        <v>5.59338383813078</v>
+      </c>
+    </row>
+    <row r="892" spans="1:8">
+      <c r="A892">
+        <v>4714</v>
+      </c>
+      <c r="B892">
+        <v>258.237452921754</v>
+      </c>
+      <c r="C892">
+        <v>48.9001808166504</v>
+      </c>
+      <c r="D892">
+        <v>32.4675659179687</v>
+      </c>
+      <c r="E892">
+        <v>1.50612401743326</v>
+      </c>
+      <c r="F892">
+        <v>18.2545170991458</v>
+      </c>
+      <c r="G892">
+        <v>1.23</v>
+      </c>
+      <c r="H892">
+        <v>5.80848363261021</v>
+      </c>
+    </row>
+    <row r="893" spans="1:8">
+      <c r="A893">
+        <v>4278</v>
+      </c>
+      <c r="B893">
+        <v>256.260642282441</v>
+      </c>
+      <c r="C893">
+        <v>50.1839707946777</v>
+      </c>
+      <c r="D893">
+        <v>30.1294946289063</v>
+      </c>
+      <c r="E893">
+        <v>1.66560944392779</v>
+      </c>
+      <c r="F893">
+        <v>16.6939408326502</v>
+      </c>
+      <c r="G893">
+        <v>1.07</v>
+      </c>
+      <c r="H893">
+        <v>11.036550512435</v>
+      </c>
+    </row>
+    <row r="894" spans="1:8">
+      <c r="A894">
+        <v>4672</v>
+      </c>
+      <c r="B894">
+        <v>269.735096544818</v>
+      </c>
+      <c r="C894">
+        <v>53.9710568237305</v>
+      </c>
+      <c r="D894">
+        <v>30.2018188476562</v>
+      </c>
+      <c r="E894">
+        <v>1.787013460877</v>
+      </c>
+      <c r="F894">
+        <v>17.3206974540805</v>
+      </c>
+      <c r="G894">
+        <v>1.48</v>
+      </c>
+      <c r="H894">
+        <v>9.60769860218223</v>
+      </c>
+    </row>
+    <row r="895" spans="1:8">
+      <c r="A895">
+        <v>5550</v>
+      </c>
+      <c r="B895">
+        <v>293.078529557783</v>
+      </c>
+      <c r="C895">
+        <v>57.2217581176758</v>
+      </c>
+      <c r="D895">
+        <v>34.6806175231934</v>
+      </c>
+      <c r="E895">
+        <v>1.64996364552643</v>
+      </c>
+      <c r="F895">
+        <v>18.9369040726873</v>
+      </c>
+      <c r="G895">
+        <v>1.6</v>
+      </c>
+      <c r="H895">
+        <v>12.3323666211758</v>
+      </c>
+    </row>
+    <row r="896" spans="1:8">
+      <c r="A896">
+        <v>4791</v>
+      </c>
+      <c r="B896">
+        <v>280.172205028187</v>
+      </c>
+      <c r="C896">
+        <v>56.3812768554688</v>
+      </c>
+      <c r="D896">
+        <v>30.9367196655273</v>
+      </c>
+      <c r="E896">
+        <v>1.8224710785447</v>
+      </c>
+      <c r="F896">
+        <v>17.1001973572574</v>
+      </c>
+      <c r="G896">
+        <v>1.39</v>
+      </c>
+      <c r="H896">
+        <v>14.3754644982779</v>
+      </c>
+    </row>
+    <row r="897" spans="1:8">
+      <c r="A897">
+        <v>4405</v>
+      </c>
+      <c r="B897">
+        <v>273.022498445853</v>
+      </c>
+      <c r="C897">
+        <v>57.1683853149414</v>
+      </c>
+      <c r="D897">
+        <v>27.0152961730957</v>
+      </c>
+      <c r="E897">
+        <v>2.11614875323391</v>
+      </c>
+      <c r="F897">
+        <v>16.1342014855</v>
+      </c>
+      <c r="G897">
+        <v>1.52</v>
+      </c>
+      <c r="H897">
+        <v>10.1462254491205</v>
+      </c>
+    </row>
+    <row r="898" spans="1:8">
+      <c r="A898">
+        <v>5325</v>
+      </c>
+      <c r="B898">
+        <v>281.575758120489</v>
+      </c>
+      <c r="C898">
+        <v>54.1896333312988</v>
+      </c>
+      <c r="D898">
+        <v>34.3200457763672</v>
+      </c>
+      <c r="E898">
+        <v>1.57894991412319</v>
+      </c>
+      <c r="F898">
+        <v>18.9114291498112</v>
+      </c>
+      <c r="G898">
+        <v>1.8</v>
+      </c>
+      <c r="H898">
+        <v>9.72215567038778</v>
+      </c>
+    </row>
+    <row r="899" spans="1:8">
+      <c r="A899">
+        <v>4516</v>
+      </c>
+      <c r="B899">
+        <v>246.777011321632</v>
+      </c>
+      <c r="C899">
+        <v>43.1111444091797</v>
+      </c>
+      <c r="D899">
+        <v>35.2427551269531</v>
+      </c>
+      <c r="E899">
+        <v>1.22326260401273</v>
+      </c>
+      <c r="F899">
+        <v>18.2999217626238</v>
+      </c>
+      <c r="G899">
+        <v>1.26</v>
+      </c>
+      <c r="H899">
+        <v>5.69521910448001</v>
+      </c>
+    </row>
+    <row r="900" spans="1:8">
+      <c r="A900">
+        <v>3930</v>
+      </c>
+      <c r="B900">
+        <v>248.778096365503</v>
+      </c>
+      <c r="C900">
+        <v>50.0495210266113</v>
+      </c>
+      <c r="D900">
+        <v>27.4892219543457</v>
+      </c>
+      <c r="E900">
+        <v>1.82069616629143</v>
+      </c>
+      <c r="F900">
+        <v>15.7972106765624</v>
+      </c>
+      <c r="G900">
+        <v>1.05</v>
+      </c>
+      <c r="H900">
+        <v>9.98151450404053</v>
+      </c>
+    </row>
+    <row r="901" spans="1:8">
+      <c r="A901">
+        <v>5515</v>
+      </c>
+      <c r="B901">
+        <v>268.260961284636</v>
+      </c>
+      <c r="C901">
+        <v>44.1785864257812</v>
+      </c>
+      <c r="D901">
+        <v>41.1852874755859</v>
+      </c>
+      <c r="E901">
+        <v>1.07267884076249</v>
+      </c>
+      <c r="F901">
+        <v>20.5583398105711</v>
+      </c>
+      <c r="G901">
+        <v>1.7</v>
+      </c>
+      <c r="H901">
+        <v>3.64736684937386</v>
+      </c>
+    </row>
+    <row r="902" spans="1:8">
+      <c r="A902">
+        <v>5529</v>
+      </c>
+      <c r="B902">
+        <v>284.199812875951</v>
+      </c>
+      <c r="C902">
+        <v>55.5793476867676</v>
+      </c>
+      <c r="D902">
+        <v>33.5125785827637</v>
+      </c>
+      <c r="E902">
+        <v>1.65846228601918</v>
+      </c>
+      <c r="F902">
+        <v>19.4546222393655</v>
+      </c>
+      <c r="G902">
+        <v>1.73</v>
+      </c>
+      <c r="H902">
+        <v>5.83384472597525</v>
+      </c>
+    </row>
+    <row r="903" spans="1:8">
+      <c r="A903">
+        <v>4138</v>
+      </c>
+      <c r="B903">
+        <v>248.283017223749</v>
+      </c>
+      <c r="C903">
+        <v>48.6735885620117</v>
+      </c>
+      <c r="D903">
+        <v>29.1243746948242</v>
+      </c>
+      <c r="E903">
+        <v>1.67123205466319</v>
+      </c>
+      <c r="F903">
+        <v>16.6664641273909</v>
+      </c>
+      <c r="G903">
+        <v>1.16</v>
+      </c>
+      <c r="H903">
+        <v>7.62405789647623</v>
+      </c>
+    </row>
+    <row r="904" spans="1:8">
+      <c r="A904">
+        <v>6145</v>
+      </c>
+      <c r="B904">
+        <v>284.219396897263</v>
+      </c>
+      <c r="C904">
+        <v>49.0321353149414</v>
+      </c>
+      <c r="D904">
+        <v>41.2708671569824</v>
+      </c>
+      <c r="E904">
+        <v>1.18805682295061</v>
+      </c>
+      <c r="F904">
+        <v>21.6206214884807</v>
+      </c>
+      <c r="G904">
+        <v>1.82</v>
+      </c>
+      <c r="H904">
+        <v>3.4552147248431</v>
+      </c>
+    </row>
+    <row r="905" spans="1:8">
+      <c r="A905">
+        <v>5389</v>
+      </c>
+      <c r="B905">
+        <v>270.166112509656</v>
+      </c>
+      <c r="C905">
+        <v>49.5779290771484</v>
+      </c>
+      <c r="D905">
+        <v>35.867762298584</v>
+      </c>
+      <c r="E905">
+        <v>1.38224204410727</v>
+      </c>
+      <c r="F905">
+        <v>19.9469872440327</v>
+      </c>
+      <c r="G905">
+        <v>1.71</v>
+      </c>
+      <c r="H905">
+        <v>3.66552558901924</v>
+      </c>
+    </row>
+    <row r="906" spans="1:8">
+      <c r="A906">
+        <v>5098</v>
+      </c>
+      <c r="B906">
+        <v>262.820696072065</v>
+      </c>
+      <c r="C906">
+        <v>46.3987307739258</v>
+      </c>
+      <c r="D906">
+        <v>36.9943467712402</v>
+      </c>
+      <c r="E906">
+        <v>1.25421138156159</v>
+      </c>
+      <c r="F906">
+        <v>19.3972547679508</v>
+      </c>
+      <c r="G906">
+        <v>1.53</v>
+      </c>
+      <c r="H906">
+        <v>5.77706328285709</v>
+      </c>
+    </row>
+    <row r="907" spans="1:8">
+      <c r="A907">
+        <v>4576</v>
+      </c>
+      <c r="B907">
+        <v>279.379117897974</v>
+      </c>
+      <c r="C907">
+        <v>57.9470639038086</v>
+      </c>
+      <c r="D907">
+        <v>28.4447154998779</v>
+      </c>
+      <c r="E907">
+        <v>2.03718205246445</v>
+      </c>
+      <c r="F907">
+        <v>16.3791769206999</v>
+      </c>
+      <c r="G907">
+        <v>1.58</v>
+      </c>
+      <c r="H907">
+        <v>13.1610287661666</v>
+      </c>
+    </row>
+    <row r="908" spans="1:8">
+      <c r="A908">
+        <v>6208</v>
+      </c>
+      <c r="B908">
+        <v>297.768084454129</v>
+      </c>
+      <c r="C908">
+        <v>57.603313293457</v>
+      </c>
+      <c r="D908">
+        <v>35.9178677368164</v>
+      </c>
+      <c r="E908">
+        <v>1.60375091627203</v>
+      </c>
+      <c r="F908">
+        <v>20.8484398567447</v>
+      </c>
+      <c r="G908">
+        <v>1.39</v>
+      </c>
+      <c r="H908">
+        <v>4.70228885351312</v>
+      </c>
+    </row>
+    <row r="909" spans="1:8">
+      <c r="A909">
+        <v>4441</v>
+      </c>
+      <c r="B909">
+        <v>267.629859725061</v>
+      </c>
+      <c r="C909">
+        <v>53.8553198242188</v>
+      </c>
+      <c r="D909">
+        <v>29.5544454956055</v>
+      </c>
+      <c r="E909">
+        <v>1.82224091574402</v>
+      </c>
+      <c r="F909">
+        <v>16.5938135773127</v>
+      </c>
+      <c r="G909">
+        <v>1.35</v>
+      </c>
+      <c r="H909">
+        <v>12.5953679072374</v>
+      </c>
+    </row>
+    <row r="910" spans="1:8">
+      <c r="A910">
+        <v>4727</v>
+      </c>
+      <c r="B910">
+        <v>273.314022498404</v>
+      </c>
+      <c r="C910">
+        <v>55.8151138305664</v>
+      </c>
+      <c r="D910">
+        <v>29.0620648956299</v>
+      </c>
+      <c r="E910">
+        <v>1.92054879895886</v>
+      </c>
+      <c r="F910">
+        <v>17.2951243291134</v>
+      </c>
+      <c r="G910">
+        <v>1.34</v>
+      </c>
+      <c r="H910">
+        <v>7.8059059160399</v>
+      </c>
+    </row>
+    <row r="911" spans="1:8">
+      <c r="A911">
+        <v>4462</v>
+      </c>
+      <c r="B911">
+        <v>285.428011968103</v>
+      </c>
+      <c r="C911">
+        <v>59.764953918457</v>
+      </c>
+      <c r="D911">
+        <v>28.2443183135986</v>
+      </c>
+      <c r="E911">
+        <v>2.11599916326118</v>
+      </c>
+      <c r="F911">
+        <v>15.6326632737737</v>
+      </c>
+      <c r="G911">
+        <v>1.53</v>
+      </c>
+      <c r="H911">
+        <v>18.8496735248546</v>
+      </c>
+    </row>
+    <row r="912" spans="1:8">
+      <c r="A912">
+        <v>4001</v>
+      </c>
+      <c r="B912">
+        <v>239.862768409637</v>
+      </c>
+      <c r="C912">
+        <v>44.4992478942871</v>
+      </c>
+      <c r="D912">
+        <v>31.2731880187988</v>
+      </c>
+      <c r="E912">
+        <v>1.4229201022786</v>
+      </c>
+      <c r="F912">
+        <v>16.6803711410814</v>
+      </c>
+      <c r="G912">
+        <v>1.1</v>
+      </c>
+      <c r="H912">
+        <v>9.27130958702607</v>
+      </c>
+    </row>
+    <row r="913" spans="1:8">
+      <c r="A913">
+        <v>4771</v>
+      </c>
+      <c r="B913">
+        <v>273.252878996038</v>
+      </c>
+      <c r="C913">
+        <v>53.4730136108398</v>
+      </c>
+      <c r="D913">
+        <v>32.177191619873</v>
+      </c>
+      <c r="E913">
+        <v>1.66182972841589</v>
+      </c>
+      <c r="F913">
+        <v>17.4600173199609</v>
+      </c>
+      <c r="G913">
+        <v>1.52</v>
+      </c>
+      <c r="H913">
+        <v>13.2982634885449</v>
+      </c>
+    </row>
+    <row r="914" spans="1:8">
+      <c r="A914">
+        <v>4848</v>
+      </c>
+      <c r="B914">
+        <v>278.337411145212</v>
+      </c>
+      <c r="C914">
+        <v>57.5001614379883</v>
+      </c>
+      <c r="D914">
+        <v>28.6685440063477</v>
+      </c>
+      <c r="E914">
+        <v>2.00568823534452</v>
+      </c>
+      <c r="F914">
+        <v>17.4177088881191</v>
+      </c>
+      <c r="G914">
+        <v>1.41</v>
+      </c>
+      <c r="H914">
+        <v>6.8223093267949</v>
+      </c>
+    </row>
+    <row r="915" spans="1:8">
+      <c r="A915">
+        <v>5187</v>
+      </c>
+      <c r="B915">
+        <v>277.101373220053</v>
+      </c>
+      <c r="C915">
+        <v>55.0388568115234</v>
+      </c>
+      <c r="D915">
+        <v>31.5676509094238</v>
+      </c>
+      <c r="E915">
+        <v>1.74352082673002</v>
+      </c>
+      <c r="F915">
+        <v>18.7187812883225</v>
+      </c>
+      <c r="G915">
+        <v>1.52</v>
+      </c>
+      <c r="H915">
+        <v>5.23138703039906</v>
+      </c>
+    </row>
+    <row r="916" spans="1:8">
+      <c r="A916">
+        <v>4454</v>
+      </c>
+      <c r="B916">
+        <v>258.53949748819</v>
+      </c>
+      <c r="C916">
+        <v>51.1176789855957</v>
+      </c>
+      <c r="D916">
+        <v>29.7621179199219</v>
+      </c>
+      <c r="E916">
+        <v>1.71754171269441</v>
+      </c>
+      <c r="F916">
+        <v>17.2275418002754</v>
+      </c>
+      <c r="G916">
+        <v>1.37</v>
+      </c>
+      <c r="H916">
+        <v>7.30862235889933</v>
+      </c>
+    </row>
+    <row r="917" spans="1:8">
+      <c r="A917">
+        <v>4037</v>
+      </c>
+      <c r="B917">
+        <v>253.911622253791</v>
+      </c>
+      <c r="C917">
+        <v>51.0289828491211</v>
+      </c>
+      <c r="D917">
+        <v>28.1285567474365</v>
+      </c>
+      <c r="E917">
+        <v>1.81413441533119</v>
+      </c>
+      <c r="F917">
+        <v>15.8992328282039</v>
+      </c>
+      <c r="G917">
+        <v>1.32</v>
+      </c>
+      <c r="H917">
+        <v>11.70059447308</v>
+      </c>
+    </row>
+    <row r="918" spans="1:8">
+      <c r="A918">
+        <v>4800</v>
+      </c>
+      <c r="B918">
+        <v>258.021144200183</v>
+      </c>
+      <c r="C918">
+        <v>44.8844845581055</v>
+      </c>
+      <c r="D918">
+        <v>37.0592729187012</v>
+      </c>
+      <c r="E918">
+        <v>1.21115394402289</v>
+      </c>
+      <c r="F918">
+        <v>18.6031265572405</v>
+      </c>
+      <c r="G918">
+        <v>1.51</v>
+      </c>
+      <c r="H918">
+        <v>8.8683828802516</v>
+      </c>
+    </row>
+    <row r="919" spans="1:8">
+      <c r="A919">
+        <v>5399</v>
+      </c>
+      <c r="B919">
+        <v>281.443759083199</v>
+      </c>
+      <c r="C919">
+        <v>53.4843774414063</v>
+      </c>
+      <c r="D919">
+        <v>35.1514338684082</v>
+      </c>
+      <c r="E919">
+        <v>1.5215418421231</v>
+      </c>
+      <c r="F919">
+        <v>19.1832287117938</v>
+      </c>
+      <c r="G919">
+        <v>1.36</v>
+      </c>
+      <c r="H919">
+        <v>9.39728283486712</v>
+      </c>
+    </row>
+    <row r="920" spans="1:8">
+      <c r="A920">
+        <v>4351</v>
+      </c>
+      <c r="B920">
+        <v>252.92528243936</v>
+      </c>
+      <c r="C920">
+        <v>47.5143058776856</v>
+      </c>
+      <c r="D920">
+        <v>32.2638136291504</v>
+      </c>
+      <c r="E920">
+        <v>1.47268101731025</v>
+      </c>
+      <c r="F920">
+        <v>17.2027088713172</v>
+      </c>
+      <c r="G920">
+        <v>1.1</v>
+      </c>
+      <c r="H920">
+        <v>10.6880862870175</v>
+      </c>
+    </row>
+    <row r="921" spans="1:8">
+      <c r="A921">
+        <v>5473</v>
+      </c>
+      <c r="B921">
+        <v>292.156693717266</v>
+      </c>
+      <c r="C921">
+        <v>58.6918826293945</v>
+      </c>
+      <c r="D921">
+        <v>32.3968069458008</v>
+      </c>
+      <c r="E921">
+        <v>1.81165639958237</v>
+      </c>
+      <c r="F921">
+        <v>18.7330980863868</v>
+      </c>
+      <c r="G921">
+        <v>1.83</v>
+      </c>
+      <c r="H921">
+        <v>9.14520800054938</v>
+      </c>
+    </row>
+    <row r="922" spans="1:8">
+      <c r="A922">
+        <v>5513</v>
+      </c>
+      <c r="B922">
+        <v>281.619684244042</v>
+      </c>
+      <c r="C922">
+        <v>52.6702456665039</v>
+      </c>
+      <c r="D922">
+        <v>36.2081648254394</v>
+      </c>
+      <c r="E922">
+        <v>1.45465106890748</v>
+      </c>
+      <c r="F922">
+        <v>19.5760463789975</v>
+      </c>
+      <c r="G922">
+        <v>2.1</v>
+      </c>
+      <c r="H922">
+        <v>8.67602319948007</v>
+      </c>
+    </row>
+    <row r="923" spans="1:8">
+      <c r="A923">
+        <v>5110</v>
+      </c>
+      <c r="B923">
+        <v>273.011903186051</v>
+      </c>
+      <c r="C923">
+        <v>51.500118560791</v>
+      </c>
+      <c r="D923">
+        <v>34.5674214172363</v>
+      </c>
+      <c r="E923">
+        <v>1.48984553806237</v>
+      </c>
+      <c r="F923">
+        <v>18.7171326244983</v>
+      </c>
+      <c r="G923">
+        <v>1.56</v>
+      </c>
+      <c r="H923">
+        <v>9.44708160432363</v>
+      </c>
+    </row>
+    <row r="924" spans="1:8">
+      <c r="A924">
+        <v>3347</v>
+      </c>
+      <c r="B924">
+        <v>235.708552608443</v>
+      </c>
+      <c r="C924">
+        <v>46.7569090270996</v>
+      </c>
+      <c r="D924">
+        <v>26.9319608306885</v>
+      </c>
+      <c r="E924">
+        <v>1.73611232100935</v>
+      </c>
+      <c r="F924">
+        <v>14.1997393092477</v>
+      </c>
+      <c r="G924">
+        <v>0.92</v>
+      </c>
+      <c r="H924">
+        <v>18.1974012182732</v>
+      </c>
+    </row>
+    <row r="925" spans="1:8">
+      <c r="A925">
+        <v>4476</v>
+      </c>
+      <c r="B925">
+        <v>243.124267685798</v>
+      </c>
+      <c r="C925">
+        <v>43.2703433227539</v>
+      </c>
+      <c r="D925">
+        <v>33.8292181396484</v>
+      </c>
+      <c r="E925">
+        <v>1.27908198008397</v>
+      </c>
+      <c r="F925">
+        <v>18.4103382299317</v>
+      </c>
+      <c r="G925">
+        <v>1.1</v>
+      </c>
+      <c r="H925">
+        <v>2.74059970301314</v>
+      </c>
+    </row>
+    <row r="926" spans="1:8">
+      <c r="A926">
+        <v>3691</v>
+      </c>
+      <c r="B926">
+        <v>246.998922026006</v>
+      </c>
+      <c r="C926">
+        <v>50.4118229675293</v>
+      </c>
+      <c r="D926">
+        <v>26.3047093200684</v>
+      </c>
+      <c r="E926">
+        <v>1.91645618866691</v>
+      </c>
+      <c r="F926">
+        <v>14.9433850549816</v>
+      </c>
+      <c r="G926">
+        <v>0.93</v>
+      </c>
+      <c r="H926">
+        <v>12.8682358387339</v>
+      </c>
+    </row>
+    <row r="927" spans="1:8">
+      <c r="A927">
+        <v>4223</v>
+      </c>
+      <c r="B927">
+        <v>265.551161504106</v>
+      </c>
+      <c r="C927">
+        <v>54.7191639709473</v>
+      </c>
+      <c r="D927">
+        <v>27.5496997833252</v>
+      </c>
+      <c r="E927">
+        <v>1.98619819458311</v>
+      </c>
+      <c r="F927">
+        <v>15.9027735976772</v>
+      </c>
+      <c r="G927">
+        <v>1.01</v>
+      </c>
+      <c r="H927">
+        <v>12.1463427593964</v>
+      </c>
+    </row>
+    <row r="928" spans="1:8">
+      <c r="A928">
+        <v>5215</v>
+      </c>
+      <c r="B928">
+        <v>276.502902096523</v>
+      </c>
+      <c r="C928">
+        <v>52.9689936828613</v>
+      </c>
+      <c r="D928">
+        <v>34.0081721496582</v>
+      </c>
+      <c r="E928">
+        <v>1.55753721340162</v>
+      </c>
+      <c r="F928">
+        <v>18.8605615364555</v>
+      </c>
+      <c r="G928">
+        <v>1.38</v>
+      </c>
+      <c r="H928">
+        <v>8.51769801096682</v>
+      </c>
+    </row>
+    <row r="929" spans="1:8">
+      <c r="A929">
+        <v>5603</v>
+      </c>
+      <c r="B929">
+        <v>273.906044854588</v>
+      </c>
+      <c r="C929">
+        <v>47.8348620605469</v>
+      </c>
+      <c r="D929">
+        <v>39.1344038391113</v>
+      </c>
+      <c r="E929">
+        <v>1.2223224929452</v>
+      </c>
+      <c r="F929">
+        <v>20.4559194849991</v>
+      </c>
+      <c r="G929">
+        <v>1.69</v>
+      </c>
+      <c r="H929">
+        <v>4.96209693770329</v>
+      </c>
+    </row>
+    <row r="930" spans="1:8">
+      <c r="A930">
+        <v>6207</v>
+      </c>
+      <c r="B930">
+        <v>287.508836727932</v>
+      </c>
+      <c r="C930">
+        <v>50.8734233093262</v>
+      </c>
+      <c r="D930">
+        <v>40.339068145752</v>
+      </c>
+      <c r="E930">
+        <v>1.26114522838038</v>
+      </c>
+      <c r="F930">
+        <v>21.5889016513035</v>
+      </c>
+      <c r="G930">
+        <v>1.66</v>
+      </c>
+      <c r="H930">
+        <v>3.86876107270924</v>
+      </c>
+    </row>
+    <row r="931" spans="1:8">
+      <c r="A931">
+        <v>5026</v>
+      </c>
+      <c r="B931">
+        <v>270.652778861278</v>
+      </c>
+      <c r="C931">
+        <v>52.0839520263672</v>
+      </c>
+      <c r="D931">
+        <v>32.9931448364258</v>
+      </c>
+      <c r="E931">
+        <v>1.57862950878403</v>
+      </c>
+      <c r="F931">
+        <v>18.5699183328026</v>
+      </c>
+      <c r="G931">
+        <v>1.44</v>
+      </c>
+      <c r="H931">
+        <v>7.41255129338446</v>
+      </c>
+    </row>
+    <row r="932" spans="1:8">
+      <c r="A932">
+        <v>3980</v>
+      </c>
+      <c r="B932">
+        <v>244.651012251525</v>
+      </c>
+      <c r="C932">
+        <v>46.1163827514648</v>
+      </c>
+      <c r="D932">
+        <v>31.0178106689453</v>
+      </c>
+      <c r="E932">
+        <v>1.48677104401943</v>
+      </c>
+      <c r="F932">
+        <v>16.2680708465991</v>
+      </c>
+      <c r="G932">
+        <v>1.24</v>
+      </c>
+      <c r="H932">
+        <v>12.9101999261322</v>
+      </c>
+    </row>
+    <row r="933" spans="1:8">
+      <c r="A933">
+        <v>4485</v>
+      </c>
+      <c r="B933">
+        <v>266.095774986535</v>
+      </c>
+      <c r="C933">
+        <v>51.7547694396973</v>
+      </c>
+      <c r="D933">
+        <v>31.7427268981934</v>
+      </c>
+      <c r="E933">
+        <v>1.63044497108542</v>
+      </c>
+      <c r="F933">
+        <v>16.854833565948</v>
+      </c>
+      <c r="G933">
+        <v>1.48</v>
+      </c>
+      <c r="H933">
+        <v>15.0752789019224</v>
+      </c>
+    </row>
+    <row r="934" spans="1:8">
+      <c r="A934">
+        <v>4908</v>
+      </c>
+      <c r="B934">
+        <v>270.173304979972</v>
+      </c>
+      <c r="C934">
+        <v>53.9705549621582</v>
+      </c>
+      <c r="D934">
+        <v>30.3689457702637</v>
+      </c>
+      <c r="E934">
+        <v>1.77716261112378</v>
+      </c>
+      <c r="F934">
+        <v>18.166117486566</v>
+      </c>
+      <c r="G934">
+        <v>1.5</v>
+      </c>
+      <c r="H934">
+        <v>4.91363112592139</v>
+      </c>
+    </row>
+    <row r="935" spans="1:8">
+      <c r="A935">
+        <v>4679</v>
+      </c>
+      <c r="B935">
+        <v>257.39152527688</v>
+      </c>
+      <c r="C935">
+        <v>47.9424850463867</v>
+      </c>
+      <c r="D935">
+        <v>33.3295921325684</v>
+      </c>
+      <c r="E935">
+        <v>1.43843599572703</v>
+      </c>
+      <c r="F935">
+        <v>18.1785316939504</v>
+      </c>
+      <c r="G935">
+        <v>1.25</v>
+      </c>
+      <c r="H935">
+        <v>7.28706582802876</v>
+      </c>
+    </row>
+    <row r="936" spans="1:8">
+      <c r="A936">
+        <v>4704</v>
+      </c>
+      <c r="B936">
+        <v>274.690669057254</v>
+      </c>
+      <c r="C936">
+        <v>54.8939135742188</v>
+      </c>
+      <c r="D936">
+        <v>30.8486938476563</v>
+      </c>
+      <c r="E936">
+        <v>1.7794566552901</v>
+      </c>
+      <c r="F936">
+        <v>17.1247171086818</v>
+      </c>
+      <c r="G936">
+        <v>1.55</v>
+      </c>
+      <c r="H936">
+        <v>13.0950336948992</v>
+      </c>
+    </row>
+    <row r="937" spans="1:8">
+      <c r="A937">
+        <v>4940</v>
+      </c>
+      <c r="B937">
+        <v>268.293803969764</v>
+      </c>
+      <c r="C937">
+        <v>50.5681721496582</v>
+      </c>
+      <c r="D937">
+        <v>34.021248626709</v>
+      </c>
+      <c r="E937">
+        <v>1.48637025949597</v>
+      </c>
+      <c r="F937">
+        <v>18.412650336706</v>
+      </c>
+      <c r="G937">
+        <v>1.41</v>
+      </c>
+      <c r="H937">
+        <v>9.40833989860692</v>
+      </c>
+    </row>
+    <row r="938" spans="1:8">
+      <c r="A938">
+        <v>5185</v>
+      </c>
+      <c r="B938">
+        <v>283.22727651472</v>
+      </c>
+      <c r="C938">
+        <v>56.0262852478027</v>
+      </c>
+      <c r="D938">
+        <v>32.5680610656738</v>
+      </c>
+      <c r="E938">
+        <v>1.72028310604138</v>
+      </c>
+      <c r="F938">
+        <v>18.3068525878033</v>
+      </c>
+      <c r="G938">
+        <v>1.59</v>
+      </c>
+      <c r="H938">
+        <v>10.5566431630384</v>
+      </c>
+    </row>
+    <row r="939" spans="1:8">
+      <c r="A939">
+        <v>3903</v>
+      </c>
+      <c r="B939">
+        <v>250.454988716444</v>
+      </c>
+      <c r="C939">
+        <v>50.1592356872559</v>
+      </c>
+      <c r="D939">
+        <v>27.981441116333</v>
+      </c>
+      <c r="E939">
+        <v>1.79258943378643</v>
+      </c>
+      <c r="F939">
+        <v>15.5836384813194</v>
+      </c>
+      <c r="G939">
+        <v>1.19</v>
+      </c>
+      <c r="H939">
+        <v>12.972388185355</v>
+      </c>
+    </row>
+    <row r="940" spans="1:8">
+      <c r="A940">
+        <v>4251</v>
+      </c>
+      <c r="B940">
+        <v>249.546928011363</v>
+      </c>
+      <c r="C940">
+        <v>48.4943502807617</v>
+      </c>
+      <c r="D940">
+        <v>29.8219377136231</v>
+      </c>
+      <c r="E940">
+        <v>1.6261300907556</v>
+      </c>
+      <c r="F940">
+        <v>17.0348720935023</v>
+      </c>
+      <c r="G940">
+        <v>1.2</v>
+      </c>
+      <c r="H940">
+        <v>6.8773732803052</v>
+      </c>
+    </row>
+    <row r="941" spans="1:8">
+      <c r="A941">
+        <v>3814</v>
+      </c>
+      <c r="B941">
+        <v>241.330645844383</v>
+      </c>
+      <c r="C941">
+        <v>47.9888668823242</v>
+      </c>
+      <c r="D941">
+        <v>27.4198404693603</v>
+      </c>
+      <c r="E941">
+        <v>1.75015120660342</v>
+      </c>
+      <c r="F941">
+        <v>15.8040433972044</v>
+      </c>
+      <c r="G941">
+        <v>1.03</v>
+      </c>
+      <c r="H941">
+        <v>8.38635295262436</v>
+      </c>
+    </row>
+    <row r="942" spans="1:8">
+      <c r="A942">
+        <v>4311</v>
+      </c>
+      <c r="B942">
+        <v>254.505859115538</v>
+      </c>
+      <c r="C942">
+        <v>45.9043550109863</v>
+      </c>
+      <c r="D942">
+        <v>34.7189520263672</v>
+      </c>
+      <c r="E942">
+        <v>1.32216994845134</v>
+      </c>
+      <c r="F942">
+        <v>16.9387063031933</v>
+      </c>
+      <c r="G942">
+        <v>1.01</v>
+      </c>
+      <c r="H942">
+        <v>16.1428147903715</v>
+      </c>
+    </row>
+    <row r="943" spans="1:8">
+      <c r="A943">
+        <v>4059</v>
+      </c>
+      <c r="B943">
+        <v>245.182408398667</v>
+      </c>
+      <c r="C943">
+        <v>44.8279531860352</v>
+      </c>
+      <c r="D943">
+        <v>32.744779510498</v>
+      </c>
+      <c r="E943">
+        <v>1.36901068983113</v>
+      </c>
+      <c r="F943">
+        <v>16.5550213268158</v>
+      </c>
+      <c r="G943">
+        <v>1.23</v>
+      </c>
+      <c r="H943">
+        <v>13.6113712150337</v>
+      </c>
+    </row>
+    <row r="944" spans="1:8">
+      <c r="A944">
+        <v>5482</v>
+      </c>
+      <c r="B944">
+        <v>294.093709761988</v>
+      </c>
+      <c r="C944">
+        <v>58.4183786010742</v>
+      </c>
+      <c r="D944">
+        <v>33.4975508117676</v>
+      </c>
+      <c r="E944">
+        <v>1.7439596981088</v>
+      </c>
+      <c r="F944">
+        <v>18.64031707593</v>
+      </c>
+      <c r="G944">
+        <v>1.72</v>
+      </c>
+      <c r="H944">
+        <v>12.1433163361168</v>
+      </c>
+    </row>
+    <row r="945" spans="1:8">
+      <c r="A945">
+        <v>3924</v>
+      </c>
+      <c r="B945">
+        <v>243.353176152169</v>
+      </c>
+      <c r="C945">
+        <v>47.8937799072266</v>
+      </c>
+      <c r="D945">
+        <v>28.3035397338867</v>
+      </c>
+      <c r="E945">
+        <v>1.69214806195726</v>
+      </c>
+      <c r="F945">
+        <v>16.124712494183</v>
+      </c>
+      <c r="G945">
+        <v>0.98</v>
+      </c>
+      <c r="H945">
+        <v>8.52773550649061</v>
+      </c>
+    </row>
+    <row r="946" spans="1:8">
+      <c r="A946">
+        <v>6859</v>
+      </c>
+      <c r="B946">
+        <v>302.638892750505</v>
+      </c>
+      <c r="C946">
+        <v>53.1811056518555</v>
+      </c>
+      <c r="D946">
+        <v>42.8752168273926</v>
+      </c>
+      <c r="E946">
+        <v>1.24036936923147</v>
+      </c>
+      <c r="F946">
+        <v>22.6639740109495</v>
+      </c>
+      <c r="G946">
+        <v>1.84</v>
+      </c>
+      <c r="H946">
+        <v>4.43660883850684</v>
+      </c>
+    </row>
+    <row r="947" spans="1:8">
+      <c r="A947">
+        <v>5493</v>
+      </c>
+      <c r="B947">
+        <v>285.305397438345</v>
+      </c>
+      <c r="C947">
+        <v>55.9536872863769</v>
+      </c>
+      <c r="D947">
+        <v>33.4384434509277</v>
+      </c>
+      <c r="E947">
+        <v>1.67333408830741</v>
+      </c>
+      <c r="F947">
+        <v>19.2530532170778</v>
+      </c>
+      <c r="G947">
+        <v>1.86</v>
+      </c>
+      <c r="H947">
+        <v>7.00770208092899</v>
+      </c>
+    </row>
+    <row r="948" spans="1:8">
+      <c r="A948">
+        <v>4987</v>
+      </c>
+      <c r="B948">
+        <v>262.974141953079</v>
+      </c>
+      <c r="C948">
+        <v>48.0731971740723</v>
+      </c>
+      <c r="D948">
+        <v>35.1299380493164</v>
+      </c>
+      <c r="E948">
+        <v>1.3684395658935</v>
+      </c>
+      <c r="F948">
+        <v>18.9638417030744</v>
+      </c>
+      <c r="G948">
+        <v>1.44</v>
+      </c>
+      <c r="H948">
+        <v>6.38757136341324</v>
+      </c>
+    </row>
+    <row r="949" spans="1:8">
+      <c r="A949">
+        <v>5413</v>
+      </c>
+      <c r="B949">
+        <v>292.219017526346</v>
+      </c>
+      <c r="C949">
+        <v>58.1799101257324</v>
+      </c>
+      <c r="D949">
+        <v>33.1063619995117</v>
+      </c>
+      <c r="E949">
+        <v>1.75736343747436</v>
+      </c>
+      <c r="F949">
+        <v>18.5237772880814</v>
+      </c>
+      <c r="G949">
+        <v>1.57</v>
+      </c>
+      <c r="H949">
+        <v>11.7882998434373</v>
+      </c>
+    </row>
+    <row r="950" spans="1:8">
+      <c r="A950">
+        <v>5791</v>
+      </c>
+      <c r="B950">
+        <v>290.259266323776</v>
+      </c>
+      <c r="C950">
+        <v>55.5145373535156</v>
+      </c>
+      <c r="D950">
+        <v>35.8121188354492</v>
+      </c>
+      <c r="E950">
+        <v>1.55016064837146</v>
+      </c>
+      <c r="F950">
+        <v>19.9511287730615</v>
+      </c>
+      <c r="G950">
+        <v>1.64</v>
+      </c>
+      <c r="H950">
+        <v>7.85320358167792</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8">
+      <c r="A951">
+        <v>4667</v>
+      </c>
+      <c r="B951">
+        <v>258.893337162779</v>
+      </c>
+      <c r="C951">
+        <v>47.754300994873</v>
+      </c>
+      <c r="D951">
+        <v>34.0819493103027</v>
+      </c>
+      <c r="E951">
+        <v>1.40116108266252</v>
+      </c>
+      <c r="F951">
+        <v>18.0267288882202</v>
+      </c>
+      <c r="G951">
+        <v>1.25</v>
+      </c>
+      <c r="H951">
+        <v>9.55923483036008</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8">
+      <c r="A952">
+        <v>4994</v>
+      </c>
+      <c r="B952">
+        <v>275.482215710603</v>
+      </c>
+      <c r="C952">
+        <v>53.4713290405273</v>
+      </c>
+      <c r="D952">
+        <v>33.001739654541</v>
+      </c>
+      <c r="E952">
+        <v>1.62025788944037</v>
+      </c>
+      <c r="F952">
+        <v>18.1282119686675</v>
+      </c>
+      <c r="G952">
+        <v>1.67</v>
+      </c>
+      <c r="H952">
+        <v>11.0092445798628</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8">
+      <c r="A953">
+        <v>5272</v>
+      </c>
+      <c r="B953">
+        <v>279.785865931689</v>
+      </c>
+      <c r="C953">
+        <v>53.5096319580078</v>
+      </c>
+      <c r="D953">
+        <v>34.5221310424805</v>
+      </c>
+      <c r="E953">
+        <v>1.55000952554646</v>
+      </c>
+      <c r="F953">
+        <v>18.8429818727412</v>
+      </c>
+      <c r="G953">
+        <v>1.58</v>
+      </c>
+      <c r="H953">
+        <v>10.0788874969831</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8">
+      <c r="A954">
+        <v>5374</v>
+      </c>
+      <c r="B954">
+        <v>283.68117069561</v>
+      </c>
+      <c r="C954">
+        <v>56.0075970458984</v>
+      </c>
+      <c r="D954">
+        <v>32.7626429748535</v>
+      </c>
+      <c r="E954">
+        <v>1.70949569266699</v>
+      </c>
+      <c r="F954">
+        <v>18.9438022510359</v>
+      </c>
+      <c r="G954">
+        <v>1.58</v>
+      </c>
+      <c r="H954">
+        <v>7.26995041330805</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8">
+      <c r="A955">
+        <v>5197</v>
+      </c>
+      <c r="B955">
+        <v>278.15155817789</v>
+      </c>
+      <c r="C955">
+        <v>54.0349125671387</v>
+      </c>
+      <c r="D955">
+        <v>33.2635113525391</v>
+      </c>
+      <c r="E955">
+        <v>1.62445004661284</v>
+      </c>
+      <c r="F955">
+        <v>18.6840585544241</v>
+      </c>
+      <c r="G955">
+        <v>1.39</v>
+      </c>
+      <c r="H955">
+        <v>8.65249439695989</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8">
+      <c r="A956">
+        <v>5158</v>
+      </c>
+      <c r="B956">
+        <v>275.711851616034</v>
+      </c>
+      <c r="C956">
+        <v>52.6732884216309</v>
+      </c>
+      <c r="D956">
+        <v>34.0906704711914</v>
+      </c>
+      <c r="E956">
+        <v>1.54509394193766</v>
+      </c>
+      <c r="F956">
+        <v>18.7079371806737</v>
+      </c>
+      <c r="G956">
+        <v>1.52</v>
+      </c>
+      <c r="H956">
+        <v>9.36906769746469</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8">
+      <c r="A957">
+        <v>3492</v>
+      </c>
+      <c r="B957">
+        <v>231.282616522213</v>
+      </c>
+      <c r="C957">
+        <v>43.1758213806152</v>
+      </c>
+      <c r="D957">
+        <v>29.8328031921387</v>
+      </c>
+      <c r="E957">
+        <v>1.44725995416993</v>
+      </c>
+      <c r="F957">
+        <v>15.0984109939132</v>
+      </c>
+      <c r="G957">
+        <v>0.81</v>
+      </c>
+      <c r="H957">
+        <v>15.880486307341</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8">
+      <c r="A958">
+        <v>5982</v>
+      </c>
+      <c r="B958">
+        <v>292.012804920759</v>
+      </c>
+      <c r="C958">
+        <v>55.4437397766113</v>
+      </c>
+      <c r="D958">
+        <v>36.5321112060547</v>
+      </c>
+      <c r="E958">
+        <v>1.51767138405684</v>
+      </c>
+      <c r="F958">
+        <v>20.4854030343748</v>
+      </c>
+      <c r="G958">
+        <v>1.94</v>
+      </c>
+      <c r="H958">
+        <v>6.37283928464688</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8">
+      <c r="A959">
+        <v>4661</v>
+      </c>
+      <c r="B959">
+        <v>255.402691927297</v>
+      </c>
+      <c r="C959">
+        <v>48.6563041687012</v>
+      </c>
+      <c r="D959">
+        <v>31.7497108459473</v>
+      </c>
+      <c r="E959">
+        <v>1.53249597783068</v>
+      </c>
+      <c r="F959">
+        <v>18.2496118769445</v>
+      </c>
+      <c r="G959">
+        <v>1.44</v>
+      </c>
+      <c r="H959">
+        <v>4.12371670770027</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8">
+      <c r="A960">
+        <v>5026</v>
+      </c>
+      <c r="B960">
+        <v>265.572599469523</v>
+      </c>
+      <c r="C960">
+        <v>50.3097169494629</v>
+      </c>
+      <c r="D960">
+        <v>33.3645504760742</v>
+      </c>
+      <c r="E960">
+        <v>1.50787935792931</v>
+      </c>
+      <c r="F960">
+        <v>18.9251451770226</v>
+      </c>
+      <c r="G960">
+        <v>1.68</v>
+      </c>
+      <c r="H960">
+        <v>4.92151195428457</v>
+      </c>
+    </row>
+    <row r="961" spans="1:8">
+      <c r="A961">
+        <v>3923</v>
+      </c>
+      <c r="B961">
+        <v>245.840371005826</v>
+      </c>
+      <c r="C961">
+        <v>48.225422668457</v>
+      </c>
+      <c r="D961">
+        <v>28.7980646514893</v>
+      </c>
+      <c r="E961">
+        <v>1.67460637553514</v>
+      </c>
+      <c r="F961">
+        <v>15.9575092729869</v>
+      </c>
+      <c r="G961">
+        <v>1.03</v>
+      </c>
+      <c r="H961">
+        <v>11.2169317510039</v>
+      </c>
+    </row>
+    <row r="962" spans="1:8">
+      <c r="A962">
+        <v>6437</v>
+      </c>
+      <c r="B962">
+        <v>299.157958309251</v>
+      </c>
+      <c r="C962">
+        <v>53.11427734375</v>
+      </c>
+      <c r="D962">
+        <v>41.7713635253906</v>
+      </c>
+      <c r="E962">
+        <v>1.27154760728518</v>
+      </c>
+      <c r="F962">
+        <v>21.5170608743954</v>
+      </c>
+      <c r="G962">
+        <v>2.01</v>
+      </c>
+      <c r="H962">
+        <v>8.282005938648</v>
+      </c>
+    </row>
+    <row r="963" spans="1:8">
+      <c r="A963">
+        <v>3968</v>
+      </c>
+      <c r="B963">
+        <v>240.322259489754</v>
+      </c>
+      <c r="C963">
+        <v>44.0150427246094</v>
+      </c>
+      <c r="D963">
+        <v>32.0069833374024</v>
+      </c>
+      <c r="E963">
+        <v>1.37516998276982</v>
+      </c>
+      <c r="F963">
+        <v>16.5111630043124</v>
+      </c>
+      <c r="G963">
+        <v>0.96</v>
+      </c>
+      <c r="H963">
+        <v>11.5383153517858</v>
+      </c>
+    </row>
+    <row r="964" spans="1:8">
+      <c r="A964">
+        <v>5262</v>
+      </c>
+      <c r="B964">
+        <v>273.561535732781</v>
+      </c>
+      <c r="C964">
+        <v>50.7967051696777</v>
+      </c>
+      <c r="D964">
+        <v>35.6122621154785</v>
+      </c>
+      <c r="E964">
+        <v>1.42638243549262</v>
+      </c>
+      <c r="F964">
+        <v>19.2351603302154</v>
+      </c>
+      <c r="G964">
+        <v>1.42</v>
+      </c>
+      <c r="H964">
+        <v>8.00258087736447</v>
+      </c>
+    </row>
+    <row r="965" spans="1:8">
+      <c r="A965">
+        <v>3732</v>
+      </c>
+      <c r="B965">
+        <v>253.753360210852</v>
+      </c>
+      <c r="C965">
+        <v>52.1766314697266</v>
+      </c>
+      <c r="D965">
+        <v>26.4832825469971</v>
+      </c>
+      <c r="E965">
+        <v>1.97017236730886</v>
+      </c>
+      <c r="F965">
+        <v>14.707194406801</v>
+      </c>
+      <c r="G965">
+        <v>1</v>
+      </c>
+      <c r="H965">
+        <v>16.3204541590197</v>
+      </c>
+    </row>
+    <row r="966" spans="1:8">
+      <c r="A966">
+        <v>5638</v>
+      </c>
+      <c r="B966">
+        <v>277.270284822058</v>
+      </c>
+      <c r="C966">
+        <v>49.5762199401856</v>
+      </c>
+      <c r="D966">
+        <v>38.3209739685059</v>
+      </c>
+      <c r="E966">
+        <v>1.29370980969664</v>
+      </c>
+      <c r="F966">
+        <v>20.333949610281</v>
+      </c>
+      <c r="G966">
+        <v>1.64</v>
+      </c>
+      <c r="H966">
+        <v>5.86069712241507</v>
+      </c>
+    </row>
+    <row r="967" spans="1:8">
+      <c r="A967">
+        <v>3718</v>
+      </c>
+      <c r="B967">
+        <v>250.92219115386</v>
+      </c>
+      <c r="C967">
+        <v>51.8559700012207</v>
+      </c>
+      <c r="D967">
+        <v>25.8172245025635</v>
+      </c>
+      <c r="E967">
+        <v>2.00858035673322</v>
+      </c>
+      <c r="F967">
+        <v>14.8173423119847</v>
+      </c>
+      <c r="G967">
+        <v>0.9</v>
+      </c>
+      <c r="H967">
+        <v>13.1224496236734</v>
+      </c>
+    </row>
+    <row r="968" spans="1:8">
+      <c r="A968">
+        <v>4114</v>
+      </c>
+      <c r="B968">
+        <v>246.287627441795</v>
+      </c>
+      <c r="C968">
+        <v>47.9613171386719</v>
+      </c>
+      <c r="D968">
+        <v>29.3040411376953</v>
+      </c>
+      <c r="E968">
+        <v>1.63667928642704</v>
+      </c>
+      <c r="F968">
+        <v>16.7040465764861</v>
+      </c>
+      <c r="G968">
+        <v>1.02</v>
+      </c>
+      <c r="H968">
+        <v>7.32581673262149</v>
+      </c>
+    </row>
+    <row r="969" spans="1:8">
+      <c r="A969">
+        <v>5268</v>
+      </c>
+      <c r="B969">
+        <v>271.833892347067</v>
+      </c>
+      <c r="C969">
+        <v>50.4691264343262</v>
+      </c>
+      <c r="D969">
+        <v>35.3954579162598</v>
+      </c>
+      <c r="E969">
+        <v>1.42586448672958</v>
+      </c>
+      <c r="F969">
+        <v>19.3794819127043</v>
+      </c>
+      <c r="G969">
+        <v>1.42</v>
+      </c>
+      <c r="H969">
+        <v>6.53134967956183</v>
+      </c>
+    </row>
+    <row r="970" spans="1:8">
+      <c r="A970">
+        <v>4927</v>
+      </c>
+      <c r="B970">
+        <v>267.830808961911</v>
+      </c>
+      <c r="C970">
+        <v>51.7127464294434</v>
+      </c>
+      <c r="D970">
+        <v>32.4323583984375</v>
+      </c>
+      <c r="E970">
+        <v>1.59447998798431</v>
+      </c>
+      <c r="F970">
+        <v>18.3959418974114</v>
+      </c>
+      <c r="G970">
+        <v>1.2</v>
+      </c>
+      <c r="H970">
+        <v>6.94080390718131</v>
+      </c>
+    </row>
+    <row r="971" spans="1:8">
+      <c r="A971">
+        <v>4659</v>
+      </c>
+      <c r="B971">
+        <v>258.041811990941</v>
+      </c>
+      <c r="C971">
+        <v>50.031745300293</v>
+      </c>
+      <c r="D971">
+        <v>30.9817327880859</v>
+      </c>
+      <c r="E971">
+        <v>1.61487885918159</v>
+      </c>
+      <c r="F971">
+        <v>18.0552134712322</v>
+      </c>
+      <c r="G971">
+        <v>1.32</v>
+      </c>
+      <c r="H971">
+        <v>4.52219444496072</v>
+      </c>
+    </row>
+    <row r="972" spans="1:8">
+      <c r="A972">
+        <v>3726</v>
+      </c>
+      <c r="B972">
+        <v>254.841669487154</v>
+      </c>
+      <c r="C972">
+        <v>53.3457969665527</v>
+      </c>
+      <c r="D972">
+        <v>25.2392817687988</v>
+      </c>
+      <c r="E972">
+        <v>2.11360202145291</v>
+      </c>
+      <c r="F972">
+        <v>14.6208428452782</v>
+      </c>
+      <c r="G972">
+        <v>1.08</v>
+      </c>
+      <c r="H972">
+        <v>13.523094757347</v>
       </c>
     </row>
   </sheetData>

--- a/核桃仁表型信息.xlsx
+++ b/核桃仁表型信息.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y972"/>
+  <dimension ref="A1:Y973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75327,6 +75327,32 @@
         <v>1.129675439168995</v>
       </c>
     </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>11554</v>
+      </c>
+      <c r="B973" t="n">
+        <v>395.9925084534993</v>
+      </c>
+      <c r="C973" t="n">
+        <v>72.3213900756836</v>
+      </c>
+      <c r="D973" t="n">
+        <v>52.97939590454101</v>
+      </c>
+      <c r="E973" t="n">
+        <v>1.365085215505161</v>
+      </c>
+      <c r="F973" t="n">
+        <v>29.17731965466404</v>
+      </c>
+      <c r="G973" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H973" t="n">
+        <v>4.181660820201224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
